--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,9 @@
       <c r="IC1" t="n">
         <v>10326</v>
       </c>
+      <c r="ID1" t="n">
+        <v>10330</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1782,6 +1785,9 @@
       <c r="IC2" t="n">
         <v>2020</v>
       </c>
+      <c r="ID2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2497,6 +2503,9 @@
       <c r="IC3" t="n">
         <v>28</v>
       </c>
+      <c r="ID3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3212,6 +3221,9 @@
       <c r="IC4" t="n">
         <v>1</v>
       </c>
+      <c r="ID4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3927,6 +3939,9 @@
       <c r="IC5" t="n">
         <v>0</v>
       </c>
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4642,6 +4657,9 @@
       <c r="IC6" t="n">
         <v>50</v>
       </c>
+      <c r="ID6" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5357,6 +5375,9 @@
       <c r="IC7" t="n">
         <v>81</v>
       </c>
+      <c r="ID7" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6072,6 +6093,9 @@
       <c r="IC8" t="n">
         <v>-31</v>
       </c>
+      <c r="ID8" t="n">
+        <v>-12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6787,6 +6811,9 @@
       <c r="IC9" t="n">
         <v>0</v>
       </c>
+      <c r="ID9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7502,6 +7529,9 @@
       <c r="IC10" t="n">
         <v>14</v>
       </c>
+      <c r="ID10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8217,6 +8247,9 @@
       <c r="IC11" t="n">
         <v>161</v>
       </c>
+      <c r="ID11" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8932,6 +8965,9 @@
       <c r="IC12" t="n">
         <v>113</v>
       </c>
+      <c r="ID12" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9647,6 +9683,9 @@
       <c r="IC13" t="n">
         <v>274</v>
       </c>
+      <c r="ID13" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10362,6 +10401,9 @@
       <c r="IC14" t="n">
         <v>1.42</v>
       </c>
+      <c r="ID14" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11077,6 +11119,9 @@
       <c r="IC15" t="n">
         <v>51</v>
       </c>
+      <c r="ID15" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11792,6 +11837,9 @@
       <c r="IC16" t="n">
         <v>51</v>
       </c>
+      <c r="ID16" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12507,6 +12555,9 @@
       <c r="IC17" t="n">
         <v>43</v>
       </c>
+      <c r="ID17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13222,6 +13273,9 @@
       <c r="IC18" t="n">
         <v>16</v>
       </c>
+      <c r="ID18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13937,6 +13991,9 @@
       <c r="IC19" t="n">
         <v>11</v>
       </c>
+      <c r="ID19" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14652,6 +14709,9 @@
       <c r="IC20" t="n">
         <v>7</v>
       </c>
+      <c r="ID20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15367,6 +15427,9 @@
       <c r="IC21" t="n">
         <v>6</v>
       </c>
+      <c r="ID21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16082,6 +16145,9 @@
       <c r="IC22" t="n">
         <v>7</v>
       </c>
+      <c r="ID22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16797,6 +16863,9 @@
       <c r="IC23" t="n">
         <v>1</v>
       </c>
+      <c r="ID23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17512,6 +17581,9 @@
       <c r="IC24" t="n">
         <v>15</v>
       </c>
+      <c r="ID24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18227,6 +18299,9 @@
       <c r="IC25" t="n">
         <v>46.7</v>
       </c>
+      <c r="ID25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18942,6 +19017,9 @@
       <c r="IC26" t="n">
         <v>39.14</v>
       </c>
+      <c r="ID26" t="n">
+        <v>26.85</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19657,6 +19735,9 @@
       <c r="IC27" t="n">
         <v>18.27</v>
       </c>
+      <c r="ID27" t="n">
+        <v>13.42</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20372,6 +20453,9 @@
       <c r="IC28" t="n">
         <v>36</v>
       </c>
+      <c r="ID28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21087,6 +21171,9 @@
       <c r="IC29" t="n">
         <v>50</v>
       </c>
+      <c r="ID29" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21802,6 +21889,9 @@
       <c r="IC30" t="n">
         <v>35</v>
       </c>
+      <c r="ID30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22517,6 +22607,9 @@
       <c r="IC31" t="n">
         <v>40</v>
       </c>
+      <c r="ID31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23232,6 +23325,9 @@
       <c r="IC32" t="n">
         <v>2.67</v>
       </c>
+      <c r="ID32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23947,6 +24043,9 @@
       <c r="IC33" t="n">
         <v>5.71</v>
       </c>
+      <c r="ID33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24662,6 +24761,9 @@
       <c r="IC34" t="n">
         <v>35</v>
       </c>
+      <c r="ID34" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25377,6 +25479,9 @@
       <c r="IC35" t="n">
         <v>17.5</v>
       </c>
+      <c r="ID35" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26092,6 +26197,9 @@
       <c r="IC36" t="n">
         <v>188.6</v>
       </c>
+      <c r="ID36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26807,6 +26915,9 @@
       <c r="IC37" t="n">
         <v>89.3</v>
       </c>
+      <c r="ID37" t="n">
+        <v>88.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27522,6 +27633,9 @@
       <c r="IC38" t="n">
         <v>28.33</v>
       </c>
+      <c r="ID38" t="n">
+        <v>27.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28237,6 +28351,9 @@
       <c r="IC39" t="n">
         <v>162.9</v>
       </c>
+      <c r="ID39" t="n">
+        <v>136.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28952,6 +29069,9 @@
       <c r="IC40" t="n">
         <v>2</v>
       </c>
+      <c r="ID40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29667,6 +29787,9 @@
       <c r="IC41" t="n">
         <v>5</v>
       </c>
+      <c r="ID41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30382,6 +30505,9 @@
       <c r="IC42" t="n">
         <v>4</v>
       </c>
+      <c r="ID42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31097,6 +31223,9 @@
       <c r="IC43" t="n">
         <v>11</v>
       </c>
+      <c r="ID43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31812,6 +31941,9 @@
       <c r="IC44" t="n">
         <v>124</v>
       </c>
+      <c r="ID44" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32527,6 +32659,9 @@
       <c r="IC45" t="n">
         <v>145</v>
       </c>
+      <c r="ID45" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33242,6 +33377,9 @@
       <c r="IC46" t="n">
         <v>169</v>
       </c>
+      <c r="ID46" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33957,6 +34095,9 @@
       <c r="IC47" t="n">
         <v>61.7</v>
       </c>
+      <c r="ID47" t="n">
+        <v>76.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34672,6 +34813,9 @@
       <c r="IC48" t="n">
         <v>50</v>
       </c>
+      <c r="ID48" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35387,6 +35531,9 @@
       <c r="IC49" t="n">
         <v>4</v>
       </c>
+      <c r="ID49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36102,6 +36249,9 @@
       <c r="IC50" t="n">
         <v>9</v>
       </c>
+      <c r="ID50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36817,6 +36967,9 @@
       <c r="IC51" t="n">
         <v>36</v>
       </c>
+      <c r="ID51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37532,6 +37685,9 @@
       <c r="IC52" t="n">
         <v>35</v>
       </c>
+      <c r="ID52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38247,6 +38403,9 @@
       <c r="IC53" t="n">
         <v>56</v>
       </c>
+      <c r="ID53" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38962,6 +39121,9 @@
       <c r="IC54" t="n">
         <v>1</v>
       </c>
+      <c r="ID54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39677,6 +39839,9 @@
       <c r="IC55" t="n">
         <v>6</v>
       </c>
+      <c r="ID55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40392,6 +40557,9 @@
       <c r="IC56" t="n">
         <v>85.7</v>
       </c>
+      <c r="ID56" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41107,6 +41275,9 @@
       <c r="IC57" t="n">
         <v>174</v>
       </c>
+      <c r="ID57" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41822,6 +41993,9 @@
       <c r="IC58" t="n">
         <v>104</v>
       </c>
+      <c r="ID58" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42537,6 +42711,9 @@
       <c r="IC59" t="n">
         <v>278</v>
       </c>
+      <c r="ID59" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43252,6 +43429,9 @@
       <c r="IC60" t="n">
         <v>1.67</v>
       </c>
+      <c r="ID60" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43967,6 +44147,9 @@
       <c r="IC61" t="n">
         <v>36</v>
       </c>
+      <c r="ID61" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44682,6 +44865,9 @@
       <c r="IC62" t="n">
         <v>73</v>
       </c>
+      <c r="ID62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45397,6 +45583,9 @@
       <c r="IC63" t="n">
         <v>27</v>
       </c>
+      <c r="ID63" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46112,6 +46301,9 @@
       <c r="IC64" t="n">
         <v>11</v>
       </c>
+      <c r="ID64" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46827,6 +47019,9 @@
       <c r="IC65" t="n">
         <v>16</v>
       </c>
+      <c r="ID65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47542,6 +47737,9 @@
       <c r="IC66" t="n">
         <v>12</v>
       </c>
+      <c r="ID66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48257,6 +48455,9 @@
       <c r="IC67" t="n">
         <v>10</v>
       </c>
+      <c r="ID67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48972,6 +49173,9 @@
       <c r="IC68" t="n">
         <v>6</v>
       </c>
+      <c r="ID68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49687,6 +49891,9 @@
       <c r="IC69" t="n">
         <v>3</v>
       </c>
+      <c r="ID69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50402,6 +50609,9 @@
       <c r="IC70" t="n">
         <v>21</v>
       </c>
+      <c r="ID70" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51117,6 +51327,9 @@
       <c r="IC71" t="n">
         <v>57.1</v>
       </c>
+      <c r="ID71" t="n">
+        <v>53.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51832,6 +52045,9 @@
       <c r="IC72" t="n">
         <v>23.17</v>
       </c>
+      <c r="ID72" t="n">
+        <v>21.13</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52547,6 +52763,9 @@
       <c r="IC73" t="n">
         <v>13.24</v>
       </c>
+      <c r="ID73" t="n">
+        <v>11.32</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53262,6 +53481,9 @@
       <c r="IC74" t="n">
         <v>40</v>
       </c>
+      <c r="ID74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53977,6 +54199,9 @@
       <c r="IC75" t="n">
         <v>59</v>
       </c>
+      <c r="ID75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54692,6 +54917,9 @@
       <c r="IC76" t="n">
         <v>33</v>
       </c>
+      <c r="ID76" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55407,6 +55635,9 @@
       <c r="IC77" t="n">
         <v>49</v>
       </c>
+      <c r="ID77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56122,6 +56353,9 @@
       <c r="IC78" t="n">
         <v>2.33</v>
       </c>
+      <c r="ID78" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56837,6 +57071,9 @@
       <c r="IC79" t="n">
         <v>4.08</v>
       </c>
+      <c r="ID79" t="n">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57552,6 +57789,9 @@
       <c r="IC80" t="n">
         <v>36.7</v>
       </c>
+      <c r="ID80" t="n">
+        <v>54.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58267,6 +58507,9 @@
       <c r="IC81" t="n">
         <v>24.5</v>
       </c>
+      <c r="ID81" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58982,6 +59225,9 @@
       <c r="IC82" t="n">
         <v>185.5</v>
       </c>
+      <c r="ID82" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59697,6 +59943,9 @@
       <c r="IC83" t="n">
         <v>86.2</v>
       </c>
+      <c r="ID83" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60412,6 +60661,9 @@
       <c r="IC84" t="n">
         <v>27.8</v>
       </c>
+      <c r="ID84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61127,6 +61379,9 @@
       <c r="IC85" t="n">
         <v>133</v>
       </c>
+      <c r="ID85" t="n">
+        <v>66.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61842,6 +62097,9 @@
       <c r="IC86" t="n">
         <v>4</v>
       </c>
+      <c r="ID86" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62557,6 +62815,9 @@
       <c r="IC87" t="n">
         <v>6</v>
       </c>
+      <c r="ID87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63272,6 +63533,9 @@
       <c r="IC88" t="n">
         <v>3</v>
       </c>
+      <c r="ID88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63987,6 +64251,9 @@
       <c r="IC89" t="n">
         <v>9</v>
       </c>
+      <c r="ID89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64702,6 +64969,9 @@
       <c r="IC90" t="n">
         <v>124</v>
       </c>
+      <c r="ID90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65417,6 +65687,9 @@
       <c r="IC91" t="n">
         <v>128</v>
       </c>
+      <c r="ID91" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66132,6 +66405,9 @@
       <c r="IC92" t="n">
         <v>173</v>
       </c>
+      <c r="ID92" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66847,6 +67123,9 @@
       <c r="IC93" t="n">
         <v>62.2</v>
       </c>
+      <c r="ID93" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67562,6 +67841,9 @@
       <c r="IC94" t="n">
         <v>59</v>
       </c>
+      <c r="ID94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68277,6 +68559,9 @@
       <c r="IC95" t="n">
         <v>5</v>
       </c>
+      <c r="ID95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68992,6 +69277,9 @@
       <c r="IC96" t="n">
         <v>8</v>
       </c>
+      <c r="ID96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69707,6 +69995,9 @@
       <c r="IC97" t="n">
         <v>40</v>
       </c>
+      <c r="ID97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70422,6 +70713,9 @@
       <c r="IC98" t="n">
         <v>33</v>
       </c>
+      <c r="ID98" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71137,6 +71431,9 @@
       <c r="IC99" t="n">
         <v>52</v>
       </c>
+      <c r="ID99" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71852,6 +72149,9 @@
       <c r="IC100" t="n">
         <v>2</v>
       </c>
+      <c r="ID100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72567,6 +72867,9 @@
       <c r="IC101" t="n">
         <v>10</v>
       </c>
+      <c r="ID101" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73282,8 +73585,11 @@
       <c r="IC102" t="n">
         <v>83.3</v>
       </c>
+      <c r="ID102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,6 +1070,9 @@
       <c r="ID1" t="n">
         <v>10330</v>
       </c>
+      <c r="IE1" t="n">
+        <v>10337</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1788,6 +1791,9 @@
       <c r="ID2" t="n">
         <v>2021</v>
       </c>
+      <c r="IE2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2506,6 +2512,9 @@
       <c r="ID3" t="n">
         <v>1</v>
       </c>
+      <c r="IE3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3224,6 +3233,9 @@
       <c r="ID4" t="n">
         <v>1</v>
       </c>
+      <c r="IE4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3942,6 +3954,9 @@
       <c r="ID5" t="n">
         <v>0</v>
       </c>
+      <c r="IE5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4660,6 +4675,9 @@
       <c r="ID6" t="n">
         <v>91</v>
       </c>
+      <c r="IE6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5378,6 +5396,9 @@
       <c r="ID7" t="n">
         <v>103</v>
       </c>
+      <c r="IE7" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6096,6 +6117,9 @@
       <c r="ID8" t="n">
         <v>-12</v>
       </c>
+      <c r="IE8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6814,6 +6838,9 @@
       <c r="ID9" t="n">
         <v>0</v>
       </c>
+      <c r="IE9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7532,6 +7559,9 @@
       <c r="ID10" t="n">
         <v>1</v>
       </c>
+      <c r="IE10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8250,6 +8280,9 @@
       <c r="ID11" t="n">
         <v>195</v>
       </c>
+      <c r="IE11" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8968,6 +9001,9 @@
       <c r="ID12" t="n">
         <v>154</v>
       </c>
+      <c r="IE12" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9686,6 +9722,9 @@
       <c r="ID13" t="n">
         <v>349</v>
       </c>
+      <c r="IE13" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10404,6 +10443,9 @@
       <c r="ID14" t="n">
         <v>1.27</v>
       </c>
+      <c r="IE14" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11122,6 +11164,9 @@
       <c r="ID15" t="n">
         <v>80</v>
       </c>
+      <c r="IE15" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11840,6 +11885,9 @@
       <c r="ID16" t="n">
         <v>59</v>
       </c>
+      <c r="IE16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12558,6 +12606,9 @@
       <c r="ID17" t="n">
         <v>31</v>
       </c>
+      <c r="IE17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13276,6 +13327,9 @@
       <c r="ID18" t="n">
         <v>15</v>
       </c>
+      <c r="IE18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13994,6 +14048,9 @@
       <c r="ID19" t="n">
         <v>31</v>
       </c>
+      <c r="IE19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14712,6 +14769,9 @@
       <c r="ID20" t="n">
         <v>13</v>
       </c>
+      <c r="IE20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15430,6 +15490,9 @@
       <c r="ID21" t="n">
         <v>10</v>
       </c>
+      <c r="IE21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16148,6 +16211,9 @@
       <c r="ID22" t="n">
         <v>11</v>
       </c>
+      <c r="IE22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16866,6 +16932,9 @@
       <c r="ID23" t="n">
         <v>2</v>
       </c>
+      <c r="IE23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17584,6 +17653,9 @@
       <c r="ID24" t="n">
         <v>26</v>
       </c>
+      <c r="IE24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18302,6 +18374,9 @@
       <c r="ID25" t="n">
         <v>50</v>
       </c>
+      <c r="IE25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19020,6 +19095,9 @@
       <c r="ID26" t="n">
         <v>26.85</v>
       </c>
+      <c r="IE26" t="n">
+        <v>31.58</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19738,6 +19816,9 @@
       <c r="ID27" t="n">
         <v>13.42</v>
       </c>
+      <c r="IE27" t="n">
+        <v>18.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20456,6 +20537,9 @@
       <c r="ID28" t="n">
         <v>38</v>
       </c>
+      <c r="IE28" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21174,6 +21258,9 @@
       <c r="ID29" t="n">
         <v>60</v>
       </c>
+      <c r="IE29" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21892,6 +21979,9 @@
       <c r="ID30" t="n">
         <v>35</v>
       </c>
+      <c r="IE30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22610,6 +22700,9 @@
       <c r="ID31" t="n">
         <v>52</v>
       </c>
+      <c r="IE31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23328,6 +23421,9 @@
       <c r="ID32" t="n">
         <v>2</v>
       </c>
+      <c r="IE32" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24046,6 +24142,9 @@
       <c r="ID33" t="n">
         <v>4</v>
       </c>
+      <c r="IE33" t="n">
+        <v>3.92</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24764,6 +24863,9 @@
       <c r="ID34" t="n">
         <v>46.2</v>
       </c>
+      <c r="IE34" t="n">
+        <v>44.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25482,6 +25584,9 @@
       <c r="ID35" t="n">
         <v>25</v>
       </c>
+      <c r="IE35" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26200,6 +26305,9 @@
       <c r="ID36" t="n">
         <v>188.7</v>
       </c>
+      <c r="IE36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26918,6 +27026,9 @@
       <c r="ID37" t="n">
         <v>88.8</v>
       </c>
+      <c r="IE37" t="n">
+        <v>88.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27636,6 +27747,9 @@
       <c r="ID38" t="n">
         <v>27.91</v>
       </c>
+      <c r="IE38" t="n">
+        <v>27.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28354,6 +28468,9 @@
       <c r="ID39" t="n">
         <v>136.6</v>
       </c>
+      <c r="IE39" t="n">
+        <v>132.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29072,6 +29189,9 @@
       <c r="ID40" t="n">
         <v>5</v>
       </c>
+      <c r="IE40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29790,6 +29910,9 @@
       <c r="ID41" t="n">
         <v>4</v>
       </c>
+      <c r="IE41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30508,6 +30631,9 @@
       <c r="ID42" t="n">
         <v>5</v>
       </c>
+      <c r="IE42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31226,6 +31352,9 @@
       <c r="ID43" t="n">
         <v>9</v>
       </c>
+      <c r="IE43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31944,6 +32073,9 @@
       <c r="ID44" t="n">
         <v>127</v>
       </c>
+      <c r="IE44" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32662,6 +32794,9 @@
       <c r="ID45" t="n">
         <v>218</v>
       </c>
+      <c r="IE45" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33380,6 +33515,9 @@
       <c r="ID46" t="n">
         <v>266</v>
       </c>
+      <c r="IE46" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34098,6 +34236,9 @@
       <c r="ID47" t="n">
         <v>76.2</v>
       </c>
+      <c r="IE47" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34816,6 +34957,9 @@
       <c r="ID48" t="n">
         <v>60</v>
       </c>
+      <c r="IE48" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35534,6 +35678,9 @@
       <c r="ID49" t="n">
         <v>7</v>
       </c>
+      <c r="IE49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36252,6 +36399,9 @@
       <c r="ID50" t="n">
         <v>12</v>
       </c>
+      <c r="IE50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36970,6 +37120,9 @@
       <c r="ID51" t="n">
         <v>38</v>
       </c>
+      <c r="IE51" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37688,6 +37841,9 @@
       <c r="ID52" t="n">
         <v>35</v>
       </c>
+      <c r="IE52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38406,6 +38562,9 @@
       <c r="ID53" t="n">
         <v>40</v>
       </c>
+      <c r="IE53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39124,6 +39283,9 @@
       <c r="ID54" t="n">
         <v>7</v>
       </c>
+      <c r="IE54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39842,6 +40004,9 @@
       <c r="ID55" t="n">
         <v>10</v>
       </c>
+      <c r="IE55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40560,6 +40725,9 @@
       <c r="ID56" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="IE56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41278,6 +41446,9 @@
       <c r="ID57" t="n">
         <v>199</v>
       </c>
+      <c r="IE57" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41996,6 +42167,9 @@
       <c r="ID58" t="n">
         <v>118</v>
       </c>
+      <c r="IE58" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42714,6 +42888,9 @@
       <c r="ID59" t="n">
         <v>317</v>
       </c>
+      <c r="IE59" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43432,6 +43609,9 @@
       <c r="ID60" t="n">
         <v>1.69</v>
       </c>
+      <c r="IE60" t="n">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44150,6 +44330,9 @@
       <c r="ID61" t="n">
         <v>90</v>
       </c>
+      <c r="IE61" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44868,6 +45051,9 @@
       <c r="ID62" t="n">
         <v>60</v>
       </c>
+      <c r="IE62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45586,6 +45772,9 @@
       <c r="ID63" t="n">
         <v>31</v>
       </c>
+      <c r="IE63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46304,6 +46493,9 @@
       <c r="ID64" t="n">
         <v>31</v>
       </c>
+      <c r="IE64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47022,6 +47214,9 @@
       <c r="ID65" t="n">
         <v>15</v>
       </c>
+      <c r="IE65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47740,6 +47935,9 @@
       <c r="ID66" t="n">
         <v>15</v>
       </c>
+      <c r="IE66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48458,6 +48656,9 @@
       <c r="ID67" t="n">
         <v>12</v>
       </c>
+      <c r="IE67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49176,6 +49377,9 @@
       <c r="ID68" t="n">
         <v>13</v>
       </c>
+      <c r="IE68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49894,6 +50098,9 @@
       <c r="ID69" t="n">
         <v>0</v>
       </c>
+      <c r="IE69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50612,6 +50819,9 @@
       <c r="ID70" t="n">
         <v>28</v>
       </c>
+      <c r="IE70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51330,6 +51540,9 @@
       <c r="ID71" t="n">
         <v>53.6</v>
       </c>
+      <c r="IE71" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52048,6 +52261,9 @@
       <c r="ID72" t="n">
         <v>21.13</v>
       </c>
+      <c r="IE72" t="n">
+        <v>24.55</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52766,6 +52982,9 @@
       <c r="ID73" t="n">
         <v>11.32</v>
       </c>
+      <c r="IE73" t="n">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53484,6 +53703,9 @@
       <c r="ID74" t="n">
         <v>36</v>
       </c>
+      <c r="IE74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54202,6 +54424,9 @@
       <c r="ID75" t="n">
         <v>51</v>
       </c>
+      <c r="IE75" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54920,6 +55145,9 @@
       <c r="ID76" t="n">
         <v>37</v>
       </c>
+      <c r="IE76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55638,6 +55866,9 @@
       <c r="ID77" t="n">
         <v>51</v>
       </c>
+      <c r="IE77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56356,6 +56587,9 @@
       <c r="ID78" t="n">
         <v>1.82</v>
       </c>
+      <c r="IE78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57074,6 +57308,9 @@
       <c r="ID79" t="n">
         <v>3.4</v>
       </c>
+      <c r="IE79" t="n">
+        <v>4.55</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57792,6 +58029,9 @@
       <c r="ID80" t="n">
         <v>54.9</v>
       </c>
+      <c r="IE80" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58510,6 +58750,9 @@
       <c r="ID81" t="n">
         <v>29.4</v>
       </c>
+      <c r="IE81" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59228,6 +59471,9 @@
       <c r="ID82" t="n">
         <v>186.3</v>
       </c>
+      <c r="IE82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59946,6 +60192,9 @@
       <c r="ID83" t="n">
         <v>83.3</v>
       </c>
+      <c r="IE83" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60664,6 +60913,9 @@
       <c r="ID84" t="n">
         <v>24.66</v>
       </c>
+      <c r="IE84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61382,6 +61634,9 @@
       <c r="ID85" t="n">
         <v>66.2</v>
       </c>
+      <c r="IE85" t="n">
+        <v>94.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62100,6 +62355,9 @@
       <c r="ID86" t="n">
         <v>15</v>
       </c>
+      <c r="IE86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62818,6 +63076,9 @@
       <c r="ID87" t="n">
         <v>1</v>
       </c>
+      <c r="IE87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63536,6 +63797,9 @@
       <c r="ID88" t="n">
         <v>1</v>
       </c>
+      <c r="IE88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64254,6 +64518,9 @@
       <c r="ID89" t="n">
         <v>6</v>
       </c>
+      <c r="IE89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64972,6 +65239,9 @@
       <c r="ID90" t="n">
         <v>139</v>
       </c>
+      <c r="IE90" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65690,6 +65960,9 @@
       <c r="ID91" t="n">
         <v>174</v>
       </c>
+      <c r="IE91" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66408,6 +66681,9 @@
       <c r="ID92" t="n">
         <v>225</v>
       </c>
+      <c r="IE92" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67126,6 +67402,9 @@
       <c r="ID93" t="n">
         <v>71</v>
       </c>
+      <c r="IE93" t="n">
+        <v>68.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67844,6 +68123,9 @@
       <c r="ID94" t="n">
         <v>51</v>
       </c>
+      <c r="IE94" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68562,6 +68844,9 @@
       <c r="ID95" t="n">
         <v>12</v>
       </c>
+      <c r="IE95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69280,6 +69565,9 @@
       <c r="ID96" t="n">
         <v>13</v>
       </c>
+      <c r="IE96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69998,6 +70286,9 @@
       <c r="ID97" t="n">
         <v>36</v>
       </c>
+      <c r="IE97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70716,6 +71007,9 @@
       <c r="ID98" t="n">
         <v>37</v>
       </c>
+      <c r="IE98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71434,6 +71728,9 @@
       <c r="ID99" t="n">
         <v>36</v>
       </c>
+      <c r="IE99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72152,6 +72449,9 @@
       <c r="ID100" t="n">
         <v>3</v>
       </c>
+      <c r="IE100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72870,6 +73170,9 @@
       <c r="ID101" t="n">
         <v>12</v>
       </c>
+      <c r="IE101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73588,6 +73891,9 @@
       <c r="ID102" t="n">
         <v>80</v>
       </c>
+      <c r="IE102" t="n">
+        <v>45.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,6 +1073,9 @@
       <c r="IE1" t="n">
         <v>10337</v>
       </c>
+      <c r="IF1" t="n">
+        <v>10353</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1794,6 +1797,9 @@
       <c r="IE2" t="n">
         <v>2021</v>
       </c>
+      <c r="IF2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2515,6 +2521,9 @@
       <c r="IE3" t="n">
         <v>2</v>
       </c>
+      <c r="IF3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3236,6 +3245,9 @@
       <c r="IE4" t="n">
         <v>0</v>
       </c>
+      <c r="IF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3957,6 +3969,9 @@
       <c r="IE5" t="n">
         <v>0</v>
       </c>
+      <c r="IF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4678,6 +4693,9 @@
       <c r="IE6" t="n">
         <v>81</v>
       </c>
+      <c r="IF6" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5399,6 +5417,9 @@
       <c r="IE7" t="n">
         <v>80</v>
       </c>
+      <c r="IF7" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6120,6 +6141,9 @@
       <c r="IE8" t="n">
         <v>1</v>
       </c>
+      <c r="IF8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6841,6 +6865,9 @@
       <c r="IE9" t="n">
         <v>1</v>
       </c>
+      <c r="IF9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7562,6 +7589,9 @@
       <c r="IE10" t="n">
         <v>2</v>
       </c>
+      <c r="IF10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8283,6 +8313,9 @@
       <c r="IE11" t="n">
         <v>237</v>
       </c>
+      <c r="IF11" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9004,6 +9037,9 @@
       <c r="IE12" t="n">
         <v>142</v>
       </c>
+      <c r="IF12" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9725,6 +9761,9 @@
       <c r="IE13" t="n">
         <v>379</v>
       </c>
+      <c r="IF13" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10446,6 +10485,9 @@
       <c r="IE14" t="n">
         <v>1.67</v>
       </c>
+      <c r="IF14" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11167,6 +11209,9 @@
       <c r="IE15" t="n">
         <v>118</v>
       </c>
+      <c r="IF15" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11888,6 +11933,9 @@
       <c r="IE16" t="n">
         <v>57</v>
       </c>
+      <c r="IF16" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12609,6 +12657,9 @@
       <c r="IE17" t="n">
         <v>35</v>
       </c>
+      <c r="IF17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13330,6 +13381,9 @@
       <c r="IE18" t="n">
         <v>21</v>
       </c>
+      <c r="IF18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14051,6 +14105,9 @@
       <c r="IE19" t="n">
         <v>22</v>
       </c>
+      <c r="IF19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14772,6 +14829,9 @@
       <c r="IE20" t="n">
         <v>12</v>
       </c>
+      <c r="IF20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15493,6 +15553,9 @@
       <c r="IE21" t="n">
         <v>10</v>
       </c>
+      <c r="IF21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16214,6 +16277,9 @@
       <c r="IE22" t="n">
         <v>9</v>
       </c>
+      <c r="IF22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16935,6 +17001,9 @@
       <c r="IE23" t="n">
         <v>0</v>
       </c>
+      <c r="IF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17656,6 +17725,9 @@
       <c r="IE24" t="n">
         <v>21</v>
       </c>
+      <c r="IF24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18377,6 +18449,9 @@
       <c r="IE25" t="n">
         <v>57.1</v>
       </c>
+      <c r="IF25" t="n">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19098,6 +19173,9 @@
       <c r="IE26" t="n">
         <v>31.58</v>
       </c>
+      <c r="IF26" t="n">
+        <v>39.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19819,6 +19897,9 @@
       <c r="IE27" t="n">
         <v>18.05</v>
       </c>
+      <c r="IF27" t="n">
+        <v>20.68</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20540,6 +20621,9 @@
       <c r="IE28" t="n">
         <v>45</v>
       </c>
+      <c r="IF28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21261,6 +21345,9 @@
       <c r="IE29" t="n">
         <v>60</v>
       </c>
+      <c r="IF29" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21982,6 +22069,9 @@
       <c r="IE30" t="n">
         <v>38</v>
       </c>
+      <c r="IF30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22703,6 +22793,9 @@
       <c r="IE31" t="n">
         <v>47</v>
       </c>
+      <c r="IF31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23424,6 +23517,9 @@
       <c r="IE32" t="n">
         <v>2.24</v>
       </c>
+      <c r="IF32" t="n">
+        <v>2.79</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24145,6 +24241,9 @@
       <c r="IE33" t="n">
         <v>3.92</v>
       </c>
+      <c r="IF33" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24866,6 +24965,9 @@
       <c r="IE34" t="n">
         <v>44.7</v>
       </c>
+      <c r="IF34" t="n">
+        <v>35.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25587,6 +25689,9 @@
       <c r="IE35" t="n">
         <v>25.5</v>
       </c>
+      <c r="IF35" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26308,6 +26413,9 @@
       <c r="IE36" t="n">
         <v>188</v>
       </c>
+      <c r="IF36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27029,6 +27137,9 @@
       <c r="IE37" t="n">
         <v>88.2</v>
       </c>
+      <c r="IF37" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27750,6 +27861,9 @@
       <c r="IE38" t="n">
         <v>27.33</v>
       </c>
+      <c r="IF38" t="n">
+        <v>26.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28471,6 +28585,9 @@
       <c r="IE39" t="n">
         <v>132.1</v>
       </c>
+      <c r="IF39" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29192,6 +29309,9 @@
       <c r="IE40" t="n">
         <v>5</v>
       </c>
+      <c r="IF40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29913,6 +30033,9 @@
       <c r="IE41" t="n">
         <v>4</v>
       </c>
+      <c r="IF41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30634,6 +30757,9 @@
       <c r="IE42" t="n">
         <v>4</v>
       </c>
+      <c r="IF42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31355,6 +31481,9 @@
       <c r="IE43" t="n">
         <v>9</v>
       </c>
+      <c r="IF43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32076,6 +32205,9 @@
       <c r="IE44" t="n">
         <v>130</v>
       </c>
+      <c r="IF44" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32797,6 +32929,9 @@
       <c r="IE45" t="n">
         <v>241</v>
       </c>
+      <c r="IF45" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33518,6 +33653,9 @@
       <c r="IE46" t="n">
         <v>285</v>
       </c>
+      <c r="IF46" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34239,6 +34377,9 @@
       <c r="IE47" t="n">
         <v>75.2</v>
       </c>
+      <c r="IF47" t="n">
+        <v>74.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34960,6 +35101,9 @@
       <c r="IE48" t="n">
         <v>60</v>
       </c>
+      <c r="IF48" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35681,6 +35825,9 @@
       <c r="IE49" t="n">
         <v>12</v>
       </c>
+      <c r="IF49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36402,6 +36549,9 @@
       <c r="IE50" t="n">
         <v>11</v>
       </c>
+      <c r="IF50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37123,6 +37273,9 @@
       <c r="IE51" t="n">
         <v>45</v>
       </c>
+      <c r="IF51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37844,6 +37997,9 @@
       <c r="IE52" t="n">
         <v>38</v>
       </c>
+      <c r="IF52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38565,6 +38721,9 @@
       <c r="IE53" t="n">
         <v>37</v>
       </c>
+      <c r="IF53" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39286,6 +39445,9 @@
       <c r="IE54" t="n">
         <v>6</v>
       </c>
+      <c r="IF54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40007,6 +40169,9 @@
       <c r="IE55" t="n">
         <v>10</v>
       </c>
+      <c r="IF55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40728,6 +40893,9 @@
       <c r="IE56" t="n">
         <v>83.3</v>
       </c>
+      <c r="IF56" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41449,6 +41617,9 @@
       <c r="IE57" t="n">
         <v>186</v>
       </c>
+      <c r="IF57" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42170,6 +42341,9 @@
       <c r="IE58" t="n">
         <v>84</v>
       </c>
+      <c r="IF58" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42891,6 +43065,9 @@
       <c r="IE59" t="n">
         <v>270</v>
       </c>
+      <c r="IF59" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43612,6 +43789,9 @@
       <c r="IE60" t="n">
         <v>2.21</v>
       </c>
+      <c r="IF60" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44333,6 +44513,9 @@
       <c r="IE61" t="n">
         <v>72</v>
       </c>
+      <c r="IF61" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45054,6 +45237,9 @@
       <c r="IE62" t="n">
         <v>57</v>
       </c>
+      <c r="IF62" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45775,6 +45961,9 @@
       <c r="IE63" t="n">
         <v>25</v>
       </c>
+      <c r="IF63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46496,6 +46685,9 @@
       <c r="IE64" t="n">
         <v>23</v>
       </c>
+      <c r="IF64" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47217,6 +47409,9 @@
       <c r="IE65" t="n">
         <v>21</v>
       </c>
+      <c r="IF65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47938,6 +48133,9 @@
       <c r="IE66" t="n">
         <v>11</v>
       </c>
+      <c r="IF66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48659,6 +48857,9 @@
       <c r="IE67" t="n">
         <v>5</v>
       </c>
+      <c r="IF67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49380,6 +49581,9 @@
       <c r="IE68" t="n">
         <v>11</v>
       </c>
+      <c r="IF68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50101,6 +50305,9 @@
       <c r="IE69" t="n">
         <v>3</v>
       </c>
+      <c r="IF69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50822,6 +51029,9 @@
       <c r="IE70" t="n">
         <v>25</v>
       </c>
+      <c r="IF70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51543,6 +51753,9 @@
       <c r="IE71" t="n">
         <v>44</v>
       </c>
+      <c r="IF71" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52264,6 +52477,9 @@
       <c r="IE72" t="n">
         <v>24.55</v>
       </c>
+      <c r="IF72" t="n">
+        <v>41.78</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52985,6 +53201,9 @@
       <c r="IE73" t="n">
         <v>10.8</v>
       </c>
+      <c r="IF73" t="n">
+        <v>19.79</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53706,6 +53925,9 @@
       <c r="IE74" t="n">
         <v>32</v>
       </c>
+      <c r="IF74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54427,6 +54649,9 @@
       <c r="IE75" t="n">
         <v>58</v>
       </c>
+      <c r="IF75" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55148,6 +55373,9 @@
       <c r="IE76" t="n">
         <v>33</v>
       </c>
+      <c r="IF76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55869,6 +56097,9 @@
       <c r="IE77" t="n">
         <v>50</v>
       </c>
+      <c r="IF77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56590,6 +56821,9 @@
       <c r="IE78" t="n">
         <v>2</v>
       </c>
+      <c r="IF78" t="n">
+        <v>2.32</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57311,6 +57545,9 @@
       <c r="IE79" t="n">
         <v>4.55</v>
       </c>
+      <c r="IF79" t="n">
+        <v>4.89</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58032,6 +58269,9 @@
       <c r="IE80" t="n">
         <v>44</v>
       </c>
+      <c r="IF80" t="n">
+        <v>40.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58753,6 +58993,9 @@
       <c r="IE81" t="n">
         <v>22</v>
       </c>
+      <c r="IF81" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59474,6 +59717,9 @@
       <c r="IE82" t="n">
         <v>188.2</v>
       </c>
+      <c r="IF82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60195,6 +60441,9 @@
       <c r="IE83" t="n">
         <v>86</v>
       </c>
+      <c r="IF83" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60916,6 +61165,9 @@
       <c r="IE84" t="n">
         <v>25.33</v>
       </c>
+      <c r="IF84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61637,6 +61889,9 @@
       <c r="IE85" t="n">
         <v>94.7</v>
       </c>
+      <c r="IF85" t="n">
+        <v>106.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62358,6 +62613,9 @@
       <c r="IE86" t="n">
         <v>8</v>
       </c>
+      <c r="IF86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63079,6 +63337,9 @@
       <c r="IE87" t="n">
         <v>5</v>
       </c>
+      <c r="IF87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63800,6 +64061,9 @@
       <c r="IE88" t="n">
         <v>5</v>
       </c>
+      <c r="IF88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64521,6 +64785,9 @@
       <c r="IE89" t="n">
         <v>5</v>
       </c>
+      <c r="IF89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65242,6 +65509,9 @@
       <c r="IE90" t="n">
         <v>121</v>
       </c>
+      <c r="IF90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65963,6 +66233,9 @@
       <c r="IE91" t="n">
         <v>140</v>
       </c>
+      <c r="IF91" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66684,6 +66957,9 @@
       <c r="IE92" t="n">
         <v>185</v>
       </c>
+      <c r="IF92" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67405,6 +67681,9 @@
       <c r="IE93" t="n">
         <v>68.5</v>
       </c>
+      <c r="IF93" t="n">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68126,6 +68405,9 @@
       <c r="IE94" t="n">
         <v>58</v>
       </c>
+      <c r="IF94" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68847,6 +69129,9 @@
       <c r="IE95" t="n">
         <v>8</v>
       </c>
+      <c r="IF95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69568,6 +69853,9 @@
       <c r="IE96" t="n">
         <v>7</v>
       </c>
+      <c r="IF96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70289,6 +70577,9 @@
       <c r="IE97" t="n">
         <v>32</v>
       </c>
+      <c r="IF97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71010,6 +71301,9 @@
       <c r="IE98" t="n">
         <v>33</v>
       </c>
+      <c r="IF98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71731,6 +72025,9 @@
       <c r="IE99" t="n">
         <v>44</v>
       </c>
+      <c r="IF99" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72452,6 +72749,9 @@
       <c r="IE100" t="n">
         <v>2</v>
       </c>
+      <c r="IF100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73173,6 +73473,9 @@
       <c r="IE101" t="n">
         <v>5</v>
       </c>
+      <c r="IF101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73894,6 +74197,9 @@
       <c r="IE102" t="n">
         <v>45.5</v>
       </c>
+      <c r="IF102" t="n">
+        <v>22.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,6 +1076,9 @@
       <c r="IF1" t="n">
         <v>10353</v>
       </c>
+      <c r="IG1" t="n">
+        <v>10361</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1800,6 +1803,9 @@
       <c r="IF2" t="n">
         <v>2021</v>
       </c>
+      <c r="IG2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2524,6 +2530,9 @@
       <c r="IF3" t="n">
         <v>3</v>
       </c>
+      <c r="IG3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3248,6 +3257,9 @@
       <c r="IF4" t="n">
         <v>0</v>
       </c>
+      <c r="IG4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3972,6 +3984,9 @@
       <c r="IF5" t="n">
         <v>0</v>
       </c>
+      <c r="IG5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4696,6 +4711,9 @@
       <c r="IF6" t="n">
         <v>69</v>
       </c>
+      <c r="IG6" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5420,6 +5438,9 @@
       <c r="IF7" t="n">
         <v>64</v>
       </c>
+      <c r="IG7" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6144,6 +6165,9 @@
       <c r="IF8" t="n">
         <v>5</v>
       </c>
+      <c r="IG8" t="n">
+        <v>-25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6868,6 +6892,9 @@
       <c r="IF9" t="n">
         <v>1</v>
       </c>
+      <c r="IG9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7592,6 +7619,9 @@
       <c r="IF10" t="n">
         <v>10</v>
       </c>
+      <c r="IG10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8316,6 +8346,9 @@
       <c r="IF11" t="n">
         <v>230</v>
       </c>
+      <c r="IG11" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9040,6 +9073,9 @@
       <c r="IF12" t="n">
         <v>163</v>
       </c>
+      <c r="IG12" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9764,6 +9800,9 @@
       <c r="IF13" t="n">
         <v>393</v>
       </c>
+      <c r="IG13" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10488,6 +10527,9 @@
       <c r="IF14" t="n">
         <v>1.41</v>
       </c>
+      <c r="IG14" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11212,6 +11254,9 @@
       <c r="IF15" t="n">
         <v>123</v>
       </c>
+      <c r="IG15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11936,6 +11981,9 @@
       <c r="IF16" t="n">
         <v>53</v>
       </c>
+      <c r="IG16" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12660,6 +12708,9 @@
       <c r="IF17" t="n">
         <v>26</v>
       </c>
+      <c r="IG17" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13384,6 +13435,9 @@
       <c r="IF18" t="n">
         <v>17</v>
       </c>
+      <c r="IG18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14108,6 +14162,9 @@
       <c r="IF19" t="n">
         <v>24</v>
       </c>
+      <c r="IG19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14832,6 +14889,9 @@
       <c r="IF20" t="n">
         <v>10</v>
       </c>
+      <c r="IG20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15556,6 +15616,9 @@
       <c r="IF21" t="n">
         <v>8</v>
       </c>
+      <c r="IG21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16280,6 +16343,9 @@
       <c r="IF22" t="n">
         <v>9</v>
       </c>
+      <c r="IG22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17004,6 +17070,9 @@
       <c r="IF23" t="n">
         <v>0</v>
       </c>
+      <c r="IG23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17728,6 +17797,9 @@
       <c r="IF24" t="n">
         <v>19</v>
       </c>
+      <c r="IG24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18452,6 +18524,9 @@
       <c r="IF25" t="n">
         <v>52.6</v>
       </c>
+      <c r="IG25" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19176,6 +19251,9 @@
       <c r="IF26" t="n">
         <v>39.3</v>
       </c>
+      <c r="IG26" t="n">
+        <v>40.22</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19900,6 +19978,9 @@
       <c r="IF27" t="n">
         <v>20.68</v>
       </c>
+      <c r="IG27" t="n">
+        <v>24.13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20624,6 +20705,9 @@
       <c r="IF28" t="n">
         <v>33</v>
       </c>
+      <c r="IG28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21348,6 +21432,9 @@
       <c r="IF29" t="n">
         <v>60</v>
       </c>
+      <c r="IG29" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22072,6 +22159,9 @@
       <c r="IF30" t="n">
         <v>33</v>
       </c>
+      <c r="IG30" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22796,6 +22886,9 @@
       <c r="IF31" t="n">
         <v>53</v>
       </c>
+      <c r="IG31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23520,6 +23613,9 @@
       <c r="IF32" t="n">
         <v>2.79</v>
       </c>
+      <c r="IG32" t="n">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24244,6 +24340,9 @@
       <c r="IF33" t="n">
         <v>5.3</v>
       </c>
+      <c r="IG33" t="n">
+        <v>5.56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24968,6 +25067,9 @@
       <c r="IF34" t="n">
         <v>35.8</v>
       </c>
+      <c r="IG34" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25692,6 +25794,9 @@
       <c r="IF35" t="n">
         <v>18.9</v>
       </c>
+      <c r="IG35" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26416,6 +26521,9 @@
       <c r="IF36" t="n">
         <v>188</v>
       </c>
+      <c r="IG36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27140,6 +27248,9 @@
       <c r="IF37" t="n">
         <v>87.40000000000001</v>
       </c>
+      <c r="IG37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27864,6 +27975,9 @@
       <c r="IF38" t="n">
         <v>26.91</v>
       </c>
+      <c r="IG38" t="n">
+        <v>27.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28588,6 +28702,9 @@
       <c r="IF39" t="n">
         <v>130.7</v>
       </c>
+      <c r="IG39" t="n">
+        <v>128.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29312,6 +29429,9 @@
       <c r="IF40" t="n">
         <v>6</v>
       </c>
+      <c r="IG40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30036,6 +30156,9 @@
       <c r="IF41" t="n">
         <v>4</v>
       </c>
+      <c r="IG41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30760,6 +30883,9 @@
       <c r="IF42" t="n">
         <v>3</v>
       </c>
+      <c r="IG42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31484,6 +31610,9 @@
       <c r="IF43" t="n">
         <v>10</v>
       </c>
+      <c r="IG43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32208,6 +32337,9 @@
       <c r="IF44" t="n">
         <v>121</v>
       </c>
+      <c r="IG44" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32932,6 +33064,9 @@
       <c r="IF45" t="n">
         <v>268</v>
       </c>
+      <c r="IG45" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33656,6 +33791,9 @@
       <c r="IF46" t="n">
         <v>293</v>
       </c>
+      <c r="IG46" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34380,6 +34518,9 @@
       <c r="IF47" t="n">
         <v>74.59999999999999</v>
       </c>
+      <c r="IG47" t="n">
+        <v>69.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35104,6 +35245,9 @@
       <c r="IF48" t="n">
         <v>60</v>
       </c>
+      <c r="IG48" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35828,6 +35972,9 @@
       <c r="IF49" t="n">
         <v>11</v>
       </c>
+      <c r="IG49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36552,6 +36699,9 @@
       <c r="IF50" t="n">
         <v>10</v>
       </c>
+      <c r="IG50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37276,6 +37426,9 @@
       <c r="IF51" t="n">
         <v>33</v>
       </c>
+      <c r="IG51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38000,6 +38153,9 @@
       <c r="IF52" t="n">
         <v>33</v>
       </c>
+      <c r="IG52" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38724,6 +38880,9 @@
       <c r="IF53" t="n">
         <v>50</v>
       </c>
+      <c r="IG53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39448,6 +39607,9 @@
       <c r="IF54" t="n">
         <v>10</v>
       </c>
+      <c r="IG54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40172,6 +40334,9 @@
       <c r="IF55" t="n">
         <v>8</v>
       </c>
+      <c r="IG55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40896,6 +41061,9 @@
       <c r="IF56" t="n">
         <v>80</v>
       </c>
+      <c r="IG56" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41620,6 +41788,9 @@
       <c r="IF57" t="n">
         <v>210</v>
       </c>
+      <c r="IG57" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42344,6 +42515,9 @@
       <c r="IF58" t="n">
         <v>166</v>
       </c>
+      <c r="IG58" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43068,6 +43242,9 @@
       <c r="IF59" t="n">
         <v>376</v>
       </c>
+      <c r="IG59" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43792,6 +43969,9 @@
       <c r="IF60" t="n">
         <v>1.27</v>
       </c>
+      <c r="IG60" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44516,6 +44696,9 @@
       <c r="IF61" t="n">
         <v>95</v>
       </c>
+      <c r="IG61" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45240,6 +45423,9 @@
       <c r="IF62" t="n">
         <v>64</v>
       </c>
+      <c r="IG62" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45964,6 +46150,9 @@
       <c r="IF63" t="n">
         <v>37</v>
       </c>
+      <c r="IG63" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46688,6 +46877,9 @@
       <c r="IF64" t="n">
         <v>24</v>
       </c>
+      <c r="IG64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47412,6 +47604,9 @@
       <c r="IF65" t="n">
         <v>17</v>
       </c>
+      <c r="IG65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48136,6 +48331,9 @@
       <c r="IF66" t="n">
         <v>9</v>
       </c>
+      <c r="IG66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48860,6 +49058,9 @@
       <c r="IF67" t="n">
         <v>2</v>
       </c>
+      <c r="IG67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49584,6 +49785,9 @@
       <c r="IF68" t="n">
         <v>9</v>
       </c>
+      <c r="IG68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50308,6 +50512,9 @@
       <c r="IF69" t="n">
         <v>1</v>
       </c>
+      <c r="IG69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51032,6 +51239,9 @@
       <c r="IF70" t="n">
         <v>19</v>
       </c>
+      <c r="IG70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51756,6 +51966,9 @@
       <c r="IF71" t="n">
         <v>47.4</v>
       </c>
+      <c r="IG71" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52480,6 +52693,9 @@
       <c r="IF72" t="n">
         <v>41.78</v>
       </c>
+      <c r="IG72" t="n">
+        <v>30.58</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53204,6 +53420,9 @@
       <c r="IF73" t="n">
         <v>19.79</v>
       </c>
+      <c r="IG73" t="n">
+        <v>14.68</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53928,6 +54147,9 @@
       <c r="IF74" t="n">
         <v>37</v>
       </c>
+      <c r="IG74" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54652,6 +54874,9 @@
       <c r="IF75" t="n">
         <v>52</v>
       </c>
+      <c r="IG75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55376,6 +55601,9 @@
       <c r="IF76" t="n">
         <v>39</v>
       </c>
+      <c r="IG76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56100,6 +56328,9 @@
       <c r="IF77" t="n">
         <v>44</v>
       </c>
+      <c r="IG77" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56824,6 +57055,9 @@
       <c r="IF78" t="n">
         <v>2.32</v>
       </c>
+      <c r="IG78" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57548,6 +57782,9 @@
       <c r="IF79" t="n">
         <v>4.89</v>
       </c>
+      <c r="IG79" t="n">
+        <v>5.17</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58272,6 +58509,9 @@
       <c r="IF80" t="n">
         <v>40.9</v>
       </c>
+      <c r="IG80" t="n">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58996,6 +59236,9 @@
       <c r="IF81" t="n">
         <v>20.5</v>
       </c>
+      <c r="IG81" t="n">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59720,6 +59963,9 @@
       <c r="IF82" t="n">
         <v>187.5</v>
       </c>
+      <c r="IG82" t="n">
+        <v>186.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60444,6 +60690,9 @@
       <c r="IF83" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="IG83" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61168,6 +61417,9 @@
       <c r="IF84" t="n">
         <v>26</v>
       </c>
+      <c r="IG84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61892,6 +62144,9 @@
       <c r="IF85" t="n">
         <v>106.7</v>
       </c>
+      <c r="IG85" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62616,6 +62871,9 @@
       <c r="IF86" t="n">
         <v>7</v>
       </c>
+      <c r="IG86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63340,6 +63598,9 @@
       <c r="IF87" t="n">
         <v>5</v>
       </c>
+      <c r="IG87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64064,6 +64325,9 @@
       <c r="IF88" t="n">
         <v>5</v>
       </c>
+      <c r="IG88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64788,6 +65052,9 @@
       <c r="IF89" t="n">
         <v>5</v>
       </c>
+      <c r="IG89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65512,6 +65779,9 @@
       <c r="IF90" t="n">
         <v>120</v>
       </c>
+      <c r="IG90" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66236,6 +66506,9 @@
       <c r="IF91" t="n">
         <v>251</v>
       </c>
+      <c r="IG91" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66960,6 +67233,9 @@
       <c r="IF92" t="n">
         <v>287</v>
       </c>
+      <c r="IG92" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67684,6 +67960,9 @@
       <c r="IF93" t="n">
         <v>76.3</v>
       </c>
+      <c r="IG93" t="n">
+        <v>63.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68408,6 +68687,9 @@
       <c r="IF94" t="n">
         <v>52</v>
       </c>
+      <c r="IG94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69132,6 +69414,9 @@
       <c r="IF95" t="n">
         <v>9</v>
       </c>
+      <c r="IG95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69856,6 +70141,9 @@
       <c r="IF96" t="n">
         <v>5</v>
       </c>
+      <c r="IG96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70580,6 +70868,9 @@
       <c r="IF97" t="n">
         <v>37</v>
       </c>
+      <c r="IG97" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71304,6 +71595,9 @@
       <c r="IF98" t="n">
         <v>39</v>
       </c>
+      <c r="IG98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72028,6 +72322,9 @@
       <c r="IF99" t="n">
         <v>34</v>
       </c>
+      <c r="IG99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72752,6 +73049,9 @@
       <c r="IF100" t="n">
         <v>10</v>
       </c>
+      <c r="IG100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73476,6 +73776,9 @@
       <c r="IF101" t="n">
         <v>2</v>
       </c>
+      <c r="IG101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74200,6 +74503,9 @@
       <c r="IF102" t="n">
         <v>22.2</v>
       </c>
+      <c r="IG102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,9 @@
       <c r="IG1" t="n">
         <v>10361</v>
       </c>
+      <c r="IH1" t="n">
+        <v>10371</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1806,6 +1809,9 @@
       <c r="IG2" t="n">
         <v>2021</v>
       </c>
+      <c r="IH2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2533,6 +2539,9 @@
       <c r="IG3" t="n">
         <v>4</v>
       </c>
+      <c r="IH3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3260,6 +3269,9 @@
       <c r="IG4" t="n">
         <v>1</v>
       </c>
+      <c r="IH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3987,6 +3999,9 @@
       <c r="IG5" t="n">
         <v>0</v>
       </c>
+      <c r="IH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4714,6 +4729,9 @@
       <c r="IG6" t="n">
         <v>60</v>
       </c>
+      <c r="IH6" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5441,6 +5459,9 @@
       <c r="IG7" t="n">
         <v>85</v>
       </c>
+      <c r="IH7" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6168,6 +6189,9 @@
       <c r="IG8" t="n">
         <v>-25</v>
       </c>
+      <c r="IH8" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6895,6 +6919,9 @@
       <c r="IG9" t="n">
         <v>0</v>
       </c>
+      <c r="IH9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7622,6 +7649,9 @@
       <c r="IG10" t="n">
         <v>11</v>
       </c>
+      <c r="IH10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8349,6 +8379,9 @@
       <c r="IG11" t="n">
         <v>209</v>
       </c>
+      <c r="IH11" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9076,6 +9109,9 @@
       <c r="IG12" t="n">
         <v>153</v>
       </c>
+      <c r="IH12" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9803,6 +9839,9 @@
       <c r="IG13" t="n">
         <v>362</v>
       </c>
+      <c r="IH13" t="n">
+        <v>441</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10530,6 +10569,9 @@
       <c r="IG14" t="n">
         <v>1.37</v>
       </c>
+      <c r="IH14" t="n">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11257,6 +11299,9 @@
       <c r="IG15" t="n">
         <v>81</v>
       </c>
+      <c r="IH15" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11984,6 +12029,9 @@
       <c r="IG16" t="n">
         <v>74</v>
       </c>
+      <c r="IH16" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12711,6 +12759,9 @@
       <c r="IG17" t="n">
         <v>24</v>
       </c>
+      <c r="IH17" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13438,6 +13489,9 @@
       <c r="IG18" t="n">
         <v>21</v>
       </c>
+      <c r="IH18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14165,6 +14219,9 @@
       <c r="IG19" t="n">
         <v>23</v>
       </c>
+      <c r="IH19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14892,6 +14949,9 @@
       <c r="IG20" t="n">
         <v>9</v>
       </c>
+      <c r="IH20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15619,6 +15679,9 @@
       <c r="IG21" t="n">
         <v>5</v>
       </c>
+      <c r="IH21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16346,6 +16409,9 @@
       <c r="IG22" t="n">
         <v>6</v>
       </c>
+      <c r="IH22" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17073,6 +17139,9 @@
       <c r="IG23" t="n">
         <v>0</v>
       </c>
+      <c r="IH23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17800,6 +17869,9 @@
       <c r="IG24" t="n">
         <v>15</v>
       </c>
+      <c r="IH24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18527,6 +18599,9 @@
       <c r="IG25" t="n">
         <v>60</v>
       </c>
+      <c r="IH25" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19254,6 +19329,9 @@
       <c r="IG26" t="n">
         <v>40.22</v>
       </c>
+      <c r="IH26" t="n">
+        <v>44.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19981,6 +20059,9 @@
       <c r="IG27" t="n">
         <v>24.13</v>
       </c>
+      <c r="IH27" t="n">
+        <v>16.33</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20708,6 +20789,9 @@
       <c r="IG28" t="n">
         <v>35</v>
       </c>
+      <c r="IH28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21435,6 +21519,9 @@
       <c r="IG29" t="n">
         <v>64</v>
       </c>
+      <c r="IH29" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22162,6 +22249,9 @@
       <c r="IG30" t="n">
         <v>50</v>
       </c>
+      <c r="IH30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22889,6 +22979,9 @@
       <c r="IG31" t="n">
         <v>50</v>
       </c>
+      <c r="IH31" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23616,6 +23709,9 @@
       <c r="IG32" t="n">
         <v>3.33</v>
       </c>
+      <c r="IH32" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24343,6 +24439,9 @@
       <c r="IG33" t="n">
         <v>5.56</v>
       </c>
+      <c r="IH33" t="n">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25070,6 +25169,9 @@
       <c r="IG34" t="n">
         <v>30</v>
       </c>
+      <c r="IH34" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25797,6 +25899,9 @@
       <c r="IG35" t="n">
         <v>18</v>
       </c>
+      <c r="IH35" t="n">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26524,6 +26629,9 @@
       <c r="IG36" t="n">
         <v>188</v>
       </c>
+      <c r="IH36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27251,6 +27359,9 @@
       <c r="IG37" t="n">
         <v>87.2</v>
       </c>
+      <c r="IH37" t="n">
+        <v>88.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27978,6 +28089,9 @@
       <c r="IG38" t="n">
         <v>27.33</v>
       </c>
+      <c r="IH38" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28705,6 +28819,9 @@
       <c r="IG39" t="n">
         <v>128.7</v>
       </c>
+      <c r="IH39" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29432,6 +29549,9 @@
       <c r="IG40" t="n">
         <v>5</v>
       </c>
+      <c r="IH40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30159,6 +30279,9 @@
       <c r="IG41" t="n">
         <v>5</v>
       </c>
+      <c r="IH41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30886,6 +31009,9 @@
       <c r="IG42" t="n">
         <v>3</v>
       </c>
+      <c r="IH42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31613,6 +31739,9 @@
       <c r="IG43" t="n">
         <v>9</v>
       </c>
+      <c r="IH43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32340,6 +32469,9 @@
       <c r="IG44" t="n">
         <v>148</v>
       </c>
+      <c r="IH44" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33067,6 +33199,9 @@
       <c r="IG45" t="n">
         <v>211</v>
       </c>
+      <c r="IH45" t="n">
+        <v>289</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33794,6 +33929,9 @@
       <c r="IG46" t="n">
         <v>251</v>
       </c>
+      <c r="IH46" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34521,6 +34659,9 @@
       <c r="IG47" t="n">
         <v>69.3</v>
       </c>
+      <c r="IH47" t="n">
+        <v>74.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35248,6 +35389,9 @@
       <c r="IG48" t="n">
         <v>64</v>
       </c>
+      <c r="IH48" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35975,6 +36119,9 @@
       <c r="IG49" t="n">
         <v>8</v>
       </c>
+      <c r="IH49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36702,6 +36849,9 @@
       <c r="IG50" t="n">
         <v>6</v>
       </c>
+      <c r="IH50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37429,6 +37579,9 @@
       <c r="IG51" t="n">
         <v>35</v>
       </c>
+      <c r="IH51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38156,6 +38309,9 @@
       <c r="IG52" t="n">
         <v>50</v>
       </c>
+      <c r="IH52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38883,6 +39039,9 @@
       <c r="IG53" t="n">
         <v>57</v>
       </c>
+      <c r="IH53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39610,6 +39769,9 @@
       <c r="IG54" t="n">
         <v>6</v>
       </c>
+      <c r="IH54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40337,6 +40499,9 @@
       <c r="IG55" t="n">
         <v>5</v>
       </c>
+      <c r="IH55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41064,6 +41229,9 @@
       <c r="IG56" t="n">
         <v>55.6</v>
       </c>
+      <c r="IH56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41791,6 +41959,9 @@
       <c r="IG57" t="n">
         <v>237</v>
       </c>
+      <c r="IH57" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42518,6 +42689,9 @@
       <c r="IG58" t="n">
         <v>130</v>
       </c>
+      <c r="IH58" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43245,6 +43419,9 @@
       <c r="IG59" t="n">
         <v>367</v>
       </c>
+      <c r="IH59" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43972,6 +44149,9 @@
       <c r="IG60" t="n">
         <v>1.82</v>
       </c>
+      <c r="IH60" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44699,6 +44879,9 @@
       <c r="IG61" t="n">
         <v>78</v>
       </c>
+      <c r="IH61" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45426,6 +45609,9 @@
       <c r="IG62" t="n">
         <v>82</v>
       </c>
+      <c r="IH62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46153,6 +46339,9 @@
       <c r="IG63" t="n">
         <v>54</v>
       </c>
+      <c r="IH63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46880,6 +47069,9 @@
       <c r="IG64" t="n">
         <v>23</v>
       </c>
+      <c r="IH64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47607,6 +47799,9 @@
       <c r="IG65" t="n">
         <v>21</v>
       </c>
+      <c r="IH65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48334,6 +48529,9 @@
       <c r="IG66" t="n">
         <v>12</v>
       </c>
+      <c r="IH66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49061,6 +49259,9 @@
       <c r="IG67" t="n">
         <v>8</v>
       </c>
+      <c r="IH67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49788,6 +49989,9 @@
       <c r="IG68" t="n">
         <v>10</v>
       </c>
+      <c r="IH68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50515,6 +50719,9 @@
       <c r="IG69" t="n">
         <v>3</v>
       </c>
+      <c r="IH69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51242,6 +51449,9 @@
       <c r="IG70" t="n">
         <v>25</v>
       </c>
+      <c r="IH70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51969,6 +52179,9 @@
       <c r="IG71" t="n">
         <v>48</v>
       </c>
+      <c r="IH71" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52696,6 +52909,9 @@
       <c r="IG72" t="n">
         <v>30.58</v>
       </c>
+      <c r="IH72" t="n">
+        <v>45.86</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53423,6 +53639,9 @@
       <c r="IG73" t="n">
         <v>14.68</v>
       </c>
+      <c r="IH73" t="n">
+        <v>26.75</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54150,6 +54369,9 @@
       <c r="IG74" t="n">
         <v>46</v>
       </c>
+      <c r="IH74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54877,6 +55099,9 @@
       <c r="IG75" t="n">
         <v>59</v>
       </c>
+      <c r="IH75" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55604,6 +55829,9 @@
       <c r="IG76" t="n">
         <v>41</v>
       </c>
+      <c r="IH76" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56331,6 +56559,9 @@
       <c r="IG77" t="n">
         <v>62</v>
       </c>
+      <c r="IH77" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57058,6 +57289,9 @@
       <c r="IG78" t="n">
         <v>2.48</v>
       </c>
+      <c r="IH78" t="n">
+        <v>3.58</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57785,6 +58019,9 @@
       <c r="IG79" t="n">
         <v>5.17</v>
       </c>
+      <c r="IH79" t="n">
+        <v>6.14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58512,6 +58749,9 @@
       <c r="IG80" t="n">
         <v>35.5</v>
       </c>
+      <c r="IH80" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59239,6 +59479,9 @@
       <c r="IG81" t="n">
         <v>19.4</v>
       </c>
+      <c r="IH81" t="n">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59966,6 +60209,9 @@
       <c r="IG82" t="n">
         <v>186.4</v>
       </c>
+      <c r="IH82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60693,6 +60939,9 @@
       <c r="IG83" t="n">
         <v>85.7</v>
       </c>
+      <c r="IH83" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61420,6 +61669,9 @@
       <c r="IG84" t="n">
         <v>25.33</v>
       </c>
+      <c r="IH84" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62147,6 +62399,9 @@
       <c r="IG85" t="n">
         <v>101</v>
       </c>
+      <c r="IH85" t="n">
+        <v>69.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62874,6 +63129,9 @@
       <c r="IG86" t="n">
         <v>6</v>
       </c>
+      <c r="IH86" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63601,6 +63859,9 @@
       <c r="IG87" t="n">
         <v>6</v>
       </c>
+      <c r="IH87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64328,6 +64589,9 @@
       <c r="IG88" t="n">
         <v>5</v>
       </c>
+      <c r="IH88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65055,6 +65319,9 @@
       <c r="IG89" t="n">
         <v>6</v>
       </c>
+      <c r="IH89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65782,6 +66049,9 @@
       <c r="IG90" t="n">
         <v>167</v>
       </c>
+      <c r="IH90" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66509,6 +66779,9 @@
       <c r="IG91" t="n">
         <v>189</v>
       </c>
+      <c r="IH91" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67236,6 +67509,9 @@
       <c r="IG92" t="n">
         <v>234</v>
       </c>
+      <c r="IH92" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67963,6 +68239,9 @@
       <c r="IG93" t="n">
         <v>63.8</v>
       </c>
+      <c r="IH93" t="n">
+        <v>69.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68690,6 +68969,9 @@
       <c r="IG94" t="n">
         <v>59</v>
       </c>
+      <c r="IH94" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69417,6 +69699,9 @@
       <c r="IG95" t="n">
         <v>12</v>
       </c>
+      <c r="IH95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70144,6 +70429,9 @@
       <c r="IG96" t="n">
         <v>9</v>
       </c>
+      <c r="IH96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70871,6 +71159,9 @@
       <c r="IG97" t="n">
         <v>46</v>
       </c>
+      <c r="IH97" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71598,6 +71889,9 @@
       <c r="IG98" t="n">
         <v>41</v>
       </c>
+      <c r="IH98" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72325,6 +72619,9 @@
       <c r="IG99" t="n">
         <v>47</v>
       </c>
+      <c r="IH99" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73052,6 +73349,9 @@
       <c r="IG100" t="n">
         <v>2</v>
       </c>
+      <c r="IH100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73779,6 +74079,9 @@
       <c r="IG101" t="n">
         <v>8</v>
       </c>
+      <c r="IH101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74506,6 +74809,9 @@
       <c r="IG102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IH102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,6 +1150,9 @@
       <c r="IH1" t="n">
         <v>10371</v>
       </c>
+      <c r="II1" t="n">
+        <v>10373</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1812,6 +1883,9 @@
       <c r="IH2" t="n">
         <v>2021</v>
       </c>
+      <c r="II2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2542,6 +2616,9 @@
       <c r="IH3" t="n">
         <v>5</v>
       </c>
+      <c r="II3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3272,6 +3349,9 @@
       <c r="IH4" t="n">
         <v>0</v>
       </c>
+      <c r="II4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4002,6 +4082,9 @@
       <c r="IH5" t="n">
         <v>0</v>
       </c>
+      <c r="II5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4732,6 +4815,9 @@
       <c r="IH6" t="n">
         <v>77</v>
       </c>
+      <c r="II6" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5462,6 +5548,9 @@
       <c r="IH7" t="n">
         <v>47</v>
       </c>
+      <c r="II7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6192,6 +6281,9 @@
       <c r="IH8" t="n">
         <v>30</v>
       </c>
+      <c r="II8" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6922,6 +7014,9 @@
       <c r="IH9" t="n">
         <v>1</v>
       </c>
+      <c r="II9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7652,6 +7747,9 @@
       <c r="IH10" t="n">
         <v>12</v>
       </c>
+      <c r="II10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8382,6 +8480,9 @@
       <c r="IH11" t="n">
         <v>229</v>
       </c>
+      <c r="II11" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9112,6 +9213,9 @@
       <c r="IH12" t="n">
         <v>212</v>
       </c>
+      <c r="II12" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9842,6 +9946,9 @@
       <c r="IH13" t="n">
         <v>441</v>
       </c>
+      <c r="II13" t="n">
+        <v>397</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10572,6 +10679,9 @@
       <c r="IH14" t="n">
         <v>1.08</v>
       </c>
+      <c r="II14" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11302,6 +11412,9 @@
       <c r="IH15" t="n">
         <v>98</v>
       </c>
+      <c r="II15" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12032,6 +12145,9 @@
       <c r="IH16" t="n">
         <v>40</v>
       </c>
+      <c r="II16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12762,6 +12878,9 @@
       <c r="IH17" t="n">
         <v>15</v>
       </c>
+      <c r="II17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13492,6 +13611,9 @@
       <c r="IH18" t="n">
         <v>23</v>
       </c>
+      <c r="II18" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14222,6 +14344,9 @@
       <c r="IH19" t="n">
         <v>20</v>
       </c>
+      <c r="II19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14952,6 +15077,9 @@
       <c r="IH20" t="n">
         <v>10</v>
       </c>
+      <c r="II20" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15682,6 +15810,9 @@
       <c r="IH21" t="n">
         <v>7</v>
       </c>
+      <c r="II21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16412,6 +16543,9 @@
       <c r="IH22" t="n">
         <v>14</v>
       </c>
+      <c r="II22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17142,6 +17276,9 @@
       <c r="IH23" t="n">
         <v>3</v>
       </c>
+      <c r="II23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17872,6 +18009,9 @@
       <c r="IH24" t="n">
         <v>27</v>
       </c>
+      <c r="II24" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18602,6 +18742,9 @@
       <c r="IH25" t="n">
         <v>37</v>
       </c>
+      <c r="II25" t="n">
+        <v>67.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19332,6 +19475,9 @@
       <c r="IH26" t="n">
         <v>44.1</v>
       </c>
+      <c r="II26" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20062,6 +20208,9 @@
       <c r="IH27" t="n">
         <v>16.33</v>
       </c>
+      <c r="II27" t="n">
+        <v>12.81</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20792,6 +20941,9 @@
       <c r="IH28" t="n">
         <v>44</v>
       </c>
+      <c r="II28" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21522,6 +21674,9 @@
       <c r="IH29" t="n">
         <v>60</v>
       </c>
+      <c r="II29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22252,6 +22407,9 @@
       <c r="IH30" t="n">
         <v>36</v>
       </c>
+      <c r="II30" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22982,6 +23140,9 @@
       <c r="IH31" t="n">
         <v>64</v>
       </c>
+      <c r="II31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23712,6 +23873,9 @@
       <c r="IH32" t="n">
         <v>2.37</v>
       </c>
+      <c r="II32" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24442,6 +24606,9 @@
       <c r="IH33" t="n">
         <v>6.4</v>
       </c>
+      <c r="II33" t="n">
+        <v>2.62</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25172,6 +25339,9 @@
       <c r="IH34" t="n">
         <v>37.5</v>
       </c>
+      <c r="II34" t="n">
+        <v>52.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25902,6 +26072,9 @@
       <c r="IH35" t="n">
         <v>15.6</v>
       </c>
+      <c r="II35" t="n">
+        <v>38.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26632,6 +26805,9 @@
       <c r="IH36" t="n">
         <v>188.6</v>
       </c>
+      <c r="II36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27362,6 +27538,9 @@
       <c r="IH37" t="n">
         <v>88.40000000000001</v>
       </c>
+      <c r="II37" t="n">
+        <v>88.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28092,6 +28271,9 @@
       <c r="IH38" t="n">
         <v>28</v>
       </c>
+      <c r="II38" t="n">
+        <v>27.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28822,6 +29004,9 @@
       <c r="IH39" t="n">
         <v>146.6</v>
       </c>
+      <c r="II39" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29552,6 +29737,9 @@
       <c r="IH40" t="n">
         <v>3</v>
       </c>
+      <c r="II40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30282,6 +30470,9 @@
       <c r="IH41" t="n">
         <v>5</v>
       </c>
+      <c r="II41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31012,6 +31203,9 @@
       <c r="IH42" t="n">
         <v>4</v>
       </c>
+      <c r="II42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31742,6 +31936,9 @@
       <c r="IH43" t="n">
         <v>10</v>
       </c>
+      <c r="II43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32472,6 +32669,9 @@
       <c r="IH44" t="n">
         <v>149</v>
       </c>
+      <c r="II44" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33202,6 +33402,9 @@
       <c r="IH45" t="n">
         <v>289</v>
       </c>
+      <c r="II45" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33932,6 +34135,9 @@
       <c r="IH46" t="n">
         <v>328</v>
       </c>
+      <c r="II46" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34662,6 +34868,9 @@
       <c r="IH47" t="n">
         <v>74.40000000000001</v>
       </c>
+      <c r="II47" t="n">
+        <v>75.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35392,6 +35601,9 @@
       <c r="IH48" t="n">
         <v>60</v>
       </c>
+      <c r="II48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36122,6 +36334,9 @@
       <c r="IH49" t="n">
         <v>12</v>
       </c>
+      <c r="II49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36852,6 +37067,9 @@
       <c r="IH50" t="n">
         <v>15</v>
       </c>
+      <c r="II50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37582,6 +37800,9 @@
       <c r="IH51" t="n">
         <v>44</v>
       </c>
+      <c r="II51" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38312,6 +38533,9 @@
       <c r="IH52" t="n">
         <v>36</v>
       </c>
+      <c r="II52" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39042,6 +39266,9 @@
       <c r="IH53" t="n">
         <v>56</v>
       </c>
+      <c r="II53" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39772,6 +39999,9 @@
       <c r="IH54" t="n">
         <v>3</v>
       </c>
+      <c r="II54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40502,6 +40732,9 @@
       <c r="IH55" t="n">
         <v>7</v>
       </c>
+      <c r="II55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41232,6 +41465,9 @@
       <c r="IH56" t="n">
         <v>70</v>
       </c>
+      <c r="II56" t="n">
+        <v>47.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41962,6 +42198,9 @@
       <c r="IH57" t="n">
         <v>199</v>
       </c>
+      <c r="II57" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42692,6 +42931,9 @@
       <c r="IH58" t="n">
         <v>122</v>
       </c>
+      <c r="II58" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43422,6 +43664,9 @@
       <c r="IH59" t="n">
         <v>321</v>
       </c>
+      <c r="II59" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44152,6 +44397,9 @@
       <c r="IH60" t="n">
         <v>1.63</v>
       </c>
+      <c r="II60" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44882,6 +45130,9 @@
       <c r="IH61" t="n">
         <v>89</v>
       </c>
+      <c r="II61" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45612,6 +45863,9 @@
       <c r="IH62" t="n">
         <v>53</v>
       </c>
+      <c r="II62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46342,6 +46596,9 @@
       <c r="IH63" t="n">
         <v>45</v>
       </c>
+      <c r="II63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47072,6 +47329,9 @@
       <c r="IH64" t="n">
         <v>20</v>
       </c>
+      <c r="II64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47802,6 +48062,9 @@
       <c r="IH65" t="n">
         <v>23</v>
       </c>
+      <c r="II65" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48532,6 +48795,9 @@
       <c r="IH66" t="n">
         <v>7</v>
       </c>
+      <c r="II66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49262,6 +49528,9 @@
       <c r="IH67" t="n">
         <v>5</v>
       </c>
+      <c r="II67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49992,6 +50261,9 @@
       <c r="IH68" t="n">
         <v>3</v>
       </c>
+      <c r="II68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50722,6 +50994,9 @@
       <c r="IH69" t="n">
         <v>2</v>
       </c>
+      <c r="II69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51452,6 +51727,9 @@
       <c r="IH70" t="n">
         <v>12</v>
       </c>
+      <c r="II70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52182,6 +52460,9 @@
       <c r="IH71" t="n">
         <v>58.3</v>
       </c>
+      <c r="II71" t="n">
+        <v>35.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52912,6 +53193,9 @@
       <c r="IH72" t="n">
         <v>45.86</v>
       </c>
+      <c r="II72" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53642,6 +53926,9 @@
       <c r="IH73" t="n">
         <v>26.75</v>
       </c>
+      <c r="II73" t="n">
+        <v>18.64</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54372,6 +54659,9 @@
       <c r="IH74" t="n">
         <v>26</v>
       </c>
+      <c r="II74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55102,6 +55392,9 @@
       <c r="IH75" t="n">
         <v>67</v>
       </c>
+      <c r="II75" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55832,6 +56125,9 @@
       <c r="IH76" t="n">
         <v>52</v>
       </c>
+      <c r="II76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56562,6 +56858,9 @@
       <c r="IH77" t="n">
         <v>43</v>
       </c>
+      <c r="II77" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57292,6 +57591,9 @@
       <c r="IH78" t="n">
         <v>3.58</v>
       </c>
+      <c r="II78" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58022,6 +58324,9 @@
       <c r="IH79" t="n">
         <v>6.14</v>
       </c>
+      <c r="II79" t="n">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58752,6 +59057,9 @@
       <c r="IH80" t="n">
         <v>23.3</v>
       </c>
+      <c r="II80" t="n">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59482,6 +59790,9 @@
       <c r="IH81" t="n">
         <v>16.3</v>
       </c>
+      <c r="II81" t="n">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60212,6 +60523,9 @@
       <c r="IH82" t="n">
         <v>187.7</v>
       </c>
+      <c r="II82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60942,6 +61256,9 @@
       <c r="IH83" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="II83" t="n">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61672,6 +61989,9 @@
       <c r="IH84" t="n">
         <v>24</v>
       </c>
+      <c r="II84" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62402,6 +62722,9 @@
       <c r="IH85" t="n">
         <v>69.90000000000001</v>
       </c>
+      <c r="II85" t="n">
+        <v>97.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63132,6 +63455,9 @@
       <c r="IH86" t="n">
         <v>14</v>
       </c>
+      <c r="II86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63862,6 +64188,9 @@
       <c r="IH87" t="n">
         <v>3</v>
       </c>
+      <c r="II87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64592,6 +64921,9 @@
       <c r="IH88" t="n">
         <v>2</v>
       </c>
+      <c r="II88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65322,6 +65654,9 @@
       <c r="IH89" t="n">
         <v>4</v>
       </c>
+      <c r="II89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66052,6 +66387,9 @@
       <c r="IH90" t="n">
         <v>118</v>
       </c>
+      <c r="II90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66782,6 +67120,9 @@
       <c r="IH91" t="n">
         <v>187</v>
       </c>
+      <c r="II91" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67512,6 +67853,9 @@
       <c r="IH92" t="n">
         <v>224</v>
       </c>
+      <c r="II92" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68242,6 +68586,9 @@
       <c r="IH93" t="n">
         <v>69.8</v>
       </c>
+      <c r="II93" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68972,6 +69319,9 @@
       <c r="IH94" t="n">
         <v>67</v>
       </c>
+      <c r="II94" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69702,6 +70052,9 @@
       <c r="IH95" t="n">
         <v>10</v>
       </c>
+      <c r="II95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70432,6 +70785,9 @@
       <c r="IH96" t="n">
         <v>10</v>
       </c>
+      <c r="II96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71162,6 +71518,9 @@
       <c r="IH97" t="n">
         <v>26</v>
       </c>
+      <c r="II97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71892,6 +72251,9 @@
       <c r="IH98" t="n">
         <v>52</v>
       </c>
+      <c r="II98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72622,6 +72984,9 @@
       <c r="IH99" t="n">
         <v>32</v>
       </c>
+      <c r="II99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73352,6 +73717,9 @@
       <c r="IH100" t="n">
         <v>2</v>
       </c>
+      <c r="II100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74082,6 +74450,9 @@
       <c r="IH101" t="n">
         <v>5</v>
       </c>
+      <c r="II101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74812,6 +75183,9 @@
       <c r="IH102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="II102" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:II102"/>
+  <dimension ref="A1:IJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,6 +1085,9 @@
       <c r="II1" t="n">
         <v>10373</v>
       </c>
+      <c r="IJ1" t="n">
+        <v>10387</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1886,6 +1821,9 @@
       <c r="II2" t="n">
         <v>2021</v>
       </c>
+      <c r="IJ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2619,6 +2557,9 @@
       <c r="II3" t="n">
         <v>6</v>
       </c>
+      <c r="IJ3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3352,6 +3293,9 @@
       <c r="II4" t="n">
         <v>0</v>
       </c>
+      <c r="IJ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4085,6 +4029,9 @@
       <c r="II5" t="n">
         <v>0</v>
       </c>
+      <c r="IJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4818,6 +4765,9 @@
       <c r="II6" t="n">
         <v>136</v>
       </c>
+      <c r="IJ6" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5551,6 +5501,9 @@
       <c r="II7" t="n">
         <v>39</v>
       </c>
+      <c r="IJ7" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6284,6 +6237,9 @@
       <c r="II8" t="n">
         <v>97</v>
       </c>
+      <c r="IJ8" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7017,6 +6973,9 @@
       <c r="II9" t="n">
         <v>1</v>
       </c>
+      <c r="IJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7750,6 +7709,9 @@
       <c r="II10" t="n">
         <v>17</v>
       </c>
+      <c r="IJ10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8483,6 +8445,9 @@
       <c r="II11" t="n">
         <v>242</v>
       </c>
+      <c r="IJ11" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9216,6 +9181,9 @@
       <c r="II12" t="n">
         <v>155</v>
       </c>
+      <c r="IJ12" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9949,6 +9917,9 @@
       <c r="II13" t="n">
         <v>397</v>
       </c>
+      <c r="IJ13" t="n">
+        <v>404</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10682,6 +10653,9 @@
       <c r="II14" t="n">
         <v>1.56</v>
       </c>
+      <c r="IJ14" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11415,6 +11389,9 @@
       <c r="II15" t="n">
         <v>120</v>
       </c>
+      <c r="IJ15" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12148,6 +12125,9 @@
       <c r="II16" t="n">
         <v>57</v>
       </c>
+      <c r="IJ16" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12881,6 +12861,9 @@
       <c r="II17" t="n">
         <v>28</v>
       </c>
+      <c r="IJ17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13614,6 +13597,9 @@
       <c r="II18" t="n">
         <v>29</v>
       </c>
+      <c r="IJ18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14347,6 +14333,9 @@
       <c r="II19" t="n">
         <v>15</v>
       </c>
+      <c r="IJ19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15080,6 +15069,9 @@
       <c r="II20" t="n">
         <v>21</v>
       </c>
+      <c r="IJ20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15813,6 +15805,9 @@
       <c r="II21" t="n">
         <v>10</v>
       </c>
+      <c r="IJ21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16546,6 +16541,9 @@
       <c r="II22" t="n">
         <v>8</v>
       </c>
+      <c r="IJ22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17279,6 +17277,9 @@
       <c r="II23" t="n">
         <v>2</v>
       </c>
+      <c r="IJ23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18012,6 +18013,9 @@
       <c r="II24" t="n">
         <v>31</v>
       </c>
+      <c r="IJ24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18745,6 +18749,9 @@
       <c r="II25" t="n">
         <v>67.7</v>
       </c>
+      <c r="IJ25" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19478,6 +19485,9 @@
       <c r="II26" t="n">
         <v>18.9</v>
       </c>
+      <c r="IJ26" t="n">
+        <v>33.67</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20211,6 +20221,9 @@
       <c r="II27" t="n">
         <v>12.81</v>
       </c>
+      <c r="IJ27" t="n">
+        <v>14.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20944,6 +20957,9 @@
       <c r="II28" t="n">
         <v>43</v>
       </c>
+      <c r="IJ28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21677,6 +21693,9 @@
       <c r="II29" t="n">
         <v>52</v>
       </c>
+      <c r="IJ29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22410,6 +22429,9 @@
       <c r="II30" t="n">
         <v>32</v>
       </c>
+      <c r="IJ30" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23143,6 +23165,9 @@
       <c r="II31" t="n">
         <v>55</v>
       </c>
+      <c r="IJ31" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23876,6 +23901,9 @@
       <c r="II32" t="n">
         <v>1.77</v>
       </c>
+      <c r="IJ32" t="n">
+        <v>2.32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24609,6 +24637,9 @@
       <c r="II33" t="n">
         <v>2.62</v>
       </c>
+      <c r="IJ33" t="n">
+        <v>5.42</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25342,6 +25373,9 @@
       <c r="II34" t="n">
         <v>52.7</v>
       </c>
+      <c r="IJ34" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26075,6 +26109,9 @@
       <c r="II35" t="n">
         <v>38.2</v>
       </c>
+      <c r="IJ35" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26808,6 +26845,9 @@
       <c r="II36" t="n">
         <v>188.4</v>
       </c>
+      <c r="IJ36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27541,6 +27581,9 @@
       <c r="II37" t="n">
         <v>88.2</v>
       </c>
+      <c r="IJ37" t="n">
+        <v>87.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28274,6 +28317,9 @@
       <c r="II38" t="n">
         <v>27.74</v>
       </c>
+      <c r="IJ38" t="n">
+        <v>27.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29007,6 +29053,9 @@
       <c r="II39" t="n">
         <v>140.3</v>
       </c>
+      <c r="IJ39" t="n">
+        <v>135.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29740,6 +29789,9 @@
       <c r="II40" t="n">
         <v>3</v>
       </c>
+      <c r="IJ40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30473,6 +30525,9 @@
       <c r="II41" t="n">
         <v>6</v>
       </c>
+      <c r="IJ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31206,6 +31261,9 @@
       <c r="II42" t="n">
         <v>3</v>
       </c>
+      <c r="IJ42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31939,6 +31997,9 @@
       <c r="II43" t="n">
         <v>11</v>
       </c>
+      <c r="IJ43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32672,6 +32733,9 @@
       <c r="II44" t="n">
         <v>146</v>
       </c>
+      <c r="IJ44" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33405,6 +33469,9 @@
       <c r="II45" t="n">
         <v>256</v>
       </c>
+      <c r="IJ45" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34138,6 +34205,9 @@
       <c r="II46" t="n">
         <v>300</v>
       </c>
+      <c r="IJ46" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34871,6 +34941,9 @@
       <c r="II47" t="n">
         <v>75.59999999999999</v>
       </c>
+      <c r="IJ47" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35604,6 +35677,9 @@
       <c r="II48" t="n">
         <v>52</v>
       </c>
+      <c r="IJ48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36337,6 +36413,9 @@
       <c r="II49" t="n">
         <v>15</v>
       </c>
+      <c r="IJ49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37070,6 +37149,9 @@
       <c r="II50" t="n">
         <v>17</v>
       </c>
+      <c r="IJ50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37803,6 +37885,9 @@
       <c r="II51" t="n">
         <v>43</v>
       </c>
+      <c r="IJ51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38536,6 +38621,9 @@
       <c r="II52" t="n">
         <v>32</v>
       </c>
+      <c r="IJ52" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39269,6 +39357,9 @@
       <c r="II53" t="n">
         <v>50</v>
       </c>
+      <c r="IJ53" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40002,6 +40093,9 @@
       <c r="II54" t="n">
         <v>5</v>
       </c>
+      <c r="IJ54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40735,6 +40829,9 @@
       <c r="II55" t="n">
         <v>10</v>
       </c>
+      <c r="IJ55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41468,6 +41565,9 @@
       <c r="II56" t="n">
         <v>47.6</v>
       </c>
+      <c r="IJ56" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42201,6 +42301,9 @@
       <c r="II57" t="n">
         <v>169</v>
       </c>
+      <c r="IJ57" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42934,6 +43037,9 @@
       <c r="II58" t="n">
         <v>92</v>
       </c>
+      <c r="IJ58" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43667,6 +43773,9 @@
       <c r="II59" t="n">
         <v>261</v>
       </c>
+      <c r="IJ59" t="n">
+        <v>324</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44400,6 +44509,9 @@
       <c r="II60" t="n">
         <v>1.84</v>
       </c>
+      <c r="IJ60" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45133,6 +45245,9 @@
       <c r="II61" t="n">
         <v>64</v>
       </c>
+      <c r="IJ61" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45866,6 +45981,9 @@
       <c r="II62" t="n">
         <v>51</v>
       </c>
+      <c r="IJ62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46599,6 +46717,9 @@
       <c r="II63" t="n">
         <v>45</v>
       </c>
+      <c r="IJ63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47332,6 +47453,9 @@
       <c r="II64" t="n">
         <v>15</v>
       </c>
+      <c r="IJ64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48065,6 +48189,9 @@
       <c r="II65" t="n">
         <v>29</v>
       </c>
+      <c r="IJ65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48798,6 +48925,9 @@
       <c r="II66" t="n">
         <v>5</v>
       </c>
+      <c r="IJ66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49531,6 +49661,9 @@
       <c r="II67" t="n">
         <v>3</v>
       </c>
+      <c r="IJ67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50264,6 +50397,9 @@
       <c r="II68" t="n">
         <v>7</v>
       </c>
+      <c r="IJ68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50997,6 +51133,9 @@
       <c r="II69" t="n">
         <v>2</v>
       </c>
+      <c r="IJ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51730,6 +51869,9 @@
       <c r="II70" t="n">
         <v>14</v>
       </c>
+      <c r="IJ70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52463,6 +52605,9 @@
       <c r="II71" t="n">
         <v>35.7</v>
       </c>
+      <c r="IJ71" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53196,6 +53341,9 @@
       <c r="II72" t="n">
         <v>52.2</v>
       </c>
+      <c r="IJ72" t="n">
+        <v>23.14</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53929,6 +54077,9 @@
       <c r="II73" t="n">
         <v>18.64</v>
       </c>
+      <c r="IJ73" t="n">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54662,6 +54813,9 @@
       <c r="II74" t="n">
         <v>35</v>
       </c>
+      <c r="IJ74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55395,6 +55549,9 @@
       <c r="II75" t="n">
         <v>56</v>
       </c>
+      <c r="IJ75" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56128,6 +56285,9 @@
       <c r="II76" t="n">
         <v>33</v>
       </c>
+      <c r="IJ76" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56861,6 +57021,9 @@
       <c r="II77" t="n">
         <v>38</v>
       </c>
+      <c r="IJ77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57594,6 +57757,9 @@
       <c r="II78" t="n">
         <v>2.71</v>
       </c>
+      <c r="IJ78" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58327,6 +58493,9 @@
       <c r="II79" t="n">
         <v>7.6</v>
       </c>
+      <c r="IJ79" t="n">
+        <v>2.79</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59060,6 +59229,9 @@
       <c r="II80" t="n">
         <v>31.6</v>
       </c>
+      <c r="IJ80" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59793,6 +59965,9 @@
       <c r="II81" t="n">
         <v>13.2</v>
       </c>
+      <c r="IJ81" t="n">
+        <v>35.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60526,6 +60701,9 @@
       <c r="II82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IJ82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61259,6 +61437,9 @@
       <c r="II83" t="n">
         <v>87.8</v>
       </c>
+      <c r="IJ83" t="n">
+        <v>83.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61992,6 +62173,9 @@
       <c r="II84" t="n">
         <v>25.74</v>
       </c>
+      <c r="IJ84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62725,6 +62909,9 @@
       <c r="II85" t="n">
         <v>97.7</v>
       </c>
+      <c r="IJ85" t="n">
+        <v>78.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63458,6 +63645,9 @@
       <c r="II86" t="n">
         <v>8</v>
       </c>
+      <c r="IJ86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64191,6 +64381,9 @@
       <c r="II87" t="n">
         <v>6</v>
       </c>
+      <c r="IJ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64924,6 +65117,9 @@
       <c r="II88" t="n">
         <v>3</v>
       </c>
+      <c r="IJ88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65657,6 +65853,9 @@
       <c r="II89" t="n">
         <v>6</v>
       </c>
+      <c r="IJ89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66390,6 +66589,9 @@
       <c r="II90" t="n">
         <v>120</v>
       </c>
+      <c r="IJ90" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67123,6 +67325,9 @@
       <c r="II91" t="n">
         <v>142</v>
       </c>
+      <c r="IJ91" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67856,6 +68061,9 @@
       <c r="II92" t="n">
         <v>167</v>
       </c>
+      <c r="IJ92" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68589,6 +68797,9 @@
       <c r="II93" t="n">
         <v>64</v>
       </c>
+      <c r="IJ93" t="n">
+        <v>74.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69322,6 +69533,9 @@
       <c r="II94" t="n">
         <v>56</v>
       </c>
+      <c r="IJ94" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70055,6 +70269,9 @@
       <c r="II95" t="n">
         <v>9</v>
       </c>
+      <c r="IJ95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70788,6 +71005,9 @@
       <c r="II96" t="n">
         <v>8</v>
       </c>
+      <c r="IJ96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71521,6 +71741,9 @@
       <c r="II97" t="n">
         <v>35</v>
       </c>
+      <c r="IJ97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72254,6 +72477,9 @@
       <c r="II98" t="n">
         <v>33</v>
       </c>
+      <c r="IJ98" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72987,6 +73213,9 @@
       <c r="II99" t="n">
         <v>44</v>
       </c>
+      <c r="IJ99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73720,6 +73949,9 @@
       <c r="II100" t="n">
         <v>2</v>
       </c>
+      <c r="IJ100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74453,6 +74685,9 @@
       <c r="II101" t="n">
         <v>3</v>
       </c>
+      <c r="IJ101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75186,6 +75421,9 @@
       <c r="II102" t="n">
         <v>60</v>
       </c>
+      <c r="IJ102" t="n">
+        <v>64.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,6 +1088,9 @@
       <c r="IJ1" t="n">
         <v>10387</v>
       </c>
+      <c r="IK1" t="n">
+        <v>10395</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1824,6 +1827,9 @@
       <c r="IJ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IK2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2560,6 +2566,9 @@
       <c r="IJ3" t="n">
         <v>7</v>
       </c>
+      <c r="IK3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3296,6 +3305,9 @@
       <c r="IJ4" t="n">
         <v>1</v>
       </c>
+      <c r="IK4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4032,6 +4044,9 @@
       <c r="IJ5" t="n">
         <v>0</v>
       </c>
+      <c r="IK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4768,6 +4783,9 @@
       <c r="IJ6" t="n">
         <v>88</v>
       </c>
+      <c r="IK6" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5504,6 +5522,9 @@
       <c r="IJ7" t="n">
         <v>90</v>
       </c>
+      <c r="IK7" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6240,6 +6261,9 @@
       <c r="IJ8" t="n">
         <v>-2</v>
       </c>
+      <c r="IK8" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6976,6 +7000,9 @@
       <c r="IJ9" t="n">
         <v>0</v>
       </c>
+      <c r="IK9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7712,6 +7739,9 @@
       <c r="IJ10" t="n">
         <v>16</v>
       </c>
+      <c r="IK10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8448,6 +8478,9 @@
       <c r="IJ11" t="n">
         <v>232</v>
       </c>
+      <c r="IK11" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9184,6 +9217,9 @@
       <c r="IJ12" t="n">
         <v>172</v>
       </c>
+      <c r="IK12" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9920,6 +9956,9 @@
       <c r="IJ13" t="n">
         <v>404</v>
       </c>
+      <c r="IK13" t="n">
+        <v>439</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10656,6 +10695,9 @@
       <c r="IJ14" t="n">
         <v>1.35</v>
       </c>
+      <c r="IK14" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11392,6 +11434,9 @@
       <c r="IJ15" t="n">
         <v>100</v>
       </c>
+      <c r="IK15" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12128,6 +12173,9 @@
       <c r="IJ16" t="n">
         <v>58</v>
       </c>
+      <c r="IK16" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12864,6 +12912,9 @@
       <c r="IJ17" t="n">
         <v>32</v>
       </c>
+      <c r="IK17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13600,6 +13651,9 @@
       <c r="IJ18" t="n">
         <v>22</v>
       </c>
+      <c r="IK18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14336,6 +14390,9 @@
       <c r="IJ19" t="n">
         <v>16</v>
       </c>
+      <c r="IK19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15072,6 +15129,9 @@
       <c r="IJ20" t="n">
         <v>12</v>
       </c>
+      <c r="IK20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15808,6 +15868,9 @@
       <c r="IJ21" t="n">
         <v>7</v>
       </c>
+      <c r="IK21" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16544,6 +16607,9 @@
       <c r="IJ22" t="n">
         <v>13</v>
       </c>
+      <c r="IK22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17280,6 +17346,9 @@
       <c r="IJ23" t="n">
         <v>3</v>
       </c>
+      <c r="IK23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18016,6 +18085,9 @@
       <c r="IJ24" t="n">
         <v>28</v>
       </c>
+      <c r="IK24" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18752,6 +18824,9 @@
       <c r="IJ25" t="n">
         <v>42.9</v>
       </c>
+      <c r="IK25" t="n">
+        <v>61.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19488,6 +19563,9 @@
       <c r="IJ26" t="n">
         <v>33.67</v>
       </c>
+      <c r="IK26" t="n">
+        <v>23.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20224,6 +20302,9 @@
       <c r="IJ27" t="n">
         <v>14.43</v>
       </c>
+      <c r="IK27" t="n">
+        <v>14.16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20960,6 +21041,9 @@
       <c r="IJ28" t="n">
         <v>39</v>
       </c>
+      <c r="IK28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21696,6 +21780,9 @@
       <c r="IJ29" t="n">
         <v>54</v>
       </c>
+      <c r="IK29" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22432,6 +22519,9 @@
       <c r="IJ30" t="n">
         <v>25</v>
       </c>
+      <c r="IK30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23168,6 +23258,9 @@
       <c r="IJ31" t="n">
         <v>65</v>
       </c>
+      <c r="IK31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23904,6 +23997,9 @@
       <c r="IJ32" t="n">
         <v>2.32</v>
       </c>
+      <c r="IK32" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24640,6 +24736,9 @@
       <c r="IJ33" t="n">
         <v>5.42</v>
       </c>
+      <c r="IK33" t="n">
+        <v>2.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25376,6 +25475,9 @@
       <c r="IJ34" t="n">
         <v>38.5</v>
       </c>
+      <c r="IK34" t="n">
+        <v>50.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26112,6 +26214,9 @@
       <c r="IJ35" t="n">
         <v>18.5</v>
       </c>
+      <c r="IK35" t="n">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26848,6 +26953,9 @@
       <c r="IJ36" t="n">
         <v>187.7</v>
       </c>
+      <c r="IK36" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27584,6 +27692,9 @@
       <c r="IJ37" t="n">
         <v>87.09999999999999</v>
       </c>
+      <c r="IK37" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28320,6 +28431,9 @@
       <c r="IJ38" t="n">
         <v>27.58</v>
       </c>
+      <c r="IK38" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29056,6 +29170,9 @@
       <c r="IJ39" t="n">
         <v>135.6</v>
       </c>
+      <c r="IK39" t="n">
+        <v>139.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29792,6 +29909,9 @@
       <c r="IJ40" t="n">
         <v>5</v>
       </c>
+      <c r="IK40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30528,6 +30648,9 @@
       <c r="IJ41" t="n">
         <v>5</v>
       </c>
+      <c r="IK41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31264,6 +31387,9 @@
       <c r="IJ42" t="n">
         <v>2</v>
       </c>
+      <c r="IK42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32000,6 +32126,9 @@
       <c r="IJ43" t="n">
         <v>11</v>
       </c>
+      <c r="IK43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32736,6 +32865,9 @@
       <c r="IJ44" t="n">
         <v>151</v>
       </c>
+      <c r="IK44" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33472,6 +33604,9 @@
       <c r="IJ45" t="n">
         <v>250</v>
       </c>
+      <c r="IK45" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34208,6 +34343,9 @@
       <c r="IJ46" t="n">
         <v>296</v>
       </c>
+      <c r="IK46" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34944,6 +35082,9 @@
       <c r="IJ47" t="n">
         <v>73.3</v>
       </c>
+      <c r="IK47" t="n">
+        <v>77.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35680,6 +35821,9 @@
       <c r="IJ48" t="n">
         <v>54</v>
       </c>
+      <c r="IK48" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36416,6 +36560,9 @@
       <c r="IJ49" t="n">
         <v>11</v>
       </c>
+      <c r="IK49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37152,6 +37299,9 @@
       <c r="IJ50" t="n">
         <v>9</v>
       </c>
+      <c r="IK50" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37888,6 +38038,9 @@
       <c r="IJ51" t="n">
         <v>39</v>
       </c>
+      <c r="IK51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38624,6 +38777,9 @@
       <c r="IJ52" t="n">
         <v>25</v>
       </c>
+      <c r="IK52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39360,6 +39516,9 @@
       <c r="IJ53" t="n">
         <v>40</v>
       </c>
+      <c r="IK53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40096,6 +40255,9 @@
       <c r="IJ54" t="n">
         <v>3</v>
       </c>
+      <c r="IK54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40832,6 +40994,9 @@
       <c r="IJ55" t="n">
         <v>7</v>
       </c>
+      <c r="IK55" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41568,6 +41733,9 @@
       <c r="IJ56" t="n">
         <v>58.3</v>
       </c>
+      <c r="IK56" t="n">
+        <v>89.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42304,6 +42472,9 @@
       <c r="IJ57" t="n">
         <v>203</v>
       </c>
+      <c r="IK57" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43040,6 +43211,9 @@
       <c r="IJ58" t="n">
         <v>121</v>
       </c>
+      <c r="IK58" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43776,6 +43950,9 @@
       <c r="IJ59" t="n">
         <v>324</v>
       </c>
+      <c r="IK59" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44512,6 +44689,9 @@
       <c r="IJ60" t="n">
         <v>1.68</v>
       </c>
+      <c r="IK60" t="n">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45248,6 +45428,9 @@
       <c r="IJ61" t="n">
         <v>84</v>
       </c>
+      <c r="IK61" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45984,6 +46167,9 @@
       <c r="IJ62" t="n">
         <v>50</v>
       </c>
+      <c r="IK62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46720,6 +46906,9 @@
       <c r="IJ63" t="n">
         <v>32</v>
       </c>
+      <c r="IK63" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47456,6 +47645,9 @@
       <c r="IJ64" t="n">
         <v>16</v>
       </c>
+      <c r="IK64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48192,6 +48384,9 @@
       <c r="IJ65" t="n">
         <v>22</v>
       </c>
+      <c r="IK65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48928,6 +49123,9 @@
       <c r="IJ66" t="n">
         <v>14</v>
       </c>
+      <c r="IK66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49664,6 +49862,9 @@
       <c r="IJ67" t="n">
         <v>9</v>
       </c>
+      <c r="IK67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50400,6 +50601,9 @@
       <c r="IJ68" t="n">
         <v>4</v>
       </c>
+      <c r="IK68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51136,6 +51340,9 @@
       <c r="IJ69" t="n">
         <v>2</v>
       </c>
+      <c r="IK69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51872,6 +52079,9 @@
       <c r="IJ70" t="n">
         <v>20</v>
       </c>
+      <c r="IK70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52608,6 +52818,9 @@
       <c r="IJ71" t="n">
         <v>70</v>
       </c>
+      <c r="IK71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53344,6 +53557,9 @@
       <c r="IJ72" t="n">
         <v>23.14</v>
       </c>
+      <c r="IK72" t="n">
+        <v>34.22</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54080,6 +54296,9 @@
       <c r="IJ73" t="n">
         <v>16.2</v>
       </c>
+      <c r="IK73" t="n">
+        <v>17.11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54816,6 +55035,9 @@
       <c r="IJ74" t="n">
         <v>36</v>
       </c>
+      <c r="IK74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55552,6 +55774,9 @@
       <c r="IJ75" t="n">
         <v>61</v>
       </c>
+      <c r="IK75" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56288,6 +56513,9 @@
       <c r="IJ76" t="n">
         <v>48</v>
       </c>
+      <c r="IK76" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57024,6 +57252,9 @@
       <c r="IJ77" t="n">
         <v>39</v>
       </c>
+      <c r="IK77" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57760,6 +57991,9 @@
       <c r="IJ78" t="n">
         <v>1.95</v>
       </c>
+      <c r="IK78" t="n">
+        <v>2.39</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58496,6 +58730,9 @@
       <c r="IJ79" t="n">
         <v>2.79</v>
       </c>
+      <c r="IK79" t="n">
+        <v>4.78</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59232,6 +59469,9 @@
       <c r="IJ80" t="n">
         <v>46.2</v>
       </c>
+      <c r="IK80" t="n">
+        <v>34.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59968,6 +60208,9 @@
       <c r="IJ81" t="n">
         <v>35.9</v>
       </c>
+      <c r="IK81" t="n">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60704,6 +60947,9 @@
       <c r="IJ82" t="n">
         <v>187.1</v>
       </c>
+      <c r="IK82" t="n">
+        <v>185.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61440,6 +61686,9 @@
       <c r="IJ83" t="n">
         <v>83.8</v>
       </c>
+      <c r="IK83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62176,6 +62425,9 @@
       <c r="IJ84" t="n">
         <v>24.41</v>
       </c>
+      <c r="IK84" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62912,6 +63164,9 @@
       <c r="IJ85" t="n">
         <v>78.90000000000001</v>
       </c>
+      <c r="IK85" t="n">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63648,6 +63903,9 @@
       <c r="IJ86" t="n">
         <v>10</v>
       </c>
+      <c r="IK86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64384,6 +64642,9 @@
       <c r="IJ87" t="n">
         <v>5</v>
       </c>
+      <c r="IK87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65120,6 +65381,9 @@
       <c r="IJ88" t="n">
         <v>5</v>
       </c>
+      <c r="IK88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65856,6 +66120,9 @@
       <c r="IJ89" t="n">
         <v>3</v>
       </c>
+      <c r="IK89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66592,6 +66859,9 @@
       <c r="IJ90" t="n">
         <v>118</v>
       </c>
+      <c r="IK90" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67328,6 +67598,9 @@
       <c r="IJ91" t="n">
         <v>182</v>
       </c>
+      <c r="IK91" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68064,6 +68337,9 @@
       <c r="IJ92" t="n">
         <v>240</v>
       </c>
+      <c r="IK92" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68800,6 +69076,9 @@
       <c r="IJ93" t="n">
         <v>74.09999999999999</v>
       </c>
+      <c r="IK93" t="n">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69536,6 +69815,9 @@
       <c r="IJ94" t="n">
         <v>61</v>
       </c>
+      <c r="IK94" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70272,6 +70554,9 @@
       <c r="IJ95" t="n">
         <v>12</v>
       </c>
+      <c r="IK95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71008,6 +71293,9 @@
       <c r="IJ96" t="n">
         <v>10</v>
       </c>
+      <c r="IK96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71744,6 +72032,9 @@
       <c r="IJ97" t="n">
         <v>36</v>
       </c>
+      <c r="IK97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72480,6 +72771,9 @@
       <c r="IJ98" t="n">
         <v>48</v>
       </c>
+      <c r="IK98" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73216,6 +73510,9 @@
       <c r="IJ99" t="n">
         <v>51</v>
       </c>
+      <c r="IK99" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73952,6 +74249,9 @@
       <c r="IJ100" t="n">
         <v>2</v>
       </c>
+      <c r="IK100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74688,6 +74988,9 @@
       <c r="IJ101" t="n">
         <v>9</v>
       </c>
+      <c r="IK101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75424,6 +75727,9 @@
       <c r="IJ102" t="n">
         <v>64.3</v>
       </c>
+      <c r="IK102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,6 +1091,9 @@
       <c r="IK1" t="n">
         <v>10395</v>
       </c>
+      <c r="IL1" t="n">
+        <v>10404</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1830,6 +1833,9 @@
       <c r="IK2" t="n">
         <v>2021</v>
       </c>
+      <c r="IL2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2569,6 +2575,9 @@
       <c r="IK3" t="n">
         <v>8</v>
       </c>
+      <c r="IL3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3308,6 +3317,9 @@
       <c r="IK4" t="n">
         <v>1</v>
       </c>
+      <c r="IL4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4047,6 +4059,9 @@
       <c r="IK5" t="n">
         <v>1</v>
       </c>
+      <c r="IL5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4786,6 +4801,9 @@
       <c r="IK6" t="n">
         <v>126</v>
       </c>
+      <c r="IL6" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5525,6 +5543,9 @@
       <c r="IK7" t="n">
         <v>63</v>
       </c>
+      <c r="IL7" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6264,6 +6285,9 @@
       <c r="IK8" t="n">
         <v>63</v>
       </c>
+      <c r="IL8" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7003,6 +7027,9 @@
       <c r="IK9" t="n">
         <v>1</v>
       </c>
+      <c r="IL9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7742,6 +7769,9 @@
       <c r="IK10" t="n">
         <v>14</v>
       </c>
+      <c r="IL10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8481,6 +8511,9 @@
       <c r="IK11" t="n">
         <v>248</v>
       </c>
+      <c r="IL11" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9220,6 +9253,9 @@
       <c r="IK12" t="n">
         <v>191</v>
       </c>
+      <c r="IL12" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9959,6 +9995,9 @@
       <c r="IK13" t="n">
         <v>439</v>
       </c>
+      <c r="IL13" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10698,6 +10737,9 @@
       <c r="IK14" t="n">
         <v>1.3</v>
       </c>
+      <c r="IL14" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11437,6 +11479,9 @@
       <c r="IK15" t="n">
         <v>122</v>
       </c>
+      <c r="IL15" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12176,6 +12221,9 @@
       <c r="IK16" t="n">
         <v>75</v>
       </c>
+      <c r="IL16" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12915,6 +12963,9 @@
       <c r="IK17" t="n">
         <v>25</v>
       </c>
+      <c r="IL17" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13654,6 +13705,9 @@
       <c r="IK18" t="n">
         <v>21</v>
       </c>
+      <c r="IL18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14393,6 +14447,9 @@
       <c r="IK19" t="n">
         <v>11</v>
       </c>
+      <c r="IL19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15132,6 +15189,9 @@
       <c r="IK20" t="n">
         <v>19</v>
       </c>
+      <c r="IL20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15871,6 +15931,9 @@
       <c r="IK21" t="n">
         <v>17</v>
       </c>
+      <c r="IL21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16610,6 +16673,9 @@
       <c r="IK22" t="n">
         <v>9</v>
       </c>
+      <c r="IL22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17349,6 +17415,9 @@
       <c r="IK23" t="n">
         <v>3</v>
       </c>
+      <c r="IL23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18088,6 +18157,9 @@
       <c r="IK24" t="n">
         <v>31</v>
       </c>
+      <c r="IL24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18827,6 +18899,9 @@
       <c r="IK25" t="n">
         <v>61.3</v>
       </c>
+      <c r="IL25" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19566,6 +19641,9 @@
       <c r="IK26" t="n">
         <v>23.11</v>
       </c>
+      <c r="IL26" t="n">
+        <v>39.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20305,6 +20383,9 @@
       <c r="IK27" t="n">
         <v>14.16</v>
       </c>
+      <c r="IL27" t="n">
+        <v>22.11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21044,6 +21125,9 @@
       <c r="IK28" t="n">
         <v>39</v>
       </c>
+      <c r="IL28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21783,6 +21867,9 @@
       <c r="IK29" t="n">
         <v>41</v>
       </c>
+      <c r="IL29" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22522,6 +22609,9 @@
       <c r="IK30" t="n">
         <v>34</v>
       </c>
+      <c r="IL30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23261,6 +23351,9 @@
       <c r="IK31" t="n">
         <v>55</v>
       </c>
+      <c r="IL31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24000,6 +24093,9 @@
       <c r="IK32" t="n">
         <v>1.77</v>
       </c>
+      <c r="IL32" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24739,6 +24835,9 @@
       <c r="IK33" t="n">
         <v>2.89</v>
       </c>
+      <c r="IL33" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25478,6 +25577,9 @@
       <c r="IK34" t="n">
         <v>50.9</v>
       </c>
+      <c r="IL34" t="n">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26217,6 +26319,9 @@
       <c r="IK35" t="n">
         <v>34.5</v>
       </c>
+      <c r="IL35" t="n">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26956,6 +27061,9 @@
       <c r="IK36" t="n">
         <v>187.6</v>
       </c>
+      <c r="IL36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27695,6 +27803,9 @@
       <c r="IK37" t="n">
         <v>87.40000000000001</v>
       </c>
+      <c r="IL37" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28434,6 +28545,9 @@
       <c r="IK38" t="n">
         <v>27.8</v>
       </c>
+      <c r="IL38" t="n">
+        <v>27.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29173,6 +29287,9 @@
       <c r="IK39" t="n">
         <v>139.3</v>
       </c>
+      <c r="IL39" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29912,6 +30029,9 @@
       <c r="IK40" t="n">
         <v>6</v>
       </c>
+      <c r="IL40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30651,6 +30771,9 @@
       <c r="IK41" t="n">
         <v>4</v>
       </c>
+      <c r="IL41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31390,6 +31513,9 @@
       <c r="IK42" t="n">
         <v>1</v>
       </c>
+      <c r="IL42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32129,6 +32255,9 @@
       <c r="IK43" t="n">
         <v>12</v>
       </c>
+      <c r="IL43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32868,6 +32997,9 @@
       <c r="IK44" t="n">
         <v>147</v>
       </c>
+      <c r="IL44" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33607,6 +33739,9 @@
       <c r="IK45" t="n">
         <v>284</v>
       </c>
+      <c r="IL45" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34346,6 +34481,9 @@
       <c r="IK46" t="n">
         <v>341</v>
       </c>
+      <c r="IL46" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35085,6 +35223,9 @@
       <c r="IK47" t="n">
         <v>77.7</v>
       </c>
+      <c r="IL47" t="n">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35824,6 +35965,9 @@
       <c r="IK48" t="n">
         <v>41</v>
       </c>
+      <c r="IL48" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36563,6 +36707,9 @@
       <c r="IK49" t="n">
         <v>6</v>
       </c>
+      <c r="IL49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37302,6 +37449,9 @@
       <c r="IK50" t="n">
         <v>20</v>
       </c>
+      <c r="IL50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38041,6 +38191,9 @@
       <c r="IK51" t="n">
         <v>39</v>
       </c>
+      <c r="IL51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38780,6 +38933,9 @@
       <c r="IK52" t="n">
         <v>34</v>
       </c>
+      <c r="IL52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39519,6 +39675,9 @@
       <c r="IK53" t="n">
         <v>46</v>
       </c>
+      <c r="IL53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40258,6 +40417,9 @@
       <c r="IK54" t="n">
         <v>4</v>
       </c>
+      <c r="IL54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40997,6 +41159,9 @@
       <c r="IK55" t="n">
         <v>17</v>
       </c>
+      <c r="IL55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41736,6 +41901,9 @@
       <c r="IK56" t="n">
         <v>89.5</v>
       </c>
+      <c r="IL56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42475,6 +42643,9 @@
       <c r="IK57" t="n">
         <v>160</v>
       </c>
+      <c r="IL57" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43214,6 +43385,9 @@
       <c r="IK58" t="n">
         <v>148</v>
       </c>
+      <c r="IL58" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43953,6 +44127,9 @@
       <c r="IK59" t="n">
         <v>308</v>
       </c>
+      <c r="IL59" t="n">
+        <v>323</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44692,6 +44869,9 @@
       <c r="IK60" t="n">
         <v>1.08</v>
       </c>
+      <c r="IL60" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45431,6 +45611,9 @@
       <c r="IK61" t="n">
         <v>70</v>
       </c>
+      <c r="IL61" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46170,6 +46353,9 @@
       <c r="IK62" t="n">
         <v>60</v>
       </c>
+      <c r="IL62" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46909,6 +47095,9 @@
       <c r="IK63" t="n">
         <v>39</v>
       </c>
+      <c r="IL63" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47648,6 +47837,9 @@
       <c r="IK64" t="n">
         <v>11</v>
       </c>
+      <c r="IL64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48387,6 +48579,9 @@
       <c r="IK65" t="n">
         <v>21</v>
       </c>
+      <c r="IL65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49126,6 +49321,9 @@
       <c r="IK66" t="n">
         <v>9</v>
       </c>
+      <c r="IL66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49865,6 +50063,9 @@
       <c r="IK67" t="n">
         <v>6</v>
       </c>
+      <c r="IL67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50604,6 +50805,9 @@
       <c r="IK68" t="n">
         <v>6</v>
       </c>
+      <c r="IL68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51343,6 +51547,9 @@
       <c r="IK69" t="n">
         <v>3</v>
       </c>
+      <c r="IL69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52082,6 +52289,9 @@
       <c r="IK70" t="n">
         <v>18</v>
       </c>
+      <c r="IL70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52821,6 +53031,9 @@
       <c r="IK71" t="n">
         <v>50</v>
       </c>
+      <c r="IL71" t="n">
+        <v>22.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53560,6 +53773,9 @@
       <c r="IK72" t="n">
         <v>34.22</v>
       </c>
+      <c r="IL72" t="n">
+        <v>64.59999999999999</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54299,6 +54515,9 @@
       <c r="IK73" t="n">
         <v>17.11</v>
       </c>
+      <c r="IL73" t="n">
+        <v>14.68</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55038,6 +55257,9 @@
       <c r="IK74" t="n">
         <v>30</v>
       </c>
+      <c r="IL74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55777,6 +55999,9 @@
       <c r="IK75" t="n">
         <v>56</v>
       </c>
+      <c r="IL75" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56516,6 +56741,9 @@
       <c r="IK76" t="n">
         <v>36</v>
       </c>
+      <c r="IL76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57255,6 +57483,9 @@
       <c r="IK77" t="n">
         <v>43</v>
       </c>
+      <c r="IL77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57994,6 +58225,9 @@
       <c r="IK78" t="n">
         <v>2.39</v>
       </c>
+      <c r="IL78" t="n">
+        <v>2.18</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58733,6 +58967,9 @@
       <c r="IK79" t="n">
         <v>4.78</v>
       </c>
+      <c r="IL79" t="n">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59472,6 +59709,9 @@
       <c r="IK80" t="n">
         <v>34.9</v>
       </c>
+      <c r="IL80" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60211,6 +60451,9 @@
       <c r="IK81" t="n">
         <v>20.9</v>
       </c>
+      <c r="IL81" t="n">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60950,6 +61193,9 @@
       <c r="IK82" t="n">
         <v>185.4</v>
       </c>
+      <c r="IL82" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61689,6 +61935,9 @@
       <c r="IK83" t="n">
         <v>85</v>
       </c>
+      <c r="IL83" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62428,6 +62677,9 @@
       <c r="IK84" t="n">
         <v>26.16</v>
       </c>
+      <c r="IL84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63167,6 +63419,9 @@
       <c r="IK85" t="n">
         <v>104.7</v>
       </c>
+      <c r="IL85" t="n">
+        <v>90.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63906,6 +64161,9 @@
       <c r="IK86" t="n">
         <v>7</v>
       </c>
+      <c r="IL86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64645,6 +64903,9 @@
       <c r="IK87" t="n">
         <v>5</v>
       </c>
+      <c r="IL87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65384,6 +65645,9 @@
       <c r="IK88" t="n">
         <v>5</v>
       </c>
+      <c r="IL88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66123,6 +66387,9 @@
       <c r="IK89" t="n">
         <v>6</v>
       </c>
+      <c r="IL89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66862,6 +67129,9 @@
       <c r="IK90" t="n">
         <v>115</v>
       </c>
+      <c r="IL90" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67601,6 +67871,9 @@
       <c r="IK91" t="n">
         <v>193</v>
       </c>
+      <c r="IL91" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68340,6 +68613,9 @@
       <c r="IK92" t="n">
         <v>221</v>
       </c>
+      <c r="IL92" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69079,6 +69355,9 @@
       <c r="IK93" t="n">
         <v>71.8</v>
       </c>
+      <c r="IL93" t="n">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69818,6 +70097,9 @@
       <c r="IK94" t="n">
         <v>56</v>
       </c>
+      <c r="IL94" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70557,6 +70839,9 @@
       <c r="IK95" t="n">
         <v>6</v>
       </c>
+      <c r="IL95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71296,6 +71581,9 @@
       <c r="IK96" t="n">
         <v>6</v>
       </c>
+      <c r="IL96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72035,6 +72323,9 @@
       <c r="IK97" t="n">
         <v>30</v>
       </c>
+      <c r="IL97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72774,6 +73065,9 @@
       <c r="IK98" t="n">
         <v>36</v>
       </c>
+      <c r="IL98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73513,6 +73807,9 @@
       <c r="IK99" t="n">
         <v>37</v>
       </c>
+      <c r="IL99" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74252,6 +74549,9 @@
       <c r="IK100" t="n">
         <v>12</v>
       </c>
+      <c r="IL100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74991,6 +75291,9 @@
       <c r="IK101" t="n">
         <v>6</v>
       </c>
+      <c r="IL101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75730,6 +76033,9 @@
       <c r="IK102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IL102" t="n">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,6 +1094,9 @@
       <c r="IL1" t="n">
         <v>10404</v>
       </c>
+      <c r="IM1" t="n">
+        <v>10412</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1836,6 +1839,9 @@
       <c r="IL2" t="n">
         <v>2021</v>
       </c>
+      <c r="IM2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2578,6 +2584,9 @@
       <c r="IL3" t="n">
         <v>9</v>
       </c>
+      <c r="IM3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3320,6 +3329,9 @@
       <c r="IL4" t="n">
         <v>1</v>
       </c>
+      <c r="IM4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4062,6 +4074,9 @@
       <c r="IL5" t="n">
         <v>1</v>
       </c>
+      <c r="IM5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4804,6 +4819,9 @@
       <c r="IL6" t="n">
         <v>68</v>
       </c>
+      <c r="IM6" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5546,6 +5564,9 @@
       <c r="IL7" t="n">
         <v>47</v>
       </c>
+      <c r="IM7" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6288,6 +6309,9 @@
       <c r="IL8" t="n">
         <v>21</v>
       </c>
+      <c r="IM8" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7030,6 +7054,9 @@
       <c r="IL9" t="n">
         <v>1</v>
       </c>
+      <c r="IM9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7772,6 +7799,9 @@
       <c r="IL10" t="n">
         <v>15</v>
       </c>
+      <c r="IM10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8514,6 +8544,9 @@
       <c r="IL11" t="n">
         <v>226</v>
       </c>
+      <c r="IM11" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9256,6 +9289,9 @@
       <c r="IL12" t="n">
         <v>172</v>
       </c>
+      <c r="IM12" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9998,6 +10034,9 @@
       <c r="IL13" t="n">
         <v>398</v>
       </c>
+      <c r="IM13" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10740,6 +10779,9 @@
       <c r="IL14" t="n">
         <v>1.31</v>
       </c>
+      <c r="IM14" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11482,6 +11524,9 @@
       <c r="IL15" t="n">
         <v>103</v>
       </c>
+      <c r="IM15" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12224,6 +12269,9 @@
       <c r="IL16" t="n">
         <v>62</v>
       </c>
+      <c r="IM16" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12966,6 +13014,9 @@
       <c r="IL17" t="n">
         <v>23</v>
       </c>
+      <c r="IM17" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13708,6 +13759,9 @@
       <c r="IL18" t="n">
         <v>13</v>
       </c>
+      <c r="IM18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14450,6 +14504,9 @@
       <c r="IL19" t="n">
         <v>12</v>
       </c>
+      <c r="IM19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15192,6 +15249,9 @@
       <c r="IL20" t="n">
         <v>10</v>
       </c>
+      <c r="IM20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15934,6 +15994,9 @@
       <c r="IL21" t="n">
         <v>7</v>
       </c>
+      <c r="IM21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16676,6 +16739,9 @@
       <c r="IL22" t="n">
         <v>7</v>
       </c>
+      <c r="IM22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17418,6 +17484,9 @@
       <c r="IL23" t="n">
         <v>1</v>
       </c>
+      <c r="IM23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18160,6 +18229,9 @@
       <c r="IL24" t="n">
         <v>18</v>
       </c>
+      <c r="IM24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18902,6 +18974,9 @@
       <c r="IL25" t="n">
         <v>55.6</v>
       </c>
+      <c r="IM25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19644,6 +19719,9 @@
       <c r="IL26" t="n">
         <v>39.8</v>
       </c>
+      <c r="IM26" t="n">
+        <v>32.29</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20386,6 +20464,9 @@
       <c r="IL27" t="n">
         <v>22.11</v>
       </c>
+      <c r="IM27" t="n">
+        <v>21.52</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21128,6 +21209,9 @@
       <c r="IL28" t="n">
         <v>30</v>
       </c>
+      <c r="IM28" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21870,6 +21954,9 @@
       <c r="IL29" t="n">
         <v>42</v>
       </c>
+      <c r="IM29" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22612,6 +22699,9 @@
       <c r="IL30" t="n">
         <v>40</v>
       </c>
+      <c r="IM30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23354,6 +23444,9 @@
       <c r="IL31" t="n">
         <v>45</v>
       </c>
+      <c r="IM31" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24096,6 +24189,9 @@
       <c r="IL32" t="n">
         <v>2.5</v>
       </c>
+      <c r="IM32" t="n">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24838,6 +24934,9 @@
       <c r="IL33" t="n">
         <v>4.5</v>
       </c>
+      <c r="IM33" t="n">
+        <v>4.43</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25580,6 +25679,9 @@
       <c r="IL34" t="n">
         <v>37.8</v>
       </c>
+      <c r="IM34" t="n">
+        <v>32.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26322,6 +26424,9 @@
       <c r="IL35" t="n">
         <v>22.2</v>
       </c>
+      <c r="IM35" t="n">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27064,6 +27169,9 @@
       <c r="IL36" t="n">
         <v>188.2</v>
       </c>
+      <c r="IM36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27806,6 +27914,9 @@
       <c r="IL37" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="IM37" t="n">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28548,6 +28659,9 @@
       <c r="IL38" t="n">
         <v>27.74</v>
       </c>
+      <c r="IM38" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29290,6 +29404,9 @@
       <c r="IL39" t="n">
         <v>138</v>
       </c>
+      <c r="IM39" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30032,6 +30149,9 @@
       <c r="IL40" t="n">
         <v>6</v>
       </c>
+      <c r="IM40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30774,6 +30894,9 @@
       <c r="IL41" t="n">
         <v>4</v>
       </c>
+      <c r="IM41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31516,6 +31639,9 @@
       <c r="IL42" t="n">
         <v>1</v>
       </c>
+      <c r="IM42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32258,6 +32384,9 @@
       <c r="IL43" t="n">
         <v>11</v>
       </c>
+      <c r="IM43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33000,6 +33129,9 @@
       <c r="IL44" t="n">
         <v>134</v>
       </c>
+      <c r="IM44" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33742,6 +33874,9 @@
       <c r="IL45" t="n">
         <v>258</v>
       </c>
+      <c r="IM45" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34484,6 +34619,9 @@
       <c r="IL46" t="n">
         <v>298</v>
       </c>
+      <c r="IM46" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35226,6 +35364,9 @@
       <c r="IL47" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="IM47" t="n">
+        <v>75.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35968,6 +36109,9 @@
       <c r="IL48" t="n">
         <v>42</v>
       </c>
+      <c r="IM48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36710,6 +36854,9 @@
       <c r="IL49" t="n">
         <v>11</v>
       </c>
+      <c r="IM49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37452,6 +37599,9 @@
       <c r="IL50" t="n">
         <v>9</v>
       </c>
+      <c r="IM50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38194,6 +38344,9 @@
       <c r="IL51" t="n">
         <v>30</v>
       </c>
+      <c r="IM51" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38936,6 +39089,9 @@
       <c r="IL52" t="n">
         <v>40</v>
       </c>
+      <c r="IM52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39678,6 +39834,9 @@
       <c r="IL53" t="n">
         <v>41</v>
       </c>
+      <c r="IM53" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40420,6 +40579,9 @@
       <c r="IL54" t="n">
         <v>3</v>
       </c>
+      <c r="IM54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41162,6 +41324,9 @@
       <c r="IL55" t="n">
         <v>7</v>
       </c>
+      <c r="IM55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41904,6 +42069,9 @@
       <c r="IL56" t="n">
         <v>70</v>
       </c>
+      <c r="IM56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42646,6 +42814,9 @@
       <c r="IL57" t="n">
         <v>195</v>
       </c>
+      <c r="IM57" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43388,6 +43559,9 @@
       <c r="IL58" t="n">
         <v>128</v>
       </c>
+      <c r="IM58" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44130,6 +44304,9 @@
       <c r="IL59" t="n">
         <v>323</v>
       </c>
+      <c r="IM59" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44872,6 +45049,9 @@
       <c r="IL60" t="n">
         <v>1.52</v>
       </c>
+      <c r="IM60" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45614,6 +45794,9 @@
       <c r="IL61" t="n">
         <v>89</v>
       </c>
+      <c r="IM61" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46356,6 +46539,9 @@
       <c r="IL62" t="n">
         <v>87</v>
       </c>
+      <c r="IM62" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47098,6 +47284,9 @@
       <c r="IL63" t="n">
         <v>42</v>
       </c>
+      <c r="IM63" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47840,6 +48029,9 @@
       <c r="IL64" t="n">
         <v>12</v>
       </c>
+      <c r="IM64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48582,6 +48774,9 @@
       <c r="IL65" t="n">
         <v>13</v>
       </c>
+      <c r="IM65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49324,6 +49519,9 @@
       <c r="IL66" t="n">
         <v>5</v>
       </c>
+      <c r="IM66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50066,6 +50264,9 @@
       <c r="IL67" t="n">
         <v>1</v>
       </c>
+      <c r="IM67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50808,6 +51009,9 @@
       <c r="IL68" t="n">
         <v>13</v>
       </c>
+      <c r="IM68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51550,6 +51754,9 @@
       <c r="IL69" t="n">
         <v>4</v>
       </c>
+      <c r="IM69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52292,6 +52499,9 @@
       <c r="IL70" t="n">
         <v>22</v>
       </c>
+      <c r="IM70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53034,6 +53244,9 @@
       <c r="IL71" t="n">
         <v>22.7</v>
       </c>
+      <c r="IM71" t="n">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53776,6 +53989,9 @@
       <c r="IL72" t="n">
         <v>64.59999999999999</v>
       </c>
+      <c r="IM72" t="n">
+        <v>36.38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54518,6 +54734,9 @@
       <c r="IL73" t="n">
         <v>14.68</v>
       </c>
+      <c r="IM73" t="n">
+        <v>17.12</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55260,6 +55479,9 @@
       <c r="IL74" t="n">
         <v>34</v>
       </c>
+      <c r="IM74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56002,6 +56224,9 @@
       <c r="IL75" t="n">
         <v>43</v>
       </c>
+      <c r="IM75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56744,6 +56969,9 @@
       <c r="IL76" t="n">
         <v>35</v>
       </c>
+      <c r="IM76" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57486,6 +57714,9 @@
       <c r="IL77" t="n">
         <v>48</v>
       </c>
+      <c r="IM77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58228,6 +58459,9 @@
       <c r="IL78" t="n">
         <v>2.18</v>
       </c>
+      <c r="IM78" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58970,6 +59204,9 @@
       <c r="IL79" t="n">
         <v>9.6</v>
       </c>
+      <c r="IM79" t="n">
+        <v>5.12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59712,6 +59949,9 @@
       <c r="IL80" t="n">
         <v>37.5</v>
       </c>
+      <c r="IM80" t="n">
+        <v>41.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60454,6 +60694,9 @@
       <c r="IL81" t="n">
         <v>10.4</v>
       </c>
+      <c r="IM81" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61196,6 +61439,9 @@
       <c r="IL82" t="n">
         <v>188.1</v>
       </c>
+      <c r="IM82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61938,6 +62184,9 @@
       <c r="IL83" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="IM83" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62680,6 +62929,9 @@
       <c r="IL84" t="n">
         <v>25.33</v>
       </c>
+      <c r="IM84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63422,6 +63674,9 @@
       <c r="IL85" t="n">
         <v>90.5</v>
       </c>
+      <c r="IM85" t="n">
+        <v>72.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64164,6 +64419,9 @@
       <c r="IL86" t="n">
         <v>5</v>
       </c>
+      <c r="IM86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64906,6 +65164,9 @@
       <c r="IL87" t="n">
         <v>8</v>
       </c>
+      <c r="IM87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65648,6 +65909,9 @@
       <c r="IL88" t="n">
         <v>7</v>
       </c>
+      <c r="IM88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66390,6 +66654,9 @@
       <c r="IL89" t="n">
         <v>3</v>
       </c>
+      <c r="IM89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67132,6 +67399,9 @@
       <c r="IL90" t="n">
         <v>112</v>
       </c>
+      <c r="IM90" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67874,6 +68144,9 @@
       <c r="IL91" t="n">
         <v>204</v>
       </c>
+      <c r="IM91" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68616,6 +68889,9 @@
       <c r="IL92" t="n">
         <v>236</v>
       </c>
+      <c r="IM92" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69358,6 +69634,9 @@
       <c r="IL93" t="n">
         <v>73.09999999999999</v>
       </c>
+      <c r="IM93" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70100,6 +70379,9 @@
       <c r="IL94" t="n">
         <v>43</v>
       </c>
+      <c r="IM94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70842,6 +71124,9 @@
       <c r="IL95" t="n">
         <v>8</v>
       </c>
+      <c r="IM95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71584,6 +71869,9 @@
       <c r="IL96" t="n">
         <v>14</v>
       </c>
+      <c r="IM96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72326,6 +72614,9 @@
       <c r="IL97" t="n">
         <v>34</v>
       </c>
+      <c r="IM97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73068,6 +73359,9 @@
       <c r="IL98" t="n">
         <v>35</v>
       </c>
+      <c r="IM98" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73810,6 +74104,9 @@
       <c r="IL99" t="n">
         <v>40</v>
       </c>
+      <c r="IM99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74552,6 +74849,9 @@
       <c r="IL100" t="n">
         <v>7</v>
       </c>
+      <c r="IM100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75294,6 +75594,9 @@
       <c r="IL101" t="n">
         <v>1</v>
       </c>
+      <c r="IM101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76036,6 +76339,9 @@
       <c r="IL102" t="n">
         <v>20</v>
       </c>
+      <c r="IM102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IM102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,9 @@
       <c r="IM1" t="n">
         <v>10412</v>
       </c>
+      <c r="IN1" t="n">
+        <v>10418</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1842,6 +1845,9 @@
       <c r="IM2" t="n">
         <v>2021</v>
       </c>
+      <c r="IN2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2587,6 +2593,9 @@
       <c r="IM3" t="n">
         <v>10</v>
       </c>
+      <c r="IN3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3332,6 +3341,9 @@
       <c r="IM4" t="n">
         <v>0</v>
       </c>
+      <c r="IN4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4077,6 +4089,9 @@
       <c r="IM5" t="n">
         <v>0</v>
       </c>
+      <c r="IN5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4822,6 +4837,9 @@
       <c r="IM6" t="n">
         <v>91</v>
       </c>
+      <c r="IN6" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5567,6 +5585,9 @@
       <c r="IM7" t="n">
         <v>57</v>
       </c>
+      <c r="IN7" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6312,6 +6333,9 @@
       <c r="IM8" t="n">
         <v>34</v>
       </c>
+      <c r="IN8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7057,6 +7081,9 @@
       <c r="IM9" t="n">
         <v>1</v>
       </c>
+      <c r="IN9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7802,6 +7829,9 @@
       <c r="IM10" t="n">
         <v>8</v>
       </c>
+      <c r="IN10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8547,6 +8577,9 @@
       <c r="IM11" t="n">
         <v>238</v>
       </c>
+      <c r="IN11" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9292,6 +9325,9 @@
       <c r="IM12" t="n">
         <v>214</v>
       </c>
+      <c r="IN12" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10037,6 +10073,9 @@
       <c r="IM13" t="n">
         <v>452</v>
       </c>
+      <c r="IN13" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10782,6 +10821,9 @@
       <c r="IM14" t="n">
         <v>1.11</v>
       </c>
+      <c r="IN14" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11527,6 +11569,9 @@
       <c r="IM15" t="n">
         <v>104</v>
       </c>
+      <c r="IN15" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12272,6 +12317,9 @@
       <c r="IM16" t="n">
         <v>70</v>
       </c>
+      <c r="IN16" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13017,6 +13065,9 @@
       <c r="IM17" t="n">
         <v>59</v>
       </c>
+      <c r="IN17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13762,6 +13813,9 @@
       <c r="IM18" t="n">
         <v>17</v>
       </c>
+      <c r="IN18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14507,6 +14561,9 @@
       <c r="IM19" t="n">
         <v>12</v>
       </c>
+      <c r="IN19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15252,6 +15309,9 @@
       <c r="IM20" t="n">
         <v>14</v>
       </c>
+      <c r="IN20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15997,6 +16057,9 @@
       <c r="IM21" t="n">
         <v>10</v>
       </c>
+      <c r="IN21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16742,6 +16805,9 @@
       <c r="IM22" t="n">
         <v>6</v>
       </c>
+      <c r="IN22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17487,6 +17553,9 @@
       <c r="IM23" t="n">
         <v>1</v>
       </c>
+      <c r="IN23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18232,6 +18301,9 @@
       <c r="IM24" t="n">
         <v>21</v>
       </c>
+      <c r="IN24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18977,6 +19049,9 @@
       <c r="IM25" t="n">
         <v>66.7</v>
       </c>
+      <c r="IN25" t="n">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19722,6 +19797,9 @@
       <c r="IM26" t="n">
         <v>32.29</v>
       </c>
+      <c r="IN26" t="n">
+        <v>46.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20467,6 +20545,9 @@
       <c r="IM27" t="n">
         <v>21.52</v>
       </c>
+      <c r="IN27" t="n">
+        <v>17.62</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21212,6 +21293,9 @@
       <c r="IM28" t="n">
         <v>54</v>
       </c>
+      <c r="IN28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21957,6 +22041,9 @@
       <c r="IM29" t="n">
         <v>47</v>
       </c>
+      <c r="IN29" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22702,6 +22789,9 @@
       <c r="IM30" t="n">
         <v>34</v>
       </c>
+      <c r="IN30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23447,6 +23537,9 @@
       <c r="IM31" t="n">
         <v>62</v>
       </c>
+      <c r="IN31" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24192,6 +24285,9 @@
       <c r="IM32" t="n">
         <v>2.95</v>
       </c>
+      <c r="IN32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24937,6 +25033,9 @@
       <c r="IM33" t="n">
         <v>4.43</v>
       </c>
+      <c r="IN33" t="n">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25682,6 +25781,9 @@
       <c r="IM34" t="n">
         <v>32.3</v>
       </c>
+      <c r="IN34" t="n">
+        <v>47.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26427,6 +26529,9 @@
       <c r="IM35" t="n">
         <v>22.6</v>
       </c>
+      <c r="IN35" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27172,6 +27277,9 @@
       <c r="IM36" t="n">
         <v>188.2</v>
       </c>
+      <c r="IN36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27917,6 +28025,9 @@
       <c r="IM37" t="n">
         <v>88.3</v>
       </c>
+      <c r="IN37" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28662,6 +28773,9 @@
       <c r="IM38" t="n">
         <v>28</v>
       </c>
+      <c r="IN38" t="n">
+        <v>27.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29407,6 +29521,9 @@
       <c r="IM39" t="n">
         <v>145.6</v>
       </c>
+      <c r="IN39" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30152,6 +30269,9 @@
       <c r="IM40" t="n">
         <v>5</v>
       </c>
+      <c r="IN40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30897,6 +31017,9 @@
       <c r="IM41" t="n">
         <v>4</v>
       </c>
+      <c r="IN41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31642,6 +31765,9 @@
       <c r="IM42" t="n">
         <v>2</v>
       </c>
+      <c r="IN42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32387,6 +32513,9 @@
       <c r="IM43" t="n">
         <v>12</v>
       </c>
+      <c r="IN43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33132,6 +33261,9 @@
       <c r="IM44" t="n">
         <v>163</v>
       </c>
+      <c r="IN44" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33877,6 +34009,9 @@
       <c r="IM45" t="n">
         <v>290</v>
       </c>
+      <c r="IN45" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34622,6 +34757,9 @@
       <c r="IM46" t="n">
         <v>341</v>
       </c>
+      <c r="IN46" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35367,6 +35505,9 @@
       <c r="IM47" t="n">
         <v>75.40000000000001</v>
       </c>
+      <c r="IN47" t="n">
+        <v>78.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36112,6 +36253,9 @@
       <c r="IM48" t="n">
         <v>47</v>
       </c>
+      <c r="IN48" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36857,6 +37001,9 @@
       <c r="IM49" t="n">
         <v>9</v>
       </c>
+      <c r="IN49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37602,6 +37749,9 @@
       <c r="IM50" t="n">
         <v>13</v>
       </c>
+      <c r="IN50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38347,6 +38497,9 @@
       <c r="IM51" t="n">
         <v>54</v>
       </c>
+      <c r="IN51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39092,6 +39245,9 @@
       <c r="IM52" t="n">
         <v>34</v>
       </c>
+      <c r="IN52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39837,6 +39993,9 @@
       <c r="IM53" t="n">
         <v>42</v>
       </c>
+      <c r="IN53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40582,6 +40741,9 @@
       <c r="IM54" t="n">
         <v>5</v>
       </c>
+      <c r="IN54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41327,6 +41489,9 @@
       <c r="IM55" t="n">
         <v>10</v>
       </c>
+      <c r="IN55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42072,6 +42237,9 @@
       <c r="IM56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IN56" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42817,6 +42985,9 @@
       <c r="IM57" t="n">
         <v>182</v>
       </c>
+      <c r="IN57" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43562,6 +43733,9 @@
       <c r="IM58" t="n">
         <v>109</v>
       </c>
+      <c r="IN58" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44307,6 +44481,9 @@
       <c r="IM59" t="n">
         <v>291</v>
       </c>
+      <c r="IN59" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45052,6 +45229,9 @@
       <c r="IM60" t="n">
         <v>1.67</v>
       </c>
+      <c r="IN60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45797,6 +45977,9 @@
       <c r="IM61" t="n">
         <v>74</v>
       </c>
+      <c r="IN61" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46542,6 +46725,9 @@
       <c r="IM62" t="n">
         <v>75</v>
       </c>
+      <c r="IN62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47287,6 +47473,9 @@
       <c r="IM63" t="n">
         <v>30</v>
       </c>
+      <c r="IN63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48032,6 +48221,9 @@
       <c r="IM64" t="n">
         <v>12</v>
       </c>
+      <c r="IN64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48777,6 +48969,9 @@
       <c r="IM65" t="n">
         <v>17</v>
       </c>
+      <c r="IN65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49522,6 +49717,9 @@
       <c r="IM66" t="n">
         <v>8</v>
       </c>
+      <c r="IN66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50267,6 +50465,9 @@
       <c r="IM67" t="n">
         <v>4</v>
       </c>
+      <c r="IN67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51012,6 +51213,9 @@
       <c r="IM68" t="n">
         <v>9</v>
       </c>
+      <c r="IN68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51757,6 +51961,9 @@
       <c r="IM69" t="n">
         <v>0</v>
       </c>
+      <c r="IN69" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52502,6 +52709,9 @@
       <c r="IM70" t="n">
         <v>17</v>
       </c>
+      <c r="IN70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53247,6 +53457,9 @@
       <c r="IM71" t="n">
         <v>47.1</v>
       </c>
+      <c r="IN71" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53992,6 +54205,9 @@
       <c r="IM72" t="n">
         <v>36.38</v>
       </c>
+      <c r="IN72" t="n">
+        <v>62.83</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54737,6 +54953,9 @@
       <c r="IM73" t="n">
         <v>17.12</v>
       </c>
+      <c r="IN73" t="n">
+        <v>17.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55482,6 +55701,9 @@
       <c r="IM74" t="n">
         <v>36</v>
       </c>
+      <c r="IN74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56227,6 +56449,9 @@
       <c r="IM75" t="n">
         <v>55</v>
       </c>
+      <c r="IN75" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56972,6 +57197,9 @@
       <c r="IM76" t="n">
         <v>46</v>
       </c>
+      <c r="IN76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57717,6 +57945,9 @@
       <c r="IM77" t="n">
         <v>41</v>
       </c>
+      <c r="IN77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58462,6 +58693,9 @@
       <c r="IM78" t="n">
         <v>2.41</v>
       </c>
+      <c r="IN78" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59207,6 +59441,9 @@
       <c r="IM79" t="n">
         <v>5.12</v>
       </c>
+      <c r="IN79" t="n">
+        <v>7.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59952,6 +60189,9 @@
       <c r="IM80" t="n">
         <v>41.5</v>
       </c>
+      <c r="IN80" t="n">
+        <v>34.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60697,6 +60937,9 @@
       <c r="IM81" t="n">
         <v>19.5</v>
       </c>
+      <c r="IN81" t="n">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61442,6 +61685,9 @@
       <c r="IM82" t="n">
         <v>188.7</v>
       </c>
+      <c r="IN82" t="n">
+        <v>189.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62187,6 +62433,9 @@
       <c r="IM83" t="n">
         <v>86</v>
       </c>
+      <c r="IN83" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62932,6 +63181,9 @@
       <c r="IM84" t="n">
         <v>24.74</v>
       </c>
+      <c r="IN84" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63677,6 +63929,9 @@
       <c r="IM85" t="n">
         <v>72.8</v>
       </c>
+      <c r="IN85" t="n">
+        <v>93.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64422,6 +64677,9 @@
       <c r="IM86" t="n">
         <v>10</v>
       </c>
+      <c r="IN86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65167,6 +65425,9 @@
       <c r="IM87" t="n">
         <v>4</v>
       </c>
+      <c r="IN87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65912,6 +66173,9 @@
       <c r="IM88" t="n">
         <v>6</v>
       </c>
+      <c r="IN88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66657,6 +66921,9 @@
       <c r="IM89" t="n">
         <v>2</v>
       </c>
+      <c r="IN89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67402,6 +67669,9 @@
       <c r="IM90" t="n">
         <v>132</v>
       </c>
+      <c r="IN90" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68147,6 +68417,9 @@
       <c r="IM91" t="n">
         <v>154</v>
       </c>
+      <c r="IN91" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68892,6 +69165,9 @@
       <c r="IM92" t="n">
         <v>194</v>
       </c>
+      <c r="IN92" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69637,6 +69913,9 @@
       <c r="IM93" t="n">
         <v>66.7</v>
       </c>
+      <c r="IN93" t="n">
+        <v>77.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70382,6 +70661,9 @@
       <c r="IM94" t="n">
         <v>55</v>
       </c>
+      <c r="IN94" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71127,6 +71409,9 @@
       <c r="IM95" t="n">
         <v>9</v>
       </c>
+      <c r="IN95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71872,6 +72157,9 @@
       <c r="IM96" t="n">
         <v>7</v>
       </c>
+      <c r="IN96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72617,6 +72905,9 @@
       <c r="IM97" t="n">
         <v>36</v>
       </c>
+      <c r="IN97" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73362,6 +73653,9 @@
       <c r="IM98" t="n">
         <v>46</v>
       </c>
+      <c r="IN98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74107,6 +74401,9 @@
       <c r="IM99" t="n">
         <v>56</v>
       </c>
+      <c r="IN99" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74852,6 +75149,9 @@
       <c r="IM100" t="n">
         <v>1</v>
       </c>
+      <c r="IN100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75597,6 +75897,9 @@
       <c r="IM101" t="n">
         <v>4</v>
       </c>
+      <c r="IN101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76342,6 +76645,9 @@
       <c r="IM102" t="n">
         <v>50</v>
       </c>
+      <c r="IN102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IO102"/>
+  <dimension ref="A1:IP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,6 +1103,9 @@
       <c r="IO1" t="n">
         <v>10436</v>
       </c>
+      <c r="IP1" t="n">
+        <v>10438</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1854,6 +1857,9 @@
       <c r="IO2" t="n">
         <v>2021</v>
       </c>
+      <c r="IP2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2605,6 +2611,9 @@
       <c r="IO3" t="n">
         <v>13</v>
       </c>
+      <c r="IP3" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3356,6 +3365,9 @@
       <c r="IO4" t="n">
         <v>1</v>
       </c>
+      <c r="IP4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4107,6 +4119,9 @@
       <c r="IO5" t="n">
         <v>1</v>
       </c>
+      <c r="IP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4858,6 +4873,9 @@
       <c r="IO6" t="n">
         <v>112</v>
       </c>
+      <c r="IP6" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5609,6 +5627,9 @@
       <c r="IO7" t="n">
         <v>91</v>
       </c>
+      <c r="IP7" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6360,6 +6381,9 @@
       <c r="IO8" t="n">
         <v>21</v>
       </c>
+      <c r="IP8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7111,6 +7135,9 @@
       <c r="IO9" t="n">
         <v>1</v>
       </c>
+      <c r="IP9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7862,6 +7889,9 @@
       <c r="IO10" t="n">
         <v>13</v>
       </c>
+      <c r="IP10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8613,6 +8643,9 @@
       <c r="IO11" t="n">
         <v>201</v>
       </c>
+      <c r="IP11" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9364,6 +9397,9 @@
       <c r="IO12" t="n">
         <v>120</v>
       </c>
+      <c r="IP12" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10115,6 +10151,9 @@
       <c r="IO13" t="n">
         <v>321</v>
       </c>
+      <c r="IP13" t="n">
+        <v>414</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10866,6 +10905,9 @@
       <c r="IO14" t="n">
         <v>1.68</v>
       </c>
+      <c r="IP14" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11617,6 +11659,9 @@
       <c r="IO15" t="n">
         <v>83</v>
       </c>
+      <c r="IP15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12368,6 +12413,9 @@
       <c r="IO16" t="n">
         <v>37</v>
       </c>
+      <c r="IP16" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13119,6 +13167,9 @@
       <c r="IO17" t="n">
         <v>36</v>
       </c>
+      <c r="IP17" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13870,6 +13921,9 @@
       <c r="IO18" t="n">
         <v>23</v>
       </c>
+      <c r="IP18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14621,6 +14675,9 @@
       <c r="IO19" t="n">
         <v>26</v>
       </c>
+      <c r="IP19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15372,6 +15429,9 @@
       <c r="IO20" t="n">
         <v>17</v>
       </c>
+      <c r="IP20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16123,6 +16183,9 @@
       <c r="IO21" t="n">
         <v>15</v>
       </c>
+      <c r="IP21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16874,6 +16937,9 @@
       <c r="IO22" t="n">
         <v>10</v>
       </c>
+      <c r="IP22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17625,6 +17691,9 @@
       <c r="IO23" t="n">
         <v>0</v>
       </c>
+      <c r="IP23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18376,6 +18445,9 @@
       <c r="IO24" t="n">
         <v>27</v>
       </c>
+      <c r="IP24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19127,6 +19199,9 @@
       <c r="IO25" t="n">
         <v>63</v>
       </c>
+      <c r="IP25" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19878,6 +19953,9 @@
       <c r="IO26" t="n">
         <v>18.88</v>
       </c>
+      <c r="IP26" t="n">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20629,6 +20707,9 @@
       <c r="IO27" t="n">
         <v>11.89</v>
       </c>
+      <c r="IP27" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21380,6 +21461,9 @@
       <c r="IO28" t="n">
         <v>38</v>
       </c>
+      <c r="IP28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22131,6 +22215,9 @@
       <c r="IO29" t="n">
         <v>57</v>
       </c>
+      <c r="IP29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22882,6 +22969,9 @@
       <c r="IO30" t="n">
         <v>30</v>
       </c>
+      <c r="IP30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23633,6 +23723,9 @@
       <c r="IO31" t="n">
         <v>52</v>
       </c>
+      <c r="IP31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24384,6 +24477,9 @@
       <c r="IO32" t="n">
         <v>1.93</v>
       </c>
+      <c r="IP32" t="n">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25135,6 +25231,9 @@
       <c r="IO33" t="n">
         <v>3.06</v>
       </c>
+      <c r="IP33" t="n">
+        <v>4.42</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25886,6 +25985,9 @@
       <c r="IO34" t="n">
         <v>51.9</v>
       </c>
+      <c r="IP34" t="n">
+        <v>37.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26637,6 +26739,9 @@
       <c r="IO35" t="n">
         <v>32.7</v>
       </c>
+      <c r="IP35" t="n">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27388,6 +27493,9 @@
       <c r="IO36" t="n">
         <v>188.8</v>
       </c>
+      <c r="IP36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28139,6 +28247,9 @@
       <c r="IO37" t="n">
         <v>89.5</v>
       </c>
+      <c r="IP37" t="n">
+        <v>88.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28890,6 +29001,9 @@
       <c r="IO38" t="n">
         <v>28.41</v>
       </c>
+      <c r="IP38" t="n">
+        <v>28.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29641,6 +29755,9 @@
       <c r="IO39" t="n">
         <v>158</v>
       </c>
+      <c r="IP39" t="n">
+        <v>152.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30392,6 +30509,9 @@
       <c r="IO40" t="n">
         <v>3</v>
       </c>
+      <c r="IP40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31143,6 +31263,9 @@
       <c r="IO41" t="n">
         <v>5</v>
       </c>
+      <c r="IP41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31894,6 +32017,9 @@
       <c r="IO42" t="n">
         <v>2</v>
       </c>
+      <c r="IP42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32645,6 +32771,9 @@
       <c r="IO43" t="n">
         <v>12</v>
       </c>
+      <c r="IP43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33396,6 +33525,9 @@
       <c r="IO44" t="n">
         <v>126</v>
       </c>
+      <c r="IP44" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34147,6 +34279,9 @@
       <c r="IO45" t="n">
         <v>177</v>
       </c>
+      <c r="IP45" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34898,6 +35033,9 @@
       <c r="IO46" t="n">
         <v>239</v>
       </c>
+      <c r="IP46" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35649,6 +35787,9 @@
       <c r="IO47" t="n">
         <v>74.5</v>
       </c>
+      <c r="IP47" t="n">
+        <v>75.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36400,6 +36541,9 @@
       <c r="IO48" t="n">
         <v>57</v>
       </c>
+      <c r="IP48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37151,6 +37295,9 @@
       <c r="IO49" t="n">
         <v>21</v>
       </c>
+      <c r="IP49" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37902,6 +38049,9 @@
       <c r="IO50" t="n">
         <v>18</v>
       </c>
+      <c r="IP50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38653,6 +38803,9 @@
       <c r="IO51" t="n">
         <v>38</v>
       </c>
+      <c r="IP51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39404,6 +39557,9 @@
       <c r="IO52" t="n">
         <v>30</v>
       </c>
+      <c r="IP52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40155,6 +40311,9 @@
       <c r="IO53" t="n">
         <v>29</v>
       </c>
+      <c r="IP53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40906,6 +41065,9 @@
       <c r="IO54" t="n">
         <v>1</v>
       </c>
+      <c r="IP54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41657,6 +41819,9 @@
       <c r="IO55" t="n">
         <v>15</v>
       </c>
+      <c r="IP55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42408,6 +42573,9 @@
       <c r="IO56" t="n">
         <v>88.2</v>
       </c>
+      <c r="IP56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43159,6 +43327,9 @@
       <c r="IO57" t="n">
         <v>201</v>
       </c>
+      <c r="IP57" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43910,6 +44081,9 @@
       <c r="IO58" t="n">
         <v>125</v>
       </c>
+      <c r="IP58" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44661,6 +44835,9 @@
       <c r="IO59" t="n">
         <v>326</v>
       </c>
+      <c r="IP59" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45412,6 +45589,9 @@
       <c r="IO60" t="n">
         <v>1.61</v>
       </c>
+      <c r="IP60" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46163,6 +46343,9 @@
       <c r="IO61" t="n">
         <v>85</v>
       </c>
+      <c r="IP61" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46914,6 +47097,9 @@
       <c r="IO62" t="n">
         <v>65</v>
       </c>
+      <c r="IP62" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47665,6 +47851,9 @@
       <c r="IO63" t="n">
         <v>36</v>
       </c>
+      <c r="IP63" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48416,6 +48605,9 @@
       <c r="IO64" t="n">
         <v>26</v>
       </c>
+      <c r="IP64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49167,6 +49359,9 @@
       <c r="IO65" t="n">
         <v>23</v>
       </c>
+      <c r="IP65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49918,6 +50113,9 @@
       <c r="IO66" t="n">
         <v>14</v>
       </c>
+      <c r="IP66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50669,6 +50867,9 @@
       <c r="IO67" t="n">
         <v>10</v>
       </c>
+      <c r="IP67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51420,6 +51621,9 @@
       <c r="IO68" t="n">
         <v>5</v>
       </c>
+      <c r="IP68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52171,6 +52375,9 @@
       <c r="IO69" t="n">
         <v>2</v>
       </c>
+      <c r="IP69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52922,6 +53129,9 @@
       <c r="IO70" t="n">
         <v>21</v>
       </c>
+      <c r="IP70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53673,6 +53883,9 @@
       <c r="IO71" t="n">
         <v>66.7</v>
       </c>
+      <c r="IP71" t="n">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54424,6 +54637,9 @@
       <c r="IO72" t="n">
         <v>23.29</v>
       </c>
+      <c r="IP72" t="n">
+        <v>32.91</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55175,6 +55391,9 @@
       <c r="IO73" t="n">
         <v>15.52</v>
       </c>
+      <c r="IP73" t="n">
+        <v>15.74</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55926,6 +56145,9 @@
       <c r="IO74" t="n">
         <v>38</v>
       </c>
+      <c r="IP74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56677,6 +56899,9 @@
       <c r="IO75" t="n">
         <v>65</v>
       </c>
+      <c r="IP75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57428,6 +57653,9 @@
       <c r="IO76" t="n">
         <v>35</v>
       </c>
+      <c r="IP76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58179,6 +58407,9 @@
       <c r="IO77" t="n">
         <v>45</v>
       </c>
+      <c r="IP77" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58930,6 +59161,9 @@
       <c r="IO78" t="n">
         <v>2.14</v>
       </c>
+      <c r="IP78" t="n">
+        <v>2.13</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59681,6 +59915,9 @@
       <c r="IO79" t="n">
         <v>3.21</v>
       </c>
+      <c r="IP79" t="n">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60432,6 +60669,9 @@
       <c r="IO80" t="n">
         <v>42.2</v>
       </c>
+      <c r="IP80" t="n">
+        <v>40.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61183,6 +61423,9 @@
       <c r="IO81" t="n">
         <v>31.1</v>
       </c>
+      <c r="IP81" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61934,6 +62177,9 @@
       <c r="IO82" t="n">
         <v>188</v>
       </c>
+      <c r="IP82" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62685,6 +62931,9 @@
       <c r="IO83" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="IP83" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63436,6 +63685,9 @@
       <c r="IO84" t="n">
         <v>25.24</v>
       </c>
+      <c r="IP84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64187,6 +64439,9 @@
       <c r="IO85" t="n">
         <v>94.40000000000001</v>
       </c>
+      <c r="IP85" t="n">
+        <v>94.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64938,6 +65193,9 @@
       <c r="IO86" t="n">
         <v>9</v>
       </c>
+      <c r="IP86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65689,6 +65947,9 @@
       <c r="IO87" t="n">
         <v>6</v>
       </c>
+      <c r="IP87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66440,6 +66701,9 @@
       <c r="IO88" t="n">
         <v>2</v>
       </c>
+      <c r="IP88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67191,6 +67455,9 @@
       <c r="IO89" t="n">
         <v>6</v>
       </c>
+      <c r="IP89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67942,6 +68209,9 @@
       <c r="IO90" t="n">
         <v>116</v>
       </c>
+      <c r="IP90" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68693,6 +68963,9 @@
       <c r="IO91" t="n">
         <v>196</v>
       </c>
+      <c r="IP91" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69444,6 +69717,9 @@
       <c r="IO92" t="n">
         <v>233</v>
       </c>
+      <c r="IP92" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70195,6 +70471,9 @@
       <c r="IO93" t="n">
         <v>71.5</v>
       </c>
+      <c r="IP93" t="n">
+        <v>73.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70946,6 +71225,9 @@
       <c r="IO94" t="n">
         <v>65</v>
       </c>
+      <c r="IP94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71697,6 +71979,9 @@
       <c r="IO95" t="n">
         <v>10</v>
       </c>
+      <c r="IP95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72448,6 +72733,9 @@
       <c r="IO96" t="n">
         <v>9</v>
       </c>
+      <c r="IP96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73199,6 +73487,9 @@
       <c r="IO97" t="n">
         <v>38</v>
       </c>
+      <c r="IP97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73950,6 +74241,9 @@
       <c r="IO98" t="n">
         <v>35</v>
       </c>
+      <c r="IP98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74701,6 +74995,9 @@
       <c r="IO99" t="n">
         <v>38</v>
       </c>
+      <c r="IP99" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75452,6 +75749,9 @@
       <c r="IO100" t="n">
         <v>0</v>
       </c>
+      <c r="IP100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76203,6 +76503,9 @@
       <c r="IO101" t="n">
         <v>10</v>
       </c>
+      <c r="IP101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76954,6 +77257,9 @@
       <c r="IO102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IP102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IP102"/>
+  <dimension ref="A1:IQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,6 +1106,9 @@
       <c r="IP1" t="n">
         <v>10438</v>
       </c>
+      <c r="IQ1" t="n">
+        <v>10444</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1860,6 +1863,9 @@
       <c r="IP2" t="n">
         <v>2021</v>
       </c>
+      <c r="IQ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2614,6 +2620,9 @@
       <c r="IP3" t="n">
         <v>14</v>
       </c>
+      <c r="IQ3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3368,6 +3377,9 @@
       <c r="IP4" t="n">
         <v>0</v>
       </c>
+      <c r="IQ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4122,6 +4134,9 @@
       <c r="IP5" t="n">
         <v>0</v>
       </c>
+      <c r="IQ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4876,6 +4891,9 @@
       <c r="IP6" t="n">
         <v>83</v>
       </c>
+      <c r="IQ6" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5630,6 +5648,9 @@
       <c r="IP7" t="n">
         <v>78</v>
       </c>
+      <c r="IQ7" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6384,6 +6405,9 @@
       <c r="IP8" t="n">
         <v>5</v>
       </c>
+      <c r="IQ8" t="n">
+        <v>-44</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7138,6 +7162,9 @@
       <c r="IP9" t="n">
         <v>1</v>
       </c>
+      <c r="IQ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7892,6 +7919,9 @@
       <c r="IP10" t="n">
         <v>18</v>
       </c>
+      <c r="IQ10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8646,6 +8676,9 @@
       <c r="IP11" t="n">
         <v>231</v>
       </c>
+      <c r="IQ11" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9400,6 +9433,9 @@
       <c r="IP12" t="n">
         <v>183</v>
       </c>
+      <c r="IQ12" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10154,6 +10190,9 @@
       <c r="IP13" t="n">
         <v>414</v>
       </c>
+      <c r="IQ13" t="n">
+        <v>347</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10908,6 +10947,9 @@
       <c r="IP14" t="n">
         <v>1.26</v>
       </c>
+      <c r="IQ14" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11662,6 +11704,9 @@
       <c r="IP15" t="n">
         <v>81</v>
       </c>
+      <c r="IQ15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12416,6 +12461,9 @@
       <c r="IP16" t="n">
         <v>67</v>
       </c>
+      <c r="IQ16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13170,6 +13218,9 @@
       <c r="IP17" t="n">
         <v>48</v>
       </c>
+      <c r="IQ17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13924,6 +13975,9 @@
       <c r="IP18" t="n">
         <v>13</v>
       </c>
+      <c r="IQ18" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14678,6 +14732,9 @@
       <c r="IP19" t="n">
         <v>21</v>
       </c>
+      <c r="IQ19" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15432,6 +15489,9 @@
       <c r="IP20" t="n">
         <v>12</v>
       </c>
+      <c r="IQ20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16186,6 +16246,9 @@
       <c r="IP21" t="n">
         <v>10</v>
       </c>
+      <c r="IQ21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16940,6 +17003,9 @@
       <c r="IP22" t="n">
         <v>8</v>
       </c>
+      <c r="IQ22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17694,6 +17760,9 @@
       <c r="IP23" t="n">
         <v>3</v>
       </c>
+      <c r="IQ23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18448,6 +18517,9 @@
       <c r="IP24" t="n">
         <v>23</v>
       </c>
+      <c r="IQ24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19202,6 +19274,9 @@
       <c r="IP25" t="n">
         <v>52.2</v>
       </c>
+      <c r="IQ25" t="n">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19956,6 +20031,9 @@
       <c r="IP26" t="n">
         <v>34.5</v>
       </c>
+      <c r="IQ26" t="n">
+        <v>49.57</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20710,6 +20788,9 @@
       <c r="IP27" t="n">
         <v>18</v>
       </c>
+      <c r="IQ27" t="n">
+        <v>23.13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21464,6 +21545,9 @@
       <c r="IP28" t="n">
         <v>38</v>
       </c>
+      <c r="IQ28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22218,6 +22302,9 @@
       <c r="IP29" t="n">
         <v>58</v>
       </c>
+      <c r="IQ29" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22972,6 +23059,9 @@
       <c r="IP30" t="n">
         <v>38</v>
       </c>
+      <c r="IQ30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23726,6 +23816,9 @@
       <c r="IP31" t="n">
         <v>53</v>
       </c>
+      <c r="IQ31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24480,6 +24573,9 @@
       <c r="IP32" t="n">
         <v>2.3</v>
       </c>
+      <c r="IQ32" t="n">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25234,6 +25330,9 @@
       <c r="IP33" t="n">
         <v>4.42</v>
       </c>
+      <c r="IQ33" t="n">
+        <v>7.14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25988,6 +26087,9 @@
       <c r="IP34" t="n">
         <v>37.7</v>
       </c>
+      <c r="IQ34" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26742,6 +26844,9 @@
       <c r="IP35" t="n">
         <v>22.6</v>
       </c>
+      <c r="IQ35" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27496,6 +27601,9 @@
       <c r="IP36" t="n">
         <v>188</v>
       </c>
+      <c r="IQ36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28250,6 +28358,9 @@
       <c r="IP37" t="n">
         <v>88.5</v>
       </c>
+      <c r="IQ37" t="n">
+        <v>89.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29004,6 +29115,9 @@
       <c r="IP38" t="n">
         <v>28.16</v>
       </c>
+      <c r="IQ38" t="n">
+        <v>28.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29758,6 +29872,9 @@
       <c r="IP39" t="n">
         <v>152.9</v>
       </c>
+      <c r="IQ39" t="n">
+        <v>158.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30512,6 +30629,9 @@
       <c r="IP40" t="n">
         <v>4</v>
       </c>
+      <c r="IQ40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31266,6 +31386,9 @@
       <c r="IP41" t="n">
         <v>5</v>
       </c>
+      <c r="IQ41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32020,6 +32143,9 @@
       <c r="IP42" t="n">
         <v>2</v>
       </c>
+      <c r="IQ42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32774,6 +32900,9 @@
       <c r="IP43" t="n">
         <v>12</v>
       </c>
+      <c r="IQ43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33528,6 +33657,9 @@
       <c r="IP44" t="n">
         <v>163</v>
       </c>
+      <c r="IQ44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34282,6 +34414,9 @@
       <c r="IP45" t="n">
         <v>251</v>
       </c>
+      <c r="IQ45" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35036,6 +35171,9 @@
       <c r="IP46" t="n">
         <v>311</v>
       </c>
+      <c r="IQ46" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35790,6 +35928,9 @@
       <c r="IP47" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="IQ47" t="n">
+        <v>71.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36544,6 +36685,9 @@
       <c r="IP48" t="n">
         <v>58</v>
       </c>
+      <c r="IQ48" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37298,6 +37442,9 @@
       <c r="IP49" t="n">
         <v>19</v>
       </c>
+      <c r="IQ49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38052,6 +38199,9 @@
       <c r="IP50" t="n">
         <v>11</v>
       </c>
+      <c r="IQ50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38806,6 +38956,9 @@
       <c r="IP51" t="n">
         <v>38</v>
       </c>
+      <c r="IQ51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39560,6 +39713,9 @@
       <c r="IP52" t="n">
         <v>38</v>
       </c>
+      <c r="IQ52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40314,6 +40470,9 @@
       <c r="IP53" t="n">
         <v>57</v>
       </c>
+      <c r="IQ53" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41068,6 +41227,9 @@
       <c r="IP54" t="n">
         <v>2</v>
       </c>
+      <c r="IQ54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41822,6 +41984,9 @@
       <c r="IP55" t="n">
         <v>10</v>
       </c>
+      <c r="IQ55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42576,6 +42741,9 @@
       <c r="IP56" t="n">
         <v>83.3</v>
       </c>
+      <c r="IQ56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43330,6 +43498,9 @@
       <c r="IP57" t="n">
         <v>200</v>
       </c>
+      <c r="IQ57" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44084,6 +44255,9 @@
       <c r="IP58" t="n">
         <v>162</v>
       </c>
+      <c r="IQ58" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44838,6 +45012,9 @@
       <c r="IP59" t="n">
         <v>362</v>
       </c>
+      <c r="IQ59" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45592,6 +45769,9 @@
       <c r="IP60" t="n">
         <v>1.23</v>
       </c>
+      <c r="IQ60" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46346,6 +46526,9 @@
       <c r="IP61" t="n">
         <v>68</v>
       </c>
+      <c r="IQ61" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47100,6 +47283,9 @@
       <c r="IP62" t="n">
         <v>64</v>
       </c>
+      <c r="IQ62" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47854,6 +48040,9 @@
       <c r="IP63" t="n">
         <v>35</v>
       </c>
+      <c r="IQ63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48608,6 +48797,9 @@
       <c r="IP64" t="n">
         <v>21</v>
       </c>
+      <c r="IQ64" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49362,6 +49554,9 @@
       <c r="IP65" t="n">
         <v>13</v>
       </c>
+      <c r="IQ65" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50116,6 +50311,9 @@
       <c r="IP66" t="n">
         <v>11</v>
       </c>
+      <c r="IQ66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50870,6 +51068,9 @@
       <c r="IP67" t="n">
         <v>8</v>
       </c>
+      <c r="IQ67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51624,6 +51825,9 @@
       <c r="IP68" t="n">
         <v>9</v>
       </c>
+      <c r="IQ68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52378,6 +52582,9 @@
       <c r="IP69" t="n">
         <v>3</v>
       </c>
+      <c r="IQ69" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53132,6 +53339,9 @@
       <c r="IP70" t="n">
         <v>23</v>
       </c>
+      <c r="IQ70" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53886,6 +54096,9 @@
       <c r="IP71" t="n">
         <v>47.8</v>
       </c>
+      <c r="IQ71" t="n">
+        <v>44.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54640,6 +54853,9 @@
       <c r="IP72" t="n">
         <v>32.91</v>
       </c>
+      <c r="IQ72" t="n">
+        <v>22.69</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55394,6 +55610,9 @@
       <c r="IP73" t="n">
         <v>15.74</v>
       </c>
+      <c r="IQ73" t="n">
+        <v>10.17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56148,6 +56367,9 @@
       <c r="IP74" t="n">
         <v>42</v>
       </c>
+      <c r="IQ74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56902,6 +57124,9 @@
       <c r="IP75" t="n">
         <v>55</v>
       </c>
+      <c r="IQ75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57656,6 +57881,9 @@
       <c r="IP76" t="n">
         <v>40</v>
       </c>
+      <c r="IQ76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58410,6 +58638,9 @@
       <c r="IP77" t="n">
         <v>49</v>
       </c>
+      <c r="IQ77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59164,6 +59395,9 @@
       <c r="IP78" t="n">
         <v>2.13</v>
       </c>
+      <c r="IQ78" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59918,6 +60152,9 @@
       <c r="IP79" t="n">
         <v>4.45</v>
       </c>
+      <c r="IQ79" t="n">
+        <v>4.23</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60672,6 +60909,9 @@
       <c r="IP80" t="n">
         <v>40.8</v>
       </c>
+      <c r="IQ80" t="n">
+        <v>43.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61426,6 +61666,9 @@
       <c r="IP81" t="n">
         <v>22.4</v>
       </c>
+      <c r="IQ81" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62180,6 +62423,9 @@
       <c r="IP82" t="n">
         <v>186.7</v>
       </c>
+      <c r="IQ82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62934,6 +63180,9 @@
       <c r="IP83" t="n">
         <v>84.40000000000001</v>
       </c>
+      <c r="IQ83" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63688,6 +63937,9 @@
       <c r="IP84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IQ84" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64442,6 +64694,9 @@
       <c r="IP85" t="n">
         <v>94.7</v>
       </c>
+      <c r="IQ85" t="n">
+        <v>97.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65196,6 +65451,9 @@
       <c r="IP86" t="n">
         <v>4</v>
       </c>
+      <c r="IQ86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65950,6 +66208,9 @@
       <c r="IP87" t="n">
         <v>9</v>
       </c>
+      <c r="IQ87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66704,6 +66965,9 @@
       <c r="IP88" t="n">
         <v>4</v>
       </c>
+      <c r="IQ88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67458,6 +67722,9 @@
       <c r="IP89" t="n">
         <v>6</v>
       </c>
+      <c r="IQ89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68212,6 +68479,9 @@
       <c r="IP90" t="n">
         <v>147</v>
       </c>
+      <c r="IQ90" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68966,6 +69236,9 @@
       <c r="IP91" t="n">
         <v>216</v>
       </c>
+      <c r="IQ91" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69720,6 +69993,9 @@
       <c r="IP92" t="n">
         <v>267</v>
       </c>
+      <c r="IQ92" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70474,6 +70750,9 @@
       <c r="IP93" t="n">
         <v>73.8</v>
       </c>
+      <c r="IQ93" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71228,6 +71507,9 @@
       <c r="IP94" t="n">
         <v>55</v>
       </c>
+      <c r="IQ94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71982,6 +72264,9 @@
       <c r="IP95" t="n">
         <v>10</v>
       </c>
+      <c r="IQ95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72736,6 +73021,9 @@
       <c r="IP96" t="n">
         <v>11</v>
       </c>
+      <c r="IQ96" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73490,6 +73778,9 @@
       <c r="IP97" t="n">
         <v>42</v>
       </c>
+      <c r="IQ97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74244,6 +74535,9 @@
       <c r="IP98" t="n">
         <v>40</v>
       </c>
+      <c r="IQ98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74998,6 +75292,9 @@
       <c r="IP99" t="n">
         <v>78</v>
       </c>
+      <c r="IQ99" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75752,6 +76049,9 @@
       <c r="IP100" t="n">
         <v>5</v>
       </c>
+      <c r="IQ100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76506,6 +76806,9 @@
       <c r="IP101" t="n">
         <v>8</v>
       </c>
+      <c r="IQ101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77260,8 +77563,11 @@
       <c r="IP102" t="n">
         <v>72.7</v>
       </c>
+      <c r="IQ102" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ102"/>
+  <dimension ref="A1:IR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,6 +1109,9 @@
       <c r="IQ1" t="n">
         <v>10444</v>
       </c>
+      <c r="IR1" t="n">
+        <v>10454</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1866,6 +1869,9 @@
       <c r="IQ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IR2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2623,6 +2629,9 @@
       <c r="IQ3" t="n">
         <v>15</v>
       </c>
+      <c r="IR3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3380,6 +3389,9 @@
       <c r="IQ4" t="n">
         <v>1</v>
       </c>
+      <c r="IR4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4137,6 +4149,9 @@
       <c r="IQ5" t="n">
         <v>0</v>
       </c>
+      <c r="IR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4894,6 +4909,9 @@
       <c r="IQ6" t="n">
         <v>50</v>
       </c>
+      <c r="IR6" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5651,6 +5669,9 @@
       <c r="IQ7" t="n">
         <v>94</v>
       </c>
+      <c r="IR7" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6408,6 +6429,9 @@
       <c r="IQ8" t="n">
         <v>-44</v>
       </c>
+      <c r="IR8" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7165,6 +7189,9 @@
       <c r="IQ9" t="n">
         <v>0</v>
       </c>
+      <c r="IR9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7922,6 +7949,9 @@
       <c r="IQ10" t="n">
         <v>2</v>
       </c>
+      <c r="IR10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8679,6 +8709,9 @@
       <c r="IQ11" t="n">
         <v>198</v>
       </c>
+      <c r="IR11" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9436,6 +9469,9 @@
       <c r="IQ12" t="n">
         <v>149</v>
       </c>
+      <c r="IR12" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10193,6 +10229,9 @@
       <c r="IQ13" t="n">
         <v>347</v>
       </c>
+      <c r="IR13" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10950,6 +10989,9 @@
       <c r="IQ14" t="n">
         <v>1.33</v>
       </c>
+      <c r="IR14" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11707,6 +11749,9 @@
       <c r="IQ15" t="n">
         <v>81</v>
       </c>
+      <c r="IR15" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12464,6 +12509,9 @@
       <c r="IQ16" t="n">
         <v>47</v>
       </c>
+      <c r="IR16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13221,6 +13269,9 @@
       <c r="IQ17" t="n">
         <v>38</v>
       </c>
+      <c r="IR17" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13978,6 +14029,9 @@
       <c r="IQ18" t="n">
         <v>28</v>
       </c>
+      <c r="IR18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14735,6 +14789,9 @@
       <c r="IQ19" t="n">
         <v>26</v>
       </c>
+      <c r="IR19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15492,6 +15549,9 @@
       <c r="IQ20" t="n">
         <v>7</v>
       </c>
+      <c r="IR20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16249,6 +16309,9 @@
       <c r="IQ21" t="n">
         <v>6</v>
       </c>
+      <c r="IR21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17006,6 +17069,9 @@
       <c r="IQ22" t="n">
         <v>7</v>
       </c>
+      <c r="IR22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17763,6 +17829,9 @@
       <c r="IQ23" t="n">
         <v>1</v>
       </c>
+      <c r="IR23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18520,6 +18589,9 @@
       <c r="IQ24" t="n">
         <v>15</v>
       </c>
+      <c r="IR24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19277,6 +19349,9 @@
       <c r="IQ25" t="n">
         <v>46.7</v>
       </c>
+      <c r="IR25" t="n">
+        <v>65.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20034,6 +20109,9 @@
       <c r="IQ26" t="n">
         <v>49.57</v>
       </c>
+      <c r="IR26" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20791,6 +20869,9 @@
       <c r="IQ27" t="n">
         <v>23.13</v>
       </c>
+      <c r="IR27" t="n">
+        <v>16.04</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21548,6 +21629,9 @@
       <c r="IQ28" t="n">
         <v>39</v>
       </c>
+      <c r="IR28" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22305,6 +22389,9 @@
       <c r="IQ29" t="n">
         <v>66</v>
       </c>
+      <c r="IR29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23062,6 +23149,9 @@
       <c r="IQ30" t="n">
         <v>41</v>
       </c>
+      <c r="IR30" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23819,6 +23909,9 @@
       <c r="IQ31" t="n">
         <v>50</v>
       </c>
+      <c r="IR31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24576,6 +24669,9 @@
       <c r="IQ32" t="n">
         <v>3.33</v>
       </c>
+      <c r="IR32" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25333,6 +25429,9 @@
       <c r="IQ33" t="n">
         <v>7.14</v>
       </c>
+      <c r="IR33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26090,6 +26189,9 @@
       <c r="IQ34" t="n">
         <v>28</v>
       </c>
+      <c r="IR34" t="n">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26847,6 +26949,9 @@
       <c r="IQ35" t="n">
         <v>14</v>
       </c>
+      <c r="IR35" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27604,6 +27709,9 @@
       <c r="IQ36" t="n">
         <v>188.7</v>
       </c>
+      <c r="IR36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28361,6 +28469,9 @@
       <c r="IQ37" t="n">
         <v>89.40000000000001</v>
       </c>
+      <c r="IR37" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29118,6 +29229,9 @@
       <c r="IQ38" t="n">
         <v>28.41</v>
       </c>
+      <c r="IR38" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29875,6 +29989,9 @@
       <c r="IQ39" t="n">
         <v>158.1</v>
       </c>
+      <c r="IR39" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30632,6 +30749,9 @@
       <c r="IQ40" t="n">
         <v>3</v>
       </c>
+      <c r="IR40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31389,6 +31509,9 @@
       <c r="IQ41" t="n">
         <v>4</v>
       </c>
+      <c r="IR41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32146,6 +32269,9 @@
       <c r="IQ42" t="n">
         <v>3</v>
       </c>
+      <c r="IR42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32903,6 +33029,9 @@
       <c r="IQ43" t="n">
         <v>12</v>
       </c>
+      <c r="IR43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33660,6 +33789,9 @@
       <c r="IQ44" t="n">
         <v>135</v>
       </c>
+      <c r="IR44" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34417,6 +34549,9 @@
       <c r="IQ45" t="n">
         <v>204</v>
       </c>
+      <c r="IR45" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35174,6 +35309,9 @@
       <c r="IQ46" t="n">
         <v>247</v>
       </c>
+      <c r="IR46" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35931,6 +36069,9 @@
       <c r="IQ47" t="n">
         <v>71.2</v>
       </c>
+      <c r="IR47" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36688,6 +36829,9 @@
       <c r="IQ48" t="n">
         <v>66</v>
       </c>
+      <c r="IR48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37445,6 +37589,9 @@
       <c r="IQ49" t="n">
         <v>5</v>
       </c>
+      <c r="IR49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38202,6 +38349,9 @@
       <c r="IQ50" t="n">
         <v>9</v>
       </c>
+      <c r="IR50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38959,6 +39109,9 @@
       <c r="IQ51" t="n">
         <v>39</v>
       </c>
+      <c r="IR51" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39716,6 +39869,9 @@
       <c r="IQ52" t="n">
         <v>41</v>
       </c>
+      <c r="IR52" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40473,6 +40629,9 @@
       <c r="IQ53" t="n">
         <v>39</v>
       </c>
+      <c r="IR53" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41230,6 +41389,9 @@
       <c r="IQ54" t="n">
         <v>8</v>
       </c>
+      <c r="IR54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41987,6 +42149,9 @@
       <c r="IQ55" t="n">
         <v>6</v>
       </c>
+      <c r="IR55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42744,6 +42909,9 @@
       <c r="IQ56" t="n">
         <v>85.7</v>
       </c>
+      <c r="IR56" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43501,6 +43669,9 @@
       <c r="IQ57" t="n">
         <v>212</v>
       </c>
+      <c r="IR57" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44258,6 +44429,9 @@
       <c r="IQ58" t="n">
         <v>83</v>
       </c>
+      <c r="IR58" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45015,6 +45189,9 @@
       <c r="IQ59" t="n">
         <v>295</v>
       </c>
+      <c r="IR59" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45772,6 +45949,9 @@
       <c r="IQ60" t="n">
         <v>2.55</v>
       </c>
+      <c r="IR60" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46529,6 +46709,9 @@
       <c r="IQ61" t="n">
         <v>92</v>
       </c>
+      <c r="IR61" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47286,6 +47469,9 @@
       <c r="IQ62" t="n">
         <v>67</v>
       </c>
+      <c r="IR62" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48043,6 +48229,9 @@
       <c r="IQ63" t="n">
         <v>36</v>
       </c>
+      <c r="IR63" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48800,6 +48989,9 @@
       <c r="IQ64" t="n">
         <v>26</v>
       </c>
+      <c r="IR64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49557,6 +49749,9 @@
       <c r="IQ65" t="n">
         <v>28</v>
       </c>
+      <c r="IR65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50314,6 +50509,9 @@
       <c r="IQ66" t="n">
         <v>13</v>
       </c>
+      <c r="IR66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51071,6 +51269,9 @@
       <c r="IQ67" t="n">
         <v>10</v>
       </c>
+      <c r="IR67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51828,6 +52029,9 @@
       <c r="IQ68" t="n">
         <v>11</v>
       </c>
+      <c r="IR68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52585,6 +52789,9 @@
       <c r="IQ69" t="n">
         <v>5</v>
       </c>
+      <c r="IR69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53342,6 +53549,9 @@
       <c r="IQ70" t="n">
         <v>29</v>
       </c>
+      <c r="IR70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54099,6 +54309,9 @@
       <c r="IQ71" t="n">
         <v>44.8</v>
       </c>
+      <c r="IR71" t="n">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54856,6 +55069,9 @@
       <c r="IQ72" t="n">
         <v>22.69</v>
       </c>
+      <c r="IR72" t="n">
+        <v>42.38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55613,6 +55829,9 @@
       <c r="IQ73" t="n">
         <v>10.17</v>
       </c>
+      <c r="IR73" t="n">
+        <v>19.94</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56370,6 +56589,9 @@
       <c r="IQ74" t="n">
         <v>35</v>
       </c>
+      <c r="IR74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57127,6 +57349,9 @@
       <c r="IQ75" t="n">
         <v>59</v>
       </c>
+      <c r="IR75" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57884,6 +58109,9 @@
       <c r="IQ76" t="n">
         <v>43</v>
       </c>
+      <c r="IR76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58641,6 +58869,9 @@
       <c r="IQ77" t="n">
         <v>55</v>
       </c>
+      <c r="IR77" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59398,6 +59629,9 @@
       <c r="IQ78" t="n">
         <v>1.9</v>
       </c>
+      <c r="IR78" t="n">
+        <v>3.65</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60155,6 +60389,9 @@
       <c r="IQ79" t="n">
         <v>4.23</v>
       </c>
+      <c r="IR79" t="n">
+        <v>7.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60912,6 +61149,9 @@
       <c r="IQ80" t="n">
         <v>43.6</v>
       </c>
+      <c r="IR80" t="n">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61669,6 +61909,9 @@
       <c r="IQ81" t="n">
         <v>23.6</v>
       </c>
+      <c r="IR81" t="n">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62426,6 +62669,9 @@
       <c r="IQ82" t="n">
         <v>187.8</v>
       </c>
+      <c r="IR82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63183,6 +63429,9 @@
       <c r="IQ83" t="n">
         <v>87.5</v>
       </c>
+      <c r="IR83" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63940,6 +64189,9 @@
       <c r="IQ84" t="n">
         <v>25.41</v>
       </c>
+      <c r="IR84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64697,6 +64949,9 @@
       <c r="IQ85" t="n">
         <v>97.5</v>
       </c>
+      <c r="IR85" t="n">
+        <v>78.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65454,6 +65709,9 @@
       <c r="IQ86" t="n">
         <v>6</v>
       </c>
+      <c r="IR86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -66211,6 +66469,9 @@
       <c r="IQ87" t="n">
         <v>6</v>
       </c>
+      <c r="IR87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66968,6 +67229,9 @@
       <c r="IQ88" t="n">
         <v>6</v>
       </c>
+      <c r="IR88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67725,6 +67989,9 @@
       <c r="IQ89" t="n">
         <v>4</v>
       </c>
+      <c r="IR89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68482,6 +68749,9 @@
       <c r="IQ90" t="n">
         <v>124</v>
       </c>
+      <c r="IR90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -69239,6 +69509,9 @@
       <c r="IQ91" t="n">
         <v>163</v>
       </c>
+      <c r="IR91" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69996,6 +70269,9 @@
       <c r="IQ92" t="n">
         <v>204</v>
       </c>
+      <c r="IR92" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70753,6 +71029,9 @@
       <c r="IQ93" t="n">
         <v>69.2</v>
       </c>
+      <c r="IR93" t="n">
+        <v>71.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71510,6 +71789,9 @@
       <c r="IQ94" t="n">
         <v>59</v>
       </c>
+      <c r="IR94" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -72267,6 +72549,9 @@
       <c r="IQ95" t="n">
         <v>10</v>
       </c>
+      <c r="IR95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73024,6 +73309,9 @@
       <c r="IQ96" t="n">
         <v>17</v>
       </c>
+      <c r="IR96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73781,6 +74069,9 @@
       <c r="IQ97" t="n">
         <v>35</v>
       </c>
+      <c r="IR97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74538,6 +74829,9 @@
       <c r="IQ98" t="n">
         <v>43</v>
       </c>
+      <c r="IR98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -75295,6 +75589,9 @@
       <c r="IQ99" t="n">
         <v>53</v>
       </c>
+      <c r="IR99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -76052,6 +76349,9 @@
       <c r="IQ100" t="n">
         <v>0</v>
       </c>
+      <c r="IR100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76809,6 +77109,9 @@
       <c r="IQ101" t="n">
         <v>10</v>
       </c>
+      <c r="IR101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77566,8 +77869,11 @@
       <c r="IQ102" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="IR102" t="n">
+        <v>62.5</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IR102"/>
+  <dimension ref="A1:IS102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,6 +1112,9 @@
       <c r="IR1" t="n">
         <v>10454</v>
       </c>
+      <c r="IS1" t="n">
+        <v>10463</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1872,6 +1875,9 @@
       <c r="IR2" t="n">
         <v>2021</v>
       </c>
+      <c r="IS2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2632,6 +2638,9 @@
       <c r="IR3" t="n">
         <v>16</v>
       </c>
+      <c r="IS3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3392,6 +3401,9 @@
       <c r="IR4" t="n">
         <v>0</v>
       </c>
+      <c r="IS4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4152,6 +4164,9 @@
       <c r="IR5" t="n">
         <v>0</v>
       </c>
+      <c r="IS5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4912,6 +4927,9 @@
       <c r="IR6" t="n">
         <v>98</v>
       </c>
+      <c r="IS6" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5672,6 +5690,9 @@
       <c r="IR7" t="n">
         <v>57</v>
       </c>
+      <c r="IS7" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6432,6 +6453,9 @@
       <c r="IR8" t="n">
         <v>41</v>
       </c>
+      <c r="IS8" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7192,6 +7216,9 @@
       <c r="IR9" t="n">
         <v>1</v>
       </c>
+      <c r="IS9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7952,6 +7979,9 @@
       <c r="IR10" t="n">
         <v>5</v>
       </c>
+      <c r="IS10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8712,6 +8742,9 @@
       <c r="IR11" t="n">
         <v>235</v>
       </c>
+      <c r="IS11" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9472,6 +9505,9 @@
       <c r="IR12" t="n">
         <v>134</v>
       </c>
+      <c r="IS12" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10232,6 +10268,9 @@
       <c r="IR13" t="n">
         <v>369</v>
       </c>
+      <c r="IS13" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10992,6 +11031,9 @@
       <c r="IR14" t="n">
         <v>1.75</v>
       </c>
+      <c r="IS14" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11752,6 +11794,9 @@
       <c r="IR15" t="n">
         <v>99</v>
       </c>
+      <c r="IS15" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12512,6 +12557,9 @@
       <c r="IR16" t="n">
         <v>52</v>
       </c>
+      <c r="IS16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13272,6 +13320,9 @@
       <c r="IR17" t="n">
         <v>41</v>
       </c>
+      <c r="IS17" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14032,6 +14083,9 @@
       <c r="IR18" t="n">
         <v>23</v>
       </c>
+      <c r="IS18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14792,6 +14846,9 @@
       <c r="IR19" t="n">
         <v>14</v>
       </c>
+      <c r="IS19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15552,6 +15609,9 @@
       <c r="IR20" t="n">
         <v>15</v>
       </c>
+      <c r="IS20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16312,6 +16372,9 @@
       <c r="IR21" t="n">
         <v>11</v>
       </c>
+      <c r="IS21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17072,6 +17135,9 @@
       <c r="IR22" t="n">
         <v>6</v>
       </c>
+      <c r="IS22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17832,6 +17898,9 @@
       <c r="IR23" t="n">
         <v>2</v>
       </c>
+      <c r="IS23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18592,6 +18661,9 @@
       <c r="IR24" t="n">
         <v>23</v>
       </c>
+      <c r="IS24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19352,6 +19424,9 @@
       <c r="IR25" t="n">
         <v>65.2</v>
       </c>
+      <c r="IS25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20112,6 +20187,9 @@
       <c r="IR26" t="n">
         <v>24.6</v>
       </c>
+      <c r="IS26" t="n">
+        <v>36.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20872,6 +20950,9 @@
       <c r="IR27" t="n">
         <v>16.04</v>
       </c>
+      <c r="IS27" t="n">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21632,6 +21713,9 @@
       <c r="IR28" t="n">
         <v>48</v>
       </c>
+      <c r="IS28" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22392,6 +22476,9 @@
       <c r="IR29" t="n">
         <v>56</v>
       </c>
+      <c r="IS29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23152,6 +23239,9 @@
       <c r="IR30" t="n">
         <v>54</v>
       </c>
+      <c r="IS30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23912,6 +24002,9 @@
       <c r="IR31" t="n">
         <v>45</v>
       </c>
+      <c r="IS31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24672,6 +24765,9 @@
       <c r="IR32" t="n">
         <v>1.96</v>
       </c>
+      <c r="IS32" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25432,6 +25528,9 @@
       <c r="IR33" t="n">
         <v>3</v>
       </c>
+      <c r="IS33" t="n">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26192,6 +26291,9 @@
       <c r="IR34" t="n">
         <v>46.7</v>
       </c>
+      <c r="IS34" t="n">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26952,6 +27054,9 @@
       <c r="IR35" t="n">
         <v>33.3</v>
       </c>
+      <c r="IS35" t="n">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27712,6 +27817,9 @@
       <c r="IR36" t="n">
         <v>188.2</v>
       </c>
+      <c r="IS36" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28472,6 +28580,9 @@
       <c r="IR37" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="IS37" t="n">
+        <v>89.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29232,6 +29343,9 @@
       <c r="IR38" t="n">
         <v>27.8</v>
       </c>
+      <c r="IS38" t="n">
+        <v>27.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29992,6 +30106,9 @@
       <c r="IR39" t="n">
         <v>147</v>
       </c>
+      <c r="IS39" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30752,6 +30869,9 @@
       <c r="IR40" t="n">
         <v>3</v>
       </c>
+      <c r="IS40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31512,6 +31632,9 @@
       <c r="IR41" t="n">
         <v>5</v>
       </c>
+      <c r="IS41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32272,6 +32395,9 @@
       <c r="IR42" t="n">
         <v>3</v>
       </c>
+      <c r="IS42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33032,6 +33158,9 @@
       <c r="IR43" t="n">
         <v>12</v>
       </c>
+      <c r="IS43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33792,6 +33921,9 @@
       <c r="IR44" t="n">
         <v>140</v>
       </c>
+      <c r="IS44" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34552,6 +34684,9 @@
       <c r="IR45" t="n">
         <v>217</v>
       </c>
+      <c r="IS45" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35312,6 +35447,9 @@
       <c r="IR46" t="n">
         <v>267</v>
       </c>
+      <c r="IS46" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36072,6 +36210,9 @@
       <c r="IR47" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="IS47" t="n">
+        <v>76.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36832,6 +36973,9 @@
       <c r="IR48" t="n">
         <v>56</v>
       </c>
+      <c r="IS48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37592,6 +37736,9 @@
       <c r="IR49" t="n">
         <v>9</v>
       </c>
+      <c r="IS49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38352,6 +38499,9 @@
       <c r="IR50" t="n">
         <v>13</v>
       </c>
+      <c r="IS50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39112,6 +39262,9 @@
       <c r="IR51" t="n">
         <v>48</v>
       </c>
+      <c r="IS51" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39872,6 +40025,9 @@
       <c r="IR52" t="n">
         <v>54</v>
       </c>
+      <c r="IS52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40632,6 +40788,9 @@
       <c r="IR53" t="n">
         <v>70</v>
       </c>
+      <c r="IS53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41392,6 +41551,9 @@
       <c r="IR54" t="n">
         <v>1</v>
       </c>
+      <c r="IS54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42152,6 +42314,9 @@
       <c r="IR55" t="n">
         <v>11</v>
       </c>
+      <c r="IS55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42912,6 +43077,9 @@
       <c r="IR56" t="n">
         <v>73.3</v>
       </c>
+      <c r="IS56" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43672,6 +43840,9 @@
       <c r="IR57" t="n">
         <v>194</v>
       </c>
+      <c r="IS57" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44432,6 +44603,9 @@
       <c r="IR58" t="n">
         <v>145</v>
       </c>
+      <c r="IS58" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45192,6 +45366,9 @@
       <c r="IR59" t="n">
         <v>339</v>
       </c>
+      <c r="IS59" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45952,6 +46129,9 @@
       <c r="IR60" t="n">
         <v>1.34</v>
       </c>
+      <c r="IS60" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46712,6 +46892,9 @@
       <c r="IR61" t="n">
         <v>66</v>
       </c>
+      <c r="IS61" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47472,6 +47655,9 @@
       <c r="IR62" t="n">
         <v>66</v>
       </c>
+      <c r="IS62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48232,6 +48418,9 @@
       <c r="IR63" t="n">
         <v>42</v>
       </c>
+      <c r="IS63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48992,6 +49181,9 @@
       <c r="IR64" t="n">
         <v>14</v>
       </c>
+      <c r="IS64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49752,6 +49944,9 @@
       <c r="IR65" t="n">
         <v>23</v>
       </c>
+      <c r="IS65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50512,6 +50707,9 @@
       <c r="IR66" t="n">
         <v>8</v>
       </c>
+      <c r="IS66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51272,6 +51470,9 @@
       <c r="IR67" t="n">
         <v>5</v>
       </c>
+      <c r="IS67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52032,6 +52233,9 @@
       <c r="IR68" t="n">
         <v>6</v>
       </c>
+      <c r="IS68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52792,6 +52996,9 @@
       <c r="IR69" t="n">
         <v>3</v>
       </c>
+      <c r="IS69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53552,6 +53759,9 @@
       <c r="IR70" t="n">
         <v>17</v>
       </c>
+      <c r="IS70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54312,6 +54522,9 @@
       <c r="IR71" t="n">
         <v>47.1</v>
       </c>
+      <c r="IS71" t="n">
+        <v>26.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55072,6 +55285,9 @@
       <c r="IR72" t="n">
         <v>42.38</v>
       </c>
+      <c r="IS72" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55832,6 +56048,9 @@
       <c r="IR73" t="n">
         <v>19.94</v>
       </c>
+      <c r="IS73" t="n">
+        <v>19.05</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56592,6 +56811,9 @@
       <c r="IR74" t="n">
         <v>34</v>
       </c>
+      <c r="IS74" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57352,6 +57574,9 @@
       <c r="IR75" t="n">
         <v>65</v>
       </c>
+      <c r="IS75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -58112,6 +58337,9 @@
       <c r="IR76" t="n">
         <v>30</v>
       </c>
+      <c r="IS76" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58872,6 +59100,9 @@
       <c r="IR77" t="n">
         <v>62</v>
       </c>
+      <c r="IS77" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59632,6 +59863,9 @@
       <c r="IR78" t="n">
         <v>3.65</v>
       </c>
+      <c r="IS78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60392,6 +60626,9 @@
       <c r="IR79" t="n">
         <v>7.75</v>
       </c>
+      <c r="IS79" t="n">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -61152,6 +61389,9 @@
       <c r="IR80" t="n">
         <v>22.6</v>
       </c>
+      <c r="IS80" t="n">
+        <v>42.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61912,6 +62152,9 @@
       <c r="IR81" t="n">
         <v>12.9</v>
       </c>
+      <c r="IS81" t="n">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62672,6 +62915,9 @@
       <c r="IR82" t="n">
         <v>188.3</v>
       </c>
+      <c r="IS82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63432,6 +63678,9 @@
       <c r="IR83" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="IS83" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -64192,6 +64441,9 @@
       <c r="IR84" t="n">
         <v>25</v>
       </c>
+      <c r="IS84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64952,6 +65204,9 @@
       <c r="IR85" t="n">
         <v>78.8</v>
       </c>
+      <c r="IS85" t="n">
+        <v>94.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65712,6 +65967,9 @@
       <c r="IR86" t="n">
         <v>9</v>
       </c>
+      <c r="IS86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -66472,6 +66730,9 @@
       <c r="IR87" t="n">
         <v>6</v>
       </c>
+      <c r="IS87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -67232,6 +67493,9 @@
       <c r="IR88" t="n">
         <v>3</v>
       </c>
+      <c r="IS88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67992,6 +68256,9 @@
       <c r="IR89" t="n">
         <v>4</v>
       </c>
+      <c r="IS89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68752,6 +69019,9 @@
       <c r="IR90" t="n">
         <v>139</v>
       </c>
+      <c r="IS90" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -69512,6 +69782,9 @@
       <c r="IR91" t="n">
         <v>196</v>
       </c>
+      <c r="IS91" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -70272,6 +70545,9 @@
       <c r="IR92" t="n">
         <v>241</v>
       </c>
+      <c r="IS92" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -71032,6 +71308,9 @@
       <c r="IR93" t="n">
         <v>71.09999999999999</v>
       </c>
+      <c r="IS93" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71792,6 +72071,9 @@
       <c r="IR94" t="n">
         <v>65</v>
       </c>
+      <c r="IS94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -72552,6 +72834,9 @@
       <c r="IR95" t="n">
         <v>13</v>
       </c>
+      <c r="IS95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73312,6 +73597,9 @@
       <c r="IR96" t="n">
         <v>5</v>
       </c>
+      <c r="IS96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -74072,6 +74360,9 @@
       <c r="IR97" t="n">
         <v>34</v>
       </c>
+      <c r="IS97" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74832,6 +75123,9 @@
       <c r="IR98" t="n">
         <v>30</v>
       </c>
+      <c r="IS98" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -75592,6 +75886,9 @@
       <c r="IR99" t="n">
         <v>42</v>
       </c>
+      <c r="IS99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -76352,6 +76649,9 @@
       <c r="IR100" t="n">
         <v>0</v>
       </c>
+      <c r="IS100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -77112,6 +77412,9 @@
       <c r="IR101" t="n">
         <v>5</v>
       </c>
+      <c r="IS101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77872,6 +78175,9 @@
       <c r="IR102" t="n">
         <v>62.5</v>
       </c>
+      <c r="IS102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IT102"/>
+  <dimension ref="A1:IU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,6 +1118,9 @@
       <c r="IT1" t="n">
         <v>10479</v>
       </c>
+      <c r="IU1" t="n">
+        <v>10482</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1884,6 +1887,9 @@
       <c r="IT2" t="n">
         <v>2021</v>
       </c>
+      <c r="IU2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2650,6 +2656,9 @@
       <c r="IT3" t="n">
         <v>18</v>
       </c>
+      <c r="IU3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3416,6 +3425,9 @@
       <c r="IT4" t="n">
         <v>1</v>
       </c>
+      <c r="IU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4182,6 +4194,9 @@
       <c r="IT5" t="n">
         <v>1</v>
       </c>
+      <c r="IU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4948,6 +4963,9 @@
       <c r="IT6" t="n">
         <v>100</v>
       </c>
+      <c r="IU6" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5714,6 +5732,9 @@
       <c r="IT7" t="n">
         <v>31</v>
       </c>
+      <c r="IU7" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6480,6 +6501,9 @@
       <c r="IT8" t="n">
         <v>69</v>
       </c>
+      <c r="IU8" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7246,6 +7270,9 @@
       <c r="IT9" t="n">
         <v>1</v>
       </c>
+      <c r="IU9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8012,6 +8039,9 @@
       <c r="IT10" t="n">
         <v>6</v>
       </c>
+      <c r="IU10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8778,6 +8808,9 @@
       <c r="IT11" t="n">
         <v>258</v>
       </c>
+      <c r="IU11" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9544,6 +9577,9 @@
       <c r="IT12" t="n">
         <v>164</v>
       </c>
+      <c r="IU12" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10310,6 +10346,9 @@
       <c r="IT13" t="n">
         <v>422</v>
       </c>
+      <c r="IU13" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11076,6 +11115,9 @@
       <c r="IT14" t="n">
         <v>1.57</v>
       </c>
+      <c r="IU14" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11842,6 +11884,9 @@
       <c r="IT15" t="n">
         <v>137</v>
       </c>
+      <c r="IU15" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12608,6 +12653,9 @@
       <c r="IT16" t="n">
         <v>55</v>
       </c>
+      <c r="IU16" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13374,6 +13422,9 @@
       <c r="IT17" t="n">
         <v>29</v>
       </c>
+      <c r="IU17" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14140,6 +14191,9 @@
       <c r="IT18" t="n">
         <v>17</v>
       </c>
+      <c r="IU18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14906,6 +14960,9 @@
       <c r="IT19" t="n">
         <v>13</v>
       </c>
+      <c r="IU19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15672,6 +15729,9 @@
       <c r="IT20" t="n">
         <v>14</v>
       </c>
+      <c r="IU20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16438,6 +16498,9 @@
       <c r="IT21" t="n">
         <v>14</v>
       </c>
+      <c r="IU21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17204,6 +17267,9 @@
       <c r="IT22" t="n">
         <v>13</v>
       </c>
+      <c r="IU22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17970,6 +18036,9 @@
       <c r="IT23" t="n">
         <v>3</v>
       </c>
+      <c r="IU23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18736,6 +18805,9 @@
       <c r="IT24" t="n">
         <v>30</v>
       </c>
+      <c r="IU24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19502,6 +19574,9 @@
       <c r="IT25" t="n">
         <v>46.7</v>
       </c>
+      <c r="IU25" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20268,6 +20343,9 @@
       <c r="IT26" t="n">
         <v>30.14</v>
       </c>
+      <c r="IU26" t="n">
+        <v>25.73</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21034,6 +21112,9 @@
       <c r="IT27" t="n">
         <v>14.07</v>
       </c>
+      <c r="IU27" t="n">
+        <v>19.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21800,6 +21881,9 @@
       <c r="IT28" t="n">
         <v>44</v>
       </c>
+      <c r="IU28" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22566,6 +22650,9 @@
       <c r="IT29" t="n">
         <v>49</v>
       </c>
+      <c r="IU29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23332,6 +23419,9 @@
       <c r="IT30" t="n">
         <v>35</v>
       </c>
+      <c r="IU30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24098,6 +24188,9 @@
       <c r="IT31" t="n">
         <v>58</v>
       </c>
+      <c r="IU31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24864,6 +24957,9 @@
       <c r="IT32" t="n">
         <v>1.93</v>
       </c>
+      <c r="IU32" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25630,6 +25726,9 @@
       <c r="IT33" t="n">
         <v>4.14</v>
       </c>
+      <c r="IU33" t="n">
+        <v>3.47</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26396,6 +26495,9 @@
       <c r="IT34" t="n">
         <v>46.6</v>
       </c>
+      <c r="IU34" t="n">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27162,6 +27264,9 @@
       <c r="IT35" t="n">
         <v>24.1</v>
       </c>
+      <c r="IU35" t="n">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27928,6 +28033,9 @@
       <c r="IT36" t="n">
         <v>187.7</v>
       </c>
+      <c r="IU36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28694,6 +28802,9 @@
       <c r="IT37" t="n">
         <v>88.2</v>
       </c>
+      <c r="IU37" t="n">
+        <v>88.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29460,6 +29571,9 @@
       <c r="IT38" t="n">
         <v>27.8</v>
       </c>
+      <c r="IU38" t="n">
+        <v>27.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30226,6 +30340,9 @@
       <c r="IT39" t="n">
         <v>147</v>
       </c>
+      <c r="IU39" t="n">
+        <v>146.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30992,6 +31109,9 @@
       <c r="IT40" t="n">
         <v>3</v>
       </c>
+      <c r="IU40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31758,6 +31878,9 @@
       <c r="IT41" t="n">
         <v>5</v>
       </c>
+      <c r="IU41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32524,6 +32647,9 @@
       <c r="IT42" t="n">
         <v>4</v>
       </c>
+      <c r="IU42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33290,6 +33416,9 @@
       <c r="IT43" t="n">
         <v>10</v>
       </c>
+      <c r="IU43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34056,6 +34185,9 @@
       <c r="IT44" t="n">
         <v>145</v>
       </c>
+      <c r="IU44" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34822,6 +34954,9 @@
       <c r="IT45" t="n">
         <v>274</v>
       </c>
+      <c r="IU45" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35588,6 +35723,9 @@
       <c r="IT46" t="n">
         <v>324</v>
       </c>
+      <c r="IU46" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36354,6 +36492,9 @@
       <c r="IT47" t="n">
         <v>76.8</v>
       </c>
+      <c r="IU47" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37120,6 +37261,9 @@
       <c r="IT48" t="n">
         <v>49</v>
       </c>
+      <c r="IU48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37886,6 +38030,9 @@
       <c r="IT49" t="n">
         <v>16</v>
       </c>
+      <c r="IU49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38652,6 +38799,9 @@
       <c r="IT50" t="n">
         <v>28</v>
       </c>
+      <c r="IU50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39418,6 +39568,9 @@
       <c r="IT51" t="n">
         <v>44</v>
       </c>
+      <c r="IU51" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40184,6 +40337,9 @@
       <c r="IT52" t="n">
         <v>35</v>
       </c>
+      <c r="IU52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40950,6 +41106,9 @@
       <c r="IT53" t="n">
         <v>57</v>
       </c>
+      <c r="IU53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41716,6 +41875,9 @@
       <c r="IT54" t="n">
         <v>2</v>
       </c>
+      <c r="IU54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42482,6 +42644,9 @@
       <c r="IT55" t="n">
         <v>14</v>
       </c>
+      <c r="IU55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43248,6 +43413,9 @@
       <c r="IT56" t="n">
         <v>100</v>
       </c>
+      <c r="IU56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44014,6 +44182,9 @@
       <c r="IT57" t="n">
         <v>178</v>
       </c>
+      <c r="IU57" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44780,6 +44951,9 @@
       <c r="IT58" t="n">
         <v>121</v>
       </c>
+      <c r="IU58" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45546,6 +45720,9 @@
       <c r="IT59" t="n">
         <v>299</v>
       </c>
+      <c r="IU59" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46312,6 +46489,9 @@
       <c r="IT60" t="n">
         <v>1.47</v>
       </c>
+      <c r="IU60" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47078,6 +47258,9 @@
       <c r="IT61" t="n">
         <v>65</v>
       </c>
+      <c r="IU61" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47844,6 +48027,9 @@
       <c r="IT62" t="n">
         <v>43</v>
       </c>
+      <c r="IU62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48610,6 +48796,9 @@
       <c r="IT63" t="n">
         <v>39</v>
       </c>
+      <c r="IU63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -49376,6 +49565,9 @@
       <c r="IT64" t="n">
         <v>13</v>
       </c>
+      <c r="IU64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50142,6 +50334,9 @@
       <c r="IT65" t="n">
         <v>17</v>
       </c>
+      <c r="IU65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50908,6 +51103,9 @@
       <c r="IT66" t="n">
         <v>3</v>
       </c>
+      <c r="IU66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51674,6 +51872,9 @@
       <c r="IT67" t="n">
         <v>1</v>
       </c>
+      <c r="IU67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52440,6 +52641,9 @@
       <c r="IT68" t="n">
         <v>9</v>
       </c>
+      <c r="IU68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53206,6 +53410,9 @@
       <c r="IT69" t="n">
         <v>4</v>
       </c>
+      <c r="IU69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53972,6 +54179,9 @@
       <c r="IT70" t="n">
         <v>16</v>
       </c>
+      <c r="IU70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54738,6 +54948,9 @@
       <c r="IT71" t="n">
         <v>18.8</v>
       </c>
+      <c r="IU71" t="n">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55504,6 +55717,9 @@
       <c r="IT72" t="n">
         <v>99.67</v>
       </c>
+      <c r="IU72" t="n">
+        <v>41.38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56270,6 +56486,9 @@
       <c r="IT73" t="n">
         <v>18.69</v>
       </c>
+      <c r="IU73" t="n">
+        <v>19.47</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57036,6 +57255,9 @@
       <c r="IT74" t="n">
         <v>35</v>
       </c>
+      <c r="IU74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57802,6 +58024,9 @@
       <c r="IT75" t="n">
         <v>56</v>
       </c>
+      <c r="IU75" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -58568,6 +58793,9 @@
       <c r="IT76" t="n">
         <v>43</v>
       </c>
+      <c r="IU76" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -59334,6 +59562,9 @@
       <c r="IT77" t="n">
         <v>38</v>
       </c>
+      <c r="IU77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60100,6 +60331,9 @@
       <c r="IT78" t="n">
         <v>2.38</v>
       </c>
+      <c r="IU78" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60866,6 +61100,9 @@
       <c r="IT79" t="n">
         <v>12.67</v>
       </c>
+      <c r="IU79" t="n">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -61632,6 +61869,9 @@
       <c r="IT80" t="n">
         <v>31.6</v>
       </c>
+      <c r="IU80" t="n">
+        <v>34.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -62398,6 +62638,9 @@
       <c r="IT81" t="n">
         <v>7.9</v>
       </c>
+      <c r="IU81" t="n">
+        <v>17.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63164,6 +63407,9 @@
       <c r="IT82" t="n">
         <v>187.4</v>
       </c>
+      <c r="IU82" t="n">
+        <v>185.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63930,6 +64176,9 @@
       <c r="IT83" t="n">
         <v>87.5</v>
       </c>
+      <c r="IU83" t="n">
+        <v>83.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -64696,6 +64945,9 @@
       <c r="IT84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IU84" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -65462,6 +65714,9 @@
       <c r="IT85" t="n">
         <v>88.7</v>
       </c>
+      <c r="IU85" t="n">
+        <v>105.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -66228,6 +66483,9 @@
       <c r="IT86" t="n">
         <v>8</v>
       </c>
+      <c r="IU86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -66994,6 +67252,9 @@
       <c r="IT87" t="n">
         <v>8</v>
       </c>
+      <c r="IU87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -67760,6 +68021,9 @@
       <c r="IT88" t="n">
         <v>4</v>
       </c>
+      <c r="IU88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -68526,6 +68790,9 @@
       <c r="IT89" t="n">
         <v>3</v>
       </c>
+      <c r="IU89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -69292,6 +69559,9 @@
       <c r="IT90" t="n">
         <v>125</v>
       </c>
+      <c r="IU90" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70058,6 +70328,9 @@
       <c r="IT91" t="n">
         <v>167</v>
       </c>
+      <c r="IU91" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -70824,6 +71097,9 @@
       <c r="IT92" t="n">
         <v>191</v>
       </c>
+      <c r="IU92" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -71590,6 +71866,9 @@
       <c r="IT93" t="n">
         <v>63.9</v>
       </c>
+      <c r="IU93" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -72356,6 +72635,9 @@
       <c r="IT94" t="n">
         <v>56</v>
       </c>
+      <c r="IU94" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -73122,6 +73404,9 @@
       <c r="IT95" t="n">
         <v>9</v>
       </c>
+      <c r="IU95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73888,6 +74173,9 @@
       <c r="IT96" t="n">
         <v>2</v>
       </c>
+      <c r="IU96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -74654,6 +74942,9 @@
       <c r="IT97" t="n">
         <v>35</v>
       </c>
+      <c r="IU97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -75420,6 +75711,9 @@
       <c r="IT98" t="n">
         <v>43</v>
       </c>
+      <c r="IU98" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -76186,6 +76480,9 @@
       <c r="IT99" t="n">
         <v>56</v>
       </c>
+      <c r="IU99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -76952,6 +77249,9 @@
       <c r="IT100" t="n">
         <v>1</v>
       </c>
+      <c r="IU100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -77718,6 +78018,9 @@
       <c r="IT101" t="n">
         <v>1</v>
       </c>
+      <c r="IU101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -78484,6 +78787,9 @@
       <c r="IT102" t="n">
         <v>33.3</v>
       </c>
+      <c r="IU102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IU102"/>
+  <dimension ref="A1:IV102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,6 +1121,9 @@
       <c r="IU1" t="n">
         <v>10482</v>
       </c>
+      <c r="IV1" t="n">
+        <v>10494</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1890,6 +1893,9 @@
       <c r="IU2" t="n">
         <v>2021</v>
       </c>
+      <c r="IV2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2659,6 +2665,9 @@
       <c r="IU3" t="n">
         <v>19</v>
       </c>
+      <c r="IV3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3428,6 +3437,9 @@
       <c r="IU4" t="n">
         <v>0</v>
       </c>
+      <c r="IV4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4197,6 +4209,9 @@
       <c r="IU5" t="n">
         <v>0</v>
       </c>
+      <c r="IV5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4966,6 +4981,9 @@
       <c r="IU6" t="n">
         <v>95</v>
       </c>
+      <c r="IV6" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5735,6 +5753,9 @@
       <c r="IU7" t="n">
         <v>57</v>
       </c>
+      <c r="IV7" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6504,6 +6525,9 @@
       <c r="IU8" t="n">
         <v>38</v>
       </c>
+      <c r="IV8" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7273,6 +7297,9 @@
       <c r="IU9" t="n">
         <v>1</v>
       </c>
+      <c r="IV9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8042,6 +8069,9 @@
       <c r="IU10" t="n">
         <v>14</v>
       </c>
+      <c r="IV10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8811,6 +8841,9 @@
       <c r="IU11" t="n">
         <v>220</v>
       </c>
+      <c r="IV11" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9580,6 +9613,9 @@
       <c r="IU12" t="n">
         <v>166</v>
       </c>
+      <c r="IV12" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10349,6 +10385,9 @@
       <c r="IU13" t="n">
         <v>386</v>
       </c>
+      <c r="IV13" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11118,6 +11157,9 @@
       <c r="IU14" t="n">
         <v>1.33</v>
       </c>
+      <c r="IV14" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11887,6 +11929,9 @@
       <c r="IU15" t="n">
         <v>98</v>
       </c>
+      <c r="IV15" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12656,6 +12701,9 @@
       <c r="IU16" t="n">
         <v>56</v>
       </c>
+      <c r="IV16" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13425,6 +13473,9 @@
       <c r="IU17" t="n">
         <v>44</v>
       </c>
+      <c r="IV17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14194,6 +14245,9 @@
       <c r="IU18" t="n">
         <v>18</v>
       </c>
+      <c r="IV18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14963,6 +15017,9 @@
       <c r="IU19" t="n">
         <v>19</v>
       </c>
+      <c r="IV19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15732,6 +15789,9 @@
       <c r="IU20" t="n">
         <v>15</v>
       </c>
+      <c r="IV20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16501,6 +16561,9 @@
       <c r="IU21" t="n">
         <v>10</v>
       </c>
+      <c r="IV21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17270,6 +17333,9 @@
       <c r="IU22" t="n">
         <v>4</v>
       </c>
+      <c r="IV22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18039,6 +18105,9 @@
       <c r="IU23" t="n">
         <v>1</v>
       </c>
+      <c r="IV23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18808,6 +18877,9 @@
       <c r="IU24" t="n">
         <v>20</v>
       </c>
+      <c r="IV24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19577,6 +19649,9 @@
       <c r="IU25" t="n">
         <v>75</v>
       </c>
+      <c r="IV25" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20346,6 +20421,9 @@
       <c r="IU26" t="n">
         <v>25.73</v>
       </c>
+      <c r="IV26" t="n">
+        <v>49.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21115,6 +21193,9 @@
       <c r="IU27" t="n">
         <v>19.3</v>
       </c>
+      <c r="IV27" t="n">
+        <v>17.91</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21884,6 +21965,9 @@
       <c r="IU28" t="n">
         <v>42</v>
       </c>
+      <c r="IV28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22653,6 +22737,9 @@
       <c r="IU29" t="n">
         <v>63</v>
       </c>
+      <c r="IV29" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23422,6 +23509,9 @@
       <c r="IU30" t="n">
         <v>38</v>
       </c>
+      <c r="IV30" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24191,6 +24281,9 @@
       <c r="IU31" t="n">
         <v>52</v>
       </c>
+      <c r="IV31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24960,6 +25053,9 @@
       <c r="IU32" t="n">
         <v>2.6</v>
       </c>
+      <c r="IV32" t="n">
+        <v>2.73</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25729,6 +25825,9 @@
       <c r="IU33" t="n">
         <v>3.47</v>
       </c>
+      <c r="IV33" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26498,6 +26597,9 @@
       <c r="IU34" t="n">
         <v>36.5</v>
       </c>
+      <c r="IV34" t="n">
+        <v>31.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27267,6 +27369,9 @@
       <c r="IU35" t="n">
         <v>28.8</v>
       </c>
+      <c r="IV35" t="n">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28036,6 +28141,9 @@
       <c r="IU36" t="n">
         <v>188.3</v>
       </c>
+      <c r="IV36" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28805,6 +28913,9 @@
       <c r="IU37" t="n">
         <v>88.7</v>
       </c>
+      <c r="IV37" t="n">
+        <v>88.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29574,6 +29685,9 @@
       <c r="IU38" t="n">
         <v>27.91</v>
       </c>
+      <c r="IV38" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30343,6 +30457,9 @@
       <c r="IU39" t="n">
         <v>146.3</v>
       </c>
+      <c r="IV39" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31112,6 +31229,9 @@
       <c r="IU40" t="n">
         <v>2</v>
       </c>
+      <c r="IV40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31881,6 +32001,9 @@
       <c r="IU41" t="n">
         <v>6</v>
       </c>
+      <c r="IV41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32650,6 +32773,9 @@
       <c r="IU42" t="n">
         <v>4</v>
       </c>
+      <c r="IV42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33419,6 +33545,9 @@
       <c r="IU43" t="n">
         <v>11</v>
       </c>
+      <c r="IV43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34188,6 +34317,9 @@
       <c r="IU44" t="n">
         <v>143</v>
       </c>
+      <c r="IV44" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34957,6 +35089,9 @@
       <c r="IU45" t="n">
         <v>245</v>
       </c>
+      <c r="IV45" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35726,6 +35861,9 @@
       <c r="IU46" t="n">
         <v>283</v>
       </c>
+      <c r="IV46" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36495,6 +36633,9 @@
       <c r="IU47" t="n">
         <v>73.3</v>
       </c>
+      <c r="IV47" t="n">
+        <v>78.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37264,6 +37405,9 @@
       <c r="IU48" t="n">
         <v>63</v>
       </c>
+      <c r="IV48" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38033,6 +38177,9 @@
       <c r="IU49" t="n">
         <v>9</v>
       </c>
+      <c r="IV49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38802,6 +38949,9 @@
       <c r="IU50" t="n">
         <v>14</v>
       </c>
+      <c r="IV50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39571,6 +39721,9 @@
       <c r="IU51" t="n">
         <v>42</v>
       </c>
+      <c r="IV51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40340,6 +40493,9 @@
       <c r="IU52" t="n">
         <v>38</v>
       </c>
+      <c r="IV52" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41109,6 +41265,9 @@
       <c r="IU53" t="n">
         <v>47</v>
       </c>
+      <c r="IV53" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41878,6 +42037,9 @@
       <c r="IU54" t="n">
         <v>8</v>
       </c>
+      <c r="IV54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42647,6 +42809,9 @@
       <c r="IU55" t="n">
         <v>10</v>
       </c>
+      <c r="IV55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43416,6 +43581,9 @@
       <c r="IU56" t="n">
         <v>66.7</v>
       </c>
+      <c r="IV56" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44185,6 +44353,9 @@
       <c r="IU57" t="n">
         <v>180</v>
       </c>
+      <c r="IV57" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44954,6 +45125,9 @@
       <c r="IU58" t="n">
         <v>151</v>
       </c>
+      <c r="IV58" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45723,6 +45897,9 @@
       <c r="IU59" t="n">
         <v>331</v>
       </c>
+      <c r="IV59" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46492,6 +46669,9 @@
       <c r="IU60" t="n">
         <v>1.19</v>
       </c>
+      <c r="IV60" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47261,6 +47441,9 @@
       <c r="IU61" t="n">
         <v>79</v>
       </c>
+      <c r="IV61" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48030,6 +48213,9 @@
       <c r="IU62" t="n">
         <v>60</v>
       </c>
+      <c r="IV62" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48799,6 +48985,9 @@
       <c r="IU63" t="n">
         <v>25</v>
       </c>
+      <c r="IV63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -49568,6 +49757,9 @@
       <c r="IU64" t="n">
         <v>19</v>
       </c>
+      <c r="IV64" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50337,6 +50529,9 @@
       <c r="IU65" t="n">
         <v>18</v>
       </c>
+      <c r="IV65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51106,6 +51301,9 @@
       <c r="IU66" t="n">
         <v>8</v>
       </c>
+      <c r="IV66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51875,6 +52073,9 @@
       <c r="IU67" t="n">
         <v>6</v>
       </c>
+      <c r="IV67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52644,6 +52845,9 @@
       <c r="IU68" t="n">
         <v>8</v>
       </c>
+      <c r="IV68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53413,6 +53617,9 @@
       <c r="IU69" t="n">
         <v>1</v>
       </c>
+      <c r="IV69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54182,6 +54389,9 @@
       <c r="IU70" t="n">
         <v>17</v>
       </c>
+      <c r="IV70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54951,6 +55161,9 @@
       <c r="IU71" t="n">
         <v>47.1</v>
       </c>
+      <c r="IV71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55720,6 +55933,9 @@
       <c r="IU72" t="n">
         <v>41.38</v>
       </c>
+      <c r="IV72" t="n">
+        <v>56.83</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56489,6 +56705,9 @@
       <c r="IU73" t="n">
         <v>19.47</v>
       </c>
+      <c r="IV73" t="n">
+        <v>28.42</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57258,6 +57477,9 @@
       <c r="IU74" t="n">
         <v>34</v>
       </c>
+      <c r="IV74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58027,6 +58249,9 @@
       <c r="IU75" t="n">
         <v>71</v>
       </c>
+      <c r="IV75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -58796,6 +59021,9 @@
       <c r="IU76" t="n">
         <v>37</v>
       </c>
+      <c r="IV76" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -59565,6 +59793,9 @@
       <c r="IU77" t="n">
         <v>46</v>
       </c>
+      <c r="IV77" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60334,6 +60565,9 @@
       <c r="IU78" t="n">
         <v>2.71</v>
       </c>
+      <c r="IV78" t="n">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -61103,6 +61337,9 @@
       <c r="IU79" t="n">
         <v>5.75</v>
       </c>
+      <c r="IV79" t="n">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -61872,6 +62109,9 @@
       <c r="IU80" t="n">
         <v>34.8</v>
       </c>
+      <c r="IV80" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -62641,6 +62881,9 @@
       <c r="IU81" t="n">
         <v>17.4</v>
       </c>
+      <c r="IV81" t="n">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63410,6 +63653,9 @@
       <c r="IU82" t="n">
         <v>185.5</v>
       </c>
+      <c r="IV82" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -64179,6 +64425,9 @@
       <c r="IU83" t="n">
         <v>83.2</v>
       </c>
+      <c r="IV83" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -64948,6 +65197,9 @@
       <c r="IU84" t="n">
         <v>26.33</v>
       </c>
+      <c r="IV84" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -65717,6 +65969,9 @@
       <c r="IU85" t="n">
         <v>105.3</v>
       </c>
+      <c r="IV85" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -66486,6 +66741,9 @@
       <c r="IU86" t="n">
         <v>8</v>
       </c>
+      <c r="IV86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -67255,6 +67513,9 @@
       <c r="IU87" t="n">
         <v>4</v>
       </c>
+      <c r="IV87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -68024,6 +68285,9 @@
       <c r="IU88" t="n">
         <v>4</v>
       </c>
+      <c r="IV88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -68793,6 +69057,9 @@
       <c r="IU89" t="n">
         <v>6</v>
       </c>
+      <c r="IV89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -69562,6 +69829,9 @@
       <c r="IU90" t="n">
         <v>117</v>
       </c>
+      <c r="IV90" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70331,6 +70601,9 @@
       <c r="IU91" t="n">
         <v>211</v>
       </c>
+      <c r="IV91" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -71100,6 +71373,9 @@
       <c r="IU92" t="n">
         <v>235</v>
       </c>
+      <c r="IV92" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -71869,6 +72145,9 @@
       <c r="IU93" t="n">
         <v>71</v>
       </c>
+      <c r="IV93" t="n">
+        <v>74.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -72638,6 +72917,9 @@
       <c r="IU94" t="n">
         <v>71</v>
       </c>
+      <c r="IV94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -73407,6 +73689,9 @@
       <c r="IU95" t="n">
         <v>3</v>
       </c>
+      <c r="IV95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -74176,6 +74461,9 @@
       <c r="IU96" t="n">
         <v>8</v>
       </c>
+      <c r="IV96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -74945,6 +75233,9 @@
       <c r="IU97" t="n">
         <v>34</v>
       </c>
+      <c r="IV97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -75714,6 +76005,9 @@
       <c r="IU98" t="n">
         <v>37</v>
       </c>
+      <c r="IV98" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -76483,6 +76777,9 @@
       <c r="IU99" t="n">
         <v>48</v>
       </c>
+      <c r="IV99" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -77252,6 +77549,9 @@
       <c r="IU100" t="n">
         <v>3</v>
       </c>
+      <c r="IV100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78021,6 +78321,9 @@
       <c r="IU101" t="n">
         <v>6</v>
       </c>
+      <c r="IV101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -78790,6 +79093,9 @@
       <c r="IU102" t="n">
         <v>75</v>
       </c>
+      <c r="IV102" t="n">
+        <v>33.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IW102"/>
+  <dimension ref="A1:IX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,6 +1195,9 @@
       <c r="IW1" t="n">
         <v>10500</v>
       </c>
+      <c r="IX1" t="n">
+        <v>10508</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1902,6 +1973,9 @@
       <c r="IW2" t="n">
         <v>2021</v>
       </c>
+      <c r="IX2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2677,6 +2751,9 @@
       <c r="IW3" t="n">
         <v>21</v>
       </c>
+      <c r="IX3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3452,6 +3529,9 @@
       <c r="IW4" t="n">
         <v>0</v>
       </c>
+      <c r="IX4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4227,6 +4307,9 @@
       <c r="IW5" t="n">
         <v>1</v>
       </c>
+      <c r="IX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5002,6 +5085,9 @@
       <c r="IW6" t="n">
         <v>65</v>
       </c>
+      <c r="IX6" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5777,6 +5863,9 @@
       <c r="IW7" t="n">
         <v>84</v>
       </c>
+      <c r="IX7" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6552,6 +6641,9 @@
       <c r="IW8" t="n">
         <v>-19</v>
       </c>
+      <c r="IX8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7327,6 +7419,9 @@
       <c r="IW9" t="n">
         <v>0</v>
       </c>
+      <c r="IX9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8102,6 +8197,9 @@
       <c r="IW10" t="n">
         <v>9</v>
       </c>
+      <c r="IX10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8877,6 +8975,9 @@
       <c r="IW11" t="n">
         <v>223</v>
       </c>
+      <c r="IX11" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9652,6 +9753,9 @@
       <c r="IW12" t="n">
         <v>121</v>
       </c>
+      <c r="IX12" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10427,6 +10531,9 @@
       <c r="IW13" t="n">
         <v>344</v>
       </c>
+      <c r="IX13" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11202,6 +11309,9 @@
       <c r="IW14" t="n">
         <v>1.84</v>
       </c>
+      <c r="IX14" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11977,6 +12087,9 @@
       <c r="IW15" t="n">
         <v>103</v>
       </c>
+      <c r="IX15" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12752,6 +12865,9 @@
       <c r="IW16" t="n">
         <v>77</v>
       </c>
+      <c r="IX16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13527,6 +13643,9 @@
       <c r="IW17" t="n">
         <v>49</v>
       </c>
+      <c r="IX17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14302,6 +14421,9 @@
       <c r="IW18" t="n">
         <v>20</v>
       </c>
+      <c r="IX18" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15077,6 +15199,9 @@
       <c r="IW19" t="n">
         <v>18</v>
       </c>
+      <c r="IX19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15852,6 +15977,9 @@
       <c r="IW20" t="n">
         <v>8</v>
       </c>
+      <c r="IX20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16627,6 +16755,9 @@
       <c r="IW21" t="n">
         <v>6</v>
       </c>
+      <c r="IX21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17402,6 +17533,9 @@
       <c r="IW22" t="n">
         <v>11</v>
       </c>
+      <c r="IX22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18177,6 +18311,9 @@
       <c r="IW23" t="n">
         <v>6</v>
       </c>
+      <c r="IX23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18952,6 +19089,9 @@
       <c r="IW24" t="n">
         <v>25</v>
       </c>
+      <c r="IX24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19727,6 +19867,9 @@
       <c r="IW25" t="n">
         <v>32</v>
       </c>
+      <c r="IX25" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20502,6 +20645,9 @@
       <c r="IW26" t="n">
         <v>43</v>
       </c>
+      <c r="IX26" t="n">
+        <v>30.77</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21277,6 +21423,9 @@
       <c r="IW27" t="n">
         <v>13.76</v>
       </c>
+      <c r="IX27" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22052,6 +22201,9 @@
       <c r="IW28" t="n">
         <v>39</v>
       </c>
+      <c r="IX28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22827,6 +22979,9 @@
       <c r="IW29" t="n">
         <v>51</v>
       </c>
+      <c r="IX29" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23602,6 +23757,9 @@
       <c r="IW30" t="n">
         <v>29</v>
       </c>
+      <c r="IX30" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24377,6 +24535,9 @@
       <c r="IW31" t="n">
         <v>64</v>
       </c>
+      <c r="IX31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25152,6 +25313,9 @@
       <c r="IW32" t="n">
         <v>2.56</v>
       </c>
+      <c r="IX32" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25927,6 +26091,9 @@
       <c r="IW33" t="n">
         <v>8</v>
       </c>
+      <c r="IX33" t="n">
+        <v>3.46</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26702,6 +26869,9 @@
       <c r="IW34" t="n">
         <v>29.7</v>
       </c>
+      <c r="IX34" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27477,6 +27647,9 @@
       <c r="IW35" t="n">
         <v>12.5</v>
       </c>
+      <c r="IX35" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28252,6 +28425,9 @@
       <c r="IW36" t="n">
         <v>188.7</v>
       </c>
+      <c r="IX36" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29027,6 +29203,9 @@
       <c r="IW37" t="n">
         <v>87.59999999999999</v>
       </c>
+      <c r="IX37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29802,6 +29981,9 @@
       <c r="IW38" t="n">
         <v>27.16</v>
       </c>
+      <c r="IX38" t="n">
+        <v>27.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30577,6 +30759,9 @@
       <c r="IW39" t="n">
         <v>135.5</v>
       </c>
+      <c r="IX39" t="n">
+        <v>143.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31352,6 +31537,9 @@
       <c r="IW40" t="n">
         <v>6</v>
       </c>
+      <c r="IX40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32127,6 +32315,9 @@
       <c r="IW41" t="n">
         <v>3</v>
       </c>
+      <c r="IX41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32902,6 +33093,9 @@
       <c r="IW42" t="n">
         <v>4</v>
       </c>
+      <c r="IX42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33677,6 +33871,9 @@
       <c r="IW43" t="n">
         <v>10</v>
       </c>
+      <c r="IX43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34452,6 +34649,9 @@
       <c r="IW44" t="n">
         <v>136</v>
       </c>
+      <c r="IX44" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35227,6 +35427,9 @@
       <c r="IW45" t="n">
         <v>204</v>
       </c>
+      <c r="IX45" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36002,6 +36205,9 @@
       <c r="IW46" t="n">
         <v>252</v>
       </c>
+      <c r="IX46" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36777,6 +36983,9 @@
       <c r="IW47" t="n">
         <v>73.3</v>
       </c>
+      <c r="IX47" t="n">
+        <v>78.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37552,6 +37761,9 @@
       <c r="IW48" t="n">
         <v>51</v>
       </c>
+      <c r="IX48" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38327,6 +38539,9 @@
       <c r="IW49" t="n">
         <v>14</v>
       </c>
+      <c r="IX49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39102,6 +39317,9 @@
       <c r="IW50" t="n">
         <v>12</v>
       </c>
+      <c r="IX50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39877,6 +40095,9 @@
       <c r="IW51" t="n">
         <v>39</v>
       </c>
+      <c r="IX51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40652,6 +40873,9 @@
       <c r="IW52" t="n">
         <v>29</v>
       </c>
+      <c r="IX52" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41427,6 +41651,9 @@
       <c r="IW53" t="n">
         <v>37</v>
       </c>
+      <c r="IX53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42202,6 +42429,9 @@
       <c r="IW54" t="n">
         <v>4</v>
       </c>
+      <c r="IX54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42977,6 +43207,9 @@
       <c r="IW55" t="n">
         <v>6</v>
       </c>
+      <c r="IX55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43752,6 +43985,9 @@
       <c r="IW56" t="n">
         <v>75</v>
       </c>
+      <c r="IX56" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44527,6 +44763,9 @@
       <c r="IW57" t="n">
         <v>207</v>
       </c>
+      <c r="IX57" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45302,6 +45541,9 @@
       <c r="IW58" t="n">
         <v>152</v>
       </c>
+      <c r="IX58" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46077,6 +46319,9 @@
       <c r="IW59" t="n">
         <v>359</v>
       </c>
+      <c r="IX59" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46852,6 +47097,9 @@
       <c r="IW60" t="n">
         <v>1.36</v>
       </c>
+      <c r="IX60" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47627,6 +47875,9 @@
       <c r="IW61" t="n">
         <v>74</v>
       </c>
+      <c r="IX61" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48402,6 +48653,9 @@
       <c r="IW62" t="n">
         <v>71</v>
       </c>
+      <c r="IX62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49177,6 +49431,9 @@
       <c r="IW63" t="n">
         <v>26</v>
       </c>
+      <c r="IX63" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -49952,6 +50209,9 @@
       <c r="IW64" t="n">
         <v>18</v>
       </c>
+      <c r="IX64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50727,6 +50987,9 @@
       <c r="IW65" t="n">
         <v>20</v>
       </c>
+      <c r="IX65" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51502,6 +51765,9 @@
       <c r="IW66" t="n">
         <v>13</v>
       </c>
+      <c r="IX66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52277,6 +52543,9 @@
       <c r="IW67" t="n">
         <v>6</v>
       </c>
+      <c r="IX67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53052,6 +53321,9 @@
       <c r="IW68" t="n">
         <v>6</v>
       </c>
+      <c r="IX68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53827,6 +54099,9 @@
       <c r="IW69" t="n">
         <v>0</v>
       </c>
+      <c r="IX69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54602,6 +54877,9 @@
       <c r="IW70" t="n">
         <v>19</v>
       </c>
+      <c r="IX70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55377,6 +55655,9 @@
       <c r="IW71" t="n">
         <v>68.40000000000001</v>
       </c>
+      <c r="IX71" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -56152,6 +56433,9 @@
       <c r="IW72" t="n">
         <v>27.62</v>
       </c>
+      <c r="IX72" t="n">
+        <v>26.91</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56927,6 +57211,9 @@
       <c r="IW73" t="n">
         <v>18.89</v>
       </c>
+      <c r="IX73" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57702,6 +57989,9 @@
       <c r="IW74" t="n">
         <v>32</v>
       </c>
+      <c r="IX74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58477,6 +58767,9 @@
       <c r="IW75" t="n">
         <v>63</v>
       </c>
+      <c r="IX75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59252,6 +59545,9 @@
       <c r="IW76" t="n">
         <v>56</v>
       </c>
+      <c r="IX76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -60027,6 +60323,9 @@
       <c r="IW77" t="n">
         <v>43</v>
       </c>
+      <c r="IX77" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60802,6 +61101,9 @@
       <c r="IW78" t="n">
         <v>2.26</v>
       </c>
+      <c r="IX78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -61577,6 +61879,9 @@
       <c r="IW79" t="n">
         <v>3.31</v>
       </c>
+      <c r="IX79" t="n">
+        <v>2.91</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62352,6 +62657,9 @@
       <c r="IW80" t="n">
         <v>44.2</v>
       </c>
+      <c r="IX80" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -63127,6 +63435,9 @@
       <c r="IW81" t="n">
         <v>30.2</v>
       </c>
+      <c r="IX81" t="n">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63902,6 +64213,9 @@
       <c r="IW82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IX82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -64677,6 +64991,9 @@
       <c r="IW83" t="n">
         <v>86.3</v>
       </c>
+      <c r="IX83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -65452,6 +65769,9 @@
       <c r="IW84" t="n">
         <v>23.16</v>
       </c>
+      <c r="IX84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -66227,6 +66547,9 @@
       <c r="IW85" t="n">
         <v>66.5</v>
       </c>
+      <c r="IX85" t="n">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -67002,6 +67325,9 @@
       <c r="IW86" t="n">
         <v>13</v>
       </c>
+      <c r="IX86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -67777,6 +68103,9 @@
       <c r="IW87" t="n">
         <v>4</v>
       </c>
+      <c r="IX87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -68552,6 +68881,9 @@
       <c r="IW88" t="n">
         <v>1</v>
       </c>
+      <c r="IX88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69327,6 +69659,9 @@
       <c r="IW89" t="n">
         <v>5</v>
       </c>
+      <c r="IX89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -70102,6 +70437,9 @@
       <c r="IW90" t="n">
         <v>154</v>
       </c>
+      <c r="IX90" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70877,6 +71215,9 @@
       <c r="IW91" t="n">
         <v>202</v>
       </c>
+      <c r="IX91" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -71652,6 +71993,9 @@
       <c r="IW92" t="n">
         <v>251</v>
       </c>
+      <c r="IX92" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -72427,6 +72771,9 @@
       <c r="IW93" t="n">
         <v>69.90000000000001</v>
       </c>
+      <c r="IX93" t="n">
+        <v>72.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -73202,6 +73549,9 @@
       <c r="IW94" t="n">
         <v>63</v>
       </c>
+      <c r="IX94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -73977,6 +74327,9 @@
       <c r="IW95" t="n">
         <v>11</v>
       </c>
+      <c r="IX95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -74752,6 +75105,9 @@
       <c r="IW96" t="n">
         <v>5</v>
       </c>
+      <c r="IX96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -75527,6 +75883,9 @@
       <c r="IW97" t="n">
         <v>32</v>
       </c>
+      <c r="IX97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76302,6 +76661,9 @@
       <c r="IW98" t="n">
         <v>56</v>
       </c>
+      <c r="IX98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -77077,6 +77439,9 @@
       <c r="IW99" t="n">
         <v>56</v>
       </c>
+      <c r="IX99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -77852,6 +78217,9 @@
       <c r="IW100" t="n">
         <v>3</v>
       </c>
+      <c r="IX100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78627,6 +78995,9 @@
       <c r="IW101" t="n">
         <v>6</v>
       </c>
+      <c r="IX101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -79402,6 +79773,9 @@
       <c r="IW102" t="n">
         <v>46.2</v>
       </c>
+      <c r="IX102" t="n">
+        <v>81.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IX102"/>
+  <dimension ref="A1:IY102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,6 +1198,9 @@
       <c r="IX1" t="n">
         <v>10508</v>
       </c>
+      <c r="IY1" t="n">
+        <v>10519</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1976,6 +1979,9 @@
       <c r="IX2" t="n">
         <v>2021</v>
       </c>
+      <c r="IY2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2754,6 +2760,9 @@
       <c r="IX3" t="n">
         <v>22</v>
       </c>
+      <c r="IY3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3532,6 +3541,9 @@
       <c r="IX4" t="n">
         <v>0</v>
       </c>
+      <c r="IY4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4310,6 +4322,9 @@
       <c r="IX5" t="n">
         <v>0</v>
       </c>
+      <c r="IY5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5088,6 +5103,9 @@
       <c r="IX6" t="n">
         <v>85</v>
       </c>
+      <c r="IY6" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5866,6 +5884,9 @@
       <c r="IX7" t="n">
         <v>71</v>
       </c>
+      <c r="IY7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6644,6 +6665,9 @@
       <c r="IX8" t="n">
         <v>14</v>
       </c>
+      <c r="IY8" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7422,6 +7446,9 @@
       <c r="IX9" t="n">
         <v>1</v>
       </c>
+      <c r="IY9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8200,6 +8227,9 @@
       <c r="IX10" t="n">
         <v>15</v>
       </c>
+      <c r="IY10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8978,6 +9008,9 @@
       <c r="IX11" t="n">
         <v>228</v>
       </c>
+      <c r="IY11" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9756,6 +9789,9 @@
       <c r="IX12" t="n">
         <v>172</v>
       </c>
+      <c r="IY12" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10534,6 +10570,9 @@
       <c r="IX13" t="n">
         <v>400</v>
       </c>
+      <c r="IY13" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11312,6 +11351,9 @@
       <c r="IX14" t="n">
         <v>1.33</v>
       </c>
+      <c r="IY14" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12090,6 +12132,9 @@
       <c r="IX15" t="n">
         <v>111</v>
       </c>
+      <c r="IY15" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12868,6 +12913,9 @@
       <c r="IX16" t="n">
         <v>55</v>
       </c>
+      <c r="IY16" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13646,6 +13694,9 @@
       <c r="IX17" t="n">
         <v>45</v>
       </c>
+      <c r="IY17" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14424,6 +14475,9 @@
       <c r="IX18" t="n">
         <v>26</v>
       </c>
+      <c r="IY18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15202,6 +15256,9 @@
       <c r="IX19" t="n">
         <v>23</v>
       </c>
+      <c r="IY19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15980,6 +16037,9 @@
       <c r="IX20" t="n">
         <v>13</v>
       </c>
+      <c r="IY20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16758,6 +16818,9 @@
       <c r="IX21" t="n">
         <v>10</v>
       </c>
+      <c r="IY21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17536,6 +17599,9 @@
       <c r="IX22" t="n">
         <v>5</v>
       </c>
+      <c r="IY22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18314,6 +18380,9 @@
       <c r="IX23" t="n">
         <v>2</v>
       </c>
+      <c r="IY23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19092,6 +19161,9 @@
       <c r="IX24" t="n">
         <v>20</v>
       </c>
+      <c r="IY24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19870,6 +19942,9 @@
       <c r="IX25" t="n">
         <v>65</v>
       </c>
+      <c r="IY25" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20648,6 +20723,9 @@
       <c r="IX26" t="n">
         <v>30.77</v>
       </c>
+      <c r="IY26" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21426,6 +21504,9 @@
       <c r="IX27" t="n">
         <v>20</v>
       </c>
+      <c r="IY27" t="n">
+        <v>22.18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22204,6 +22285,9 @@
       <c r="IX28" t="n">
         <v>41</v>
       </c>
+      <c r="IY28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22982,6 +23066,9 @@
       <c r="IX29" t="n">
         <v>45</v>
       </c>
+      <c r="IY29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23760,6 +23847,9 @@
       <c r="IX30" t="n">
         <v>20</v>
       </c>
+      <c r="IY30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24538,6 +24628,9 @@
       <c r="IX31" t="n">
         <v>45</v>
       </c>
+      <c r="IY31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25316,6 +25409,9 @@
       <c r="IX32" t="n">
         <v>2.25</v>
       </c>
+      <c r="IY32" t="n">
+        <v>2.88</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26094,6 +26190,9 @@
       <c r="IX33" t="n">
         <v>3.46</v>
       </c>
+      <c r="IY33" t="n">
+        <v>4.08</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26872,6 +26971,9 @@
       <c r="IX34" t="n">
         <v>40</v>
       </c>
+      <c r="IY34" t="n">
+        <v>34.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27650,6 +27752,9 @@
       <c r="IX35" t="n">
         <v>28.9</v>
       </c>
+      <c r="IY35" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28428,6 +28533,9 @@
       <c r="IX36" t="n">
         <v>188.8</v>
       </c>
+      <c r="IY36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29206,6 +29314,9 @@
       <c r="IX37" t="n">
         <v>87.5</v>
       </c>
+      <c r="IY37" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29984,6 +30095,9 @@
       <c r="IX38" t="n">
         <v>27.49</v>
       </c>
+      <c r="IY38" t="n">
+        <v>27.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30762,6 +30876,9 @@
       <c r="IX39" t="n">
         <v>143.8</v>
       </c>
+      <c r="IY39" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31540,6 +31657,9 @@
       <c r="IX40" t="n">
         <v>5</v>
       </c>
+      <c r="IY40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32318,6 +32438,9 @@
       <c r="IX41" t="n">
         <v>4</v>
       </c>
+      <c r="IY41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33096,6 +33219,9 @@
       <c r="IX42" t="n">
         <v>3</v>
       </c>
+      <c r="IY42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33874,6 +34000,9 @@
       <c r="IX43" t="n">
         <v>11</v>
       </c>
+      <c r="IY43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34652,6 +34781,9 @@
       <c r="IX44" t="n">
         <v>143</v>
       </c>
+      <c r="IY44" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35430,6 +35562,9 @@
       <c r="IX45" t="n">
         <v>263</v>
       </c>
+      <c r="IY45" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36208,6 +36343,9 @@
       <c r="IX46" t="n">
         <v>315</v>
       </c>
+      <c r="IY46" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36986,6 +37124,9 @@
       <c r="IX47" t="n">
         <v>78.8</v>
       </c>
+      <c r="IY47" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37764,6 +37905,9 @@
       <c r="IX48" t="n">
         <v>45</v>
       </c>
+      <c r="IY48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38542,6 +38686,9 @@
       <c r="IX49" t="n">
         <v>11</v>
       </c>
+      <c r="IY49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39320,6 +39467,9 @@
       <c r="IX50" t="n">
         <v>16</v>
       </c>
+      <c r="IY50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40098,6 +40248,9 @@
       <c r="IX51" t="n">
         <v>41</v>
       </c>
+      <c r="IY51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40876,6 +41029,9 @@
       <c r="IX52" t="n">
         <v>20</v>
       </c>
+      <c r="IY52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41654,6 +41810,9 @@
       <c r="IX53" t="n">
         <v>43</v>
       </c>
+      <c r="IY53" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42432,6 +42591,9 @@
       <c r="IX54" t="n">
         <v>0</v>
       </c>
+      <c r="IY54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43210,6 +43372,9 @@
       <c r="IX55" t="n">
         <v>10</v>
       </c>
+      <c r="IY55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43988,6 +44153,9 @@
       <c r="IX56" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="IY56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44766,6 +44934,9 @@
       <c r="IX57" t="n">
         <v>178</v>
       </c>
+      <c r="IY57" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45544,6 +45715,9 @@
       <c r="IX58" t="n">
         <v>118</v>
       </c>
+      <c r="IY58" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46322,6 +46496,9 @@
       <c r="IX59" t="n">
         <v>296</v>
       </c>
+      <c r="IY59" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47100,6 +47277,9 @@
       <c r="IX60" t="n">
         <v>1.51</v>
       </c>
+      <c r="IY60" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47878,6 +48058,9 @@
       <c r="IX61" t="n">
         <v>75</v>
       </c>
+      <c r="IY61" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48656,6 +48839,9 @@
       <c r="IX62" t="n">
         <v>52</v>
       </c>
+      <c r="IY62" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49434,6 +49620,9 @@
       <c r="IX63" t="n">
         <v>23</v>
       </c>
+      <c r="IY63" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50212,6 +50401,9 @@
       <c r="IX64" t="n">
         <v>23</v>
       </c>
+      <c r="IY64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50990,6 +51182,9 @@
       <c r="IX65" t="n">
         <v>26</v>
       </c>
+      <c r="IY65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51768,6 +51963,9 @@
       <c r="IX66" t="n">
         <v>11</v>
       </c>
+      <c r="IY66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52546,6 +52744,9 @@
       <c r="IX67" t="n">
         <v>9</v>
       </c>
+      <c r="IY67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53324,6 +53525,9 @@
       <c r="IX68" t="n">
         <v>5</v>
       </c>
+      <c r="IY68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54102,6 +54306,9 @@
       <c r="IX69" t="n">
         <v>0</v>
       </c>
+      <c r="IY69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54880,6 +55087,9 @@
       <c r="IX70" t="n">
         <v>16</v>
       </c>
+      <c r="IY70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55658,6 +55868,9 @@
       <c r="IX71" t="n">
         <v>68.8</v>
       </c>
+      <c r="IY71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -56436,6 +56649,9 @@
       <c r="IX72" t="n">
         <v>26.91</v>
       </c>
+      <c r="IY72" t="n">
+        <v>29.83</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -57214,6 +57430,9 @@
       <c r="IX73" t="n">
         <v>18.5</v>
       </c>
+      <c r="IY73" t="n">
+        <v>17.05</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57992,6 +58211,9 @@
       <c r="IX74" t="n">
         <v>30</v>
       </c>
+      <c r="IY74" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58770,6 +58992,9 @@
       <c r="IX75" t="n">
         <v>49</v>
       </c>
+      <c r="IY75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59548,6 +59773,9 @@
       <c r="IX76" t="n">
         <v>33</v>
       </c>
+      <c r="IY76" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -60326,6 +60554,9 @@
       <c r="IX77" t="n">
         <v>32</v>
       </c>
+      <c r="IY77" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -61104,6 +61335,9 @@
       <c r="IX78" t="n">
         <v>2</v>
       </c>
+      <c r="IY78" t="n">
+        <v>2.67</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -61882,6 +62116,9 @@
       <c r="IX79" t="n">
         <v>2.91</v>
       </c>
+      <c r="IY79" t="n">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62660,6 +62897,9 @@
       <c r="IX80" t="n">
         <v>50</v>
       </c>
+      <c r="IY80" t="n">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -63438,6 +63678,9 @@
       <c r="IX81" t="n">
         <v>34.4</v>
       </c>
+      <c r="IY81" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -64216,6 +64459,9 @@
       <c r="IX82" t="n">
         <v>187.8</v>
       </c>
+      <c r="IY82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -64994,6 +65240,9 @@
       <c r="IX83" t="n">
         <v>85.3</v>
       </c>
+      <c r="IY83" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -65772,6 +66021,9 @@
       <c r="IX84" t="n">
         <v>24.41</v>
       </c>
+      <c r="IY84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -66550,6 +66802,9 @@
       <c r="IX85" t="n">
         <v>88.3</v>
       </c>
+      <c r="IY85" t="n">
+        <v>92.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -67328,6 +67583,9 @@
       <c r="IX86" t="n">
         <v>5</v>
       </c>
+      <c r="IY86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -68106,6 +68364,9 @@
       <c r="IX87" t="n">
         <v>8</v>
       </c>
+      <c r="IY87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -68884,6 +69145,9 @@
       <c r="IX88" t="n">
         <v>7</v>
       </c>
+      <c r="IY88" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69662,6 +69926,9 @@
       <c r="IX89" t="n">
         <v>3</v>
       </c>
+      <c r="IY89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -70440,6 +70707,9 @@
       <c r="IX90" t="n">
         <v>108</v>
       </c>
+      <c r="IY90" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -71218,6 +71488,9 @@
       <c r="IX91" t="n">
         <v>184</v>
       </c>
+      <c r="IY91" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -71996,6 +72269,9 @@
       <c r="IX92" t="n">
         <v>215</v>
       </c>
+      <c r="IY92" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -72774,6 +73050,9 @@
       <c r="IX93" t="n">
         <v>72.59999999999999</v>
       </c>
+      <c r="IY93" t="n">
+        <v>72.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -73552,6 +73831,9 @@
       <c r="IX94" t="n">
         <v>49</v>
       </c>
+      <c r="IY94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -74330,6 +74612,9 @@
       <c r="IX95" t="n">
         <v>7</v>
       </c>
+      <c r="IY95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -75108,6 +75393,9 @@
       <c r="IX96" t="n">
         <v>11</v>
       </c>
+      <c r="IY96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -75886,6 +76174,9 @@
       <c r="IX97" t="n">
         <v>30</v>
       </c>
+      <c r="IY97" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76664,6 +76955,9 @@
       <c r="IX98" t="n">
         <v>33</v>
       </c>
+      <c r="IY98" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -77442,6 +77736,9 @@
       <c r="IX99" t="n">
         <v>47</v>
       </c>
+      <c r="IY99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -78220,6 +78517,9 @@
       <c r="IX100" t="n">
         <v>5</v>
       </c>
+      <c r="IY100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78998,6 +79298,9 @@
       <c r="IX101" t="n">
         <v>9</v>
       </c>
+      <c r="IY101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -79776,6 +80079,9 @@
       <c r="IX102" t="n">
         <v>81.8</v>
       </c>
+      <c r="IY102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IY102"/>
+  <dimension ref="A1:IZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1201,6 +1133,9 @@
       <c r="IY1" t="n">
         <v>10519</v>
       </c>
+      <c r="IZ1" t="n">
+        <v>10535</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1982,6 +1917,9 @@
       <c r="IY2" t="n">
         <v>2021</v>
       </c>
+      <c r="IZ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2763,6 +2701,9 @@
       <c r="IY3" t="n">
         <v>23</v>
       </c>
+      <c r="IZ3" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3544,6 +3485,9 @@
       <c r="IY4" t="n">
         <v>0</v>
       </c>
+      <c r="IZ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4325,6 +4269,9 @@
       <c r="IY5" t="n">
         <v>1</v>
       </c>
+      <c r="IZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5106,6 +5053,9 @@
       <c r="IY6" t="n">
         <v>77</v>
       </c>
+      <c r="IZ6" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5887,6 +5837,9 @@
       <c r="IY7" t="n">
         <v>81</v>
       </c>
+      <c r="IZ7" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6668,6 +6621,9 @@
       <c r="IY8" t="n">
         <v>-4</v>
       </c>
+      <c r="IZ8" t="n">
+        <v>-43</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7449,6 +7405,9 @@
       <c r="IY9" t="n">
         <v>0</v>
       </c>
+      <c r="IZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8230,6 +8189,9 @@
       <c r="IY10" t="n">
         <v>11</v>
       </c>
+      <c r="IZ10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9011,6 +8973,9 @@
       <c r="IY11" t="n">
         <v>229</v>
       </c>
+      <c r="IZ11" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9792,6 +9757,9 @@
       <c r="IY12" t="n">
         <v>148</v>
       </c>
+      <c r="IZ12" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10573,6 +10541,9 @@
       <c r="IY13" t="n">
         <v>377</v>
       </c>
+      <c r="IZ13" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11354,6 +11325,9 @@
       <c r="IY14" t="n">
         <v>1.55</v>
       </c>
+      <c r="IZ14" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12135,6 +12109,9 @@
       <c r="IY15" t="n">
         <v>106</v>
       </c>
+      <c r="IZ15" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12916,6 +12893,9 @@
       <c r="IY16" t="n">
         <v>61</v>
       </c>
+      <c r="IZ16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13697,6 +13677,9 @@
       <c r="IY17" t="n">
         <v>39</v>
       </c>
+      <c r="IZ17" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14478,6 +14461,9 @@
       <c r="IY18" t="n">
         <v>23</v>
       </c>
+      <c r="IZ18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15259,6 +15245,9 @@
       <c r="IY19" t="n">
         <v>17</v>
       </c>
+      <c r="IZ19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16040,6 +16029,9 @@
       <c r="IY20" t="n">
         <v>12</v>
       </c>
+      <c r="IZ20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16821,6 +16813,9 @@
       <c r="IY21" t="n">
         <v>9</v>
       </c>
+      <c r="IZ21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17602,6 +17597,9 @@
       <c r="IY22" t="n">
         <v>5</v>
       </c>
+      <c r="IZ22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18383,6 +18381,9 @@
       <c r="IY23" t="n">
         <v>0</v>
       </c>
+      <c r="IZ23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19164,6 +19165,9 @@
       <c r="IY24" t="n">
         <v>17</v>
       </c>
+      <c r="IZ24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19945,6 +19949,9 @@
       <c r="IY25" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IZ25" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20726,6 +20733,9 @@
       <c r="IY26" t="n">
         <v>31.42</v>
       </c>
+      <c r="IZ26" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21507,6 +21517,9 @@
       <c r="IY27" t="n">
         <v>22.18</v>
       </c>
+      <c r="IZ27" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22288,6 +22301,9 @@
       <c r="IY28" t="n">
         <v>40</v>
       </c>
+      <c r="IZ28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23069,6 +23085,9 @@
       <c r="IY29" t="n">
         <v>58</v>
       </c>
+      <c r="IZ29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23850,6 +23869,9 @@
       <c r="IY30" t="n">
         <v>42</v>
       </c>
+      <c r="IZ30" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24631,6 +24653,9 @@
       <c r="IY31" t="n">
         <v>49</v>
       </c>
+      <c r="IZ31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25412,6 +25437,9 @@
       <c r="IY32" t="n">
         <v>2.88</v>
       </c>
+      <c r="IZ32" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26193,6 +26221,9 @@
       <c r="IY33" t="n">
         <v>4.08</v>
       </c>
+      <c r="IZ33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26974,6 +27005,9 @@
       <c r="IY34" t="n">
         <v>34.7</v>
       </c>
+      <c r="IZ34" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27755,6 +27789,9 @@
       <c r="IY35" t="n">
         <v>24.5</v>
       </c>
+      <c r="IZ35" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28536,6 +28573,9 @@
       <c r="IY36" t="n">
         <v>188.2</v>
       </c>
+      <c r="IZ36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29317,6 +29357,9 @@
       <c r="IY37" t="n">
         <v>87.40000000000001</v>
       </c>
+      <c r="IZ37" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30098,6 +30141,9 @@
       <c r="IY38" t="n">
         <v>27.58</v>
       </c>
+      <c r="IZ38" t="n">
+        <v>28.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30879,6 +30925,9 @@
       <c r="IY39" t="n">
         <v>147</v>
       </c>
+      <c r="IZ39" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31660,6 +31709,9 @@
       <c r="IY40" t="n">
         <v>3</v>
       </c>
+      <c r="IZ40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32441,6 +32493,9 @@
       <c r="IY41" t="n">
         <v>5</v>
       </c>
+      <c r="IZ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33222,6 +33277,9 @@
       <c r="IY42" t="n">
         <v>3</v>
       </c>
+      <c r="IZ42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34003,6 +34061,9 @@
       <c r="IY43" t="n">
         <v>11</v>
       </c>
+      <c r="IZ43" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34784,6 +34845,9 @@
       <c r="IY44" t="n">
         <v>140</v>
       </c>
+      <c r="IZ44" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35565,6 +35629,9 @@
       <c r="IY45" t="n">
         <v>234</v>
       </c>
+      <c r="IZ45" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36346,6 +36413,9 @@
       <c r="IY46" t="n">
         <v>279</v>
       </c>
+      <c r="IZ46" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37127,6 +37197,9 @@
       <c r="IY47" t="n">
         <v>74</v>
       </c>
+      <c r="IZ47" t="n">
+        <v>71.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37908,6 +37981,9 @@
       <c r="IY48" t="n">
         <v>58</v>
       </c>
+      <c r="IZ48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38689,6 +38765,9 @@
       <c r="IY49" t="n">
         <v>2</v>
       </c>
+      <c r="IZ49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39470,6 +39549,9 @@
       <c r="IY50" t="n">
         <v>8</v>
       </c>
+      <c r="IZ50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40251,6 +40333,9 @@
       <c r="IY51" t="n">
         <v>40</v>
       </c>
+      <c r="IZ51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41032,6 +41117,9 @@
       <c r="IY52" t="n">
         <v>42</v>
       </c>
+      <c r="IZ52" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41813,6 +41901,9 @@
       <c r="IY53" t="n">
         <v>58</v>
       </c>
+      <c r="IZ53" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42594,6 +42685,9 @@
       <c r="IY54" t="n">
         <v>1</v>
       </c>
+      <c r="IZ54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43375,6 +43469,9 @@
       <c r="IY55" t="n">
         <v>9</v>
       </c>
+      <c r="IZ55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44156,6 +44253,9 @@
       <c r="IY56" t="n">
         <v>75</v>
       </c>
+      <c r="IZ56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44937,6 +45037,9 @@
       <c r="IY57" t="n">
         <v>207</v>
       </c>
+      <c r="IZ57" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45718,6 +45821,9 @@
       <c r="IY58" t="n">
         <v>151</v>
       </c>
+      <c r="IZ58" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46499,6 +46605,9 @@
       <c r="IY59" t="n">
         <v>358</v>
       </c>
+      <c r="IZ59" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47280,6 +47389,9 @@
       <c r="IY60" t="n">
         <v>1.37</v>
       </c>
+      <c r="IZ60" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -48061,6 +48173,9 @@
       <c r="IY61" t="n">
         <v>87</v>
       </c>
+      <c r="IZ61" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48842,6 +48957,9 @@
       <c r="IY62" t="n">
         <v>70</v>
       </c>
+      <c r="IZ62" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49623,6 +49741,9 @@
       <c r="IY63" t="n">
         <v>49</v>
       </c>
+      <c r="IZ63" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50404,6 +50525,9 @@
       <c r="IY64" t="n">
         <v>17</v>
       </c>
+      <c r="IZ64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -51185,6 +51309,9 @@
       <c r="IY65" t="n">
         <v>23</v>
       </c>
+      <c r="IZ65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51966,6 +52093,9 @@
       <c r="IY66" t="n">
         <v>12</v>
       </c>
+      <c r="IZ66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52747,6 +52877,9 @@
       <c r="IY67" t="n">
         <v>8</v>
       </c>
+      <c r="IZ67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53528,6 +53661,9 @@
       <c r="IY68" t="n">
         <v>5</v>
       </c>
+      <c r="IZ68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54309,6 +54445,9 @@
       <c r="IY69" t="n">
         <v>4</v>
       </c>
+      <c r="IZ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -55090,6 +55229,9 @@
       <c r="IY70" t="n">
         <v>21</v>
       </c>
+      <c r="IZ70" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55871,6 +56013,9 @@
       <c r="IY71" t="n">
         <v>57.1</v>
       </c>
+      <c r="IZ71" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -56652,6 +56797,9 @@
       <c r="IY72" t="n">
         <v>29.83</v>
       </c>
+      <c r="IZ72" t="n">
+        <v>31.58</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -57433,6 +57581,9 @@
       <c r="IY73" t="n">
         <v>17.05</v>
       </c>
+      <c r="IZ73" t="n">
+        <v>14.58</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -58214,6 +58365,9 @@
       <c r="IY74" t="n">
         <v>47</v>
       </c>
+      <c r="IZ74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58995,6 +59149,9 @@
       <c r="IY75" t="n">
         <v>60</v>
       </c>
+      <c r="IZ75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59776,6 +59933,9 @@
       <c r="IY76" t="n">
         <v>37</v>
       </c>
+      <c r="IZ76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -60557,6 +60717,9 @@
       <c r="IY77" t="n">
         <v>56</v>
       </c>
+      <c r="IZ77" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -61338,6 +61501,9 @@
       <c r="IY78" t="n">
         <v>2.67</v>
       </c>
+      <c r="IZ78" t="n">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -62119,6 +62285,9 @@
       <c r="IY79" t="n">
         <v>4.67</v>
       </c>
+      <c r="IZ79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62900,6 +63069,9 @@
       <c r="IY80" t="n">
         <v>30.4</v>
       </c>
+      <c r="IZ80" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -63681,6 +63853,9 @@
       <c r="IY81" t="n">
         <v>21.4</v>
       </c>
+      <c r="IZ81" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -64462,6 +64637,9 @@
       <c r="IY82" t="n">
         <v>187.4</v>
       </c>
+      <c r="IZ82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -65243,6 +65421,9 @@
       <c r="IY83" t="n">
         <v>85.8</v>
       </c>
+      <c r="IZ83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -66024,6 +66205,9 @@
       <c r="IY84" t="n">
         <v>24.66</v>
       </c>
+      <c r="IZ84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -66805,6 +66989,9 @@
       <c r="IY85" t="n">
         <v>92.40000000000001</v>
       </c>
+      <c r="IZ85" t="n">
+        <v>113.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -67586,6 +67773,9 @@
       <c r="IY86" t="n">
         <v>7</v>
       </c>
+      <c r="IZ86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -68367,6 +68557,9 @@
       <c r="IY87" t="n">
         <v>2</v>
       </c>
+      <c r="IZ87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -69148,6 +69341,9 @@
       <c r="IY88" t="n">
         <v>10</v>
       </c>
+      <c r="IZ88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69929,6 +70125,9 @@
       <c r="IY89" t="n">
         <v>3</v>
       </c>
+      <c r="IZ89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -70710,6 +70909,9 @@
       <c r="IY90" t="n">
         <v>140</v>
       </c>
+      <c r="IZ90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -71491,6 +71693,9 @@
       <c r="IY91" t="n">
         <v>207</v>
       </c>
+      <c r="IZ91" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -72272,6 +72477,9 @@
       <c r="IY92" t="n">
         <v>258</v>
       </c>
+      <c r="IZ92" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -73053,6 +73261,9 @@
       <c r="IY93" t="n">
         <v>72.09999999999999</v>
       </c>
+      <c r="IZ93" t="n">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -73834,6 +74045,9 @@
       <c r="IY94" t="n">
         <v>60</v>
       </c>
+      <c r="IZ94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -74615,6 +74829,9 @@
       <c r="IY95" t="n">
         <v>12</v>
       </c>
+      <c r="IZ95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -75396,6 +75613,9 @@
       <c r="IY96" t="n">
         <v>8</v>
       </c>
+      <c r="IZ96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -76177,6 +76397,9 @@
       <c r="IY97" t="n">
         <v>47</v>
       </c>
+      <c r="IZ97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76958,6 +77181,9 @@
       <c r="IY98" t="n">
         <v>37</v>
       </c>
+      <c r="IZ98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -77739,6 +77965,9 @@
       <c r="IY99" t="n">
         <v>42</v>
       </c>
+      <c r="IZ99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -78520,6 +78749,9 @@
       <c r="IY100" t="n">
         <v>2</v>
       </c>
+      <c r="IZ100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -79301,6 +79533,9 @@
       <c r="IY101" t="n">
         <v>8</v>
       </c>
+      <c r="IZ101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -80082,6 +80317,9 @@
       <c r="IY102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IZ102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JA102"/>
+  <dimension ref="A1:JB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1139,6 +1139,9 @@
       <c r="JA1" t="n">
         <v>10539</v>
       </c>
+      <c r="JB1" t="n">
+        <v>10541</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1926,6 +1929,9 @@
       <c r="JA2" t="n">
         <v>2021</v>
       </c>
+      <c r="JB2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2713,6 +2719,9 @@
       <c r="JA3" t="n">
         <v>26</v>
       </c>
+      <c r="JB3" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3500,6 +3509,9 @@
       <c r="JA4" t="n">
         <v>0</v>
       </c>
+      <c r="JB4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4287,6 +4299,9 @@
       <c r="JA5" t="n">
         <v>0</v>
       </c>
+      <c r="JB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5074,6 +5089,9 @@
       <c r="JA6" t="n">
         <v>103</v>
       </c>
+      <c r="JB6" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5861,6 +5879,9 @@
       <c r="JA7" t="n">
         <v>68</v>
       </c>
+      <c r="JB7" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6648,6 +6669,9 @@
       <c r="JA8" t="n">
         <v>35</v>
       </c>
+      <c r="JB8" t="n">
+        <v>-83</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7435,6 +7459,9 @@
       <c r="JA9" t="n">
         <v>1</v>
       </c>
+      <c r="JB9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8222,6 +8249,9 @@
       <c r="JA10" t="n">
         <v>9</v>
       </c>
+      <c r="JB10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9009,6 +9039,9 @@
       <c r="JA11" t="n">
         <v>223</v>
       </c>
+      <c r="JB11" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9796,6 +9829,9 @@
       <c r="JA12" t="n">
         <v>132</v>
       </c>
+      <c r="JB12" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10583,6 +10619,9 @@
       <c r="JA13" t="n">
         <v>355</v>
       </c>
+      <c r="JB13" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11370,6 +11409,9 @@
       <c r="JA14" t="n">
         <v>1.69</v>
       </c>
+      <c r="JB14" t="n">
+        <v>1.12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12157,6 +12199,9 @@
       <c r="JA15" t="n">
         <v>92</v>
       </c>
+      <c r="JB15" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12944,6 +12989,9 @@
       <c r="JA16" t="n">
         <v>59</v>
       </c>
+      <c r="JB16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13731,6 +13779,9 @@
       <c r="JA17" t="n">
         <v>41</v>
       </c>
+      <c r="JB17" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14518,6 +14569,9 @@
       <c r="JA18" t="n">
         <v>24</v>
       </c>
+      <c r="JB18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15305,6 +15359,9 @@
       <c r="JA19" t="n">
         <v>17</v>
       </c>
+      <c r="JB19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16092,6 +16149,9 @@
       <c r="JA20" t="n">
         <v>15</v>
       </c>
+      <c r="JB20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16879,6 +16939,9 @@
       <c r="JA21" t="n">
         <v>12</v>
       </c>
+      <c r="JB21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17666,6 +17729,9 @@
       <c r="JA22" t="n">
         <v>10</v>
       </c>
+      <c r="JB22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18453,6 +18519,9 @@
       <c r="JA23" t="n">
         <v>3</v>
       </c>
+      <c r="JB23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19240,6 +19309,9 @@
       <c r="JA24" t="n">
         <v>28</v>
       </c>
+      <c r="JB24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20027,6 +20099,9 @@
       <c r="JA25" t="n">
         <v>53.6</v>
       </c>
+      <c r="JB25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20814,6 +20889,9 @@
       <c r="JA26" t="n">
         <v>23.67</v>
       </c>
+      <c r="JB26" t="n">
+        <v>56.83</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21601,6 +21679,9 @@
       <c r="JA27" t="n">
         <v>12.68</v>
       </c>
+      <c r="JB27" t="n">
+        <v>28.42</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22388,6 +22469,9 @@
       <c r="JA28" t="n">
         <v>41</v>
       </c>
+      <c r="JB28" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23175,6 +23259,9 @@
       <c r="JA29" t="n">
         <v>42</v>
       </c>
+      <c r="JB29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23962,6 +24049,9 @@
       <c r="JA30" t="n">
         <v>38</v>
       </c>
+      <c r="JB30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24749,6 +24839,9 @@
       <c r="JA31" t="n">
         <v>49</v>
       </c>
+      <c r="JB31" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25536,6 +25629,9 @@
       <c r="JA32" t="n">
         <v>1.75</v>
       </c>
+      <c r="JB32" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26323,6 +26419,9 @@
       <c r="JA33" t="n">
         <v>3.27</v>
       </c>
+      <c r="JB33" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27110,6 +27209,9 @@
       <c r="JA34" t="n">
         <v>51</v>
       </c>
+      <c r="JB34" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27897,6 +27999,9 @@
       <c r="JA35" t="n">
         <v>30.6</v>
       </c>
+      <c r="JB35" t="n">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28684,6 +28789,9 @@
       <c r="JA36" t="n">
         <v>189.1</v>
       </c>
+      <c r="JB36" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29471,6 +29579,9 @@
       <c r="JA37" t="n">
         <v>88.8</v>
       </c>
+      <c r="JB37" t="n">
+        <v>89.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30258,6 +30369,9 @@
       <c r="JA38" t="n">
         <v>27.8</v>
       </c>
+      <c r="JB38" t="n">
+        <v>28.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31045,6 +31159,9 @@
       <c r="JA39" t="n">
         <v>153.1</v>
       </c>
+      <c r="JB39" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31832,6 +31949,9 @@
       <c r="JA40" t="n">
         <v>3</v>
       </c>
+      <c r="JB40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32619,6 +32739,9 @@
       <c r="JA41" t="n">
         <v>5</v>
       </c>
+      <c r="JB41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33406,6 +33529,9 @@
       <c r="JA42" t="n">
         <v>3</v>
       </c>
+      <c r="JB42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34193,6 +34319,9 @@
       <c r="JA43" t="n">
         <v>12</v>
       </c>
+      <c r="JB43" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34980,6 +35109,9 @@
       <c r="JA44" t="n">
         <v>141</v>
       </c>
+      <c r="JB44" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35767,6 +35899,9 @@
       <c r="JA45" t="n">
         <v>221</v>
       </c>
+      <c r="JB45" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36554,6 +36689,9 @@
       <c r="JA46" t="n">
         <v>266</v>
       </c>
+      <c r="JB46" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37341,6 +37479,9 @@
       <c r="JA47" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="JB47" t="n">
+        <v>68.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38128,6 +38269,9 @@
       <c r="JA48" t="n">
         <v>42</v>
       </c>
+      <c r="JB48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38915,6 +39059,9 @@
       <c r="JA49" t="n">
         <v>12</v>
       </c>
+      <c r="JB49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39702,6 +39849,9 @@
       <c r="JA50" t="n">
         <v>13</v>
       </c>
+      <c r="JB50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40489,6 +40639,9 @@
       <c r="JA51" t="n">
         <v>41</v>
       </c>
+      <c r="JB51" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41276,6 +41429,9 @@
       <c r="JA52" t="n">
         <v>38</v>
       </c>
+      <c r="JB52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42063,6 +42219,9 @@
       <c r="JA53" t="n">
         <v>61</v>
       </c>
+      <c r="JB53" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42850,6 +43009,9 @@
       <c r="JA54" t="n">
         <v>5</v>
       </c>
+      <c r="JB54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43637,6 +43799,9 @@
       <c r="JA55" t="n">
         <v>12</v>
       </c>
+      <c r="JB55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44424,6 +44589,9 @@
       <c r="JA56" t="n">
         <v>80</v>
       </c>
+      <c r="JB56" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -45211,6 +45379,9 @@
       <c r="JA57" t="n">
         <v>185</v>
       </c>
+      <c r="JB57" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45998,6 +46169,9 @@
       <c r="JA58" t="n">
         <v>140</v>
       </c>
+      <c r="JB58" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46785,6 +46959,9 @@
       <c r="JA59" t="n">
         <v>325</v>
       </c>
+      <c r="JB59" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47572,6 +47749,9 @@
       <c r="JA60" t="n">
         <v>1.32</v>
       </c>
+      <c r="JB60" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -48359,6 +48539,9 @@
       <c r="JA61" t="n">
         <v>65</v>
       </c>
+      <c r="JB61" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -49146,6 +49329,9 @@
       <c r="JA62" t="n">
         <v>68</v>
       </c>
+      <c r="JB62" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49933,6 +50119,9 @@
       <c r="JA63" t="n">
         <v>35</v>
       </c>
+      <c r="JB63" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50720,6 +50909,9 @@
       <c r="JA64" t="n">
         <v>17</v>
       </c>
+      <c r="JB64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -51507,6 +51699,9 @@
       <c r="JA65" t="n">
         <v>24</v>
       </c>
+      <c r="JB65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -52294,6 +52489,9 @@
       <c r="JA66" t="n">
         <v>10</v>
       </c>
+      <c r="JB66" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -53081,6 +53279,9 @@
       <c r="JA67" t="n">
         <v>6</v>
       </c>
+      <c r="JB67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53868,6 +54069,9 @@
       <c r="JA68" t="n">
         <v>6</v>
       </c>
+      <c r="JB68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54655,6 +54859,9 @@
       <c r="JA69" t="n">
         <v>2</v>
       </c>
+      <c r="JB69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -55442,6 +55649,9 @@
       <c r="JA70" t="n">
         <v>18</v>
       </c>
+      <c r="JB70" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -56229,6 +56439,9 @@
       <c r="JA71" t="n">
         <v>55.6</v>
       </c>
+      <c r="JB71" t="n">
+        <v>63.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -57016,6 +57229,9 @@
       <c r="JA72" t="n">
         <v>32.5</v>
       </c>
+      <c r="JB72" t="n">
+        <v>19.68</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -57803,6 +58019,9 @@
       <c r="JA73" t="n">
         <v>18.06</v>
       </c>
+      <c r="JB73" t="n">
+        <v>12.47</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -58590,6 +58809,9 @@
       <c r="JA74" t="n">
         <v>43</v>
       </c>
+      <c r="JB74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -59377,6 +59599,9 @@
       <c r="JA75" t="n">
         <v>57</v>
       </c>
+      <c r="JB75" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -60164,6 +60389,9 @@
       <c r="JA76" t="n">
         <v>34</v>
       </c>
+      <c r="JB76" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -60951,6 +61179,9 @@
       <c r="JA77" t="n">
         <v>49</v>
       </c>
+      <c r="JB77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -61738,6 +61969,9 @@
       <c r="JA78" t="n">
         <v>2.72</v>
       </c>
+      <c r="JB78" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -62525,6 +62759,9 @@
       <c r="JA79" t="n">
         <v>4.9</v>
       </c>
+      <c r="JB79" t="n">
+        <v>2.89</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -63312,6 +63549,9 @@
       <c r="JA80" t="n">
         <v>32.7</v>
       </c>
+      <c r="JB80" t="n">
+        <v>47.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -64099,6 +64339,9 @@
       <c r="JA81" t="n">
         <v>20.4</v>
       </c>
+      <c r="JB81" t="n">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -64886,6 +65129,9 @@
       <c r="JA82" t="n">
         <v>188.5</v>
       </c>
+      <c r="JB82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -65673,6 +65919,9 @@
       <c r="JA83" t="n">
         <v>85.7</v>
       </c>
+      <c r="JB83" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -66460,6 +66709,9 @@
       <c r="JA84" t="n">
         <v>24.49</v>
       </c>
+      <c r="JB84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -67247,6 +67499,9 @@
       <c r="JA85" t="n">
         <v>94.40000000000001</v>
       </c>
+      <c r="JB85" t="n">
+        <v>97.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -68034,6 +68289,9 @@
       <c r="JA86" t="n">
         <v>9</v>
       </c>
+      <c r="JB86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -68821,6 +69079,9 @@
       <c r="JA87" t="n">
         <v>4</v>
       </c>
+      <c r="JB87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -69608,6 +69869,9 @@
       <c r="JA88" t="n">
         <v>2</v>
       </c>
+      <c r="JB88" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -70395,6 +70659,9 @@
       <c r="JA89" t="n">
         <v>8</v>
       </c>
+      <c r="JB89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -71182,6 +71449,9 @@
       <c r="JA90" t="n">
         <v>135</v>
       </c>
+      <c r="JB90" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -71969,6 +72239,9 @@
       <c r="JA91" t="n">
         <v>198</v>
       </c>
+      <c r="JB91" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -72756,6 +73029,9 @@
       <c r="JA92" t="n">
         <v>218</v>
       </c>
+      <c r="JB92" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -73543,6 +73819,9 @@
       <c r="JA93" t="n">
         <v>67.09999999999999</v>
       </c>
+      <c r="JB93" t="n">
+        <v>68.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -74330,6 +74609,9 @@
       <c r="JA94" t="n">
         <v>57</v>
       </c>
+      <c r="JB94" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -75117,6 +75399,9 @@
       <c r="JA95" t="n">
         <v>8</v>
       </c>
+      <c r="JB95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -75904,6 +76189,9 @@
       <c r="JA96" t="n">
         <v>5</v>
       </c>
+      <c r="JB96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -76691,6 +76979,9 @@
       <c r="JA97" t="n">
         <v>43</v>
       </c>
+      <c r="JB97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -77478,6 +77769,9 @@
       <c r="JA98" t="n">
         <v>34</v>
       </c>
+      <c r="JB98" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -78265,6 +78559,9 @@
       <c r="JA99" t="n">
         <v>57</v>
       </c>
+      <c r="JB99" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -79052,6 +79349,9 @@
       <c r="JA100" t="n">
         <v>6</v>
       </c>
+      <c r="JB100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -79839,6 +80139,9 @@
       <c r="JA101" t="n">
         <v>6</v>
       </c>
+      <c r="JB101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -80626,6 +80929,9 @@
       <c r="JA102" t="n">
         <v>60</v>
       </c>
+      <c r="JB102" t="n">
+        <v>47.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JC102"/>
+  <dimension ref="A1:JD102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1242,8 +1242,11 @@
       <c r="JB1" s="2" t="n">
         <v>10541</v>
       </c>
-      <c r="JC1" t="n">
+      <c r="JC1" s="2" t="n">
         <v>10547</v>
+      </c>
+      <c r="JD1" t="n">
+        <v>10554</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2035,7 +2038,10 @@
       <c r="JB2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JC2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JD2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2828,8 +2834,11 @@
       <c r="JB3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JC3" t="n">
+      <c r="JC3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3621,8 +3630,11 @@
       <c r="JB4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JC4" t="n">
+      <c r="JC4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4414,7 +4426,10 @@
       <c r="JB5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JC5" t="n">
+      <c r="JC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5207,8 +5222,11 @@
       <c r="JB6" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JC6" t="n">
+      <c r="JC6" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6000,8 +6018,11 @@
       <c r="JB7" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="JC7" t="n">
+      <c r="JC7" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="JD7" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6793,8 +6814,11 @@
       <c r="JB8" s="2" t="n">
         <v>-83</v>
       </c>
-      <c r="JC8" t="n">
+      <c r="JC8" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JD8" t="n">
+        <v>-30</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7586,8 +7610,11 @@
       <c r="JB9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JC9" t="n">
+      <c r="JC9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JD9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8379,8 +8406,11 @@
       <c r="JB10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JC10" t="n">
+      <c r="JC10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JD10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9172,8 +9202,11 @@
       <c r="JB11" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="JC11" t="n">
+      <c r="JC11" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="JD11" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9965,8 +9998,11 @@
       <c r="JB12" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="JC12" t="n">
+      <c r="JC12" s="2" t="n">
         <v>171</v>
+      </c>
+      <c r="JD12" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10758,8 +10794,11 @@
       <c r="JB13" s="2" t="n">
         <v>341</v>
       </c>
-      <c r="JC13" t="n">
+      <c r="JC13" s="2" t="n">
         <v>389</v>
+      </c>
+      <c r="JD13" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11551,8 +11590,11 @@
       <c r="JB14" s="2" t="n">
         <v>1.12</v>
       </c>
-      <c r="JC14" t="n">
+      <c r="JC14" s="2" t="n">
         <v>1.27</v>
+      </c>
+      <c r="JD14" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12344,7 +12386,10 @@
       <c r="JB15" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JC15" t="n">
+      <c r="JC15" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JD15" t="n">
         <v>76</v>
       </c>
     </row>
@@ -13137,8 +13182,11 @@
       <c r="JB16" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JC16" t="n">
+      <c r="JC16" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JD16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13930,8 +13978,11 @@
       <c r="JB17" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JC17" t="n">
+      <c r="JC17" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JD17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14723,8 +14774,11 @@
       <c r="JB18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JC18" t="n">
+      <c r="JC18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JD18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15516,8 +15570,11 @@
       <c r="JB19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JC19" t="n">
+      <c r="JC19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JD19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16309,8 +16366,11 @@
       <c r="JB20" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JC20" t="n">
+      <c r="JC20" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JD20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17102,8 +17162,11 @@
       <c r="JB21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JC21" t="n">
+      <c r="JC21" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JD21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17895,7 +17958,10 @@
       <c r="JB22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JC22" t="n">
+      <c r="JC22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JD22" t="n">
         <v>12</v>
       </c>
     </row>
@@ -18688,8 +18754,11 @@
       <c r="JB23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JC23" t="n">
+      <c r="JC23" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JD23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19481,8 +19550,11 @@
       <c r="JB24" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JC24" t="n">
+      <c r="JC24" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JD24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20274,8 +20346,11 @@
       <c r="JB25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JC25" t="n">
+      <c r="JC25" s="2" t="n">
         <v>52.6</v>
+      </c>
+      <c r="JD25" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21067,8 +21142,11 @@
       <c r="JB26" s="2" t="n">
         <v>56.83</v>
       </c>
-      <c r="JC26" t="n">
+      <c r="JC26" s="2" t="n">
         <v>19.45</v>
+      </c>
+      <c r="JD26" t="n">
+        <v>33.8</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21860,8 +21938,11 @@
       <c r="JB27" s="2" t="n">
         <v>28.42</v>
       </c>
-      <c r="JC27" t="n">
+      <c r="JC27" s="2" t="n">
         <v>10.24</v>
+      </c>
+      <c r="JD27" t="n">
+        <v>12.52</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22653,8 +22734,11 @@
       <c r="JB28" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JC28" t="n">
+      <c r="JC28" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JD28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23446,8 +23530,11 @@
       <c r="JB29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JC29" t="n">
+      <c r="JC29" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JD29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24239,8 +24326,11 @@
       <c r="JB30" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JC30" t="n">
+      <c r="JC30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JD30" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25032,8 +25122,11 @@
       <c r="JB31" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JC31" t="n">
+      <c r="JC31" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JD31" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25825,8 +25918,11 @@
       <c r="JB32" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="JC32" t="n">
+      <c r="JC32" s="2" t="n">
         <v>1.66</v>
+      </c>
+      <c r="JD32" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26618,8 +26714,11 @@
       <c r="JB33" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JC33" t="n">
+      <c r="JC33" s="2" t="n">
         <v>3.15</v>
+      </c>
+      <c r="JD33" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27411,8 +27510,11 @@
       <c r="JB34" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JC34" t="n">
+      <c r="JC34" s="2" t="n">
         <v>50.8</v>
+      </c>
+      <c r="JD34" t="n">
+        <v>33.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28204,8 +28306,11 @@
       <c r="JB35" s="2" t="n">
         <v>14.3</v>
       </c>
-      <c r="JC35" t="n">
+      <c r="JC35" s="2" t="n">
         <v>31.7</v>
+      </c>
+      <c r="JD35" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -28997,8 +29102,11 @@
       <c r="JB36" s="2" t="n">
         <v>189.3</v>
       </c>
-      <c r="JC36" t="n">
+      <c r="JC36" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="JD36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -29790,8 +29898,11 @@
       <c r="JB37" s="2" t="n">
         <v>89.3</v>
       </c>
-      <c r="JC37" t="n">
+      <c r="JC37" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="JD37" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30583,8 +30694,11 @@
       <c r="JB38" s="2" t="n">
         <v>28.24</v>
       </c>
-      <c r="JC38" t="n">
+      <c r="JC38" s="2" t="n">
         <v>27.58</v>
+      </c>
+      <c r="JD38" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -31376,8 +31490,11 @@
       <c r="JB39" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="JC39" t="n">
+      <c r="JC39" s="2" t="n">
         <v>141.5</v>
+      </c>
+      <c r="JD39" t="n">
+        <v>153.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -32169,8 +32286,11 @@
       <c r="JB40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JC40" t="n">
+      <c r="JC40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JD40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -32962,7 +33082,10 @@
       <c r="JB41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JC41" t="n">
+      <c r="JC41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33755,8 +33878,11 @@
       <c r="JB42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JC42" t="n">
+      <c r="JC42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JD42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -34548,7 +34674,10 @@
       <c r="JB43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JC43" t="n">
+      <c r="JC43" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JD43" t="n">
         <v>11</v>
       </c>
     </row>
@@ -35341,8 +35470,11 @@
       <c r="JB44" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="JC44" t="n">
+      <c r="JC44" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="JD44" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -36134,8 +36266,11 @@
       <c r="JB45" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="JC45" t="n">
+      <c r="JC45" s="2" t="n">
         <v>234</v>
+      </c>
+      <c r="JD45" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -36927,8 +37062,11 @@
       <c r="JB46" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="JC46" t="n">
+      <c r="JC46" s="2" t="n">
         <v>289</v>
+      </c>
+      <c r="JD46" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -37720,8 +37858,11 @@
       <c r="JB47" s="2" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="JC47" t="n">
+      <c r="JC47" s="2" t="n">
         <v>74.3</v>
+      </c>
+      <c r="JD47" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -38513,8 +38654,11 @@
       <c r="JB48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JC48" t="n">
+      <c r="JC48" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JD48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -39306,8 +39450,11 @@
       <c r="JB49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JC49" t="n">
+      <c r="JC49" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JD49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -40099,7 +40246,10 @@
       <c r="JB50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JC50" t="n">
+      <c r="JC50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JD50" t="n">
         <v>13</v>
       </c>
     </row>
@@ -40892,8 +41042,11 @@
       <c r="JB51" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JC51" t="n">
+      <c r="JC51" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JD51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -41685,8 +41838,11 @@
       <c r="JB52" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JC52" t="n">
+      <c r="JC52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JD52" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -42478,8 +42634,11 @@
       <c r="JB53" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JC53" t="n">
+      <c r="JC53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JD53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -43271,8 +43430,11 @@
       <c r="JB54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JC54" t="n">
+      <c r="JC54" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JD54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -44064,8 +44226,11 @@
       <c r="JB55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JC55" t="n">
+      <c r="JC55" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JD55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -44857,8 +45022,11 @@
       <c r="JB56" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="JC56" t="n">
+      <c r="JC56" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="JD56" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -45650,8 +45818,11 @@
       <c r="JB57" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="JC57" t="n">
+      <c r="JC57" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="JD57" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -46443,8 +46614,11 @@
       <c r="JB58" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="JC58" t="n">
+      <c r="JC58" s="2" t="n">
         <v>186</v>
+      </c>
+      <c r="JD58" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -47236,8 +47410,11 @@
       <c r="JB59" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="JC59" t="n">
+      <c r="JC59" s="2" t="n">
         <v>408</v>
+      </c>
+      <c r="JD59" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -48029,8 +48206,11 @@
       <c r="JB60" s="2" t="n">
         <v>1.54</v>
       </c>
-      <c r="JC60" t="n">
+      <c r="JC60" s="2" t="n">
         <v>1.19</v>
+      </c>
+      <c r="JD60" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -48822,8 +49002,11 @@
       <c r="JB61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JC61" t="n">
+      <c r="JC61" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="JD61" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -49615,7 +49798,10 @@
       <c r="JB62" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JC62" t="n">
+      <c r="JC62" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JD62" t="n">
         <v>40</v>
       </c>
     </row>
@@ -50408,8 +50594,11 @@
       <c r="JB63" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JC63" t="n">
+      <c r="JC63" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JD63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -51201,8 +51390,11 @@
       <c r="JB64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JC64" t="n">
+      <c r="JC64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JD64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -51994,8 +52186,11 @@
       <c r="JB65" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JC65" t="n">
+      <c r="JC65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JD65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -52787,8 +52982,11 @@
       <c r="JB66" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JC66" t="n">
+      <c r="JC66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JD66" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -53580,8 +53778,11 @@
       <c r="JB67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JC67" t="n">
+      <c r="JC67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -54373,8 +54574,11 @@
       <c r="JB68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JC68" t="n">
+      <c r="JC68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JD68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -55166,7 +55370,10 @@
       <c r="JB69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JC69" t="n">
+      <c r="JC69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -55959,8 +56166,11 @@
       <c r="JB70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JC70" t="n">
+      <c r="JC70" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JD70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -56752,8 +56962,11 @@
       <c r="JB71" s="2" t="n">
         <v>63.3</v>
       </c>
-      <c r="JC71" t="n">
+      <c r="JC71" s="2" t="n">
         <v>64.7</v>
+      </c>
+      <c r="JD71" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -57545,8 +57758,11 @@
       <c r="JB72" s="2" t="n">
         <v>19.68</v>
       </c>
-      <c r="JC72" t="n">
+      <c r="JC72" s="2" t="n">
         <v>37.09</v>
+      </c>
+      <c r="JD72" t="n">
+        <v>21.76</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -58338,8 +58554,11 @@
       <c r="JB73" s="2" t="n">
         <v>12.47</v>
       </c>
-      <c r="JC73" t="n">
+      <c r="JC73" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JD73" t="n">
+        <v>16.82</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -59131,8 +59350,11 @@
       <c r="JB74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JC74" t="n">
+      <c r="JC74" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JD74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -59924,8 +60146,11 @@
       <c r="JB75" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JC75" t="n">
+      <c r="JC75" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JD75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -60717,8 +60942,11 @@
       <c r="JB76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JC76" t="n">
+      <c r="JC76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JD76" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -61510,8 +61738,11 @@
       <c r="JB77" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JC77" t="n">
+      <c r="JC77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JD77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -62303,8 +62534,11 @@
       <c r="JB78" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="JC78" t="n">
+      <c r="JC78" s="2" t="n">
         <v>2.82</v>
+      </c>
+      <c r="JD78" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -63096,8 +63330,11 @@
       <c r="JB79" s="2" t="n">
         <v>2.89</v>
       </c>
-      <c r="JC79" t="n">
+      <c r="JC79" s="2" t="n">
         <v>4.36</v>
+      </c>
+      <c r="JD79" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -63889,8 +64126,11 @@
       <c r="JB80" s="2" t="n">
         <v>47.3</v>
       </c>
-      <c r="JC80" t="n">
+      <c r="JC80" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="JD80" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -64682,8 +64922,11 @@
       <c r="JB81" s="2" t="n">
         <v>34.5</v>
       </c>
-      <c r="JC81" t="n">
+      <c r="JC81" s="2" t="n">
         <v>22.9</v>
+      </c>
+      <c r="JD81" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -65475,8 +65718,11 @@
       <c r="JB82" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="JC82" t="n">
+      <c r="JC82" s="2" t="n">
         <v>188.8</v>
+      </c>
+      <c r="JD82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -66268,8 +66514,11 @@
       <c r="JB83" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="JC83" t="n">
+      <c r="JC83" s="2" t="n">
         <v>86.8</v>
+      </c>
+      <c r="JD83" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -67061,8 +67310,11 @@
       <c r="JB84" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="JC84" t="n">
+      <c r="JC84" s="2" t="n">
         <v>24.8</v>
+      </c>
+      <c r="JD84" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -67854,8 +68106,11 @@
       <c r="JB85" s="2" t="n">
         <v>97.8</v>
       </c>
-      <c r="JC85" t="n">
+      <c r="JC85" s="2" t="n">
         <v>77.5</v>
+      </c>
+      <c r="JD85" t="n">
+        <v>102.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -68647,7 +68902,10 @@
       <c r="JB86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JC86" t="n">
+      <c r="JC86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JD86" t="n">
         <v>9</v>
       </c>
     </row>
@@ -69440,8 +69698,11 @@
       <c r="JB87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JC87" t="n">
+      <c r="JC87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JD87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -70233,8 +70494,11 @@
       <c r="JB88" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JC88" t="n">
+      <c r="JC88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JD88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -71026,8 +71290,11 @@
       <c r="JB89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JC89" t="n">
+      <c r="JC89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JD89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -71819,8 +72086,11 @@
       <c r="JB90" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="JC90" t="n">
+      <c r="JC90" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="JD90" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -72612,8 +72882,11 @@
       <c r="JB91" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="JC91" t="n">
+      <c r="JC91" s="2" t="n">
         <v>290</v>
+      </c>
+      <c r="JD91" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -73405,8 +73678,11 @@
       <c r="JB92" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="JC92" t="n">
+      <c r="JC92" s="2" t="n">
         <v>332</v>
+      </c>
+      <c r="JD92" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -74198,8 +74474,11 @@
       <c r="JB93" s="2" t="n">
         <v>68.7</v>
       </c>
-      <c r="JC93" t="n">
+      <c r="JC93" s="2" t="n">
         <v>81.40000000000001</v>
+      </c>
+      <c r="JD93" t="n">
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -74991,8 +75270,11 @@
       <c r="JB94" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JC94" t="n">
+      <c r="JC94" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JD94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -75784,8 +76066,11 @@
       <c r="JB95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JC95" t="n">
+      <c r="JC95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JD95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -76577,8 +76862,11 @@
       <c r="JB96" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JC96" t="n">
+      <c r="JC96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JD96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -77370,8 +77658,11 @@
       <c r="JB97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JC97" t="n">
+      <c r="JC97" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JD97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -78163,8 +78454,11 @@
       <c r="JB98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JC98" t="n">
+      <c r="JC98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JD98" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -78956,8 +79250,11 @@
       <c r="JB99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JC99" t="n">
+      <c r="JC99" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JD99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -79749,8 +80046,11 @@
       <c r="JB100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JC100" t="n">
+      <c r="JC100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -80542,8 +80842,11 @@
       <c r="JB101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JC101" t="n">
+      <c r="JC101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -81335,8 +81638,11 @@
       <c r="JB102" s="2" t="n">
         <v>47.4</v>
       </c>
-      <c r="JC102" t="n">
+      <c r="JC102" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="JD102" t="n">
+        <v>64.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JD102"/>
+  <dimension ref="A1:JE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1245,8 +1245,11 @@
       <c r="JC1" s="2" t="n">
         <v>10547</v>
       </c>
-      <c r="JD1" t="n">
+      <c r="JD1" s="2" t="n">
         <v>10554</v>
+      </c>
+      <c r="JE1" t="n">
+        <v>10566</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2041,7 +2044,10 @@
       <c r="JC2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JD2" t="n">
+      <c r="JD2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JE2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2837,8 +2843,11 @@
       <c r="JC3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JD3" t="n">
+      <c r="JD3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3633,7 +3642,10 @@
       <c r="JC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JD4" t="n">
+      <c r="JD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4429,8 +4441,11 @@
       <c r="JC5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JD5" t="n">
+      <c r="JD5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JE5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5225,8 +5240,11 @@
       <c r="JC6" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="JD6" t="n">
+      <c r="JD6" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6021,8 +6039,11 @@
       <c r="JC7" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JD7" t="n">
+      <c r="JD7" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="JE7" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6817,8 +6838,11 @@
       <c r="JC8" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JD8" t="n">
+      <c r="JD8" s="2" t="n">
         <v>-30</v>
+      </c>
+      <c r="JE8" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7613,8 +7637,11 @@
       <c r="JC9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JD9" t="n">
+      <c r="JD9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JE9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8409,8 +8436,11 @@
       <c r="JC10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JD10" t="n">
+      <c r="JD10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JE10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9205,8 +9235,11 @@
       <c r="JC11" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="JD11" t="n">
+      <c r="JD11" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="JE11" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10001,8 +10034,11 @@
       <c r="JC12" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="JD12" t="n">
+      <c r="JD12" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="JE12" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10797,8 +10833,11 @@
       <c r="JC13" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="JD13" t="n">
+      <c r="JD13" s="2" t="n">
         <v>338</v>
+      </c>
+      <c r="JE13" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11593,8 +11632,11 @@
       <c r="JC14" s="2" t="n">
         <v>1.27</v>
       </c>
-      <c r="JD14" t="n">
+      <c r="JD14" s="2" t="n">
         <v>1.49</v>
+      </c>
+      <c r="JE14" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12389,8 +12431,11 @@
       <c r="JC15" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JD15" t="n">
+      <c r="JD15" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="JE15" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13185,8 +13230,11 @@
       <c r="JC16" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JD16" t="n">
+      <c r="JD16" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JE16" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13981,8 +14029,11 @@
       <c r="JC17" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JD17" t="n">
+      <c r="JD17" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JE17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14777,8 +14828,11 @@
       <c r="JC18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JD18" t="n">
+      <c r="JD18" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JE18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15573,8 +15627,11 @@
       <c r="JC19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JD19" t="n">
+      <c r="JD19" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JE19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16369,8 +16426,11 @@
       <c r="JC20" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JD20" t="n">
+      <c r="JD20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JE20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17165,8 +17225,11 @@
       <c r="JC21" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JD21" t="n">
+      <c r="JD21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JE21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17961,8 +18024,11 @@
       <c r="JC22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JD22" t="n">
+      <c r="JD22" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JE22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18757,8 +18823,11 @@
       <c r="JC23" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JD23" t="n">
+      <c r="JD23" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JE23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19553,8 +19622,11 @@
       <c r="JC24" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JD24" t="n">
+      <c r="JD24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JE24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20349,8 +20421,11 @@
       <c r="JC25" s="2" t="n">
         <v>52.6</v>
       </c>
-      <c r="JD25" t="n">
+      <c r="JD25" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JE25" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21145,8 +21220,11 @@
       <c r="JC26" s="2" t="n">
         <v>19.45</v>
       </c>
-      <c r="JD26" t="n">
+      <c r="JD26" s="2" t="n">
         <v>33.8</v>
+      </c>
+      <c r="JE26" t="n">
+        <v>22.31</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21941,8 +22019,11 @@
       <c r="JC27" s="2" t="n">
         <v>10.24</v>
       </c>
-      <c r="JD27" t="n">
+      <c r="JD27" s="2" t="n">
         <v>12.52</v>
+      </c>
+      <c r="JE27" t="n">
+        <v>14.88</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22737,8 +22818,11 @@
       <c r="JC28" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JD28" t="n">
+      <c r="JD28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JE28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23533,8 +23617,11 @@
       <c r="JC29" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JD29" t="n">
+      <c r="JD29" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JE29" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24329,8 +24416,11 @@
       <c r="JC30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JD30" t="n">
+      <c r="JD30" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JE30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25125,8 +25215,11 @@
       <c r="JC31" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JD31" t="n">
+      <c r="JD31" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JE31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25921,8 +26014,11 @@
       <c r="JC32" s="2" t="n">
         <v>1.66</v>
       </c>
-      <c r="JD32" t="n">
+      <c r="JD32" s="2" t="n">
         <v>2.41</v>
+      </c>
+      <c r="JE32" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26717,8 +26813,11 @@
       <c r="JC33" s="2" t="n">
         <v>3.15</v>
       </c>
-      <c r="JD33" t="n">
+      <c r="JD33" s="2" t="n">
         <v>6.5</v>
+      </c>
+      <c r="JE33" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27513,8 +27612,11 @@
       <c r="JC34" s="2" t="n">
         <v>50.8</v>
       </c>
-      <c r="JD34" t="n">
+      <c r="JD34" s="2" t="n">
         <v>33.8</v>
+      </c>
+      <c r="JE34" t="n">
+        <v>44.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28309,8 +28411,11 @@
       <c r="JC35" s="2" t="n">
         <v>31.7</v>
       </c>
-      <c r="JD35" t="n">
+      <c r="JD35" s="2" t="n">
         <v>15.4</v>
+      </c>
+      <c r="JE35" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -29105,8 +29210,11 @@
       <c r="JC36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="JD36" t="n">
+      <c r="JD36" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="JE36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -29901,8 +30009,11 @@
       <c r="JC37" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="JD37" t="n">
+      <c r="JD37" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="JE37" t="n">
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30697,8 +30808,11 @@
       <c r="JC38" s="2" t="n">
         <v>27.58</v>
       </c>
-      <c r="JD38" t="n">
+      <c r="JD38" s="2" t="n">
         <v>28.8</v>
+      </c>
+      <c r="JE38" t="n">
+        <v>28.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -31493,8 +31607,11 @@
       <c r="JC39" s="2" t="n">
         <v>141.5</v>
       </c>
-      <c r="JD39" t="n">
+      <c r="JD39" s="2" t="n">
         <v>153.7</v>
+      </c>
+      <c r="JE39" t="n">
+        <v>157.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -32289,7 +32406,10 @@
       <c r="JC40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JD40" t="n">
+      <c r="JD40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33085,7 +33205,10 @@
       <c r="JC41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JD41" t="n">
+      <c r="JD41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33881,7 +34004,10 @@
       <c r="JC42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JD42" t="n">
+      <c r="JD42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JE42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -34677,8 +34803,11 @@
       <c r="JC43" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JD43" t="n">
+      <c r="JD43" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JE43" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -35473,8 +35602,11 @@
       <c r="JC44" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="JD44" t="n">
+      <c r="JD44" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="JE44" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -36269,8 +36401,11 @@
       <c r="JC45" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="JD45" t="n">
+      <c r="JD45" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="JE45" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -37065,8 +37200,11 @@
       <c r="JC46" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="JD46" t="n">
+      <c r="JD46" s="2" t="n">
         <v>234</v>
+      </c>
+      <c r="JE46" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -37861,8 +37999,11 @@
       <c r="JC47" s="2" t="n">
         <v>74.3</v>
       </c>
-      <c r="JD47" t="n">
+      <c r="JD47" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="JE47" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -38657,8 +38798,11 @@
       <c r="JC48" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JD48" t="n">
+      <c r="JD48" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JE48" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -39453,8 +39597,11 @@
       <c r="JC49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JD49" t="n">
+      <c r="JD49" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JE49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -40249,8 +40396,11 @@
       <c r="JC50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JD50" t="n">
+      <c r="JD50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JE50" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -41045,8 +41195,11 @@
       <c r="JC51" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JD51" t="n">
+      <c r="JD51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JE51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -41841,8 +41994,11 @@
       <c r="JC52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JD52" t="n">
+      <c r="JD52" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JE52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -42637,8 +42793,11 @@
       <c r="JC53" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JD53" t="n">
+      <c r="JD53" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JE53" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -43433,8 +43592,11 @@
       <c r="JC54" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JD54" t="n">
+      <c r="JD54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JE54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -44229,8 +44391,11 @@
       <c r="JC55" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JD55" t="n">
+      <c r="JD55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JE55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -45025,8 +45190,11 @@
       <c r="JC56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JD56" t="n">
+      <c r="JD56" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JE56" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -45821,8 +45989,11 @@
       <c r="JC57" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="JD57" t="n">
+      <c r="JD57" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="JE57" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -46617,8 +46788,11 @@
       <c r="JC58" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="JD58" t="n">
+      <c r="JD58" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="JE58" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -47413,8 +47587,11 @@
       <c r="JC59" s="2" t="n">
         <v>408</v>
       </c>
-      <c r="JD59" t="n">
+      <c r="JD59" s="2" t="n">
         <v>370</v>
+      </c>
+      <c r="JE59" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -48209,8 +48386,11 @@
       <c r="JC60" s="2" t="n">
         <v>1.19</v>
       </c>
-      <c r="JD60" t="n">
+      <c r="JD60" s="2" t="n">
         <v>2.01</v>
+      </c>
+      <c r="JE60" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -49005,8 +49185,11 @@
       <c r="JC61" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="JD61" t="n">
+      <c r="JD61" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="JE61" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -49801,8 +49984,11 @@
       <c r="JC62" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JD62" t="n">
+      <c r="JD62" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JE62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -50597,8 +50783,11 @@
       <c r="JC63" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JD63" t="n">
+      <c r="JD63" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JE63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -51393,8 +51582,11 @@
       <c r="JC64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JD64" t="n">
+      <c r="JD64" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JE64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -52189,8 +52381,11 @@
       <c r="JC65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JD65" t="n">
+      <c r="JD65" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JE65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -52985,8 +53180,11 @@
       <c r="JC66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JD66" t="n">
+      <c r="JD66" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JE66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -53781,8 +53979,11 @@
       <c r="JC67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JD67" t="n">
+      <c r="JD67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JE67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -54577,8 +54778,11 @@
       <c r="JC68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JD68" t="n">
+      <c r="JD68" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JE68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -55373,8 +55577,11 @@
       <c r="JC69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JD69" t="n">
+      <c r="JD69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JE69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -56169,8 +56376,11 @@
       <c r="JC70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JD70" t="n">
+      <c r="JD70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JE70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -56965,8 +57175,11 @@
       <c r="JC71" s="2" t="n">
         <v>64.7</v>
       </c>
-      <c r="JD71" t="n">
+      <c r="JD71" s="2" t="n">
         <v>77.3</v>
+      </c>
+      <c r="JE71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -57761,8 +57974,11 @@
       <c r="JC72" s="2" t="n">
         <v>37.09</v>
       </c>
-      <c r="JD72" t="n">
+      <c r="JD72" s="2" t="n">
         <v>21.76</v>
+      </c>
+      <c r="JE72" t="n">
+        <v>30.23</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -58557,8 +58773,11 @@
       <c r="JC73" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JD73" t="n">
+      <c r="JD73" s="2" t="n">
         <v>16.82</v>
+      </c>
+      <c r="JE73" t="n">
+        <v>15.12</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -59353,8 +59572,11 @@
       <c r="JC74" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JD74" t="n">
+      <c r="JD74" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JE74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -60149,7 +60371,10 @@
       <c r="JC75" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JD75" t="n">
+      <c r="JD75" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JE75" t="n">
         <v>65</v>
       </c>
     </row>
@@ -60945,8 +61170,11 @@
       <c r="JC76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JD76" t="n">
+      <c r="JD76" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JE76" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -61741,8 +61969,11 @@
       <c r="JC77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JD77" t="n">
+      <c r="JD77" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JE77" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -62537,8 +62768,11 @@
       <c r="JC78" s="2" t="n">
         <v>2.82</v>
       </c>
-      <c r="JD78" t="n">
+      <c r="JD78" s="2" t="n">
         <v>2.14</v>
+      </c>
+      <c r="JE78" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -63333,8 +63567,11 @@
       <c r="JC79" s="2" t="n">
         <v>4.36</v>
       </c>
-      <c r="JD79" t="n">
+      <c r="JD79" s="2" t="n">
         <v>2.76</v>
+      </c>
+      <c r="JE79" t="n">
+        <v>4.54</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -64129,8 +64366,11 @@
       <c r="JC80" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="JD80" t="n">
+      <c r="JD80" s="2" t="n">
         <v>42.6</v>
+      </c>
+      <c r="JE80" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -64925,8 +65165,11 @@
       <c r="JC81" s="2" t="n">
         <v>22.9</v>
       </c>
-      <c r="JD81" t="n">
+      <c r="JD81" s="2" t="n">
         <v>36.2</v>
+      </c>
+      <c r="JE81" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -65721,8 +65964,11 @@
       <c r="JC82" s="2" t="n">
         <v>188.8</v>
       </c>
-      <c r="JD82" t="n">
+      <c r="JD82" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="JE82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -66517,8 +66763,11 @@
       <c r="JC83" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="JD83" t="n">
+      <c r="JD83" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="JE83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -67313,8 +67562,11 @@
       <c r="JC84" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="JD84" t="n">
+      <c r="JD84" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="JE84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -68109,8 +68361,11 @@
       <c r="JC85" s="2" t="n">
         <v>77.5</v>
       </c>
-      <c r="JD85" t="n">
+      <c r="JD85" s="2" t="n">
         <v>102.1</v>
+      </c>
+      <c r="JE85" t="n">
+        <v>107.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -68905,8 +69160,11 @@
       <c r="JC86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JD86" t="n">
+      <c r="JD86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JE86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -69701,8 +69959,11 @@
       <c r="JC87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JD87" t="n">
+      <c r="JD87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JE87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -70497,8 +70758,11 @@
       <c r="JC88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JD88" t="n">
+      <c r="JD88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JE88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -71293,8 +71557,11 @@
       <c r="JC89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JD89" t="n">
+      <c r="JD89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JE89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -72089,8 +72356,11 @@
       <c r="JC90" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="JD90" t="n">
+      <c r="JD90" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="JE90" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -72885,8 +73155,11 @@
       <c r="JC91" s="2" t="n">
         <v>290</v>
       </c>
-      <c r="JD91" t="n">
+      <c r="JD91" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="JE91" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -73681,8 +73954,11 @@
       <c r="JC92" s="2" t="n">
         <v>332</v>
       </c>
-      <c r="JD92" t="n">
+      <c r="JD92" s="2" t="n">
         <v>281</v>
+      </c>
+      <c r="JE92" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -74477,8 +74753,11 @@
       <c r="JC93" s="2" t="n">
         <v>81.40000000000001</v>
       </c>
-      <c r="JD93" t="n">
+      <c r="JD93" s="2" t="n">
         <v>75.90000000000001</v>
+      </c>
+      <c r="JE93" t="n">
+        <v>69.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -75273,7 +75552,10 @@
       <c r="JC94" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JD94" t="n">
+      <c r="JD94" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JE94" t="n">
         <v>65</v>
       </c>
     </row>
@@ -76069,8 +76351,11 @@
       <c r="JC95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JD95" t="n">
+      <c r="JD95" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JE95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -76865,8 +77150,11 @@
       <c r="JC96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JD96" t="n">
+      <c r="JD96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JE96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -77661,8 +77949,11 @@
       <c r="JC97" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JD97" t="n">
+      <c r="JD97" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JE97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -78457,8 +78748,11 @@
       <c r="JC98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JD98" t="n">
+      <c r="JD98" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JE98" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -79253,8 +79547,11 @@
       <c r="JC99" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JD99" t="n">
+      <c r="JD99" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JE99" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -80049,8 +80346,11 @@
       <c r="JC100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JD100" t="n">
+      <c r="JD100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JE100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -80845,8 +81145,11 @@
       <c r="JC101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JD101" t="n">
+      <c r="JD101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JE101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -81641,8 +81944,11 @@
       <c r="JC102" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="JD102" t="n">
+      <c r="JD102" s="2" t="n">
         <v>64.7</v>
+      </c>
+      <c r="JE102" t="n">
+        <v>53.8</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JE102"/>
+  <dimension ref="A1:JF102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1248,8 +1248,11 @@
       <c r="JD1" s="2" t="n">
         <v>10554</v>
       </c>
-      <c r="JE1" t="n">
+      <c r="JE1" s="2" t="n">
         <v>10566</v>
+      </c>
+      <c r="JF1" t="n">
+        <v>10572</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2047,7 +2050,10 @@
       <c r="JD2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JE2" t="n">
+      <c r="JE2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JF2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2846,8 +2852,11 @@
       <c r="JD3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JE3" t="n">
+      <c r="JE3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3645,8 +3654,11 @@
       <c r="JD4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JE4" t="n">
+      <c r="JE4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4444,8 +4456,11 @@
       <c r="JD5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JE5" t="n">
+      <c r="JE5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5243,8 +5258,11 @@
       <c r="JD6" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JE6" t="n">
+      <c r="JE6" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6042,8 +6060,11 @@
       <c r="JD7" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="JE7" t="n">
+      <c r="JE7" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="JF7" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6841,8 +6862,11 @@
       <c r="JD8" s="2" t="n">
         <v>-30</v>
       </c>
-      <c r="JE8" t="n">
+      <c r="JE8" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JF8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7640,7 +7664,10 @@
       <c r="JD9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JE9" t="n">
+      <c r="JE9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8439,8 +8466,11 @@
       <c r="JD10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JE10" t="n">
+      <c r="JE10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JF10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9238,8 +9268,11 @@
       <c r="JD11" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="JE11" t="n">
+      <c r="JE11" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="JF11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10037,8 +10070,11 @@
       <c r="JD12" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="JE12" t="n">
+      <c r="JE12" s="2" t="n">
         <v>160</v>
+      </c>
+      <c r="JF12" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10836,8 +10872,11 @@
       <c r="JD13" s="2" t="n">
         <v>338</v>
       </c>
-      <c r="JE13" t="n">
+      <c r="JE13" s="2" t="n">
         <v>357</v>
+      </c>
+      <c r="JF13" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11635,8 +11674,11 @@
       <c r="JD14" s="2" t="n">
         <v>1.49</v>
       </c>
-      <c r="JE14" t="n">
+      <c r="JE14" s="2" t="n">
         <v>1.23</v>
+      </c>
+      <c r="JF14" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12434,8 +12476,11 @@
       <c r="JD15" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JE15" t="n">
+      <c r="JE15" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JF15" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13233,8 +13278,11 @@
       <c r="JD16" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JE16" t="n">
+      <c r="JE16" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JF16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14032,8 +14080,11 @@
       <c r="JD17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JE17" t="n">
+      <c r="JE17" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JF17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14831,8 +14882,11 @@
       <c r="JD18" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JE18" t="n">
+      <c r="JE18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JF18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15630,8 +15684,11 @@
       <c r="JD19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JE19" t="n">
+      <c r="JE19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JF19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16429,8 +16486,11 @@
       <c r="JD20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JE20" t="n">
+      <c r="JE20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JF20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17228,8 +17288,11 @@
       <c r="JD21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JE21" t="n">
+      <c r="JE21" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JF21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18027,8 +18090,11 @@
       <c r="JD22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JE22" t="n">
+      <c r="JE22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JF22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18826,8 +18892,11 @@
       <c r="JD23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JE23" t="n">
+      <c r="JE23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JF23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19625,8 +19694,11 @@
       <c r="JD24" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JE24" t="n">
+      <c r="JE24" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JF24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20424,8 +20496,11 @@
       <c r="JD25" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JE25" t="n">
+      <c r="JE25" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JF25" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21223,8 +21298,11 @@
       <c r="JD26" s="2" t="n">
         <v>33.8</v>
       </c>
-      <c r="JE26" t="n">
+      <c r="JE26" s="2" t="n">
         <v>22.31</v>
+      </c>
+      <c r="JF26" t="n">
+        <v>34.45</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22022,8 +22100,11 @@
       <c r="JD27" s="2" t="n">
         <v>12.52</v>
       </c>
-      <c r="JE27" t="n">
+      <c r="JE27" s="2" t="n">
         <v>14.88</v>
+      </c>
+      <c r="JF27" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22821,8 +22902,11 @@
       <c r="JD28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JE28" t="n">
+      <c r="JE28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JF28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23620,8 +23704,11 @@
       <c r="JD29" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JE29" t="n">
+      <c r="JE29" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JF29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24419,8 +24506,11 @@
       <c r="JD30" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JE30" t="n">
+      <c r="JE30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JF30" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25218,8 +25308,11 @@
       <c r="JD31" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JE31" t="n">
+      <c r="JE31" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JF31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26017,8 +26110,11 @@
       <c r="JD32" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="JE32" t="n">
+      <c r="JE32" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="JF32" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26816,8 +26912,11 @@
       <c r="JD33" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="JE33" t="n">
+      <c r="JE33" s="2" t="n">
         <v>2.94</v>
+      </c>
+      <c r="JF33" t="n">
+        <v>5.36</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27615,8 +27714,11 @@
       <c r="JD34" s="2" t="n">
         <v>33.8</v>
       </c>
-      <c r="JE34" t="n">
+      <c r="JE34" s="2" t="n">
         <v>44.7</v>
+      </c>
+      <c r="JF34" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28414,8 +28516,11 @@
       <c r="JD35" s="2" t="n">
         <v>15.4</v>
       </c>
-      <c r="JE35" t="n">
+      <c r="JE35" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JF35" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -29213,8 +29318,11 @@
       <c r="JD36" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="JE36" t="n">
+      <c r="JE36" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="JF36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -30012,8 +30120,11 @@
       <c r="JD37" s="2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="JE37" t="n">
+      <c r="JE37" s="2" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="JF37" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30811,8 +30922,11 @@
       <c r="JD38" s="2" t="n">
         <v>28.8</v>
       </c>
-      <c r="JE38" t="n">
+      <c r="JE38" s="2" t="n">
         <v>28.24</v>
+      </c>
+      <c r="JF38" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -31610,8 +31724,11 @@
       <c r="JD39" s="2" t="n">
         <v>153.7</v>
       </c>
-      <c r="JE39" t="n">
+      <c r="JE39" s="2" t="n">
         <v>157.7</v>
+      </c>
+      <c r="JF39" t="n">
+        <v>133.9</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -32409,8 +32526,11 @@
       <c r="JD40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JE40" t="n">
+      <c r="JE40" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JF40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -33208,8 +33328,11 @@
       <c r="JD41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JE41" t="n">
+      <c r="JE41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JF41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -34007,8 +34130,11 @@
       <c r="JD42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JE42" t="n">
+      <c r="JE42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JF42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -34806,8 +34932,11 @@
       <c r="JD43" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JE43" t="n">
+      <c r="JE43" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JF43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -35605,8 +35734,11 @@
       <c r="JD44" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="JE44" t="n">
+      <c r="JE44" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="JF44" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -36404,8 +36536,11 @@
       <c r="JD45" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="JE45" t="n">
+      <c r="JE45" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="JF45" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -37203,8 +37338,11 @@
       <c r="JD46" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="JE46" t="n">
+      <c r="JE46" s="2" t="n">
         <v>262</v>
+      </c>
+      <c r="JF46" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -38002,8 +38140,11 @@
       <c r="JD47" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="JE47" t="n">
+      <c r="JE47" s="2" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="JF47" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -38801,8 +38942,11 @@
       <c r="JD48" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JE48" t="n">
+      <c r="JE48" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JF48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -39600,8 +39744,11 @@
       <c r="JD49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JE49" t="n">
+      <c r="JE49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JF49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -40399,8 +40546,11 @@
       <c r="JD50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JE50" t="n">
+      <c r="JE50" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JF50" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -41198,8 +41348,11 @@
       <c r="JD51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JE51" t="n">
+      <c r="JE51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JF51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -41997,8 +42150,11 @@
       <c r="JD52" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JE52" t="n">
+      <c r="JE52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JF52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -42796,8 +42952,11 @@
       <c r="JD53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JE53" t="n">
+      <c r="JE53" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JF53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -43595,8 +43754,11 @@
       <c r="JD54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JE54" t="n">
+      <c r="JE54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JF54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -44394,8 +44556,11 @@
       <c r="JD55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JE55" t="n">
+      <c r="JE55" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JF55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -45193,8 +45358,11 @@
       <c r="JD56" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JE56" t="n">
+      <c r="JE56" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="JF56" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -45992,8 +46160,11 @@
       <c r="JD57" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="JE57" t="n">
+      <c r="JE57" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="JF57" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -46791,8 +46962,11 @@
       <c r="JD58" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="JE58" t="n">
+      <c r="JE58" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="JF58" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -47590,8 +47764,11 @@
       <c r="JD59" s="2" t="n">
         <v>370</v>
       </c>
-      <c r="JE59" t="n">
+      <c r="JE59" s="2" t="n">
         <v>393</v>
+      </c>
+      <c r="JF59" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -48389,8 +48566,11 @@
       <c r="JD60" s="2" t="n">
         <v>2.01</v>
       </c>
-      <c r="JE60" t="n">
+      <c r="JE60" s="2" t="n">
         <v>1.08</v>
+      </c>
+      <c r="JF60" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -49188,8 +49368,11 @@
       <c r="JD61" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="JE61" t="n">
+      <c r="JE61" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="JF61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -49987,8 +50170,11 @@
       <c r="JD62" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JE62" t="n">
+      <c r="JE62" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JF62" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -50786,8 +50972,11 @@
       <c r="JD63" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JE63" t="n">
+      <c r="JE63" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JF63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -51585,8 +51774,11 @@
       <c r="JD64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JE64" t="n">
+      <c r="JE64" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JF64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -52384,8 +52576,11 @@
       <c r="JD65" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JE65" t="n">
+      <c r="JE65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JF65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -53183,8 +53378,11 @@
       <c r="JD66" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JE66" t="n">
+      <c r="JE66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JF66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -53982,8 +54180,11 @@
       <c r="JD67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JE67" t="n">
+      <c r="JE67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JF67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -54781,8 +54982,11 @@
       <c r="JD68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JE68" t="n">
+      <c r="JE68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JF68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -55580,8 +55784,11 @@
       <c r="JD69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JE69" t="n">
+      <c r="JE69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JF69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -56379,8 +56586,11 @@
       <c r="JD70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JE70" t="n">
+      <c r="JE70" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JF70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -57178,8 +57388,11 @@
       <c r="JD71" s="2" t="n">
         <v>77.3</v>
       </c>
-      <c r="JE71" t="n">
+      <c r="JE71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JF71" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -57977,8 +58190,11 @@
       <c r="JD72" s="2" t="n">
         <v>21.76</v>
       </c>
-      <c r="JE72" t="n">
+      <c r="JE72" s="2" t="n">
         <v>30.23</v>
+      </c>
+      <c r="JF72" t="n">
+        <v>30.45</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -58776,8 +58992,11 @@
       <c r="JD73" s="2" t="n">
         <v>16.82</v>
       </c>
-      <c r="JE73" t="n">
+      <c r="JE73" s="2" t="n">
         <v>15.12</v>
+      </c>
+      <c r="JF73" t="n">
+        <v>22.33</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -59575,8 +59794,11 @@
       <c r="JD74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JE74" t="n">
+      <c r="JE74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JF74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -60374,8 +60596,11 @@
       <c r="JD75" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JE75" t="n">
+      <c r="JE75" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JF75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -61173,8 +61398,11 @@
       <c r="JD76" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JE76" t="n">
+      <c r="JE76" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JF76" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -61972,8 +62200,11 @@
       <c r="JD77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JE77" t="n">
+      <c r="JE77" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JF77" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -62771,8 +63002,11 @@
       <c r="JD78" s="2" t="n">
         <v>2.14</v>
       </c>
-      <c r="JE78" t="n">
+      <c r="JE78" s="2" t="n">
         <v>2.27</v>
+      </c>
+      <c r="JF78" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -63570,8 +63804,11 @@
       <c r="JD79" s="2" t="n">
         <v>2.76</v>
       </c>
-      <c r="JE79" t="n">
+      <c r="JE79" s="2" t="n">
         <v>4.54</v>
+      </c>
+      <c r="JF79" t="n">
+        <v>3.82</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -64369,8 +64606,11 @@
       <c r="JD80" s="2" t="n">
         <v>42.6</v>
       </c>
-      <c r="JE80" t="n">
+      <c r="JE80" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JF80" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -65168,8 +65408,11 @@
       <c r="JD81" s="2" t="n">
         <v>36.2</v>
       </c>
-      <c r="JE81" t="n">
+      <c r="JE81" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JF81" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -65967,8 +66210,11 @@
       <c r="JD82" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="JE82" t="n">
+      <c r="JE82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="JF82" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -66766,8 +67012,11 @@
       <c r="JD83" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="JE83" t="n">
+      <c r="JE83" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="JF83" t="n">
+        <v>88.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -67565,8 +67814,11 @@
       <c r="JD84" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="JE84" t="n">
+      <c r="JE84" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="JF84" t="n">
+        <v>26.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -68364,8 +68616,11 @@
       <c r="JD85" s="2" t="n">
         <v>102.1</v>
       </c>
-      <c r="JE85" t="n">
+      <c r="JE85" s="2" t="n">
         <v>107.4</v>
+      </c>
+      <c r="JF85" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -69163,8 +69418,11 @@
       <c r="JD86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JE86" t="n">
+      <c r="JE86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JF86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -69962,8 +70220,11 @@
       <c r="JD87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JE87" t="n">
+      <c r="JE87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JF87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -70761,8 +71022,11 @@
       <c r="JD88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JE88" t="n">
+      <c r="JE88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JF88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -71560,8 +71824,11 @@
       <c r="JD89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JE89" t="n">
+      <c r="JE89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JF89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -72359,8 +72626,11 @@
       <c r="JD90" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="JE90" t="n">
+      <c r="JE90" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="JF90" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -73158,8 +73428,11 @@
       <c r="JD91" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="JE91" t="n">
+      <c r="JE91" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="JF91" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -73957,8 +74230,11 @@
       <c r="JD92" s="2" t="n">
         <v>281</v>
       </c>
-      <c r="JE92" t="n">
+      <c r="JE92" s="2" t="n">
         <v>274</v>
+      </c>
+      <c r="JF92" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -74756,8 +75032,11 @@
       <c r="JD93" s="2" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="JE93" t="n">
+      <c r="JE93" s="2" t="n">
         <v>69.7</v>
+      </c>
+      <c r="JF93" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -75555,8 +75834,11 @@
       <c r="JD94" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JE94" t="n">
+      <c r="JE94" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JF94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -76354,8 +76636,11 @@
       <c r="JD95" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JE95" t="n">
+      <c r="JE95" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JF95" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -77153,8 +77438,11 @@
       <c r="JD96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JE96" t="n">
+      <c r="JE96" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JF96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -77952,8 +78240,11 @@
       <c r="JD97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JE97" t="n">
+      <c r="JE97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JF97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -78751,8 +79042,11 @@
       <c r="JD98" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JE98" t="n">
+      <c r="JE98" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JF98" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -79550,8 +79844,11 @@
       <c r="JD99" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JE99" t="n">
+      <c r="JE99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JF99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -80349,7 +80646,10 @@
       <c r="JD100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JE100" t="n">
+      <c r="JE100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JF100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -81148,8 +81448,11 @@
       <c r="JD101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JE101" t="n">
+      <c r="JE101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JF101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -81947,8 +82250,11 @@
       <c r="JD102" s="2" t="n">
         <v>64.7</v>
       </c>
-      <c r="JE102" t="n">
+      <c r="JE102" s="2" t="n">
         <v>53.8</v>
+      </c>
+      <c r="JF102" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JF102"/>
+  <dimension ref="A1:JG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1251,8 +1251,11 @@
       <c r="JE1" s="2" t="n">
         <v>10566</v>
       </c>
-      <c r="JF1" t="n">
+      <c r="JF1" s="2" t="n">
         <v>10572</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>10588</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2053,7 +2056,10 @@
       <c r="JE2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JF2" t="n">
+      <c r="JF2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JG2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2855,8 +2861,11 @@
       <c r="JE3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JF3" t="n">
+      <c r="JF3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3657,8 +3666,11 @@
       <c r="JE4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JF4" t="n">
+      <c r="JF4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4459,7 +4471,10 @@
       <c r="JE5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JF5" t="n">
+      <c r="JF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5261,7 +5276,10 @@
       <c r="JE6" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="JF6" t="n">
+      <c r="JF6" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JG6" t="n">
         <v>80</v>
       </c>
     </row>
@@ -6063,8 +6081,11 @@
       <c r="JE7" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="JF7" t="n">
+      <c r="JF7" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JG7" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6865,8 +6886,11 @@
       <c r="JE8" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JF8" t="n">
+      <c r="JF8" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JG8" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7667,8 +7691,11 @@
       <c r="JE9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JF9" t="n">
+      <c r="JF9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JG9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8469,8 +8496,11 @@
       <c r="JE10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JF10" t="n">
+      <c r="JF10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JG10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9271,8 +9301,11 @@
       <c r="JE11" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="JF11" t="n">
+      <c r="JF11" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="JG11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10073,8 +10106,11 @@
       <c r="JE12" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="JF12" t="n">
+      <c r="JF12" s="2" t="n">
         <v>159</v>
+      </c>
+      <c r="JG12" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10875,8 +10911,11 @@
       <c r="JE13" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="JF13" t="n">
+      <c r="JF13" s="2" t="n">
         <v>379</v>
+      </c>
+      <c r="JG13" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11677,8 +11716,11 @@
       <c r="JE14" s="2" t="n">
         <v>1.23</v>
       </c>
-      <c r="JF14" t="n">
+      <c r="JF14" s="2" t="n">
         <v>1.38</v>
+      </c>
+      <c r="JG14" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12479,8 +12521,11 @@
       <c r="JE15" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JF15" t="n">
+      <c r="JF15" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="JG15" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13281,8 +13326,11 @@
       <c r="JE16" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JF16" t="n">
+      <c r="JF16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JG16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14083,8 +14131,11 @@
       <c r="JE17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JF17" t="n">
+      <c r="JF17" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JG17" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14885,7 +14936,10 @@
       <c r="JE18" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JF18" t="n">
+      <c r="JF18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JG18" t="n">
         <v>18</v>
       </c>
     </row>
@@ -15687,8 +15741,11 @@
       <c r="JE19" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JF19" t="n">
+      <c r="JF19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JG19" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16489,7 +16546,10 @@
       <c r="JE20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JF20" t="n">
+      <c r="JF20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JG20" t="n">
         <v>11</v>
       </c>
     </row>
@@ -17291,7 +17351,10 @@
       <c r="JE21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JF21" t="n">
+      <c r="JF21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG21" t="n">
         <v>8</v>
       </c>
     </row>
@@ -18093,8 +18156,11 @@
       <c r="JE22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JF22" t="n">
+      <c r="JF22" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JG22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18895,8 +18961,11 @@
       <c r="JE23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JF23" t="n">
+      <c r="JF23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JG23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19697,7 +19766,10 @@
       <c r="JE24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JF24" t="n">
+      <c r="JF24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JG24" t="n">
         <v>25</v>
       </c>
     </row>
@@ -20499,7 +20571,10 @@
       <c r="JE25" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JF25" t="n">
+      <c r="JF25" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JG25" t="n">
         <v>44</v>
       </c>
     </row>
@@ -21301,8 +21376,11 @@
       <c r="JE26" s="2" t="n">
         <v>22.31</v>
       </c>
-      <c r="JF26" t="n">
+      <c r="JF26" s="2" t="n">
         <v>34.45</v>
+      </c>
+      <c r="JG26" t="n">
+        <v>31.91</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22103,8 +22181,11 @@
       <c r="JE27" s="2" t="n">
         <v>14.88</v>
       </c>
-      <c r="JF27" t="n">
+      <c r="JF27" s="2" t="n">
         <v>15.16</v>
+      </c>
+      <c r="JG27" t="n">
+        <v>14.04</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22905,8 +22986,11 @@
       <c r="JE28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JF28" t="n">
+      <c r="JF28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JG28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23707,8 +23791,11 @@
       <c r="JE29" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JF29" t="n">
+      <c r="JF29" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JG29" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24509,8 +24596,11 @@
       <c r="JE30" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JF30" t="n">
+      <c r="JF30" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JG30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25311,8 +25401,11 @@
       <c r="JE31" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JF31" t="n">
+      <c r="JF31" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JG31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26113,8 +26206,11 @@
       <c r="JE32" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="JF32" t="n">
+      <c r="JF32" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="JG32" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26915,8 +27011,11 @@
       <c r="JE33" s="2" t="n">
         <v>2.94</v>
       </c>
-      <c r="JF33" t="n">
+      <c r="JF33" s="2" t="n">
         <v>5.36</v>
+      </c>
+      <c r="JG33" t="n">
+        <v>4.91</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27717,8 +27816,11 @@
       <c r="JE34" s="2" t="n">
         <v>44.7</v>
       </c>
-      <c r="JF34" t="n">
+      <c r="JF34" s="2" t="n">
         <v>40.7</v>
+      </c>
+      <c r="JG34" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28519,8 +28621,11 @@
       <c r="JE35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JF35" t="n">
+      <c r="JF35" s="2" t="n">
         <v>18.6</v>
+      </c>
+      <c r="JG35" t="n">
+        <v>20.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -29321,8 +29426,11 @@
       <c r="JE36" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="JF36" t="n">
+      <c r="JF36" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="JG36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -30123,8 +30231,11 @@
       <c r="JE37" s="2" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="JF37" t="n">
+      <c r="JF37" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="JG37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30925,8 +31036,11 @@
       <c r="JE38" s="2" t="n">
         <v>28.24</v>
       </c>
-      <c r="JF38" t="n">
+      <c r="JF38" s="2" t="n">
         <v>27.24</v>
+      </c>
+      <c r="JG38" t="n">
+        <v>27.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -31727,8 +31841,11 @@
       <c r="JE39" s="2" t="n">
         <v>157.7</v>
       </c>
-      <c r="JF39" t="n">
+      <c r="JF39" s="2" t="n">
         <v>133.9</v>
+      </c>
+      <c r="JG39" t="n">
+        <v>151.4</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -32529,8 +32646,11 @@
       <c r="JE40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JF40" t="n">
+      <c r="JF40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JG40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -33331,8 +33451,11 @@
       <c r="JE41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JF41" t="n">
+      <c r="JF41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JG41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -34133,8 +34256,11 @@
       <c r="JE42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JF42" t="n">
+      <c r="JF42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JG42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -34935,8 +35061,11 @@
       <c r="JE43" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JF43" t="n">
+      <c r="JF43" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JG43" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -35737,8 +35866,11 @@
       <c r="JE44" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="JF44" t="n">
+      <c r="JF44" s="2" t="n">
         <v>132</v>
+      </c>
+      <c r="JG44" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -36539,8 +36671,11 @@
       <c r="JE45" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="JF45" t="n">
+      <c r="JF45" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="JG45" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -37341,8 +37476,11 @@
       <c r="JE46" s="2" t="n">
         <v>262</v>
       </c>
-      <c r="JF46" t="n">
+      <c r="JF46" s="2" t="n">
         <v>285</v>
+      </c>
+      <c r="JG46" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -38143,8 +38281,11 @@
       <c r="JE47" s="2" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="JF47" t="n">
+      <c r="JF47" s="2" t="n">
         <v>75.2</v>
+      </c>
+      <c r="JG47" t="n">
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -38945,8 +39086,11 @@
       <c r="JE48" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JF48" t="n">
+      <c r="JF48" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JG48" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -39747,8 +39891,11 @@
       <c r="JE49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JF49" t="n">
+      <c r="JF49" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JG49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -40549,8 +40696,11 @@
       <c r="JE50" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JF50" t="n">
+      <c r="JF50" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JG50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -41351,8 +41501,11 @@
       <c r="JE51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JF51" t="n">
+      <c r="JF51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JG51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -42153,8 +42306,11 @@
       <c r="JE52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JF52" t="n">
+      <c r="JF52" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JG52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -42955,8 +43111,11 @@
       <c r="JE53" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JF53" t="n">
+      <c r="JF53" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JG53" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -43757,8 +43916,11 @@
       <c r="JE54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JF54" t="n">
+      <c r="JF54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JG54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -44559,7 +44721,10 @@
       <c r="JE55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JF55" t="n">
+      <c r="JF55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG55" t="n">
         <v>8</v>
       </c>
     </row>
@@ -45361,7 +45526,10 @@
       <c r="JE56" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="JF56" t="n">
+      <c r="JF56" s="2" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="JG56" t="n">
         <v>72.7</v>
       </c>
     </row>
@@ -46163,8 +46331,11 @@
       <c r="JE57" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="JF57" t="n">
+      <c r="JF57" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="JG57" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -46965,8 +47136,11 @@
       <c r="JE58" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="JF58" t="n">
+      <c r="JF58" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="JG58" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -47767,8 +47941,11 @@
       <c r="JE59" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="JF59" t="n">
+      <c r="JF59" s="2" t="n">
         <v>335</v>
+      </c>
+      <c r="JG59" t="n">
+        <v>376</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -48569,8 +48746,11 @@
       <c r="JE60" s="2" t="n">
         <v>1.08</v>
       </c>
-      <c r="JF60" t="n">
+      <c r="JF60" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="JG60" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -49371,8 +49551,11 @@
       <c r="JE61" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JF61" t="n">
+      <c r="JF61" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="JG61" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -50173,8 +50356,11 @@
       <c r="JE62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JF62" t="n">
+      <c r="JF62" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JG62" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -50975,8 +51161,11 @@
       <c r="JE63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JF63" t="n">
+      <c r="JF63" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JG63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -51777,8 +51966,11 @@
       <c r="JE64" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JF64" t="n">
+      <c r="JF64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JG64" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -52579,7 +52771,10 @@
       <c r="JE65" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JF65" t="n">
+      <c r="JF65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JG65" t="n">
         <v>18</v>
       </c>
     </row>
@@ -53381,8 +53576,11 @@
       <c r="JE66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JF66" t="n">
+      <c r="JF66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JG66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -54183,8 +54381,11 @@
       <c r="JE67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JF67" t="n">
+      <c r="JF67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JG67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -54985,8 +55186,11 @@
       <c r="JE68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JF68" t="n">
+      <c r="JF68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JG68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -55787,8 +55991,11 @@
       <c r="JE69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JF69" t="n">
+      <c r="JF69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JG69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -56589,8 +56796,11 @@
       <c r="JE70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JF70" t="n">
+      <c r="JF70" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JG70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -57391,8 +57601,11 @@
       <c r="JE71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JF71" t="n">
+      <c r="JF71" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="JG71" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -58193,8 +58406,11 @@
       <c r="JE72" s="2" t="n">
         <v>30.23</v>
       </c>
-      <c r="JF72" t="n">
+      <c r="JF72" s="2" t="n">
         <v>30.45</v>
+      </c>
+      <c r="JG72" t="n">
+        <v>26.86</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -58995,8 +59211,11 @@
       <c r="JE73" s="2" t="n">
         <v>15.12</v>
       </c>
-      <c r="JF73" t="n">
+      <c r="JF73" s="2" t="n">
         <v>22.33</v>
+      </c>
+      <c r="JG73" t="n">
+        <v>17.09</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -59797,8 +60016,11 @@
       <c r="JE74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JF74" t="n">
+      <c r="JF74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JG74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -60599,8 +60821,11 @@
       <c r="JE75" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JF75" t="n">
+      <c r="JF75" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JG75" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -61401,8 +61626,11 @@
       <c r="JE76" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JF76" t="n">
+      <c r="JF76" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JG76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -62203,8 +62431,11 @@
       <c r="JE77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JF77" t="n">
+      <c r="JF77" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JG77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -63005,8 +63236,11 @@
       <c r="JE78" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="JF78" t="n">
+      <c r="JF78" s="2" t="n">
         <v>2.8</v>
+      </c>
+      <c r="JG78" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -63807,8 +64041,11 @@
       <c r="JE79" s="2" t="n">
         <v>4.54</v>
       </c>
-      <c r="JF79" t="n">
+      <c r="JF79" s="2" t="n">
         <v>3.82</v>
+      </c>
+      <c r="JG79" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -64609,8 +64846,11 @@
       <c r="JE80" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JF80" t="n">
+      <c r="JF80" s="2" t="n">
         <v>35.7</v>
+      </c>
+      <c r="JG80" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -65411,8 +65651,11 @@
       <c r="JE81" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JF81" t="n">
+      <c r="JF81" s="2" t="n">
         <v>26.2</v>
+      </c>
+      <c r="JG81" t="n">
+        <v>29.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -66213,8 +66456,11 @@
       <c r="JE82" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="JF82" t="n">
+      <c r="JF82" s="2" t="n">
         <v>187.8</v>
+      </c>
+      <c r="JG82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -67015,8 +67261,11 @@
       <c r="JE83" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JF83" t="n">
+      <c r="JF83" s="2" t="n">
         <v>88.7</v>
+      </c>
+      <c r="JG83" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -67817,8 +68066,11 @@
       <c r="JE84" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="JF84" t="n">
+      <c r="JF84" s="2" t="n">
         <v>26.74</v>
+      </c>
+      <c r="JG84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -68619,8 +68871,11 @@
       <c r="JE85" s="2" t="n">
         <v>107.4</v>
       </c>
-      <c r="JF85" t="n">
+      <c r="JF85" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="JG85" t="n">
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -69421,8 +69676,11 @@
       <c r="JE86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JF86" t="n">
+      <c r="JF86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JG86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -70223,8 +70481,11 @@
       <c r="JE87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JF87" t="n">
+      <c r="JF87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JG87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -71025,7 +71286,10 @@
       <c r="JE88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JF88" t="n">
+      <c r="JF88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -71827,8 +72091,11 @@
       <c r="JE89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JF89" t="n">
+      <c r="JF89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JG89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -72629,8 +72896,11 @@
       <c r="JE90" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="JF90" t="n">
+      <c r="JF90" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="JG90" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -73431,8 +73701,11 @@
       <c r="JE91" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="JF91" t="n">
+      <c r="JF91" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="JG91" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -74233,8 +74506,11 @@
       <c r="JE92" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="JF92" t="n">
+      <c r="JF92" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="JG92" t="n">
+        <v>272</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -75035,8 +75311,11 @@
       <c r="JE93" s="2" t="n">
         <v>69.7</v>
       </c>
-      <c r="JF93" t="n">
+      <c r="JF93" s="2" t="n">
         <v>72.8</v>
+      </c>
+      <c r="JG93" t="n">
+        <v>72.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -75837,8 +76116,11 @@
       <c r="JE94" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JF94" t="n">
+      <c r="JF94" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JG94" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -76639,8 +76921,11 @@
       <c r="JE95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JF95" t="n">
+      <c r="JF95" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JG95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -77441,8 +77726,11 @@
       <c r="JE96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JF96" t="n">
+      <c r="JF96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JG96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -78243,8 +78531,11 @@
       <c r="JE97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JF97" t="n">
+      <c r="JF97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JG97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -79045,8 +79336,11 @@
       <c r="JE98" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JF98" t="n">
+      <c r="JF98" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JG98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -79847,8 +80141,11 @@
       <c r="JE99" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JF99" t="n">
+      <c r="JF99" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JG99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -80649,8 +80946,11 @@
       <c r="JE100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JF100" t="n">
+      <c r="JF100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JG100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -81451,8 +81751,11 @@
       <c r="JE101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JF101" t="n">
+      <c r="JF101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JG101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -82253,8 +82556,11 @@
       <c r="JE102" s="2" t="n">
         <v>53.8</v>
       </c>
-      <c r="JF102" t="n">
+      <c r="JF102" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="JG102" t="n">
+        <v>57.1</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JG102"/>
+  <dimension ref="A1:JH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1254,8 +1254,11 @@
       <c r="JF1" s="2" t="n">
         <v>10572</v>
       </c>
-      <c r="JG1" t="n">
+      <c r="JG1" s="2" t="n">
         <v>10588</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>10593</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2059,7 +2062,10 @@
       <c r="JF2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JG2" t="n">
+      <c r="JG2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JH2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2864,8 +2870,11 @@
       <c r="JF3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JG3" t="n">
+      <c r="JG3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3669,7 +3678,10 @@
       <c r="JF4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JG4" t="n">
+      <c r="JG4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,8 +4486,11 @@
       <c r="JF5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JG5" t="n">
+      <c r="JG5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5279,8 +5294,11 @@
       <c r="JF6" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JG6" t="n">
+      <c r="JG6" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6084,8 +6102,11 @@
       <c r="JF7" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JG7" t="n">
+      <c r="JG7" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="JH7" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6889,8 +6910,11 @@
       <c r="JF8" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JG8" t="n">
+      <c r="JG8" s="2" t="n">
         <v>-12</v>
+      </c>
+      <c r="JH8" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7694,8 +7718,11 @@
       <c r="JF9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JG9" t="n">
+      <c r="JG9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JH9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8499,8 +8526,11 @@
       <c r="JF10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JG10" t="n">
+      <c r="JG10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JH10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9304,8 +9334,11 @@
       <c r="JF11" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="JG11" t="n">
+      <c r="JG11" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="JH11" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10109,8 +10142,11 @@
       <c r="JF12" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="JG12" t="n">
+      <c r="JG12" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="JH12" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10914,8 +10950,11 @@
       <c r="JF13" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="JG13" t="n">
+      <c r="JG13" s="2" t="n">
         <v>351</v>
+      </c>
+      <c r="JH13" t="n">
+        <v>397</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11719,8 +11758,11 @@
       <c r="JF14" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="JG14" t="n">
+      <c r="JG14" s="2" t="n">
         <v>1.39</v>
+      </c>
+      <c r="JH14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12524,8 +12566,11 @@
       <c r="JF15" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="JG15" t="n">
+      <c r="JG15" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="JH15" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13329,8 +13374,11 @@
       <c r="JF16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JG16" t="n">
+      <c r="JG16" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JH16" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14134,8 +14182,11 @@
       <c r="JF17" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JG17" t="n">
+      <c r="JG17" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JH17" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14939,8 +14990,11 @@
       <c r="JF18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JG18" t="n">
+      <c r="JG18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JH18" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15744,8 +15798,11 @@
       <c r="JF19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JG19" t="n">
+      <c r="JG19" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JH19" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16549,8 +16606,11 @@
       <c r="JF20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JG20" t="n">
+      <c r="JG20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JH20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17354,8 +17414,11 @@
       <c r="JF21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JG21" t="n">
+      <c r="JG21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JH21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18159,8 +18222,11 @@
       <c r="JF22" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JG22" t="n">
+      <c r="JG22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JH22" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18964,8 +19030,11 @@
       <c r="JF23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JG23" t="n">
+      <c r="JG23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JH23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19769,8 +19838,11 @@
       <c r="JF24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JG24" t="n">
+      <c r="JG24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JH24" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20574,8 +20646,11 @@
       <c r="JF25" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JG25" t="n">
+      <c r="JG25" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JH25" t="n">
+        <v>47.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21379,8 +21454,11 @@
       <c r="JF26" s="2" t="n">
         <v>34.45</v>
       </c>
-      <c r="JG26" t="n">
+      <c r="JG26" s="2" t="n">
         <v>31.91</v>
+      </c>
+      <c r="JH26" t="n">
+        <v>23.35</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22184,8 +22262,11 @@
       <c r="JF27" s="2" t="n">
         <v>15.16</v>
       </c>
-      <c r="JG27" t="n">
+      <c r="JG27" s="2" t="n">
         <v>14.04</v>
+      </c>
+      <c r="JH27" t="n">
+        <v>11.03</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22989,8 +23070,11 @@
       <c r="JF28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JG28" t="n">
+      <c r="JG28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JH28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23794,8 +23878,11 @@
       <c r="JF29" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JG29" t="n">
+      <c r="JG29" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JH29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24599,8 +24686,11 @@
       <c r="JF30" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JG30" t="n">
+      <c r="JG30" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JH30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25404,8 +25494,11 @@
       <c r="JF31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JG31" t="n">
+      <c r="JG31" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JH31" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26209,8 +26302,11 @@
       <c r="JF32" s="2" t="n">
         <v>2.36</v>
       </c>
-      <c r="JG32" t="n">
+      <c r="JG32" s="2" t="n">
         <v>2.16</v>
+      </c>
+      <c r="JH32" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -27014,8 +27110,11 @@
       <c r="JF33" s="2" t="n">
         <v>5.36</v>
       </c>
-      <c r="JG33" t="n">
+      <c r="JG33" s="2" t="n">
         <v>4.91</v>
+      </c>
+      <c r="JH33" t="n">
+        <v>3.65</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27819,8 +27918,11 @@
       <c r="JF34" s="2" t="n">
         <v>40.7</v>
       </c>
-      <c r="JG34" t="n">
+      <c r="JG34" s="2" t="n">
         <v>38.9</v>
+      </c>
+      <c r="JH34" t="n">
+        <v>53.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28624,8 +28726,11 @@
       <c r="JF35" s="2" t="n">
         <v>18.6</v>
       </c>
-      <c r="JG35" t="n">
+      <c r="JG35" s="2" t="n">
         <v>20.4</v>
+      </c>
+      <c r="JH35" t="n">
+        <v>27.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -29429,8 +29534,11 @@
       <c r="JF36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="JG36" t="n">
+      <c r="JG36" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="JH36" t="n">
+        <v>179.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -30234,8 +30342,11 @@
       <c r="JF37" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="JG37" t="n">
+      <c r="JG37" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="JH37" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -31039,8 +31150,11 @@
       <c r="JF38" s="2" t="n">
         <v>27.24</v>
       </c>
-      <c r="JG38" t="n">
+      <c r="JG38" s="2" t="n">
         <v>27.91</v>
+      </c>
+      <c r="JH38" t="n">
+        <v>27.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -31844,8 +31958,11 @@
       <c r="JF39" s="2" t="n">
         <v>133.9</v>
       </c>
-      <c r="JG39" t="n">
+      <c r="JG39" s="2" t="n">
         <v>151.4</v>
+      </c>
+      <c r="JH39" t="n">
+        <v>143.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -32649,8 +32766,11 @@
       <c r="JF40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JG40" t="n">
+      <c r="JG40" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JH40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -33454,8 +33574,11 @@
       <c r="JF41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JG41" t="n">
+      <c r="JG41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JH41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -34259,7 +34382,10 @@
       <c r="JF42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JG42" t="n">
+      <c r="JG42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35064,8 +35190,11 @@
       <c r="JF43" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JG43" t="n">
+      <c r="JG43" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JH43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -35869,8 +35998,11 @@
       <c r="JF44" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="JG44" t="n">
+      <c r="JG44" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="JH44" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -36674,8 +36806,11 @@
       <c r="JF45" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="JG45" t="n">
+      <c r="JG45" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="JH45" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -37479,8 +37614,11 @@
       <c r="JF46" s="2" t="n">
         <v>285</v>
       </c>
-      <c r="JG46" t="n">
+      <c r="JG46" s="2" t="n">
         <v>256</v>
+      </c>
+      <c r="JH46" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -38284,8 +38422,11 @@
       <c r="JF47" s="2" t="n">
         <v>75.2</v>
       </c>
-      <c r="JG47" t="n">
+      <c r="JG47" s="2" t="n">
         <v>72.90000000000001</v>
+      </c>
+      <c r="JH47" t="n">
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -39089,8 +39230,11 @@
       <c r="JF48" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JG48" t="n">
+      <c r="JG48" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JH48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -39894,8 +40038,11 @@
       <c r="JF49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JG49" t="n">
+      <c r="JG49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JH49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -40699,8 +40846,11 @@
       <c r="JF50" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JG50" t="n">
+      <c r="JG50" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JH50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -41504,8 +41654,11 @@
       <c r="JF51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JG51" t="n">
+      <c r="JG51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JH51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -42309,8 +42462,11 @@
       <c r="JF52" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JG52" t="n">
+      <c r="JG52" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JH52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -43114,8 +43270,11 @@
       <c r="JF53" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JG53" t="n">
+      <c r="JG53" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JH53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -43919,7 +44078,10 @@
       <c r="JF54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JG54" t="n">
+      <c r="JG54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH54" t="n">
         <v>5</v>
       </c>
     </row>
@@ -44724,8 +44886,11 @@
       <c r="JF55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JG55" t="n">
+      <c r="JG55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JH55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -45529,8 +45694,11 @@
       <c r="JF56" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="JG56" t="n">
+      <c r="JG56" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="JH56" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -46334,8 +46502,11 @@
       <c r="JF57" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="JG57" t="n">
+      <c r="JG57" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="JH57" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -47139,8 +47310,11 @@
       <c r="JF58" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="JG58" t="n">
+      <c r="JG58" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="JH58" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -47944,8 +48118,11 @@
       <c r="JF59" s="2" t="n">
         <v>335</v>
       </c>
-      <c r="JG59" t="n">
+      <c r="JG59" s="2" t="n">
         <v>376</v>
+      </c>
+      <c r="JH59" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -48749,8 +48926,11 @@
       <c r="JF60" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="JG60" t="n">
+      <c r="JG60" s="2" t="n">
         <v>1.54</v>
+      </c>
+      <c r="JH60" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -49554,8 +49734,11 @@
       <c r="JF61" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="JG61" t="n">
+      <c r="JG61" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="JH61" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -50359,8 +50542,11 @@
       <c r="JF62" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JG62" t="n">
+      <c r="JG62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JH62" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -51164,8 +51350,11 @@
       <c r="JF63" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JG63" t="n">
+      <c r="JG63" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JH63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -51969,8 +52158,11 @@
       <c r="JF64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JG64" t="n">
+      <c r="JG64" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JH64" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -52774,8 +52966,11 @@
       <c r="JF65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JG65" t="n">
+      <c r="JG65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JH65" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -53579,8 +53774,11 @@
       <c r="JF66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JG66" t="n">
+      <c r="JG66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JH66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -54384,8 +54582,11 @@
       <c r="JF67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JG67" t="n">
+      <c r="JG67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JH67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -55189,8 +55390,11 @@
       <c r="JF68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JG68" t="n">
+      <c r="JG68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JH68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -55994,8 +56198,11 @@
       <c r="JF69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JG69" t="n">
+      <c r="JG69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JH69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -56799,8 +57006,11 @@
       <c r="JF70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JG70" t="n">
+      <c r="JG70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JH70" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -57604,8 +57814,11 @@
       <c r="JF71" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="JG71" t="n">
+      <c r="JG71" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="JH71" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -58409,8 +58622,11 @@
       <c r="JF72" s="2" t="n">
         <v>30.45</v>
       </c>
-      <c r="JG72" t="n">
+      <c r="JG72" s="2" t="n">
         <v>26.86</v>
+      </c>
+      <c r="JH72" t="n">
+        <v>35.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -59214,8 +59430,11 @@
       <c r="JF73" s="2" t="n">
         <v>22.33</v>
       </c>
-      <c r="JG73" t="n">
+      <c r="JG73" s="2" t="n">
         <v>17.09</v>
+      </c>
+      <c r="JH73" t="n">
+        <v>20.06</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -60019,8 +60238,11 @@
       <c r="JF74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JG74" t="n">
+      <c r="JG74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JH74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -60824,8 +61046,11 @@
       <c r="JF75" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JG75" t="n">
+      <c r="JG75" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JH75" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -61629,8 +61854,11 @@
       <c r="JF76" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JG76" t="n">
+      <c r="JG76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JH76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -62434,8 +62662,11 @@
       <c r="JF77" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JG77" t="n">
+      <c r="JG77" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JH77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -63239,8 +63470,11 @@
       <c r="JF78" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="JG78" t="n">
+      <c r="JG78" s="2" t="n">
         <v>2.14</v>
+      </c>
+      <c r="JH78" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -64044,8 +64278,11 @@
       <c r="JF79" s="2" t="n">
         <v>3.82</v>
       </c>
-      <c r="JG79" t="n">
+      <c r="JG79" s="2" t="n">
         <v>3.36</v>
+      </c>
+      <c r="JH79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -64849,8 +65086,11 @@
       <c r="JF80" s="2" t="n">
         <v>35.7</v>
       </c>
-      <c r="JG80" t="n">
+      <c r="JG80" s="2" t="n">
         <v>42.6</v>
+      </c>
+      <c r="JH80" t="n">
+        <v>35.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -65654,8 +65894,11 @@
       <c r="JF81" s="2" t="n">
         <v>26.2</v>
       </c>
-      <c r="JG81" t="n">
+      <c r="JG81" s="2" t="n">
         <v>29.8</v>
+      </c>
+      <c r="JH81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -66459,8 +66702,11 @@
       <c r="JF82" s="2" t="n">
         <v>187.8</v>
       </c>
-      <c r="JG82" t="n">
+      <c r="JG82" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="JH82" t="n">
+        <v>189.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -67264,8 +67510,11 @@
       <c r="JF83" s="2" t="n">
         <v>88.7</v>
       </c>
-      <c r="JG83" t="n">
+      <c r="JG83" s="2" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="JH83" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -68069,8 +68318,11 @@
       <c r="JF84" s="2" t="n">
         <v>26.74</v>
       </c>
-      <c r="JG84" t="n">
+      <c r="JG84" s="2" t="n">
         <v>24.8</v>
+      </c>
+      <c r="JH84" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -68874,8 +69126,11 @@
       <c r="JF85" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="JG85" t="n">
+      <c r="JG85" s="2" t="n">
         <v>85.09999999999999</v>
+      </c>
+      <c r="JH85" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -69679,7 +69934,10 @@
       <c r="JF86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JG86" t="n">
+      <c r="JG86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JH86" t="n">
         <v>10</v>
       </c>
     </row>
@@ -70484,8 +70742,11 @@
       <c r="JF87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JG87" t="n">
+      <c r="JG87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JH87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -71289,7 +71550,10 @@
       <c r="JF88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JG88" t="n">
+      <c r="JG88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -72094,8 +72358,11 @@
       <c r="JF89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JG89" t="n">
+      <c r="JG89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JH89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -72899,8 +73166,11 @@
       <c r="JF90" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="JG90" t="n">
+      <c r="JG90" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="JH90" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -73704,8 +73974,11 @@
       <c r="JF91" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="JG91" t="n">
+      <c r="JG91" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="JH91" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -74509,8 +74782,11 @@
       <c r="JF92" s="2" t="n">
         <v>244</v>
       </c>
-      <c r="JG92" t="n">
+      <c r="JG92" s="2" t="n">
         <v>272</v>
+      </c>
+      <c r="JH92" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -75314,8 +75590,11 @@
       <c r="JF93" s="2" t="n">
         <v>72.8</v>
       </c>
-      <c r="JG93" t="n">
+      <c r="JG93" s="2" t="n">
         <v>72.3</v>
+      </c>
+      <c r="JH93" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -76119,8 +76398,11 @@
       <c r="JF94" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JG94" t="n">
+      <c r="JG94" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JH94" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -76924,8 +77206,11 @@
       <c r="JF95" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JG95" t="n">
+      <c r="JG95" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JH95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -77729,8 +78014,11 @@
       <c r="JF96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JG96" t="n">
+      <c r="JG96" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JH96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -78534,8 +78822,11 @@
       <c r="JF97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JG97" t="n">
+      <c r="JG97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JH97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -79339,8 +79630,11 @@
       <c r="JF98" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JG98" t="n">
+      <c r="JG98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JH98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -80144,8 +80438,11 @@
       <c r="JF99" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JG99" t="n">
+      <c r="JG99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JH99" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -80949,8 +81246,11 @@
       <c r="JF100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JG100" t="n">
+      <c r="JG100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JH100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -81754,8 +82054,11 @@
       <c r="JF101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JG101" t="n">
+      <c r="JG101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JH101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -82559,8 +82862,11 @@
       <c r="JF102" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="JG102" t="n">
+      <c r="JG102" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="JH102" t="n">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JJ102"/>
+  <dimension ref="A1:JL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1263,8 +1263,14 @@
       <c r="JI1" s="2" t="n">
         <v>10599</v>
       </c>
-      <c r="JJ1" t="n">
+      <c r="JJ1" s="2" t="n">
         <v>10611</v>
+      </c>
+      <c r="JK1" s="2" t="n">
+        <v>10619</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>10626</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2077,7 +2083,13 @@
       <c r="JI2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JJ2" t="n">
+      <c r="JJ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JL2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2891,8 +2903,14 @@
       <c r="JI3" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JJ3" t="n">
+      <c r="JJ3" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JK3" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3705,8 +3723,14 @@
       <c r="JI4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JJ4" t="n">
+      <c r="JJ4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JK4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4519,8 +4543,14 @@
       <c r="JI5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JJ5" t="n">
+      <c r="JJ5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5333,8 +5363,14 @@
       <c r="JI6" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JJ6" t="n">
+      <c r="JJ6" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="JK6" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6147,8 +6183,14 @@
       <c r="JI7" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JJ7" t="n">
+      <c r="JJ7" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JK7" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JL7" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6961,8 +7003,14 @@
       <c r="JI8" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="JJ8" t="n">
+      <c r="JJ8" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JK8" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="JL8" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7775,7 +7823,13 @@
       <c r="JI9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JJ9" t="n">
+      <c r="JJ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8589,8 +8643,14 @@
       <c r="JI10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JJ10" t="n">
+      <c r="JJ10" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JK10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JL10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9403,8 +9463,14 @@
       <c r="JI11" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="JJ11" t="n">
+      <c r="JJ11" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="JK11" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="JL11" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10217,8 +10283,14 @@
       <c r="JI12" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="JJ12" t="n">
+      <c r="JJ12" s="2" t="n">
         <v>180</v>
+      </c>
+      <c r="JK12" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="JL12" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -11031,8 +11103,14 @@
       <c r="JI13" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="JJ13" t="n">
+      <c r="JJ13" s="2" t="n">
         <v>435</v>
+      </c>
+      <c r="JK13" s="2" t="n">
+        <v>373</v>
+      </c>
+      <c r="JL13" t="n">
+        <v>401</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11845,8 +11923,14 @@
       <c r="JI14" s="2" t="n">
         <v>1.21</v>
       </c>
-      <c r="JJ14" t="n">
+      <c r="JJ14" s="2" t="n">
         <v>1.42</v>
+      </c>
+      <c r="JK14" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="JL14" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12659,8 +12743,14 @@
       <c r="JI15" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JJ15" t="n">
+      <c r="JJ15" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="JK15" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="JL15" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13473,8 +13563,14 @@
       <c r="JI16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JJ16" t="n">
+      <c r="JJ16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JK16" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JL16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14287,8 +14383,14 @@
       <c r="JI17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JJ17" t="n">
+      <c r="JJ17" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JK17" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JL17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -15101,8 +15203,14 @@
       <c r="JI18" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JJ18" t="n">
+      <c r="JJ18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JK18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JL18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15915,8 +16023,14 @@
       <c r="JI19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JJ19" t="n">
+      <c r="JJ19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JK19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JL19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16729,8 +16843,14 @@
       <c r="JI20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JJ20" t="n">
+      <c r="JJ20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JK20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17543,8 +17663,14 @@
       <c r="JI21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JJ21" t="n">
+      <c r="JJ21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JK21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18357,8 +18483,14 @@
       <c r="JI22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JJ22" t="n">
+      <c r="JJ22" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JK22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -19171,8 +19303,14 @@
       <c r="JI23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JJ23" t="n">
+      <c r="JJ23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JK23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19985,8 +20123,14 @@
       <c r="JI24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JJ24" t="n">
+      <c r="JJ24" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JK24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JL24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20799,8 +20943,14 @@
       <c r="JI25" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="JJ25" t="n">
+      <c r="JJ25" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="JK25" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JL25" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21613,8 +21763,14 @@
       <c r="JI26" s="2" t="n">
         <v>36.3</v>
       </c>
-      <c r="JJ26" t="n">
+      <c r="JJ26" s="2" t="n">
         <v>36.25</v>
+      </c>
+      <c r="JK26" s="2" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="JL26" t="n">
+        <v>36.45</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22427,8 +22583,14 @@
       <c r="JI27" s="2" t="n">
         <v>22.69</v>
       </c>
-      <c r="JJ27" t="n">
+      <c r="JJ27" s="2" t="n">
         <v>15.54</v>
+      </c>
+      <c r="JK27" s="2" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="JL27" t="n">
+        <v>14.85</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -23241,8 +23403,14 @@
       <c r="JI28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JJ28" t="n">
+      <c r="JJ28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JK28" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JL28" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -24055,8 +24223,14 @@
       <c r="JI29" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JJ29" t="n">
+      <c r="JJ29" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JK29" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JL29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24869,8 +25043,14 @@
       <c r="JI30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JJ30" t="n">
+      <c r="JJ30" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JK30" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JL30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25683,8 +25863,14 @@
       <c r="JI31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JJ31" t="n">
+      <c r="JJ31" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JK31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JL31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26497,8 +26683,14 @@
       <c r="JI32" s="2" t="n">
         <v>3.38</v>
       </c>
-      <c r="JJ32" t="n">
+      <c r="JJ32" s="2" t="n">
         <v>2.14</v>
+      </c>
+      <c r="JK32" s="2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="JL32" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -27311,8 +27503,14 @@
       <c r="JI33" s="2" t="n">
         <v>5.4</v>
       </c>
-      <c r="JJ33" t="n">
+      <c r="JJ33" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JK33" s="2" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="JL33" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -28125,8 +28323,14 @@
       <c r="JI34" s="2" t="n">
         <v>25.9</v>
       </c>
-      <c r="JJ34" t="n">
+      <c r="JJ34" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JK34" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="JL34" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28939,8 +29143,14 @@
       <c r="JI35" s="2" t="n">
         <v>18.5</v>
       </c>
-      <c r="JJ35" t="n">
+      <c r="JJ35" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JK35" s="2" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="JL35" t="n">
+        <v>19.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -29753,8 +29963,14 @@
       <c r="JI36" s="2" t="n">
         <v>179.6</v>
       </c>
-      <c r="JJ36" t="n">
+      <c r="JJ36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="JK36" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JL36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -30567,8 +30783,14 @@
       <c r="JI37" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="JJ37" t="n">
+      <c r="JJ37" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="JK37" s="2" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="JL37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -31381,8 +31603,14 @@
       <c r="JI38" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="JJ38" t="n">
+      <c r="JJ38" s="2" t="n">
         <v>26.66</v>
+      </c>
+      <c r="JK38" s="2" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="JL38" t="n">
+        <v>27.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -32195,8 +32423,14 @@
       <c r="JI39" s="2" t="n">
         <v>147.8</v>
       </c>
-      <c r="JJ39" t="n">
+      <c r="JJ39" s="2" t="n">
         <v>120.6</v>
+      </c>
+      <c r="JK39" s="2" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="JL39" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -33009,8 +33243,14 @@
       <c r="JI40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JJ40" t="n">
+      <c r="JJ40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JK40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -33823,7 +34063,13 @@
       <c r="JI41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JJ41" t="n">
+      <c r="JJ41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -34637,7 +34883,13 @@
       <c r="JI42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JJ42" t="n">
+      <c r="JJ42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35451,8 +35703,14 @@
       <c r="JI43" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JJ43" t="n">
+      <c r="JJ43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JK43" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -36265,8 +36523,14 @@
       <c r="JI44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="JJ44" t="n">
+      <c r="JJ44" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="JK44" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="JL44" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -37079,8 +37343,14 @@
       <c r="JI45" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="JJ45" t="n">
+      <c r="JJ45" s="2" t="n">
         <v>298</v>
+      </c>
+      <c r="JK45" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="JL45" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -37893,8 +38163,14 @@
       <c r="JI46" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="JJ46" t="n">
+      <c r="JJ46" s="2" t="n">
         <v>328</v>
+      </c>
+      <c r="JK46" s="2" t="n">
+        <v>282</v>
+      </c>
+      <c r="JL46" t="n">
+        <v>305</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -38707,8 +38983,14 @@
       <c r="JI47" s="2" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="JJ47" t="n">
+      <c r="JJ47" s="2" t="n">
         <v>75.40000000000001</v>
+      </c>
+      <c r="JK47" s="2" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="JL47" t="n">
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -39521,8 +39803,14 @@
       <c r="JI48" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JJ48" t="n">
+      <c r="JJ48" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JK48" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JL48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -40335,7 +40623,13 @@
       <c r="JI49" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JJ49" t="n">
+      <c r="JJ49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JK49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL49" t="n">
         <v>10</v>
       </c>
     </row>
@@ -41149,8 +41443,14 @@
       <c r="JI50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JJ50" t="n">
+      <c r="JJ50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JK50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -41963,8 +42263,14 @@
       <c r="JI51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JJ51" t="n">
+      <c r="JJ51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JK51" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JL51" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -42777,8 +43083,14 @@
       <c r="JI52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JJ52" t="n">
+      <c r="JJ52" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JK52" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JL52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -43591,8 +43903,14 @@
       <c r="JI53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JJ53" t="n">
+      <c r="JJ53" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JK53" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JL53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -44405,8 +44723,14 @@
       <c r="JI54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JJ54" t="n">
+      <c r="JJ54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JK54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -45219,8 +45543,14 @@
       <c r="JI55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JJ55" t="n">
+      <c r="JJ55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JK55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -46033,8 +46363,14 @@
       <c r="JI56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JJ56" t="n">
+      <c r="JJ56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JK56" s="2" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="JL56" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -46847,8 +47183,14 @@
       <c r="JI57" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="JJ57" t="n">
+      <c r="JJ57" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="JK57" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="JL57" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -47661,8 +48003,14 @@
       <c r="JI58" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="JJ58" t="n">
+      <c r="JJ58" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="JK58" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="JL58" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -48475,8 +48823,14 @@
       <c r="JI59" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="JJ59" t="n">
+      <c r="JJ59" s="2" t="n">
         <v>357</v>
+      </c>
+      <c r="JK59" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="JL59" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -49289,8 +49643,14 @@
       <c r="JI60" s="2" t="n">
         <v>1.07</v>
       </c>
-      <c r="JJ60" t="n">
+      <c r="JJ60" s="2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="JK60" s="2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="JL60" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -50103,8 +50463,14 @@
       <c r="JI61" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JJ61" t="n">
+      <c r="JJ61" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="JK61" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="JL61" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -50917,8 +51283,14 @@
       <c r="JI62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JJ62" t="n">
+      <c r="JJ62" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JK62" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JL62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -51731,8 +52103,14 @@
       <c r="JI63" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JJ63" t="n">
+      <c r="JJ63" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JK63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JL63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -52545,8 +52923,14 @@
       <c r="JI64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JJ64" t="n">
+      <c r="JJ64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JK64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JL64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -53359,8 +53743,14 @@
       <c r="JI65" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JJ65" t="n">
+      <c r="JJ65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JK65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JL65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -54173,8 +54563,14 @@
       <c r="JI66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JJ66" t="n">
+      <c r="JJ66" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JK66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JL66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -54987,8 +55383,14 @@
       <c r="JI67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JJ67" t="n">
+      <c r="JJ67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JK67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -55801,8 +56203,14 @@
       <c r="JI68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JJ68" t="n">
+      <c r="JJ68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JK68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -56615,7 +57023,13 @@
       <c r="JI69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JJ69" t="n">
+      <c r="JJ69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57429,8 +57843,14 @@
       <c r="JI70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JJ70" t="n">
+      <c r="JJ70" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JK70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JL70" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -58243,8 +58663,14 @@
       <c r="JI71" s="2" t="n">
         <v>52.6</v>
       </c>
-      <c r="JJ71" t="n">
+      <c r="JJ71" s="2" t="n">
         <v>26.7</v>
+      </c>
+      <c r="JK71" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JL71" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -59057,8 +59483,14 @@
       <c r="JI72" s="2" t="n">
         <v>36.1</v>
       </c>
-      <c r="JJ72" t="n">
+      <c r="JJ72" s="2" t="n">
         <v>89.25</v>
+      </c>
+      <c r="JK72" s="2" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="JL72" t="n">
+        <v>53.57</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -59871,8 +60303,14 @@
       <c r="JI73" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JJ73" t="n">
+      <c r="JJ73" s="2" t="n">
         <v>23.8</v>
+      </c>
+      <c r="JK73" s="2" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="JL73" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -60685,8 +61123,14 @@
       <c r="JI74" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JJ74" t="n">
+      <c r="JJ74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JK74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JL74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -61499,8 +61943,14 @@
       <c r="JI75" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JJ75" t="n">
+      <c r="JJ75" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JK75" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JL75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -62313,8 +62763,14 @@
       <c r="JI76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JJ76" t="n">
+      <c r="JJ76" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JK76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JL76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -63127,7 +63583,13 @@
       <c r="JI77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JJ77" t="n">
+      <c r="JJ77" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JK77" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JL77" t="n">
         <v>43</v>
       </c>
     </row>
@@ -63941,8 +64403,14 @@
       <c r="JI78" s="2" t="n">
         <v>2.47</v>
       </c>
-      <c r="JJ78" t="n">
+      <c r="JJ78" s="2" t="n">
         <v>2.87</v>
+      </c>
+      <c r="JK78" s="2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="JL78" t="n">
+        <v>3.58</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -64755,8 +65223,14 @@
       <c r="JI79" s="2" t="n">
         <v>4.7</v>
       </c>
-      <c r="JJ79" t="n">
+      <c r="JJ79" s="2" t="n">
         <v>10.75</v>
+      </c>
+      <c r="JK79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL79" t="n">
+        <v>6.14</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -65569,8 +66043,14 @@
       <c r="JI80" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JJ80" t="n">
+      <c r="JJ80" s="2" t="n">
         <v>34.9</v>
+      </c>
+      <c r="JK80" s="2" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="JL80" t="n">
+        <v>27.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -66383,8 +66863,14 @@
       <c r="JI81" s="2" t="n">
         <v>21.3</v>
       </c>
-      <c r="JJ81" t="n">
+      <c r="JJ81" s="2" t="n">
         <v>9.300000000000001</v>
+      </c>
+      <c r="JK81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JL81" t="n">
+        <v>16.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -67197,8 +67683,14 @@
       <c r="JI82" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="JJ82" t="n">
+      <c r="JJ82" s="2" t="n">
         <v>189.5</v>
+      </c>
+      <c r="JK82" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="JL82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -68011,8 +68503,14 @@
       <c r="JI83" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="JJ83" t="n">
+      <c r="JJ83" s="2" t="n">
         <v>89.09999999999999</v>
+      </c>
+      <c r="JK83" s="2" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="JL83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -68825,8 +69323,14 @@
       <c r="JI84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="JJ84" t="n">
+      <c r="JJ84" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="JK84" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JL84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -69639,8 +70143,14 @@
       <c r="JI85" s="2" t="n">
         <v>80.5</v>
       </c>
-      <c r="JJ85" t="n">
+      <c r="JJ85" s="2" t="n">
         <v>92.09999999999999</v>
+      </c>
+      <c r="JK85" s="2" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="JL85" t="n">
+        <v>108.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -70453,8 +70963,14 @@
       <c r="JI86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JJ86" t="n">
+      <c r="JJ86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JK86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -71267,8 +71783,14 @@
       <c r="JI87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JJ87" t="n">
+      <c r="JJ87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JK87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -72081,8 +72603,14 @@
       <c r="JI88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JJ88" t="n">
+      <c r="JJ88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JK88" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -72895,8 +73423,14 @@
       <c r="JI89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JJ89" t="n">
+      <c r="JJ89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JK89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -73709,8 +74243,14 @@
       <c r="JI90" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="JJ90" t="n">
+      <c r="JJ90" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="JK90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JL90" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -74523,8 +75063,14 @@
       <c r="JI91" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="JJ91" t="n">
+      <c r="JJ91" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="JK91" s="2" t="n">
+        <v>261</v>
+      </c>
+      <c r="JL91" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -75337,8 +75883,14 @@
       <c r="JI92" s="2" t="n">
         <v>261</v>
       </c>
-      <c r="JJ92" t="n">
+      <c r="JJ92" s="2" t="n">
         <v>267</v>
+      </c>
+      <c r="JK92" s="2" t="n">
+        <v>311</v>
+      </c>
+      <c r="JL92" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -76151,8 +76703,14 @@
       <c r="JI93" s="2" t="n">
         <v>72.3</v>
       </c>
-      <c r="JJ93" t="n">
+      <c r="JJ93" s="2" t="n">
         <v>74.8</v>
+      </c>
+      <c r="JK93" s="2" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="JL93" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -76965,8 +77523,14 @@
       <c r="JI94" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JJ94" t="n">
+      <c r="JJ94" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JK94" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JL94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -77779,8 +78343,14 @@
       <c r="JI95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JJ95" t="n">
+      <c r="JJ95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JK95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -78593,8 +79163,14 @@
       <c r="JI96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JJ96" t="n">
+      <c r="JJ96" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JK96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -79407,8 +79983,14 @@
       <c r="JI97" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JJ97" t="n">
+      <c r="JJ97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JK97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JL97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -80221,8 +80803,14 @@
       <c r="JI98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JJ98" t="n">
+      <c r="JJ98" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JK98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JL98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -81035,8 +81623,14 @@
       <c r="JI99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JJ99" t="n">
+      <c r="JJ99" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JK99" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JL99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -81849,8 +82443,14 @@
       <c r="JI100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JJ100" t="n">
+      <c r="JJ100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JK100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -82663,8 +83263,14 @@
       <c r="JI101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JJ101" t="n">
+      <c r="JJ101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JK101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -83477,8 +84083,14 @@
       <c r="JI102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JJ102" t="n">
+      <c r="JJ102" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="JK102" s="2" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="JL102" t="n">
+        <v>85.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JR102"/>
+  <dimension ref="A1:JZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1287,8 +1287,32 @@
       <c r="JQ1" s="2" t="n">
         <v>10673</v>
       </c>
-      <c r="JR1" t="n">
+      <c r="JR1" s="2" t="n">
         <v>10681</v>
+      </c>
+      <c r="JS1" s="2" t="n">
+        <v>10688</v>
+      </c>
+      <c r="JT1" s="2" t="n">
+        <v>10688</v>
+      </c>
+      <c r="JU1" s="2" t="n">
+        <v>10688</v>
+      </c>
+      <c r="JV1" s="2" t="n">
+        <v>10704</v>
+      </c>
+      <c r="JW1" s="2" t="n">
+        <v>10708</v>
+      </c>
+      <c r="JX1" s="2" t="n">
+        <v>10716</v>
+      </c>
+      <c r="JY1" s="2" t="n">
+        <v>10725</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>10736</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2125,7 +2149,31 @@
       <c r="JQ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="JR2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JS2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JT2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JU2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JW2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JX2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JY2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JZ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2963,8 +3011,32 @@
       <c r="JQ3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JR3" t="n">
+      <c r="JR3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JS3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JT3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JU3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JV3" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JW3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JX3" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JY3" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3801,7 +3873,31 @@
       <c r="JQ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JR4" t="n">
+      <c r="JR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4639,7 +4735,31 @@
       <c r="JQ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JR5" t="n">
+      <c r="JR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5477,8 +5597,32 @@
       <c r="JQ6" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="JR6" t="n">
+      <c r="JR6" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="JS6" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JT6" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JU6" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JV6" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JW6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="JX6" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="JY6" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6315,8 +6459,32 @@
       <c r="JQ7" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JR7" t="n">
+      <c r="JR7" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JS7" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JT7" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JU7" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JV7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="JW7" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JX7" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JY7" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JZ7" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7153,8 +7321,32 @@
       <c r="JQ8" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="JR8" t="n">
+      <c r="JR8" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JS8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JT8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JU8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JV8" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JW8" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JX8" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JY8" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JZ8" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7991,7 +8183,31 @@
       <c r="JQ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JR9" t="n">
+      <c r="JR9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8829,8 +9045,32 @@
       <c r="JQ10" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JR10" t="n">
+      <c r="JR10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JS10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JU10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JW10" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JX10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JY10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9667,8 +9907,32 @@
       <c r="JQ11" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="JR11" t="n">
+      <c r="JR11" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="JS11" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="JT11" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="JU11" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="JV11" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="JW11" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="JX11" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="JY11" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="JZ11" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10505,8 +10769,32 @@
       <c r="JQ12" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="JR12" t="n">
+      <c r="JR12" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="JS12" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JT12" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JU12" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JV12" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="JW12" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="JX12" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="JY12" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="JZ12" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -11343,8 +11631,32 @@
       <c r="JQ13" s="2" t="n">
         <v>396</v>
       </c>
-      <c r="JR13" t="n">
+      <c r="JR13" s="2" t="n">
         <v>379</v>
+      </c>
+      <c r="JS13" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="JT13" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="JU13" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="JV13" s="2" t="n">
+        <v>336</v>
+      </c>
+      <c r="JW13" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="JX13" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="JY13" s="2" t="n">
+        <v>396</v>
+      </c>
+      <c r="JZ13" t="n">
+        <v>397</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -12181,8 +12493,32 @@
       <c r="JQ14" s="2" t="n">
         <v>1.48</v>
       </c>
-      <c r="JR14" t="n">
+      <c r="JR14" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="JS14" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="JT14" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="JU14" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="JV14" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="JW14" s="2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="JX14" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="JY14" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="JZ14" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -13019,8 +13355,32 @@
       <c r="JQ15" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="JR15" t="n">
+      <c r="JR15" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="JS15" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JT15" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JU15" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JV15" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JW15" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="JX15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="JY15" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="JZ15" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13857,8 +14217,32 @@
       <c r="JQ16" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JR16" t="n">
+      <c r="JR16" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JS16" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JT16" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JU16" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JV16" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JW16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JX16" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JY16" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JZ16" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14695,8 +15079,32 @@
       <c r="JQ17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JR17" t="n">
+      <c r="JR17" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JS17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JT17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JU17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JV17" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JW17" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JX17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JY17" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JZ17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -15533,8 +15941,32 @@
       <c r="JQ18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JR18" t="n">
+      <c r="JR18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JS18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JT18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JU18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JV18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JW18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JX18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JY18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JZ18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -16371,8 +16803,32 @@
       <c r="JQ19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JR19" t="n">
+      <c r="JR19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JS19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JT19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JU19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JV19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JW19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JX19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JY19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JZ19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -17209,8 +17665,32 @@
       <c r="JQ20" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JR20" t="n">
+      <c r="JR20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JS20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JT20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JU20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JV20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JW20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JX20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JY20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JZ20" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -18047,8 +18527,32 @@
       <c r="JQ21" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JR21" t="n">
+      <c r="JR21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JS21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JW21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JX21" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JY21" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JZ21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18885,8 +19389,32 @@
       <c r="JQ22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JR22" t="n">
+      <c r="JR22" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JS22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JU22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JV22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JX22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -19723,8 +20251,32 @@
       <c r="JQ23" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JR23" t="n">
+      <c r="JR23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JS23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JU23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -20561,8 +21113,32 @@
       <c r="JQ24" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JR24" t="n">
+      <c r="JR24" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JS24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JT24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JU24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JV24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JW24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JX24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JY24" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JZ24" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -21399,8 +21975,32 @@
       <c r="JQ25" s="2" t="n">
         <v>53.8</v>
       </c>
-      <c r="JR25" t="n">
+      <c r="JR25" s="2" t="n">
         <v>38.7</v>
+      </c>
+      <c r="JS25" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JT25" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JU25" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JV25" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="JW25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="JX25" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JY25" s="2" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="JZ25" t="n">
+        <v>52.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -22237,8 +22837,32 @@
       <c r="JQ26" s="2" t="n">
         <v>18.86</v>
       </c>
-      <c r="JR26" t="n">
+      <c r="JR26" s="2" t="n">
         <v>31.58</v>
+      </c>
+      <c r="JS26" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JT26" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JU26" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JV26" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JW26" s="2" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="JX26" s="2" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="JY26" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JZ26" t="n">
+        <v>20.89</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -23075,8 +23699,32 @@
       <c r="JQ27" s="2" t="n">
         <v>10.15</v>
       </c>
-      <c r="JR27" t="n">
+      <c r="JR27" s="2" t="n">
         <v>12.23</v>
+      </c>
+      <c r="JS27" s="2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="JT27" s="2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="JU27" s="2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="JV27" s="2" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="JW27" s="2" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="JX27" s="2" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="JY27" s="2" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="JZ27" t="n">
+        <v>11.03</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -23913,8 +24561,32 @@
       <c r="JQ28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JR28" t="n">
+      <c r="JR28" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JS28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JT28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JU28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JV28" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JW28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JX28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JY28" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JZ28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -24751,8 +25423,32 @@
       <c r="JQ29" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JR29" t="n">
+      <c r="JR29" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JS29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JT29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JU29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JV29" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JW29" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JX29" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JY29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JZ29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -25589,8 +26285,32 @@
       <c r="JQ30" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JR30" t="n">
+      <c r="JR30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JS30" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JT30" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JU30" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV30" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JW30" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JX30" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JY30" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JZ30" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -26427,8 +27147,32 @@
       <c r="JQ31" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="JR31" t="n">
+      <c r="JR31" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JS31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JT31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JU31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JV31" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JW31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JX31" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JY31" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JZ31" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -27265,8 +28009,32 @@
       <c r="JQ32" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="JR32" t="n">
+      <c r="JR32" s="2" t="n">
         <v>2.13</v>
+      </c>
+      <c r="JS32" s="2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="JT32" s="2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="JU32" s="2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="JV32" s="2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="JW32" s="2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="JX32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JY32" s="2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="JZ32" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -28103,8 +28871,32 @@
       <c r="JQ33" s="2" t="n">
         <v>3.52</v>
       </c>
-      <c r="JR33" t="n">
+      <c r="JR33" s="2" t="n">
         <v>5.5</v>
+      </c>
+      <c r="JS33" s="2" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="JT33" s="2" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="JU33" s="2" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="JV33" s="2" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="JW33" s="2" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="JX33" s="2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="JY33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ33" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -28941,8 +29733,32 @@
       <c r="JQ34" s="2" t="n">
         <v>44.6</v>
       </c>
-      <c r="JR34" t="n">
+      <c r="JR34" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="JS34" s="2" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="JT34" s="2" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="JU34" s="2" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="JV34" s="2" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="JW34" s="2" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="JX34" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JY34" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="JZ34" t="n">
+        <v>51.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -29779,8 +30595,32 @@
       <c r="JQ35" s="2" t="n">
         <v>28.4</v>
       </c>
-      <c r="JR35" t="n">
+      <c r="JR35" s="2" t="n">
         <v>18.2</v>
+      </c>
+      <c r="JS35" s="2" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="JT35" s="2" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="JU35" s="2" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="JV35" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="JW35" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="JX35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JY35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JZ35" t="n">
+        <v>30.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -30617,8 +31457,32 @@
       <c r="JQ36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="JR36" t="n">
+      <c r="JR36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="JS36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JT36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JU36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JV36" s="2" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="JW36" s="2" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="JX36" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JY36" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JZ36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -31455,8 +32319,32 @@
       <c r="JQ37" s="2" t="n">
         <v>88.2</v>
       </c>
-      <c r="JR37" t="n">
+      <c r="JR37" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="JS37" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="JT37" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="JU37" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="JV37" s="2" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="JW37" s="2" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JX37" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="JY37" s="2" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="JZ37" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -32293,8 +33181,32 @@
       <c r="JQ38" s="2" t="n">
         <v>28.33</v>
       </c>
-      <c r="JR38" t="n">
+      <c r="JR38" s="2" t="n">
         <v>28.8</v>
+      </c>
+      <c r="JS38" s="2" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="JT38" s="2" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="JU38" s="2" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="JV38" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="JW38" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="JX38" s="2" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="JY38" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="JZ38" t="n">
+        <v>27.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -33131,8 +34043,32 @@
       <c r="JQ39" s="2" t="n">
         <v>151.8</v>
       </c>
-      <c r="JR39" t="n">
+      <c r="JR39" s="2" t="n">
         <v>150.8</v>
+      </c>
+      <c r="JS39" s="2" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="JT39" s="2" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="JU39" s="2" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="JV39" s="2" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="JW39" s="2" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="JX39" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="JY39" s="2" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="JZ39" t="n">
+        <v>145.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -33969,8 +34905,32 @@
       <c r="JQ40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR40" t="n">
+      <c r="JR40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JS40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -34807,8 +35767,32 @@
       <c r="JQ41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JR41" t="n">
+      <c r="JR41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JX41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -35645,8 +36629,32 @@
       <c r="JQ42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR42" t="n">
+      <c r="JR42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JS42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JU42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JY42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -36483,8 +37491,32 @@
       <c r="JQ43" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JR43" t="n">
+      <c r="JR43" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JS43" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JT43" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JU43" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV43" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JW43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JX43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JY43" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JZ43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -37321,7 +38353,31 @@
       <c r="JQ44" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="JR44" t="n">
+      <c r="JR44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="JS44" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="JT44" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="JU44" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="JV44" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="JW44" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="JX44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JY44" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="JZ44" t="n">
         <v>134</v>
       </c>
     </row>
@@ -38159,8 +39215,32 @@
       <c r="JQ45" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="JR45" t="n">
+      <c r="JR45" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="JS45" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="JT45" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="JU45" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="JV45" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="JW45" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="JX45" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="JY45" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="JZ45" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -38997,8 +40077,32 @@
       <c r="JQ46" s="2" t="n">
         <v>304</v>
       </c>
-      <c r="JR46" t="n">
+      <c r="JR46" s="2" t="n">
         <v>256</v>
+      </c>
+      <c r="JS46" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="JT46" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="JU46" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="JV46" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JW46" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="JX46" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="JY46" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="JZ46" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -39835,8 +40939,32 @@
       <c r="JQ47" s="2" t="n">
         <v>76.8</v>
       </c>
-      <c r="JR47" t="n">
+      <c r="JR47" s="2" t="n">
         <v>67.5</v>
+      </c>
+      <c r="JS47" s="2" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="JT47" s="2" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="JU47" s="2" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="JV47" s="2" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="JW47" s="2" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="JX47" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JY47" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="JZ47" t="n">
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -40673,8 +41801,32 @@
       <c r="JQ48" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JR48" t="n">
+      <c r="JR48" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JS48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JT48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JU48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JV48" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JW48" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JX48" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JY48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JZ48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -41511,8 +42663,32 @@
       <c r="JQ49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JR49" t="n">
+      <c r="JR49" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JT49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JU49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JW49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JX49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JY49" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JZ49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -42349,8 +43525,32 @@
       <c r="JQ50" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JR50" t="n">
+      <c r="JR50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JS50" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JT50" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JU50" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JV50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JW50" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JX50" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JY50" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JZ50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -43187,8 +44387,32 @@
       <c r="JQ51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JR51" t="n">
+      <c r="JR51" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JS51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JT51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JU51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JV51" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JW51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JX51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JY51" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JZ51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -44025,8 +45249,32 @@
       <c r="JQ52" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JR52" t="n">
+      <c r="JR52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JS52" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JT52" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JU52" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV52" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JW52" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JX52" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JY52" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JZ52" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -44863,8 +46111,32 @@
       <c r="JQ53" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JR53" t="n">
+      <c r="JR53" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JS53" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JT53" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JU53" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JV53" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JW53" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JX53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JY53" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JZ53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -45701,8 +46973,32 @@
       <c r="JQ54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JR54" t="n">
+      <c r="JR54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JS54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JY54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -46539,8 +47835,32 @@
       <c r="JQ55" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JR55" t="n">
+      <c r="JR55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JS55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JW55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JX55" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JY55" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JZ55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -47377,8 +48697,32 @@
       <c r="JQ56" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="JR56" t="n">
+      <c r="JR56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JS56" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JT56" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JU56" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JV56" s="2" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="JW56" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JX56" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="JY56" s="2" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JZ56" t="n">
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -48215,8 +49559,32 @@
       <c r="JQ57" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="JR57" t="n">
+      <c r="JR57" s="2" t="n">
         <v>190</v>
+      </c>
+      <c r="JS57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="JT57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="JU57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="JV57" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="JW57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JX57" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="JY57" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="JZ57" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -49053,8 +50421,32 @@
       <c r="JQ58" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="JR58" t="n">
+      <c r="JR58" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="JS58" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="JT58" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="JU58" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="JV58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="JW58" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JX58" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="JY58" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="JZ58" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -49891,8 +51283,32 @@
       <c r="JQ59" s="2" t="n">
         <v>310</v>
       </c>
-      <c r="JR59" t="n">
+      <c r="JR59" s="2" t="n">
         <v>348</v>
+      </c>
+      <c r="JS59" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="JT59" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="JU59" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="JV59" s="2" t="n">
+        <v>378</v>
+      </c>
+      <c r="JW59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="JX59" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="JY59" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="JZ59" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -50729,8 +52145,32 @@
       <c r="JQ60" s="2" t="n">
         <v>1.79</v>
       </c>
-      <c r="JR60" t="n">
+      <c r="JR60" s="2" t="n">
         <v>1.2</v>
+      </c>
+      <c r="JS60" s="2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="JT60" s="2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="JU60" s="2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="JV60" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="JW60" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="JX60" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="JY60" s="2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="JZ60" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -51567,8 +53007,32 @@
       <c r="JQ61" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="JR61" t="n">
+      <c r="JR61" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JS61" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JT61" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JU61" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JV61" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="JW61" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JX61" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="JY61" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="JZ61" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -52405,8 +53869,32 @@
       <c r="JQ62" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JR62" t="n">
+      <c r="JR62" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JS62" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JT62" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JU62" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JV62" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JW62" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JX62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JY62" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JZ62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -53243,8 +54731,32 @@
       <c r="JQ63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JR63" t="n">
+      <c r="JR63" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JS63" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JT63" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JU63" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JV63" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JW63" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JX63" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JY63" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JZ63" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -54081,8 +55593,32 @@
       <c r="JQ64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JR64" t="n">
+      <c r="JR64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JS64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JT64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JU64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JV64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JW64" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JX64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JY64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JZ64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -54919,8 +56455,32 @@
       <c r="JQ65" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JR65" t="n">
+      <c r="JR65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JS65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JT65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JU65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JV65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JW65" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JX65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JY65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JZ65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -55757,8 +57317,32 @@
       <c r="JQ66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR66" t="n">
+      <c r="JR66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JS66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JW66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JX66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JY66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JZ66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -56595,7 +58179,31 @@
       <c r="JQ67" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JR67" t="n">
+      <c r="JR67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JW67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JY67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ67" t="n">
         <v>7</v>
       </c>
     </row>
@@ -57433,8 +59041,32 @@
       <c r="JQ68" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JR68" t="n">
+      <c r="JR68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JS68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -58271,8 +59903,32 @@
       <c r="JQ69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JR69" t="n">
+      <c r="JR69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JS69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW69" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JY69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -59109,8 +60765,32 @@
       <c r="JQ70" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JR70" t="n">
+      <c r="JR70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JS70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JT70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JU70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JV70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JW70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JX70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JY70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ70" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -59947,8 +61627,32 @@
       <c r="JQ71" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JR71" t="n">
+      <c r="JR71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JS71" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JT71" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JU71" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JV71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="JW71" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="JX71" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JY71" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JZ71" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -60785,8 +62489,32 @@
       <c r="JQ72" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JR72" t="n">
+      <c r="JR72" s="2" t="n">
         <v>38.67</v>
+      </c>
+      <c r="JS72" s="2" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="JT72" s="2" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="JU72" s="2" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="JV72" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JW72" s="2" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="JX72" s="2" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="JY72" s="2" t="n">
+        <v>36.78</v>
+      </c>
+      <c r="JZ72" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -61623,8 +63351,32 @@
       <c r="JQ73" s="2" t="n">
         <v>44.29</v>
       </c>
-      <c r="JR73" t="n">
+      <c r="JR73" s="2" t="n">
         <v>19.33</v>
+      </c>
+      <c r="JS73" s="2" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="JT73" s="2" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="JU73" s="2" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="JV73" s="2" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="JW73" s="2" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="JX73" s="2" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="JY73" s="2" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="JZ73" t="n">
+        <v>31.82</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -62461,8 +64213,32 @@
       <c r="JQ74" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JR74" t="n">
+      <c r="JR74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JS74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JT74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JU74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JV74" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JW74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JX74" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JY74" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JZ74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -63299,8 +65075,32 @@
       <c r="JQ75" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JR75" t="n">
+      <c r="JR75" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="JS75" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JT75" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JU75" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JV75" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JW75" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JX75" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JY75" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JZ75" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -64137,8 +65937,32 @@
       <c r="JQ76" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JR76" t="n">
+      <c r="JR76" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JS76" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JT76" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JU76" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JV76" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JW76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JX76" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JY76" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JZ76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -64975,8 +66799,32 @@
       <c r="JQ77" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JR77" t="n">
+      <c r="JR77" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JS77" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JT77" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JU77" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JV77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JW77" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JX77" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JY77" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JZ77" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -65813,8 +67661,32 @@
       <c r="JQ78" s="2" t="n">
         <v>3.57</v>
       </c>
-      <c r="JR78" t="n">
+      <c r="JR78" s="2" t="n">
         <v>2.56</v>
+      </c>
+      <c r="JS78" s="2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="JT78" s="2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="JU78" s="2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="JV78" s="2" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="JW78" s="2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="JX78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ78" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -66651,8 +68523,32 @@
       <c r="JQ79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR79" t="n">
+      <c r="JR79" s="2" t="n">
         <v>5.11</v>
+      </c>
+      <c r="JS79" s="2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="JT79" s="2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="JU79" s="2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="JV79" s="2" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="JW79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX79" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="JY79" s="2" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JZ79" t="n">
+        <v>3.86</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -67489,8 +69385,32 @@
       <c r="JQ80" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JR80" t="n">
+      <c r="JR80" s="2" t="n">
         <v>32.6</v>
+      </c>
+      <c r="JS80" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="JT80" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="JU80" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="JV80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JW80" s="2" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="JX80" s="2" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="JY80" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JZ80" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -68327,8 +70247,32 @@
       <c r="JQ81" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JR81" t="n">
+      <c r="JR81" s="2" t="n">
         <v>19.6</v>
+      </c>
+      <c r="JS81" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JT81" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JU81" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JV81" s="2" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="JW81" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JX81" s="2" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="JY81" s="2" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JZ81" t="n">
+        <v>25.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -69165,8 +71109,32 @@
       <c r="JQ82" s="2" t="n">
         <v>187.8</v>
       </c>
-      <c r="JR82" t="n">
+      <c r="JR82" s="2" t="n">
         <v>186.7</v>
+      </c>
+      <c r="JS82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="JT82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="JU82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="JV82" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JW82" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JX82" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="JY82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JZ82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -70003,8 +71971,32 @@
       <c r="JQ83" s="2" t="n">
         <v>84.3</v>
       </c>
-      <c r="JR83" t="n">
+      <c r="JR83" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="JS83" s="2" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="JT83" s="2" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="JU83" s="2" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="JV83" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JW83" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JX83" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JY83" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JZ83" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -70841,8 +72833,32 @@
       <c r="JQ84" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="JR84" t="n">
+      <c r="JR84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="JS84" s="2" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JT84" s="2" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JU84" s="2" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JV84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JW84" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JX84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JY84" s="2" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="JZ84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -71679,8 +73695,32 @@
       <c r="JQ85" s="2" t="n">
         <v>78.7</v>
       </c>
-      <c r="JR85" t="n">
+      <c r="JR85" s="2" t="n">
         <v>107.1</v>
+      </c>
+      <c r="JS85" s="2" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="JT85" s="2" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="JU85" s="2" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="JV85" s="2" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="JW85" s="2" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="JX85" s="2" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="JY85" s="2" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="JZ85" t="n">
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -72517,8 +74557,32 @@
       <c r="JQ86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JR86" t="n">
+      <c r="JR86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JS86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JZ86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -73355,8 +75419,32 @@
       <c r="JQ87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JR87" t="n">
+      <c r="JR87" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JS87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX87" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JY87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -74193,8 +76281,32 @@
       <c r="JQ88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JR88" t="n">
+      <c r="JR88" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JS88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -75031,7 +77143,31 @@
       <c r="JQ89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR89" t="n">
+      <c r="JR89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JU89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ89" t="n">
         <v>5</v>
       </c>
     </row>
@@ -75869,8 +78005,32 @@
       <c r="JQ90" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="JR90" t="n">
+      <c r="JR90" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="JS90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JT90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JU90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JV90" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="JW90" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="JX90" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="JY90" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JZ90" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -76707,8 +78867,32 @@
       <c r="JQ91" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="JR91" t="n">
+      <c r="JR91" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="JS91" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="JT91" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="JU91" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="JV91" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="JW91" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="JX91" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JY91" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="JZ91" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -77545,8 +79729,32 @@
       <c r="JQ92" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="JR92" t="n">
+      <c r="JR92" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="JS92" s="2" t="n">
+        <v>285</v>
+      </c>
+      <c r="JT92" s="2" t="n">
+        <v>285</v>
+      </c>
+      <c r="JU92" s="2" t="n">
+        <v>285</v>
+      </c>
+      <c r="JV92" s="2" t="n">
+        <v>276</v>
+      </c>
+      <c r="JW92" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="JX92" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="JY92" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="JZ92" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -78383,8 +80591,32 @@
       <c r="JQ93" s="2" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="JR93" t="n">
+      <c r="JR93" s="2" t="n">
         <v>69.8</v>
+      </c>
+      <c r="JS93" s="2" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="JT93" s="2" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="JU93" s="2" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="JV93" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JW93" s="2" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="JX93" s="2" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="JY93" s="2" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="JZ93" t="n">
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -79221,8 +81453,32 @@
       <c r="JQ94" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JR94" t="n">
+      <c r="JR94" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="JS94" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JT94" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JU94" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JV94" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JW94" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JX94" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JY94" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JZ94" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -80059,8 +82315,32 @@
       <c r="JQ95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JR95" t="n">
+      <c r="JR95" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JS95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JW95" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JX95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY95" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -80897,8 +83177,32 @@
       <c r="JQ96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR96" t="n">
+      <c r="JR96" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JS96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JW96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JX96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JY96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -81735,8 +84039,32 @@
       <c r="JQ97" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JR97" t="n">
+      <c r="JR97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JS97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JT97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JU97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JV97" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JW97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JX97" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JY97" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JZ97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -82573,8 +84901,32 @@
       <c r="JQ98" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JR98" t="n">
+      <c r="JR98" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JS98" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JT98" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JU98" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JV98" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JW98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JX98" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JY98" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JZ98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -83411,8 +85763,32 @@
       <c r="JQ99" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JR99" t="n">
+      <c r="JR99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JS99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JT99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JU99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JV99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JW99" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JX99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JY99" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JZ99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -84249,8 +86625,32 @@
       <c r="JQ100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JR100" t="n">
+      <c r="JR100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JS100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JT100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -85087,7 +87487,31 @@
       <c r="JQ101" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JR101" t="n">
+      <c r="JR101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JW101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JY101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -85925,8 +88349,32 @@
       <c r="JQ102" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JR102" t="n">
+      <c r="JR102" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="JS102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JT102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JU102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JV102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JW102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JX102" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JY102" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JZ102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KD102"/>
+  <dimension ref="A1:KV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1323,7 +1323,61 @@
       <c r="KC1" s="2" t="n">
         <v>10748</v>
       </c>
-      <c r="KD1" t="n">
+      <c r="KD1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KE1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KF1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KG1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KH1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KI1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KJ1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KK1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KL1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KM1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KN1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KO1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KP1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KQ1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KR1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KS1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KT1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KU1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KV1" t="n">
         <v>10748</v>
       </c>
     </row>
@@ -2197,7 +2251,61 @@
       <c r="KC2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="KD2" t="n">
+      <c r="KD2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KE2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KF2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KG2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KH2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KI2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KJ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KL2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KN2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KR2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KS2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KT2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KU2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KV2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3071,7 +3179,61 @@
       <c r="KC3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KD3" t="n">
+      <c r="KD3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KE3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KF3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KG3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KH3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KI3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KJ3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KK3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KL3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KM3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KN3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KO3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KP3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KQ3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KR3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KS3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KT3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KU3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KV3" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3945,7 +4107,61 @@
       <c r="KC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KD4" t="n">
+      <c r="KD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4819,7 +5035,61 @@
       <c r="KC5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KD5" t="n">
+      <c r="KD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5693,7 +5963,61 @@
       <c r="KC6" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="KD6" t="n">
+      <c r="KD6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KE6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KF6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KG6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KH6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KI6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KJ6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KK6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KL6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KM6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KN6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KO6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KP6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KQ6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KR6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KS6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KT6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KU6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KV6" t="n">
         <v>120</v>
       </c>
     </row>
@@ -6567,7 +6891,61 @@
       <c r="KC7" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KD7" t="n">
+      <c r="KD7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KE7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KF7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KG7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KH7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KI7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KJ7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KK7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KL7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KM7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KN7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KO7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KP7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KQ7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KR7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KS7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KT7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KU7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KV7" t="n">
         <v>49</v>
       </c>
     </row>
@@ -7441,7 +7819,61 @@
       <c r="KC8" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KD8" t="n">
+      <c r="KD8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KE8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KF8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KG8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KH8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KI8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KJ8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KK8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KL8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KM8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KN8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KO8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KP8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KQ8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KR8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KS8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KT8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KU8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KV8" t="n">
         <v>71</v>
       </c>
     </row>
@@ -8315,7 +8747,61 @@
       <c r="KC9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KD9" t="n">
+      <c r="KD9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9189,7 +9675,61 @@
       <c r="KC10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KD10" t="n">
+      <c r="KD10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KT10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10063,7 +10603,61 @@
       <c r="KC11" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="KD11" t="n">
+      <c r="KD11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KE11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KF11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KG11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KH11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KI11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KJ11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KK11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KL11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KM11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KN11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KO11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KP11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KQ11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KR11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KS11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KT11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KU11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KV11" t="n">
         <v>209</v>
       </c>
     </row>
@@ -10937,7 +11531,61 @@
       <c r="KC12" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KD12" t="n">
+      <c r="KD12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KE12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KF12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KG12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KH12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KI12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KJ12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KK12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KL12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KM12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KN12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KO12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KP12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KQ12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KR12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KS12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KT12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KU12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KV12" t="n">
         <v>152</v>
       </c>
     </row>
@@ -11811,7 +12459,61 @@
       <c r="KC13" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="KD13" t="n">
+      <c r="KD13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KE13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KF13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KG13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KH13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KI13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KJ13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KK13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KL13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KM13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KN13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KO13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KP13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KQ13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KR13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KS13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KT13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KU13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KV13" t="n">
         <v>361</v>
       </c>
     </row>
@@ -12685,7 +13387,61 @@
       <c r="KC14" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="KD14" t="n">
+      <c r="KD14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KE14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KF14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KG14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KH14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KI14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KJ14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KK14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KL14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KM14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KN14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KO14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KP14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KQ14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KR14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KS14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KT14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KU14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KV14" t="n">
         <v>1.38</v>
       </c>
     </row>
@@ -13559,7 +14315,61 @@
       <c r="KC15" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="KD15" t="n">
+      <c r="KD15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KE15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KF15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KG15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KH15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KI15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KJ15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KK15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KL15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KM15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KN15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KO15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KP15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KQ15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KR15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KS15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KT15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KU15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KV15" t="n">
         <v>102</v>
       </c>
     </row>
@@ -14433,7 +15243,61 @@
       <c r="KC16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KD16" t="n">
+      <c r="KD16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KE16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KF16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KG16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KH16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KI16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KJ16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KK16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KL16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KM16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KN16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KO16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KP16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KQ16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KR16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KS16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KT16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KU16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KV16" t="n">
         <v>65</v>
       </c>
     </row>
@@ -15307,7 +16171,61 @@
       <c r="KC17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KD17" t="n">
+      <c r="KD17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KE17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KF17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KG17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KH17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KI17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KJ17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KK17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KL17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KM17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KN17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KO17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KP17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KQ17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KR17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KS17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KT17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KU17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KV17" t="n">
         <v>41</v>
       </c>
     </row>
@@ -16181,7 +17099,61 @@
       <c r="KC18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KD18" t="n">
+      <c r="KD18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KE18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KF18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KG18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KH18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KI18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KJ18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KK18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KL18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KM18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KN18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KO18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KP18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KQ18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KR18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KS18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KT18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KU18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KV18" t="n">
         <v>13</v>
       </c>
     </row>
@@ -17055,7 +18027,61 @@
       <c r="KC19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KD19" t="n">
+      <c r="KD19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KE19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KF19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KG19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KH19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KI19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KJ19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KK19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KL19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KM19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KN19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KO19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KP19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KQ19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KR19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KS19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KT19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KU19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KV19" t="n">
         <v>22</v>
       </c>
     </row>
@@ -17929,7 +18955,61 @@
       <c r="KC20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KD20" t="n">
+      <c r="KD20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KE20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KF20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KG20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KH20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KI20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KJ20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KK20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KL20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KM20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KN20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KO20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KP20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KQ20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KR20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KS20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KT20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KU20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KV20" t="n">
         <v>18</v>
       </c>
     </row>
@@ -18803,7 +19883,61 @@
       <c r="KC21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KD21" t="n">
+      <c r="KD21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KL21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KM21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KN21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KO21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KS21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KT21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KU21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KV21" t="n">
         <v>14</v>
       </c>
     </row>
@@ -19677,7 +20811,61 @@
       <c r="KC22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KD22" t="n">
+      <c r="KD22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KE22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KF22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KG22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KH22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KI22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KJ22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KL22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KM22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KN22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KO22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KP22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KQ22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KR22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KS22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KT22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KU22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KV22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -20551,7 +21739,61 @@
       <c r="KC23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KD23" t="n">
+      <c r="KD23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KT23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21425,7 +22667,61 @@
       <c r="KC24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KD24" t="n">
+      <c r="KD24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KE24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KF24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KG24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KH24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KI24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KJ24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KK24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KL24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KM24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KN24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KO24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KP24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KQ24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KR24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KS24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KT24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KU24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KV24" t="n">
         <v>30</v>
       </c>
     </row>
@@ -22299,7 +23595,61 @@
       <c r="KC25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KD25" t="n">
+      <c r="KD25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KE25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KF25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KG25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KH25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KI25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KJ25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KK25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KL25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KM25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KN25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KO25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KP25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KQ25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KR25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KS25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KT25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KV25" t="n">
         <v>60</v>
       </c>
     </row>
@@ -23173,7 +24523,61 @@
       <c r="KC26" s="2" t="n">
         <v>20.06</v>
       </c>
-      <c r="KD26" t="n">
+      <c r="KD26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KE26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KF26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KG26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KH26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KI26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KJ26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KK26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KL26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KM26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KN26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KO26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KP26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KQ26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KR26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KS26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KT26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KU26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KV26" t="n">
         <v>20.06</v>
       </c>
     </row>
@@ -24047,7 +25451,61 @@
       <c r="KC27" s="2" t="n">
         <v>12.03</v>
       </c>
-      <c r="KD27" t="n">
+      <c r="KD27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KE27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KF27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KG27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KH27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KI27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KJ27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KK27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KL27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KM27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KN27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KO27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KP27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KQ27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KR27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KS27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KT27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KU27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KV27" t="n">
         <v>12.03</v>
       </c>
     </row>
@@ -24921,7 +26379,61 @@
       <c r="KC28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KD28" t="n">
+      <c r="KD28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KE28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KF28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KG28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KH28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KI28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KJ28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KK28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KL28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KM28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KN28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KO28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KP28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KQ28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KR28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KT28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KU28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KV28" t="n">
         <v>37</v>
       </c>
     </row>
@@ -25795,7 +27307,61 @@
       <c r="KC29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KD29" t="n">
+      <c r="KD29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KE29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KF29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KG29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KH29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KI29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KJ29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KK29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KL29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KM29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KN29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KO29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KP29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KQ29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KR29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KS29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KT29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KU29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KV29" t="n">
         <v>55</v>
       </c>
     </row>
@@ -26669,7 +28235,61 @@
       <c r="KC30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KD30" t="n">
+      <c r="KD30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KE30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KF30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KG30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KH30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KI30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KJ30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KK30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KL30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KM30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KN30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KO30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KP30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KQ30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KR30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KS30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KT30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KU30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KV30" t="n">
         <v>38</v>
       </c>
     </row>
@@ -27543,7 +29163,61 @@
       <c r="KC31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KD31" t="n">
+      <c r="KD31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KE31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KF31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KG31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KH31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KI31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KJ31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KK31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KL31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KM31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KN31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KO31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KP31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KQ31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KR31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KS31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KT31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KU31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KV31" t="n">
         <v>59</v>
       </c>
     </row>
@@ -28417,7 +30091,61 @@
       <c r="KC32" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="KD32" t="n">
+      <c r="KD32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KE32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KF32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KG32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KH32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KI32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KJ32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KK32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KL32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KM32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KN32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KO32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KP32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KQ32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KR32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KS32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KT32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KU32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KV32" t="n">
         <v>1.97</v>
       </c>
     </row>
@@ -29291,7 +31019,61 @@
       <c r="KC33" s="2" t="n">
         <v>3.28</v>
       </c>
-      <c r="KD33" t="n">
+      <c r="KD33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KE33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KF33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KG33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KH33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KI33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KJ33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KK33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KL33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KM33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KN33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KO33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KP33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KQ33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KR33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KS33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KT33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KU33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KV33" t="n">
         <v>3.28</v>
       </c>
     </row>
@@ -30165,7 +31947,61 @@
       <c r="KC34" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="KD34" t="n">
+      <c r="KD34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KE34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KF34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KG34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KH34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KI34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KJ34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KK34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KL34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KM34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KN34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KO34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KP34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KQ34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KR34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KS34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KT34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KU34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KV34" t="n">
         <v>47.5</v>
       </c>
     </row>
@@ -31039,7 +32875,61 @@
       <c r="KC35" s="2" t="n">
         <v>30.5</v>
       </c>
-      <c r="KD35" t="n">
+      <c r="KD35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KE35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KF35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KG35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KH35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KI35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KJ35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KK35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KL35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KM35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KN35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KO35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KP35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KQ35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KR35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KS35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KT35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KU35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KV35" t="n">
         <v>30.5</v>
       </c>
     </row>
@@ -31913,7 +33803,61 @@
       <c r="KC36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="KD36" t="n">
+      <c r="KD36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KE36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KF36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KG36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KH36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KI36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KJ36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KK36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KL36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KM36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KN36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KO36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KP36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KQ36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KR36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KS36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KT36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KU36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KV36" t="n">
         <v>188.9</v>
       </c>
     </row>
@@ -32787,7 +34731,61 @@
       <c r="KC37" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KD37" t="n">
+      <c r="KD37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KE37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KF37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KG37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KH37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KI37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KJ37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KK37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KL37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KM37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KN37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KO37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KP37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KQ37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KR37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KS37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KT37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KU37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KV37" t="n">
         <v>88</v>
       </c>
     </row>
@@ -33661,7 +35659,61 @@
       <c r="KC38" s="2" t="n">
         <v>28.33</v>
       </c>
-      <c r="KD38" t="n">
+      <c r="KD38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KE38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KF38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KG38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KH38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KI38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KJ38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KK38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KL38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KM38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KN38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KO38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KP38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KQ38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KR38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KS38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KT38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KU38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KV38" t="n">
         <v>28.33</v>
       </c>
     </row>
@@ -34535,7 +36587,61 @@
       <c r="KC39" s="2" t="n">
         <v>163.1</v>
       </c>
-      <c r="KD39" t="n">
+      <c r="KD39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KE39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KF39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KG39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KH39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KI39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KJ39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KK39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KL39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KM39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KN39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KO39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KP39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KQ39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KR39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KS39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KT39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KU39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KV39" t="n">
         <v>163.1</v>
       </c>
     </row>
@@ -35409,7 +37515,61 @@
       <c r="KC40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KD40" t="n">
+      <c r="KD40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KL40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KM40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KN40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KP40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KQ40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KU40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KV40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -36283,7 +38443,61 @@
       <c r="KC41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KD41" t="n">
+      <c r="KD41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KL41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KN41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KO41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KV41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -37157,7 +39371,61 @@
       <c r="KC42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KD42" t="n">
+      <c r="KD42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KT42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -38031,7 +40299,61 @@
       <c r="KC43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KD43" t="n">
+      <c r="KD43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KE43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KF43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KG43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KH43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KI43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KJ43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KK43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KL43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KM43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KN43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KO43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KP43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KQ43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KR43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KS43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KT43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KU43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KV43" t="n">
         <v>13</v>
       </c>
     </row>
@@ -38905,7 +41227,61 @@
       <c r="KC44" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KD44" t="n">
+      <c r="KD44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KE44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KF44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KG44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KH44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KI44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KJ44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KK44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KL44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KM44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KN44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KO44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KP44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KQ44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KR44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KS44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KT44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KU44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KV44" t="n">
         <v>125</v>
       </c>
     </row>
@@ -39779,7 +42155,61 @@
       <c r="KC45" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KD45" t="n">
+      <c r="KD45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KE45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KF45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KG45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KH45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KI45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KJ45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KK45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KL45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KM45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KN45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KO45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KP45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KQ45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KR45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KS45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KT45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KU45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KV45" t="n">
         <v>230</v>
       </c>
     </row>
@@ -40653,7 +43083,61 @@
       <c r="KC46" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="KD46" t="n">
+      <c r="KD46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KE46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KF46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KG46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KH46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KI46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KJ46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KK46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KL46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KM46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KN46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KO46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KP46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KQ46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KR46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KS46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KT46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KU46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KV46" t="n">
         <v>274</v>
       </c>
     </row>
@@ -41527,7 +44011,61 @@
       <c r="KC47" s="2" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="KD47" t="n">
+      <c r="KD47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KE47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KF47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KG47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KH47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KI47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KJ47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KK47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KL47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KM47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KN47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KO47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KP47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KQ47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KR47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KS47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KT47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KU47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KV47" t="n">
         <v>75.90000000000001</v>
       </c>
     </row>
@@ -42401,7 +44939,61 @@
       <c r="KC48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KD48" t="n">
+      <c r="KD48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KE48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KF48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KG48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KH48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KI48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KJ48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KK48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KL48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KM48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KN48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KO48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KP48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KQ48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KR48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KS48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KT48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KU48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KV48" t="n">
         <v>55</v>
       </c>
     </row>
@@ -43275,7 +45867,61 @@
       <c r="KC49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KD49" t="n">
+      <c r="KD49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KE49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KF49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KG49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KH49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KI49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KJ49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KK49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KL49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KM49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KN49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KO49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KP49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KR49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KT49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KU49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KV49" t="n">
         <v>15</v>
       </c>
     </row>
@@ -44149,7 +46795,61 @@
       <c r="KC50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KD50" t="n">
+      <c r="KD50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KE50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KF50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KG50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KH50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KI50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KJ50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KK50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KL50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KM50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KN50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KO50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KP50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KR50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KT50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KU50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KV50" t="n">
         <v>15</v>
       </c>
     </row>
@@ -45023,7 +47723,61 @@
       <c r="KC51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KD51" t="n">
+      <c r="KD51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KE51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KF51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KG51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KH51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KI51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KJ51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KK51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KL51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KM51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KN51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KO51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KP51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KQ51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KR51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KT51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KU51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KV51" t="n">
         <v>37</v>
       </c>
     </row>
@@ -45897,7 +48651,61 @@
       <c r="KC52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KD52" t="n">
+      <c r="KD52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KE52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KF52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KG52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KH52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KI52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KJ52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KK52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KL52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KM52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KN52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KO52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KP52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KQ52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KR52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KS52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KT52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KU52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KV52" t="n">
         <v>38</v>
       </c>
     </row>
@@ -46771,7 +49579,61 @@
       <c r="KC53" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KD53" t="n">
+      <c r="KD53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KE53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KF53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KG53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KH53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KI53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KJ53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KK53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KL53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KM53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KN53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KO53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KP53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KQ53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KR53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KS53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KT53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KU53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KV53" t="n">
         <v>48</v>
       </c>
     </row>
@@ -47645,7 +50507,61 @@
       <c r="KC54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KD54" t="n">
+      <c r="KD54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KJ54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KK54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KN54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KO54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KP54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KV54" t="n">
         <v>8</v>
       </c>
     </row>
@@ -48519,7 +51435,61 @@
       <c r="KC55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KD55" t="n">
+      <c r="KD55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KL55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KM55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KN55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KO55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KS55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KT55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KU55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KV55" t="n">
         <v>14</v>
       </c>
     </row>
@@ -49393,7 +52363,61 @@
       <c r="KC56" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KD56" t="n">
+      <c r="KD56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KE56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KF56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KG56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KH56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KI56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KJ56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KK56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KL56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KM56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KN56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KO56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KP56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KQ56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KR56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KS56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KT56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KU56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KV56" t="n">
         <v>77.8</v>
       </c>
     </row>
@@ -50267,7 +53291,61 @@
       <c r="KC57" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="KD57" t="n">
+      <c r="KD57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KE57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KF57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KG57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KH57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KI57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KJ57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KK57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KL57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KM57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KN57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KO57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KP57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KQ57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KR57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KS57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KT57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KU57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KV57" t="n">
         <v>197</v>
       </c>
     </row>
@@ -51141,7 +54219,61 @@
       <c r="KC58" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="KD58" t="n">
+      <c r="KD58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KE58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KF58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KG58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KH58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KI58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KJ58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KK58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KL58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KM58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KN58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KO58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KP58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KQ58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KR58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KS58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KT58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KU58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KV58" t="n">
         <v>99</v>
       </c>
     </row>
@@ -52015,7 +55147,61 @@
       <c r="KC59" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="KD59" t="n">
+      <c r="KD59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KE59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KF59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KG59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KH59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KI59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KJ59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KK59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KL59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KM59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KN59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KO59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KP59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KQ59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KR59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KS59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KT59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KU59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KV59" t="n">
         <v>296</v>
       </c>
     </row>
@@ -52889,7 +56075,61 @@
       <c r="KC60" s="2" t="n">
         <v>1.99</v>
       </c>
-      <c r="KD60" t="n">
+      <c r="KD60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KE60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KF60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KG60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KH60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KI60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KJ60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KK60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KL60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KM60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KN60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KO60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KP60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KQ60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KR60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KS60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KT60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KU60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KV60" t="n">
         <v>1.99</v>
       </c>
     </row>
@@ -53763,7 +57003,61 @@
       <c r="KC61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KD61" t="n">
+      <c r="KD61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KE61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KF61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KG61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KH61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KI61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KJ61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KK61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KL61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KM61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KN61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KO61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KP61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KQ61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KR61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KS61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KT61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KU61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KV61" t="n">
         <v>88</v>
       </c>
     </row>
@@ -54637,7 +57931,61 @@
       <c r="KC62" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KD62" t="n">
+      <c r="KD62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KE62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KF62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KG62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KH62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KI62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KJ62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KK62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KL62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KM62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KN62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KO62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KP62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KQ62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KR62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KS62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KT62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KU62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KV62" t="n">
         <v>68</v>
       </c>
     </row>
@@ -55511,7 +58859,61 @@
       <c r="KC63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KD63" t="n">
+      <c r="KD63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KE63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KF63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KG63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KH63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KI63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KJ63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KK63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KL63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KM63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KN63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KO63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KP63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KQ63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KR63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KS63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KT63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KU63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KV63" t="n">
         <v>41</v>
       </c>
     </row>
@@ -56385,7 +59787,61 @@
       <c r="KC64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KD64" t="n">
+      <c r="KD64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KE64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KF64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KG64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KH64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KI64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KJ64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KK64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KL64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KM64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KN64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KO64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KP64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KQ64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KR64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KS64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KT64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KU64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KV64" t="n">
         <v>22</v>
       </c>
     </row>
@@ -57259,7 +60715,61 @@
       <c r="KC65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KD65" t="n">
+      <c r="KD65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KE65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KF65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KG65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KH65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KI65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KJ65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KK65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KL65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KM65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KN65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KO65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KP65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KQ65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KR65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KS65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KT65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KU65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KV65" t="n">
         <v>13</v>
       </c>
     </row>
@@ -58133,7 +61643,61 @@
       <c r="KC66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD66" t="n">
+      <c r="KD66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV66" t="n">
         <v>7</v>
       </c>
     </row>
@@ -59007,7 +62571,61 @@
       <c r="KC67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD67" t="n">
+      <c r="KD67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV67" t="n">
         <v>7</v>
       </c>
     </row>
@@ -59881,7 +63499,61 @@
       <c r="KC68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD68" t="n">
+      <c r="KD68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV68" t="n">
         <v>7</v>
       </c>
     </row>
@@ -60755,7 +64427,61 @@
       <c r="KC69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KD69" t="n">
+      <c r="KD69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61629,7 +65355,61 @@
       <c r="KC70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KD70" t="n">
+      <c r="KD70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KL70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KM70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KN70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KO70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KS70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KT70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KU70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KV70" t="n">
         <v>14</v>
       </c>
     </row>
@@ -62503,7 +66283,61 @@
       <c r="KC71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KD71" t="n">
+      <c r="KD71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KE71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KF71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KG71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KH71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KI71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KJ71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KK71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KL71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KM71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KN71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KO71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KP71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KQ71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KR71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KS71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KT71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KU71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KV71" t="n">
         <v>50</v>
       </c>
     </row>
@@ -63377,7 +67211,61 @@
       <c r="KC72" s="2" t="n">
         <v>42.29</v>
       </c>
-      <c r="KD72" t="n">
+      <c r="KD72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KE72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KF72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KG72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KH72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KI72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KJ72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KK72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KL72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KM72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KN72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KO72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KP72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KQ72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KR72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KS72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KT72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KU72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KV72" t="n">
         <v>42.29</v>
       </c>
     </row>
@@ -64251,7 +68139,61 @@
       <c r="KC73" s="2" t="n">
         <v>21.14</v>
       </c>
-      <c r="KD73" t="n">
+      <c r="KD73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KE73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KF73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KG73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KH73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KI73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KJ73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KK73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KL73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KM73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KN73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KO73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KP73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KQ73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KR73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KS73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KT73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KU73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KV73" t="n">
         <v>21.14</v>
       </c>
     </row>
@@ -65125,7 +69067,61 @@
       <c r="KC74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KD74" t="n">
+      <c r="KD74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KE74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KF74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KG74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KH74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KI74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KJ74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KK74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KL74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KM74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KN74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KO74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KP74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KQ74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KR74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KS74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KT74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KU74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KV74" t="n">
         <v>40</v>
       </c>
     </row>
@@ -65999,7 +69995,61 @@
       <c r="KC75" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KD75" t="n">
+      <c r="KD75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KE75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KF75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KG75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KH75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KI75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KJ75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KK75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KL75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KM75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KN75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KO75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KP75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KQ75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KR75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KS75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KT75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KU75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KV75" t="n">
         <v>50</v>
       </c>
     </row>
@@ -66873,7 +70923,61 @@
       <c r="KC76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KD76" t="n">
+      <c r="KD76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KE76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KF76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KG76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KH76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KI76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KJ76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KK76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KL76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KM76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KN76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KO76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KP76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KQ76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KR76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KS76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KT76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KU76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KV76" t="n">
         <v>41</v>
       </c>
     </row>
@@ -67747,7 +71851,61 @@
       <c r="KC77" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KD77" t="n">
+      <c r="KD77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KE77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KF77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KG77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KH77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KI77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KJ77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KK77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KL77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KM77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KN77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KO77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KP77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KQ77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KR77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KS77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KT77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KU77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KV77" t="n">
         <v>46</v>
       </c>
     </row>
@@ -68621,7 +72779,61 @@
       <c r="KC78" s="2" t="n">
         <v>3.29</v>
       </c>
-      <c r="KD78" t="n">
+      <c r="KD78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KE78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KF78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KG78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KH78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KI78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KJ78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KK78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KL78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KM78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KN78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KO78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KP78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KQ78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KR78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KS78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KT78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KU78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KV78" t="n">
         <v>3.29</v>
       </c>
     </row>
@@ -69495,7 +73707,61 @@
       <c r="KC79" s="2" t="n">
         <v>6.57</v>
       </c>
-      <c r="KD79" t="n">
+      <c r="KD79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KE79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KF79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KG79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KH79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KI79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KJ79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KK79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KL79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KM79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KN79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KO79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KP79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KQ79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KR79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KS79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KT79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KU79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KV79" t="n">
         <v>6.57</v>
       </c>
     </row>
@@ -70369,7 +74635,61 @@
       <c r="KC80" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="KD80" t="n">
+      <c r="KD80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KE80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KF80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KG80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KH80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KI80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KJ80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KK80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KL80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KM80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KN80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KO80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KP80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KQ80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KR80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KS80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KT80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KU80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KV80" t="n">
         <v>30.4</v>
       </c>
     </row>
@@ -71243,7 +75563,61 @@
       <c r="KC81" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="KD81" t="n">
+      <c r="KD81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KE81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KF81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KG81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KH81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KI81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KJ81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KK81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KL81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KM81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KN81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KO81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KP81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KQ81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KR81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KS81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KT81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KU81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KV81" t="n">
         <v>15.2</v>
       </c>
     </row>
@@ -72117,7 +76491,61 @@
       <c r="KC82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KD82" t="n">
+      <c r="KD82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KE82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KF82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KG82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KH82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KI82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KJ82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KK82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KL82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KM82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KN82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KO82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KP82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KQ82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KR82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KS82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KT82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KU82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KV82" t="n">
         <v>187.9</v>
       </c>
     </row>
@@ -72991,7 +77419,61 @@
       <c r="KC83" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="KD83" t="n">
+      <c r="KD83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KE83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KF83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KG83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KH83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KI83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KJ83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KK83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KL83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KM83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KN83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KO83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KP83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KQ83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KR83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KS83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KT83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KU83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KV83" t="n">
         <v>87.8</v>
       </c>
     </row>
@@ -73865,7 +78347,61 @@
       <c r="KC84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KD84" t="n">
+      <c r="KD84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KE84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KF84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KG84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KH84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KI84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KJ84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KK84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KL84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KM84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KN84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KO84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KP84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KQ84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KR84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KS84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KT84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KU84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KV84" t="n">
         <v>25.66</v>
       </c>
     </row>
@@ -74739,7 +79275,61 @@
       <c r="KC85" s="2" t="n">
         <v>116.6</v>
       </c>
-      <c r="KD85" t="n">
+      <c r="KD85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KE85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KF85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KG85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KH85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KI85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KJ85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KK85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KL85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KM85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KN85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KO85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KP85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KQ85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KR85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KS85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KT85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KU85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KV85" t="n">
         <v>116.6</v>
       </c>
     </row>
@@ -75613,7 +80203,61 @@
       <c r="KC86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KD86" t="n">
+      <c r="KD86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KG86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KJ86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KK86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KL86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KM86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KN86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KO86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KQ86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KT86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KU86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KV86" t="n">
         <v>4</v>
       </c>
     </row>
@@ -76487,7 +81131,61 @@
       <c r="KC87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KD87" t="n">
+      <c r="KD87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KL87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KN87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KO87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KV87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -77361,7 +82059,61 @@
       <c r="KC88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KD88" t="n">
+      <c r="KD88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KM88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KN88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KO88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KV88" t="n">
         <v>6</v>
       </c>
     </row>
@@ -78235,7 +82987,61 @@
       <c r="KC89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KD89" t="n">
+      <c r="KD89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KJ89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KK89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KN89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KO89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KP89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KV89" t="n">
         <v>8</v>
       </c>
     </row>
@@ -79109,7 +83915,61 @@
       <c r="KC90" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="KD90" t="n">
+      <c r="KD90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KE90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KF90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KG90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KH90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KI90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KJ90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KK90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KL90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KM90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KN90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KO90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KP90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KQ90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KR90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KS90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KT90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KU90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KV90" t="n">
         <v>117</v>
       </c>
     </row>
@@ -79983,7 +84843,61 @@
       <c r="KC91" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="KD91" t="n">
+      <c r="KD91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KE91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KF91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KG91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KH91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KI91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KJ91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KK91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KL91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KM91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KN91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KO91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KP91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KQ91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KR91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KS91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KT91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KU91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KV91" t="n">
         <v>177</v>
       </c>
     </row>
@@ -80857,7 +85771,61 @@
       <c r="KC92" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="KD92" t="n">
+      <c r="KD92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KE92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KF92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KG92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KH92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KI92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KJ92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KK92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KL92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KM92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KN92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KO92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KP92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KQ92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KR92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KS92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KT92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KU92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KV92" t="n">
         <v>200</v>
       </c>
     </row>
@@ -81731,7 +86699,61 @@
       <c r="KC93" s="2" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="KD93" t="n">
+      <c r="KD93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KE93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KF93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KG93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KH93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KI93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KJ93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KK93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KL93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KM93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KN93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KO93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KP93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KQ93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KR93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KS93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KT93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KU93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KV93" t="n">
         <v>67.59999999999999</v>
       </c>
     </row>
@@ -82605,7 +87627,61 @@
       <c r="KC94" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KD94" t="n">
+      <c r="KD94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KE94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KF94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KG94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KH94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KI94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KJ94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KK94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KL94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KM94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KN94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KO94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KP94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KQ94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KR94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KS94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KT94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KU94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KV94" t="n">
         <v>50</v>
       </c>
     </row>
@@ -83479,7 +88555,61 @@
       <c r="KC95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KD95" t="n">
+      <c r="KD95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KJ95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KK95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KN95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KO95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KP95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KV95" t="n">
         <v>8</v>
       </c>
     </row>
@@ -84353,7 +89483,61 @@
       <c r="KC96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KD96" t="n">
+      <c r="KD96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KE96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KF96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KG96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KH96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KI96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KJ96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KK96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KL96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KM96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KN96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KO96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KP96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KQ96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KR96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KS96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KT96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KU96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KV96" t="n">
         <v>11</v>
       </c>
     </row>
@@ -85227,7 +90411,61 @@
       <c r="KC97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KD97" t="n">
+      <c r="KD97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KE97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KF97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KG97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KH97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KI97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KJ97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KK97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KL97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KM97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KN97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KO97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KP97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KQ97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KR97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KS97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KT97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KU97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KV97" t="n">
         <v>40</v>
       </c>
     </row>
@@ -86101,7 +91339,61 @@
       <c r="KC98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KD98" t="n">
+      <c r="KD98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KE98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KF98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KG98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KH98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KI98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KJ98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KK98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KL98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KM98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KN98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KO98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KP98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KQ98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KR98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KS98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KT98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KU98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KV98" t="n">
         <v>41</v>
       </c>
     </row>
@@ -86975,7 +92267,61 @@
       <c r="KC99" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KD99" t="n">
+      <c r="KD99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KE99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KF99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KG99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KH99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KI99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KJ99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KK99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KL99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KM99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KN99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KO99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KP99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KQ99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KR99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KT99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KU99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KV99" t="n">
         <v>37</v>
       </c>
     </row>
@@ -87849,7 +93195,61 @@
       <c r="KC100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KD100" t="n">
+      <c r="KD100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -88723,7 +94123,61 @@
       <c r="KC101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD101" t="n">
+      <c r="KD101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -89597,7 +95051,61 @@
       <c r="KC102" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KD102" t="n">
+      <c r="KD102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KE102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KF102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KG102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KH102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KI102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KJ102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KK102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KL102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KM102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KN102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KO102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KP102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KQ102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KR102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KS102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KT102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KU102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KV102" t="n">
         <v>100</v>
       </c>
     </row>

--- a/django_AFL_ML/Data/Geelong_stats.xlsx
+++ b/django_AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KV102"/>
+  <dimension ref="A1:KZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1377,7 +1377,19 @@
       <c r="KU1" s="2" t="n">
         <v>10748</v>
       </c>
-      <c r="KV1" t="n">
+      <c r="KV1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KW1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KX1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KY1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KZ1" t="n">
         <v>10748</v>
       </c>
     </row>
@@ -2305,7 +2317,19 @@
       <c r="KU2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="KV2" t="n">
+      <c r="KV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KW2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KX2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KY2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KZ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3233,7 +3257,19 @@
       <c r="KU3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KV3" t="n">
+      <c r="KV3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KW3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KX3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KY3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KZ3" t="n">
         <v>27</v>
       </c>
     </row>
@@ -4161,7 +4197,19 @@
       <c r="KU4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV4" t="n">
+      <c r="KV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5089,7 +5137,19 @@
       <c r="KU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV5" t="n">
+      <c r="KV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6017,7 +6077,19 @@
       <c r="KU6" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="KV6" t="n">
+      <c r="KV6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KW6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KX6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KY6" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KZ6" t="n">
         <v>120</v>
       </c>
     </row>
@@ -6945,7 +7017,19 @@
       <c r="KU7" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KV7" t="n">
+      <c r="KV7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KW7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KX7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KY7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KZ7" t="n">
         <v>49</v>
       </c>
     </row>
@@ -7873,7 +7957,19 @@
       <c r="KU8" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KV8" t="n">
+      <c r="KV8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KW8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KX8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KY8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KZ8" t="n">
         <v>71</v>
       </c>
     </row>
@@ -8801,7 +8897,19 @@
       <c r="KU9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV9" t="n">
+      <c r="KV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9729,7 +9837,19 @@
       <c r="KU10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KV10" t="n">
+      <c r="KV10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KW10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KX10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KY10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KZ10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10657,7 +10777,19 @@
       <c r="KU11" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="KV11" t="n">
+      <c r="KV11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KW11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KX11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KY11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KZ11" t="n">
         <v>209</v>
       </c>
     </row>
@@ -11585,7 +11717,19 @@
       <c r="KU12" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KV12" t="n">
+      <c r="KV12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KW12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KX12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KY12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KZ12" t="n">
         <v>152</v>
       </c>
     </row>
@@ -12513,7 +12657,19 @@
       <c r="KU13" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="KV13" t="n">
+      <c r="KV13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KW13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KX13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KY13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KZ13" t="n">
         <v>361</v>
       </c>
     </row>
@@ -13441,7 +13597,19 @@
       <c r="KU14" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="KV14" t="n">
+      <c r="KV14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KW14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KX14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KY14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KZ14" t="n">
         <v>1.38</v>
       </c>
     </row>
@@ -14369,7 +14537,19 @@
       <c r="KU15" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="KV15" t="n">
+      <c r="KV15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KW15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KX15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KY15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KZ15" t="n">
         <v>102</v>
       </c>
     </row>
@@ -15297,7 +15477,19 @@
       <c r="KU16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KV16" t="n">
+      <c r="KV16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KW16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KX16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KY16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KZ16" t="n">
         <v>65</v>
       </c>
     </row>
@@ -16225,7 +16417,19 @@
       <c r="KU17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KV17" t="n">
+      <c r="KV17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KW17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KX17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KY17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KZ17" t="n">
         <v>41</v>
       </c>
     </row>
@@ -17153,7 +17357,19 @@
       <c r="KU18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KV18" t="n">
+      <c r="KV18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KW18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KX18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KY18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KZ18" t="n">
         <v>13</v>
       </c>
     </row>
@@ -18081,7 +18297,19 @@
       <c r="KU19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KV19" t="n">
+      <c r="KV19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KW19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KX19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KY19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KZ19" t="n">
         <v>22</v>
       </c>
     </row>
@@ -19009,7 +19237,19 @@
       <c r="KU20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KV20" t="n">
+      <c r="KV20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KW20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KX20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KY20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KZ20" t="n">
         <v>18</v>
       </c>
     </row>
@@ -19937,7 +20177,19 @@
       <c r="KU21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV21" t="n">
+      <c r="KV21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KW21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KX21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KY21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KZ21" t="n">
         <v>14</v>
       </c>
     </row>
@@ -20865,7 +21117,19 @@
       <c r="KU22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KV22" t="n">
+      <c r="KV22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KW22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KX22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KY22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KZ22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -21793,7 +22057,19 @@
       <c r="KU23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KV23" t="n">
+      <c r="KV23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KW23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KX23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KY23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KZ23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22721,7 +22997,19 @@
       <c r="KU24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KV24" t="n">
+      <c r="KV24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KW24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KX24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KY24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KZ24" t="n">
         <v>30</v>
       </c>
     </row>
@@ -23649,7 +23937,19 @@
       <c r="KU25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KV25" t="n">
+      <c r="KV25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KW25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KX25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KY25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KZ25" t="n">
         <v>60</v>
       </c>
     </row>
@@ -24577,7 +24877,19 @@
       <c r="KU26" s="2" t="n">
         <v>20.06</v>
       </c>
-      <c r="KV26" t="n">
+      <c r="KV26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KW26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KX26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KY26" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KZ26" t="n">
         <v>20.06</v>
       </c>
     </row>
@@ -25505,7 +25817,19 @@
       <c r="KU27" s="2" t="n">
         <v>12.03</v>
       </c>
-      <c r="KV27" t="n">
+      <c r="KV27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KW27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KX27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KY27" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KZ27" t="n">
         <v>12.03</v>
       </c>
     </row>
@@ -26433,7 +26757,19 @@
       <c r="KU28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KV28" t="n">
+      <c r="KV28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KW28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KX28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KY28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KZ28" t="n">
         <v>37</v>
       </c>
     </row>
@@ -27361,7 +27697,19 @@
       <c r="KU29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KV29" t="n">
+      <c r="KV29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KW29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KX29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KY29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KZ29" t="n">
         <v>55</v>
       </c>
     </row>
@@ -28289,7 +28637,19 @@
       <c r="KU30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KV30" t="n">
+      <c r="KV30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KW30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KX30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KY30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KZ30" t="n">
         <v>38</v>
       </c>
     </row>
@@ -29217,7 +29577,19 @@
       <c r="KU31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KV31" t="n">
+      <c r="KV31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KW31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KX31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KY31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KZ31" t="n">
         <v>59</v>
       </c>
     </row>
@@ -30145,7 +30517,19 @@
       <c r="KU32" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="KV32" t="n">
+      <c r="KV32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KW32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KX32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KY32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KZ32" t="n">
         <v>1.97</v>
       </c>
     </row>
@@ -31073,7 +31457,19 @@
       <c r="KU33" s="2" t="n">
         <v>3.28</v>
       </c>
-      <c r="KV33" t="n">
+      <c r="KV33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KW33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KX33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KY33" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KZ33" t="n">
         <v>3.28</v>
       </c>
     </row>
@@ -32001,7 +32397,19 @@
       <c r="KU34" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="KV34" t="n">
+      <c r="KV34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KW34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KX34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KY34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KZ34" t="n">
         <v>47.5</v>
       </c>
     </row>
@@ -32929,7 +33337,19 @@
       <c r="KU35" s="2" t="n">
         <v>30.5</v>
       </c>
-      <c r="KV35" t="n">
+      <c r="KV35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KW35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KX35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KY35" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KZ35" t="n">
         <v>30.5</v>
       </c>
     </row>
@@ -33857,7 +34277,19 @@
       <c r="KU36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="KV36" t="n">
+      <c r="KV36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KW36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KX36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KY36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KZ36" t="n">
         <v>188.9</v>
       </c>
     </row>
@@ -34785,7 +35217,19 @@
       <c r="KU37" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KV37" t="n">
+      <c r="KV37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KW37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KX37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KY37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KZ37" t="n">
         <v>88</v>
       </c>
     </row>
@@ -35713,7 +36157,19 @@
       <c r="KU38" s="2" t="n">
         <v>28.33</v>
       </c>
-      <c r="KV38" t="n">
+      <c r="KV38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KW38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KX38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KY38" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KZ38" t="n">
         <v>28.33</v>
       </c>
     </row>
@@ -36641,7 +37097,19 @@
       <c r="KU39" s="2" t="n">
         <v>163.1</v>
       </c>
-      <c r="KV39" t="n">
+      <c r="KV39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KW39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KX39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KY39" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KZ39" t="n">
         <v>163.1</v>
       </c>
     </row>
@@ -37569,7 +38037,19 @@
       <c r="KU40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KV40" t="n">
+      <c r="KV40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KW40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KX40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KY40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KZ40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -38497,7 +38977,19 @@
       <c r="KU41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV41" t="n">
+      <c r="KV41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KW41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KX41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KY41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KZ41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39425,7 +39917,19 @@
       <c r="KU42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KV42" t="n">
+      <c r="KV42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KW42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KX42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KY42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KZ42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -40353,7 +40857,19 @@
       <c r="KU43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KV43" t="n">
+      <c r="KV43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KW43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KX43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KY43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KZ43" t="n">
         <v>13</v>
       </c>
     </row>
@@ -41281,7 +41797,19 @@
       <c r="KU44" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KV44" t="n">
+      <c r="KV44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KW44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KX44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KY44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KZ44" t="n">
         <v>125</v>
       </c>
     </row>
@@ -42209,7 +42737,19 @@
       <c r="KU45" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KV45" t="n">
+      <c r="KV45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KW45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KX45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KY45" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KZ45" t="n">
         <v>230</v>
       </c>
     </row>
@@ -43137,7 +43677,19 @@
       <c r="KU46" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="KV46" t="n">
+      <c r="KV46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KW46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KX46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KY46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KZ46" t="n">
         <v>274</v>
       </c>
     </row>
@@ -44065,7 +44617,19 @@
       <c r="KU47" s="2" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="KV47" t="n">
+      <c r="KV47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KW47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KX47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KY47" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KZ47" t="n">
         <v>75.90000000000001</v>
       </c>
     </row>
@@ -44993,7 +45557,19 @@
       <c r="KU48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KV48" t="n">
+      <c r="KV48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KW48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KX48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KY48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KZ48" t="n">
         <v>55</v>
       </c>
     </row>
@@ -45921,7 +46497,19 @@
       <c r="KU49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KV49" t="n">
+      <c r="KV49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KW49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KX49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KY49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KZ49" t="n">
         <v>15</v>
       </c>
     </row>
@@ -46849,7 +47437,19 @@
       <c r="KU50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KV50" t="n">
+      <c r="KV50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KW50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KX50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KY50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KZ50" t="n">
         <v>15</v>
       </c>
     </row>
@@ -47777,7 +48377,19 @@
       <c r="KU51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KV51" t="n">
+      <c r="KV51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KW51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KX51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KY51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KZ51" t="n">
         <v>37</v>
       </c>
     </row>
@@ -48705,7 +49317,19 @@
       <c r="KU52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KV52" t="n">
+      <c r="KV52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KW52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KX52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KY52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KZ52" t="n">
         <v>38</v>
       </c>
     </row>
@@ -49633,7 +50257,19 @@
       <c r="KU53" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KV53" t="n">
+      <c r="KV53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KW53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KX53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KY53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KZ53" t="n">
         <v>48</v>
       </c>
     </row>
@@ -50561,7 +51197,19 @@
       <c r="KU54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV54" t="n">
+      <c r="KV54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KW54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KX54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KY54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KZ54" t="n">
         <v>8</v>
       </c>
     </row>
@@ -51489,7 +52137,19 @@
       <c r="KU55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV55" t="n">
+      <c r="KV55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KW55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KX55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KY55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KZ55" t="n">
         <v>14</v>
       </c>
     </row>
@@ -52417,7 +53077,19 @@
       <c r="KU56" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KV56" t="n">
+      <c r="KV56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KW56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KX56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KY56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KZ56" t="n">
         <v>77.8</v>
       </c>
     </row>
@@ -53345,7 +54017,19 @@
       <c r="KU57" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="KV57" t="n">
+      <c r="KV57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KW57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KX57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KY57" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KZ57" t="n">
         <v>197</v>
       </c>
     </row>
@@ -54273,7 +54957,19 @@
       <c r="KU58" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="KV58" t="n">
+      <c r="KV58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KW58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KX58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KY58" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KZ58" t="n">
         <v>99</v>
       </c>
     </row>
@@ -55201,7 +55897,19 @@
       <c r="KU59" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="KV59" t="n">
+      <c r="KV59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KW59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KX59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KY59" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KZ59" t="n">
         <v>296</v>
       </c>
     </row>
@@ -56129,7 +56837,19 @@
       <c r="KU60" s="2" t="n">
         <v>1.99</v>
       </c>
-      <c r="KV60" t="n">
+      <c r="KV60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KW60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KX60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KY60" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KZ60" t="n">
         <v>1.99</v>
       </c>
     </row>
@@ -57057,7 +57777,19 @@
       <c r="KU61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KV61" t="n">
+      <c r="KV61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KW61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KX61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KY61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KZ61" t="n">
         <v>88</v>
       </c>
     </row>
@@ -57985,7 +58717,19 @@
       <c r="KU62" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KV62" t="n">
+      <c r="KV62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KW62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KX62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KY62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KZ62" t="n">
         <v>68</v>
       </c>
     </row>
@@ -58913,7 +59657,19 @@
       <c r="KU63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KV63" t="n">
+      <c r="KV63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KW63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KX63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KY63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KZ63" t="n">
         <v>41</v>
       </c>
     </row>
@@ -59841,7 +60597,19 @@
       <c r="KU64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KV64" t="n">
+      <c r="KV64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KW64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KX64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KY64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KZ64" t="n">
         <v>22</v>
       </c>
     </row>
@@ -60769,7 +61537,19 @@
       <c r="KU65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KV65" t="n">
+      <c r="KV65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KW65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KX65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KY65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KZ65" t="n">
         <v>13</v>
       </c>
     </row>
@@ -61697,7 +62477,19 @@
       <c r="KU66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV66" t="n">
+      <c r="KV66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KW66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KX66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KY66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KZ66" t="n">
         <v>7</v>
       </c>
     </row>
@@ -62625,7 +63417,19 @@
       <c r="KU67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV67" t="n">
+      <c r="KV67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KW67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KX67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KY67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KZ67" t="n">
         <v>7</v>
       </c>
     </row>
@@ -63553,7 +64357,19 @@
       <c r="KU68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV68" t="n">
+      <c r="KV68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KW68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KX68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KY68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KZ68" t="n">
         <v>7</v>
       </c>
     </row>
@@ -64481,7 +65297,19 @@
       <c r="KU69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV69" t="n">
+      <c r="KV69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65409,7 +66237,19 @@
       <c r="KU70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV70" t="n">
+      <c r="KV70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KW70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KX70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KY70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KZ70" t="n">
         <v>14</v>
       </c>
     </row>
@@ -66337,7 +67177,19 @@
       <c r="KU71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KV71" t="n">
+      <c r="KV71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KW71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KX71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KY71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KZ71" t="n">
         <v>50</v>
       </c>
     </row>
@@ -67265,7 +68117,19 @@
       <c r="KU72" s="2" t="n">
         <v>42.29</v>
       </c>
-      <c r="KV72" t="n">
+      <c r="KV72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KW72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KX72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KY72" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KZ72" t="n">
         <v>42.29</v>
       </c>
     </row>
@@ -68193,7 +69057,19 @@
       <c r="KU73" s="2" t="n">
         <v>21.14</v>
       </c>
-      <c r="KV73" t="n">
+      <c r="KV73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KW73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KX73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KY73" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KZ73" t="n">
         <v>21.14</v>
       </c>
     </row>
@@ -69121,7 +69997,19 @@
       <c r="KU74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KV74" t="n">
+      <c r="KV74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KW74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KX74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KY74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KZ74" t="n">
         <v>40</v>
       </c>
     </row>
@@ -70049,7 +70937,19 @@
       <c r="KU75" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KV75" t="n">
+      <c r="KV75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KW75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KX75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KY75" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KZ75" t="n">
         <v>50</v>
       </c>
     </row>
@@ -70977,7 +71877,19 @@
       <c r="KU76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KV76" t="n">
+      <c r="KV76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KW76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KX76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KY76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KZ76" t="n">
         <v>41</v>
       </c>
     </row>
@@ -71905,7 +72817,19 @@
       <c r="KU77" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KV77" t="n">
+      <c r="KV77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KW77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KX77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KY77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KZ77" t="n">
         <v>46</v>
       </c>
     </row>
@@ -72833,7 +73757,19 @@
       <c r="KU78" s="2" t="n">
         <v>3.29</v>
       </c>
-      <c r="KV78" t="n">
+      <c r="KV78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KW78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KX78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KY78" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KZ78" t="n">
         <v>3.29</v>
       </c>
     </row>
@@ -73761,7 +74697,19 @@
       <c r="KU79" s="2" t="n">
         <v>6.57</v>
       </c>
-      <c r="KV79" t="n">
+      <c r="KV79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KW79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KX79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KY79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KZ79" t="n">
         <v>6.57</v>
       </c>
     </row>
@@ -74689,7 +75637,19 @@
       <c r="KU80" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="KV80" t="n">
+      <c r="KV80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KW80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KX80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KY80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KZ80" t="n">
         <v>30.4</v>
       </c>
     </row>
@@ -75617,7 +76577,19 @@
       <c r="KU81" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="KV81" t="n">
+      <c r="KV81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KW81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KX81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KY81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KZ81" t="n">
         <v>15.2</v>
       </c>
     </row>
@@ -76545,7 +77517,19 @@
       <c r="KU82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KV82" t="n">
+      <c r="KV82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KW82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KX82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KY82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KZ82" t="n">
         <v>187.9</v>
       </c>
     </row>
@@ -77473,7 +78457,19 @@
       <c r="KU83" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="KV83" t="n">
+      <c r="KV83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KW83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KX83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KY83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KZ83" t="n">
         <v>87.8</v>
       </c>
     </row>
@@ -78401,7 +79397,19 @@
       <c r="KU84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KV84" t="n">
+      <c r="KV84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KW84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KX84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KY84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KZ84" t="n">
         <v>25.66</v>
       </c>
     </row>
@@ -79329,7 +80337,19 @@
       <c r="KU85" s="2" t="n">
         <v>116.6</v>
       </c>
-      <c r="KV85" t="n">
+      <c r="KV85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KW85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KX85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KY85" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KZ85" t="n">
         <v>116.6</v>
       </c>
     </row>
@@ -80257,7 +81277,19 @@
       <c r="KU86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV86" t="n">
+      <c r="KV86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KW86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KX86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KY86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KZ86" t="n">
         <v>4</v>
       </c>
     </row>
@@ -81185,7 +82217,19 @@
       <c r="KU87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV87" t="n">
+      <c r="KV87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KW87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KX87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KY87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KZ87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -82113,7 +83157,19 @@
       <c r="KU88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KV88" t="n">
+      <c r="KV88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KX88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KY88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KZ88" t="n">
         <v>6</v>
       </c>
     </row>
@@ -83041,7 +84097,19 @@
       <c r="KU89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV89" t="n">
+      <c r="KV89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KW89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KX89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KY89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KZ89" t="n">
         <v>8</v>
       </c>
     </row>
@@ -83969,7 +85037,19 @@
       <c r="KU90" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="KV90" t="n">
+      <c r="KV90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KW90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KX90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KY90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KZ90" t="n">
         <v>117</v>
       </c>
     </row>
@@ -84897,7 +85977,19 @@
       <c r="KU91" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="KV91" t="n">
+      <c r="KV91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KW91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KX91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KY91" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KZ91" t="n">
         <v>177</v>
       </c>
     </row>
@@ -85825,7 +86917,19 @@
       <c r="KU92" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="KV92" t="n">
+      <c r="KV92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KW92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KX92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KY92" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KZ92" t="n">
         <v>200</v>
       </c>
     </row>
@@ -86753,7 +87857,19 @@
       <c r="KU93" s="2" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="KV93" t="n">
+      <c r="KV93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KW93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KX93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KY93" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KZ93" t="n">
         <v>67.59999999999999</v>
       </c>
     </row>
@@ -87681,7 +88797,19 @@
       <c r="KU94" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KV94" t="n">
+      <c r="KV94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KW94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KX94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KY94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KZ94" t="n">
         <v>50</v>
       </c>
     </row>
@@ -88609,7 +89737,19 @@
       <c r="KU95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV95" t="n">
+      <c r="KV95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KW95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KX95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KY95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KZ95" t="n">
         <v>8</v>
       </c>
     </row>
@@ -89537,7 +90677,19 @@
       <c r="KU96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV96" t="n">
+      <c r="KV96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KW96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KX96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KY96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KZ96" t="n">
         <v>11</v>
       </c>
     </row>
@@ -90465,7 +91617,19 @@
       <c r="KU97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KV97" t="n">
+      <c r="KV97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KW97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KX97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KY97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KZ97" t="n">
         <v>40</v>
       </c>
     </row>
@@ -91393,7 +92557,19 @@
       <c r="KU98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KV98" t="n">
+      <c r="KV98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KW98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KX98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KY98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KZ98" t="n">
         <v>41</v>
       </c>
     </row>
@@ -92321,7 +93497,19 @@
       <c r="KU99" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KV99" t="n">
+      <c r="KV99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KW99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KX99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KY99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KZ99" t="n">
         <v>37</v>
       </c>
     </row>
@@ -93249,7 +94437,19 @@
       <c r="KU100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV100" t="n">
+      <c r="KV100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -94177,7 +95377,19 @@
       <c r="KU101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV101" t="n">
+      <c r="KV101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KW101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KX101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KY101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KZ101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -95105,7 +96317,19 @@
       <c r="KU102" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KV102" t="n">
+      <c r="KV102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KW102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KX102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KY102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KZ102" t="n">
         <v>100</v>
       </c>
     </row>
